--- a/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
+++ b/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7946D9-130F-40CB-9F70-B269EC9D203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B756CBC5-989D-45D9-8C26-39D3CBEEB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="58">
   <si>
     <t>Sistema RPG de pontuação</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Nível de conhecimento</t>
+  </si>
+  <si>
+    <t>Cleber Silva de Oliveira</t>
+  </si>
+  <si>
+    <t>Sergio Rodrigues Lima</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202746E6-1C35-43AB-B45A-D53CDC81F392}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,13 +782,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
@@ -791,14 +797,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -987,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="13">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="13">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="13">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,13 +1664,13 @@
       </c>
       <c r="C57" s="5">
         <f>IF(E57&lt;10,1,IF(E57&lt;20,2,IF(E57&lt;30,3,IF(E57&lt;40,4,IF(E57&lt;50,5,IF(E57&lt;60,6,IF(E57&lt;70,7,IF(E57&lt;80,8,IF(E57&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="14">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="13">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,13 +2042,13 @@
       </c>
       <c r="C81" s="5">
         <f>IF(E81&lt;10,1,IF(E81&lt;20,2,IF(E81&lt;30,3,IF(E81&lt;40,4,IF(E81&lt;50,5,IF(E81&lt;60,6,IF(E81&lt;70,7,IF(E81&lt;80,8,IF(E81&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="14">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,13 +2105,13 @@
       </c>
       <c r="C85" s="5">
         <f>IF(E85&lt;10,1,IF(E85&lt;20,2,IF(E85&lt;30,3,IF(E85&lt;40,4,IF(E85&lt;50,5,IF(E85&lt;60,6,IF(E85&lt;70,7,IF(E85&lt;80,8,IF(E85&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="14">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,7 +2757,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,7 +2820,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,7 +2867,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,13 +2924,13 @@
       </c>
       <c r="C137" s="5">
         <f>IF(E137&lt;10,1,IF(E137&lt;20,2,IF(E137&lt;30,3,IF(E137&lt;40,4,IF(E137&lt;50,5,IF(E137&lt;60,6,IF(E137&lt;70,7,IF(E137&lt;80,8,IF(E137&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E137" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="14">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="E140" s="13">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,7 +3135,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="E153" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3192,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="E154" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="E156" s="13">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3302,7 +3308,7 @@
         <v>4</v>
       </c>
       <c r="E161" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3365,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="E165" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3412,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="E168" s="13">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="E169" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,7 +3450,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,7 +3521,7 @@
         <v>44</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C175" s="17"/>
       <c r="D175" s="8" t="s">
@@ -3554,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,63 +3576,166 @@
         <v>5</v>
       </c>
       <c r="E178" s="14">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="18">
+        <v>45</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="17"/>
+      <c r="D179" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="5" t="str">
+        <f>$G$1</f>
+        <v>Dev Front-End</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="5">
+        <f>IF(E181&lt;10,1,IF(E181&lt;20,2,IF(E181&lt;30,3,IF(E181&lt;40,4,IF(E181&lt;50,5,IF(E181&lt;60,6,IF(E181&lt;70,7,IF(E181&lt;80,8,IF(E181&lt;90,9,10)))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="11" t="str">
+        <f>IF(OR(E179=0,E180=0),"Morto",CONCATENATE(IF(E179&gt;=20,"Saudável",IF(E179&gt;=10,"Ferido","Morrendo"))," - ",IF(E180&gt;=25,"Forte",IF(E180&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="18">
+        <v>46</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="17"/>
+      <c r="D183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="5" t="str">
+        <f>$G$1</f>
+        <v>Dev Front-End</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="5">
+        <f>IF(E185&lt;10,1,IF(E185&lt;20,2,IF(E185&lt;30,3,IF(E185&lt;40,4,IF(E185&lt;50,5,IF(E185&lt;60,6,IF(E185&lt;70,7,IF(E185&lt;80,8,IF(E185&lt;90,9,10)))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="18"/>
+      <c r="B186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="11" t="str">
+        <f>IF(OR(E183=0,E184=0),"Morto",CONCATENATE(IF(E183&gt;=20,"Saudável",IF(E183&gt;=10,"Ferido","Morrendo"))," - ",IF(E184&gt;=25,"Forte",IF(E184&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" selectLockedCells="1"/>
-  <mergeCells count="91">
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="A151:A154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
+  <mergeCells count="95">
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A1:E1"/>
@@ -3643,34 +3752,61 @@
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A115:A118"/>
     <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B167:C167"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="dataBar" priority="1868">
+    <cfRule type="dataBar" priority="1876">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3684,7 +3820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="1867">
+    <cfRule type="dataBar" priority="1875">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3698,7 +3834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="dataBar" priority="1866">
+    <cfRule type="dataBar" priority="1874">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3712,7 +3848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="dataBar" priority="1865">
+    <cfRule type="dataBar" priority="1873">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3726,7 +3862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="dataBar" priority="184">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3740,7 +3876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="dataBar" priority="183">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3754,7 +3890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3768,7 +3904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3782,7 +3918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="dataBar" priority="180">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3796,7 +3932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3810,7 +3946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3824,7 +3960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3838,7 +3974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3852,7 +3988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3866,7 +4002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3880,7 +4016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3894,7 +4030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3908,7 +4044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3922,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3936,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3950,7 +4086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -3964,7 +4100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -3978,7 +4114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3992,7 +4128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="165">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4006,7 +4142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4020,7 +4156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4034,7 +4170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="162">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4048,7 +4184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4062,7 +4198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4076,7 +4212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4090,7 +4226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="158">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4104,7 +4240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4118,7 +4254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4132,7 +4268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4146,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4160,7 +4296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4174,7 +4310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4188,7 +4324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4202,7 +4338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4216,7 +4352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4230,7 +4366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4244,7 +4380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4258,7 +4394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4272,7 +4408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4286,7 +4422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4300,7 +4436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4314,7 +4450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4328,7 +4464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4342,7 +4478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4356,7 +4492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="dataBar" priority="139">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4370,7 +4506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="dataBar" priority="138">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4384,7 +4520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="dataBar" priority="137">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4398,7 +4534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="dataBar" priority="136">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4412,7 +4548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4426,7 +4562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4440,7 +4576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4454,7 +4590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4468,7 +4604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4482,7 +4618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4496,7 +4632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4510,7 +4646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4524,7 +4660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4538,7 +4674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4552,7 +4688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4566,7 +4702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4580,7 +4716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4594,7 +4730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4608,7 +4744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4622,7 +4758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4636,7 +4772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4650,7 +4786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4664,7 +4800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4678,7 +4814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4692,7 +4828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4706,7 +4842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4720,7 +4856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4734,7 +4870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4748,7 +4884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4762,7 +4898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4776,7 +4912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4790,7 +4926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4804,7 +4940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4818,7 +4954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4832,7 +4968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4846,7 +4982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4860,7 +4996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4874,7 +5010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4888,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4902,7 +5038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4916,7 +5052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4930,7 +5066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4944,7 +5080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -4958,7 +5094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -4972,7 +5108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -4986,7 +5122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5000,7 +5136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5014,7 +5150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5028,7 +5164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5042,7 +5178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5056,7 +5192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5070,7 +5206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5084,7 +5220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5098,7 +5234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5112,7 +5248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5126,7 +5262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5140,7 +5276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5154,7 +5290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5168,7 +5304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5182,7 +5318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5196,7 +5332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5210,7 +5346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5224,7 +5360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5238,7 +5374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5252,7 +5388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5266,7 +5402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5280,7 +5416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5294,7 +5430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5308,7 +5444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5322,7 +5458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5336,7 +5472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5350,7 +5486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="dataBar" priority="68">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5364,7 +5500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5378,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5392,7 +5528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5406,7 +5542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5420,7 +5556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5434,7 +5570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5448,7 +5584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5462,7 +5598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5476,7 +5612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5490,7 +5626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5504,7 +5640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5518,7 +5654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5532,7 +5668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5546,7 +5682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5560,7 +5696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5574,7 +5710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5588,7 +5724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5602,7 +5738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5616,7 +5752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5630,7 +5766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5644,7 +5780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5658,7 +5794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5672,7 +5808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5686,7 +5822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5700,7 +5836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5714,7 +5850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5728,7 +5864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5742,7 +5878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5756,7 +5892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5770,7 +5906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5784,7 +5920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5798,7 +5934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5812,7 +5948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5826,7 +5962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5840,7 +5976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5854,7 +5990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5868,7 +6004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5882,7 +6018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5896,7 +6032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5910,7 +6046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5924,7 +6060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5938,7 +6074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5952,7 +6088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -5966,7 +6102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -5980,7 +6116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -5994,7 +6130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6008,7 +6144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6022,7 +6158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -6036,7 +6172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -6050,7 +6186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6064,7 +6200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6078,7 +6214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -6092,7 +6228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -6106,7 +6242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6120,7 +6256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6133,14 +6269,126 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="31"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{925360AD-74F6-4F97-BE49-108BF499EF47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="51"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EC0E5744-9E64-4F97-8A4B-DE67C8AEBCC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="7"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B3CCC7C-B08E-4534-955E-A21671386ABF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A158EC58-8FE9-4772-8D56-BB23133175D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="31"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{40542208-B07B-405F-A832-F92DC652C718}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="51"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF6D6E0E-02B2-4366-A6DE-6966A987DF18}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E185">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="7"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6C21BAF-AA27-4986-A8DA-0EA20E34A0A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E186">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB353A85-6E47-4F03-90DD-78F7E4096367}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E41:E43 E53:E55 E37:E39 E61:E63 E45:E47 E21:E23 E33:E35 E5:E7 E29:E31 E49:E51 E57:E59 E13:E15 E17:E19 E25:E27 E9:E11 E65:E67 E105:E107 E117:E119 E101:E103 E125:E127 E109:E111 E85:E87 E97:E99 E69:E71 E93:E95 E113:E115 E121:E123 E77:E79 E81:E83 E89:E91 E73:E75 E129:E131 E133:E135 E137:E139 E141:E143 E145:E147 E149:E151 E153:E155 E157:E159 E161:E163 E165:E167 E169:E171 E173:E175 E177:E178" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E41:E43 E53:E55 E37:E39 E61:E63 E45:E47 E21:E23 E33:E35 E5:E7 E29:E31 E49:E51 E57:E59 E13:E15 E17:E19 E25:E27 E9:E11 E65:E67 E105:E107 E117:E119 E101:E103 E125:E127 E109:E111 E85:E87 E97:E99 E69:E71 E93:E95 E113:E115 E121:E123 E77:E79 E81:E83 E89:E91 E73:E75 E129:E131 E133:E135 E137:E139 E141:E143 E145:E147 E149:E151 E153:E155 E157:E159 E161:E163 E165:E167 E169:E171 E173:E175 E177:E179 E181:E183 E185:E186" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{880A8014-30DB-4106-B469-4871D04DE643}">
       <formula1>"Operador de micro,Dev Front-End,Dev Back-End,Dev Java,Dev C#,Dev Mobile,Técnico"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E36 E40 E52 E56 E60 E64 E8 E20 E24 E28 E32 E44 E48 E12 E16 E68 E100 E104 E116 E120 E124 E128 E72 E84 E88 E92 E96 E108 E112 E76 E80 E132 E136 E140 E144 E148 E152 E156 E160 E164 E168 E172 E176" xr:uid="{73656AB2-892F-4B99-81E2-4B0C16F87002}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E36 E40 E52 E56 E60 E64 E8 E20 E24 E28 E32 E44 E48 E12 E16 E68 E100 E104 E116 E120 E124 E128 E72 E84 E88 E92 E96 E108 E112 E76 E80 E132 E136 E140 E144 E148 E152 E156 E160 E164 E168 E172 E176 E180 E184" xr:uid="{73656AB2-892F-4B99-81E2-4B0C16F87002}">
       <formula1>0</formula1>
       <formula2>51</formula2>
     </dataValidation>
@@ -8966,6 +9214,134 @@
           </x14:cfRule>
           <xm:sqref>E178</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{925360AD-74F6-4F97-BE49-108BF499EF47}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E179</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EC0E5744-9E64-4F97-8A4B-DE67C8AEBCC4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E180</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B3CCC7C-B08E-4534-955E-A21671386ABF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E181</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A158EC58-8FE9-4772-8D56-BB23133175D6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E182</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{40542208-B07B-405F-A832-F92DC652C718}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E183</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF6D6E0E-02B2-4366-A6DE-6966A987DF18}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E184</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6C21BAF-AA27-4986-A8DA-0EA20E34A0A6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E185</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB353A85-6E47-4F03-90DD-78F7E4096367}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E186</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
+++ b/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3938D3DE-6493-48EF-B85E-8D72301B6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3158E-0272-448C-8C72-CCE4CCD0BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -742,14 +742,8 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -758,9 +752,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -773,7 +764,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1093,10 @@
   <dimension ref="A1:BE277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV286" sqref="AV286"/>
+      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,31 +1112,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="39"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="25">
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="BE3" s="21"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="BE4" s="22"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E5" s="10">
         <f>SUM(H3:BE5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="29" t="s">
@@ -1472,7 +1472,9 @@
       <c r="H5" s="23">
         <v>1</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
       <c r="J5" s="23">
         <v>1</v>
       </c>
@@ -1525,7 +1527,7 @@
       <c r="BE5" s="23"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1540,7 @@
       </c>
       <c r="E6" s="10">
         <f>E5+SUM(H6:BE6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="30" t="s">
@@ -1596,7 +1598,7 @@
       <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1614,64 +1616,64 @@
         <v>58</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="38">
         <v>2</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1694,9 @@
       <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="21">
+        <v>2</v>
+      </c>
       <c r="L8" s="21">
         <v>2</v>
       </c>
@@ -1745,7 +1749,7 @@
       <c r="BE8" s="21"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1826,7 @@
       <c r="BE9" s="22"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
@@ -1835,7 +1839,7 @@
       </c>
       <c r="E10" s="10">
         <f>SUM(H8:BE10)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="29" t="s">
@@ -1893,7 +1897,7 @@
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1910,7 @@
       </c>
       <c r="E11" s="10">
         <f>E10+SUM(H11:BE11)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="30" t="s">
@@ -1964,7 +1968,7 @@
       <c r="BE11" s="24"/>
     </row>
     <row r="12" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
@@ -1982,64 +1986,64 @@
         <v>58</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2107,7 +2111,7 @@
       <c r="BE13" s="21"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="BE14" s="22"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
@@ -2255,7 +2259,7 @@
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2330,7 @@
       <c r="BE16" s="24"/>
     </row>
     <row r="17" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2344,64 +2348,64 @@
         <v>58</v>
       </c>
       <c r="H17" s="26"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="38">
         <v>4</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2420,9 @@
       <c r="H18" s="21">
         <v>2</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -2467,7 +2473,7 @@
       <c r="BE18" s="21"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
@@ -2486,11 +2492,15 @@
       <c r="G19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
       <c r="I19" s="22">
         <v>1</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -2540,7 +2550,7 @@
       <c r="BE19" s="22"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
@@ -2553,7 +2563,7 @@
       </c>
       <c r="E20" s="10">
         <f>SUM(H18:BE20)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="29" t="s">
@@ -2611,7 +2621,7 @@
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2634,7 @@
       </c>
       <c r="E21" s="10">
         <f>E20+SUM(H21:BE21)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="30" t="s">
@@ -2682,7 +2692,7 @@
       <c r="BE21" s="24"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2702,64 +2712,64 @@
       <c r="H22" s="26">
         <v>3</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="41"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="38">
         <v>5</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
@@ -2786,7 +2796,9 @@
       <c r="L23" s="21">
         <v>2</v>
       </c>
-      <c r="M23" s="21"/>
+      <c r="M23" s="21">
+        <v>2</v>
+      </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -2833,7 +2845,7 @@
       <c r="BE23" s="21"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2922,7 @@
       <c r="BE24" s="22"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
@@ -2923,7 +2935,7 @@
       </c>
       <c r="E25" s="10">
         <f>SUM(H23:BE25)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="29" t="s">
@@ -2987,7 +2999,7 @@
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="E26" s="10">
         <f>E25+SUM(H26:BE26)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="30" t="s">
@@ -3058,7 +3070,7 @@
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
@@ -3076,64 +3088,64 @@
         <v>58</v>
       </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="38">
         <v>6</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="15" t="s">
         <v>3</v>
       </c>
@@ -3145,7 +3157,9 @@
       <c r="G28" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21">
         <v>2</v>
@@ -3205,7 +3219,7 @@
       <c r="BE28" s="21"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +3296,7 @@
       <c r="BE29" s="22"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
@@ -3295,7 +3309,7 @@
       </c>
       <c r="E30" s="10">
         <f>SUM(H28:BE30)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="29" t="s">
@@ -3353,7 +3367,7 @@
       <c r="BE30" s="23"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
@@ -3366,7 +3380,7 @@
       </c>
       <c r="E31" s="10">
         <f>E30+SUM(H31:BE31)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="30" t="s">
@@ -3424,7 +3438,7 @@
       <c r="BE31" s="24"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3444,76 +3458,78 @@
       <c r="H32" s="26">
         <v>6</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="41"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="41"/>
-      <c r="BD32" s="41"/>
-      <c r="BE32" s="41"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32"/>
+      <c r="AY32" s="32"/>
+      <c r="AZ32" s="32"/>
+      <c r="BA32" s="32"/>
+      <c r="BB32" s="32"/>
+      <c r="BC32" s="32"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="32"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="38">
         <v>7</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="9">
         <f>C37+E37-COUNTIF(H33:BE33,1)-COUNTIF(H33:BE33,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -3565,7 +3581,7 @@
       <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>6</v>
       </c>
@@ -3578,7 +3594,7 @@
       </c>
       <c r="E34" s="10">
         <f>51-H37</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="28" t="s">
@@ -3642,7 +3658,7 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
@@ -3713,7 +3729,7 @@
       <c r="BE35" s="23"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="19" t="s">
         <v>7</v>
       </c>
@@ -3784,7 +3800,7 @@
       <c r="BE36" s="24"/>
     </row>
     <row r="37" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3801,65 +3817,67 @@
       <c r="G37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="41"/>
-      <c r="BD37" s="41"/>
-      <c r="BE37" s="41"/>
+      <c r="H37" s="26">
+        <v>3</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="32"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="32"/>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="32"/>
+      <c r="BC37" s="32"/>
+      <c r="BD37" s="32"/>
+      <c r="BE37" s="32"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="38">
         <v>8</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="15" t="s">
         <v>3</v>
       </c>
@@ -3927,7 +3945,7 @@
       <c r="BE38" s="21"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
@@ -4004,7 +4022,7 @@
       <c r="BE39" s="22"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="18" t="s">
         <v>51</v>
       </c>
@@ -4075,7 +4093,7 @@
       <c r="BE40" s="23"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4164,7 @@
       <c r="BE41" s="24"/>
     </row>
     <row r="42" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>72</v>
       </c>
@@ -4164,64 +4182,64 @@
         <v>58</v>
       </c>
       <c r="H42" s="26"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="41"/>
-      <c r="AN42" s="41"/>
-      <c r="AO42" s="41"/>
-      <c r="AP42" s="41"/>
-      <c r="AQ42" s="41"/>
-      <c r="AR42" s="41"/>
-      <c r="AS42" s="41"/>
-      <c r="AT42" s="41"/>
-      <c r="AU42" s="41"/>
-      <c r="AV42" s="41"/>
-      <c r="AW42" s="41"/>
-      <c r="AX42" s="41"/>
-      <c r="AY42" s="41"/>
-      <c r="AZ42" s="41"/>
-      <c r="BA42" s="41"/>
-      <c r="BB42" s="41"/>
-      <c r="BC42" s="41"/>
-      <c r="BD42" s="41"/>
-      <c r="BE42" s="41"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="32"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="38">
         <v>9</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +4311,7 @@
       <c r="BE43" s="21"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="20" t="s">
         <v>6</v>
       </c>
@@ -4370,7 +4388,7 @@
       <c r="BE44" s="22"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
@@ -4443,7 +4461,7 @@
       <c r="BE45" s="23"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4532,7 @@
       <c r="BE46" s="24"/>
     </row>
     <row r="47" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
@@ -4532,64 +4550,64 @@
         <v>58</v>
       </c>
       <c r="H47" s="26"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="41"/>
-      <c r="AZ47" s="41"/>
-      <c r="BA47" s="41"/>
-      <c r="BB47" s="41"/>
-      <c r="BC47" s="41"/>
-      <c r="BD47" s="41"/>
-      <c r="BE47" s="41"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="32"/>
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+      <c r="BE47" s="32"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="38">
         <v>10</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4604,15 +4622,21 @@
       <c r="H48" s="21">
         <v>2</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="21">
+        <v>2</v>
+      </c>
       <c r="J48" s="21">
         <v>2</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="21">
+        <v>2</v>
+      </c>
       <c r="L48" s="21">
         <v>2</v>
       </c>
-      <c r="M48" s="21"/>
+      <c r="M48" s="21">
+        <v>2</v>
+      </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
@@ -4659,7 +4683,7 @@
       <c r="BE48" s="21"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>6</v>
       </c>
@@ -4736,20 +4760,20 @@
       <c r="BE49" s="22"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="5">
         <f>IF(E50&lt;10,1,IF(E50&lt;20,2,IF(E50&lt;30,3,IF(E50&lt;40,4,IF(E50&lt;50,5,IF(E50&lt;60,6,IF(E50&lt;70,7,IF(E50&lt;80,8,IF(E50&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="10">
         <f>SUM(H48:BE50)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="29" t="s">
@@ -4807,7 +4831,7 @@
       <c r="BE50" s="23"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="19" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4844,7 @@
       </c>
       <c r="E51" s="10">
         <f>E50+SUM(H51:BE51)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="30" t="s">
@@ -4878,7 +4902,7 @@
       <c r="BE51" s="24"/>
     </row>
     <row r="52" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>72</v>
       </c>
@@ -4896,64 +4920,64 @@
         <v>58</v>
       </c>
       <c r="H52" s="26"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="41"/>
-      <c r="AL52" s="41"/>
-      <c r="AM52" s="41"/>
-      <c r="AN52" s="41"/>
-      <c r="AO52" s="41"/>
-      <c r="AP52" s="41"/>
-      <c r="AQ52" s="41"/>
-      <c r="AR52" s="41"/>
-      <c r="AS52" s="41"/>
-      <c r="AT52" s="41"/>
-      <c r="AU52" s="41"/>
-      <c r="AV52" s="41"/>
-      <c r="AW52" s="41"/>
-      <c r="AX52" s="41"/>
-      <c r="AY52" s="41"/>
-      <c r="AZ52" s="41"/>
-      <c r="BA52" s="41"/>
-      <c r="BB52" s="41"/>
-      <c r="BC52" s="41"/>
-      <c r="BD52" s="41"/>
-      <c r="BE52" s="41"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="32"/>
+      <c r="AP52" s="32"/>
+      <c r="AQ52" s="32"/>
+      <c r="AR52" s="32"/>
+      <c r="AS52" s="32"/>
+      <c r="AT52" s="32"/>
+      <c r="AU52" s="32"/>
+      <c r="AV52" s="32"/>
+      <c r="AW52" s="32"/>
+      <c r="AX52" s="32"/>
+      <c r="AY52" s="32"/>
+      <c r="AZ52" s="32"/>
+      <c r="BA52" s="32"/>
+      <c r="BB52" s="32"/>
+      <c r="BC52" s="32"/>
+      <c r="BD52" s="32"/>
+      <c r="BE52" s="32"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+      <c r="A53" s="38">
         <v>11</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5025,7 +5049,7 @@
       <c r="BE53" s="21"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
         <v>6</v>
       </c>
@@ -5102,7 +5126,7 @@
       <c r="BE54" s="22"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5197,7 @@
       <c r="BE55" s="23"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="19" t="s">
         <v>7</v>
       </c>
@@ -5244,7 +5268,7 @@
       <c r="BE56" s="24"/>
     </row>
     <row r="57" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5262,64 +5286,64 @@
         <v>58</v>
       </c>
       <c r="H57" s="26"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="41"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="41"/>
-      <c r="AJ57" s="41"/>
-      <c r="AK57" s="41"/>
-      <c r="AL57" s="41"/>
-      <c r="AM57" s="41"/>
-      <c r="AN57" s="41"/>
-      <c r="AO57" s="41"/>
-      <c r="AP57" s="41"/>
-      <c r="AQ57" s="41"/>
-      <c r="AR57" s="41"/>
-      <c r="AS57" s="41"/>
-      <c r="AT57" s="41"/>
-      <c r="AU57" s="41"/>
-      <c r="AV57" s="41"/>
-      <c r="AW57" s="41"/>
-      <c r="AX57" s="41"/>
-      <c r="AY57" s="41"/>
-      <c r="AZ57" s="41"/>
-      <c r="BA57" s="41"/>
-      <c r="BB57" s="41"/>
-      <c r="BC57" s="41"/>
-      <c r="BD57" s="41"/>
-      <c r="BE57" s="41"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="32"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32"/>
+      <c r="AH57" s="32"/>
+      <c r="AI57" s="32"/>
+      <c r="AJ57" s="32"/>
+      <c r="AK57" s="32"/>
+      <c r="AL57" s="32"/>
+      <c r="AM57" s="32"/>
+      <c r="AN57" s="32"/>
+      <c r="AO57" s="32"/>
+      <c r="AP57" s="32"/>
+      <c r="AQ57" s="32"/>
+      <c r="AR57" s="32"/>
+      <c r="AS57" s="32"/>
+      <c r="AT57" s="32"/>
+      <c r="AU57" s="32"/>
+      <c r="AV57" s="32"/>
+      <c r="AW57" s="32"/>
+      <c r="AX57" s="32"/>
+      <c r="AY57" s="32"/>
+      <c r="AZ57" s="32"/>
+      <c r="BA57" s="32"/>
+      <c r="BB57" s="32"/>
+      <c r="BC57" s="32"/>
+      <c r="BD57" s="32"/>
+      <c r="BE57" s="32"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="A58" s="38">
         <v>12</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="15" t="s">
         <v>3</v>
       </c>
@@ -5385,7 +5409,7 @@
       <c r="BE58" s="21"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
@@ -5398,7 +5422,7 @@
       </c>
       <c r="E59" s="10">
         <f>51-H62</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="28" t="s">
@@ -5460,7 +5484,7 @@
       <c r="BE59" s="22"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="18" t="s">
         <v>51</v>
       </c>
@@ -5531,7 +5555,7 @@
       <c r="BE60" s="23"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5602,7 +5626,7 @@
       <c r="BE61" s="24"/>
     </row>
     <row r="62" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
@@ -5620,66 +5644,66 @@
         <v>58</v>
       </c>
       <c r="H62" s="26">
-        <v>6</v>
-      </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
-      <c r="AC62" s="41"/>
-      <c r="AD62" s="41"/>
-      <c r="AE62" s="41"/>
-      <c r="AF62" s="41"/>
-      <c r="AG62" s="41"/>
-      <c r="AH62" s="41"/>
-      <c r="AI62" s="41"/>
-      <c r="AJ62" s="41"/>
-      <c r="AK62" s="41"/>
-      <c r="AL62" s="41"/>
-      <c r="AM62" s="41"/>
-      <c r="AN62" s="41"/>
-      <c r="AO62" s="41"/>
-      <c r="AP62" s="41"/>
-      <c r="AQ62" s="41"/>
-      <c r="AR62" s="41"/>
-      <c r="AS62" s="41"/>
-      <c r="AT62" s="41"/>
-      <c r="AU62" s="41"/>
-      <c r="AV62" s="41"/>
-      <c r="AW62" s="41"/>
-      <c r="AX62" s="41"/>
-      <c r="AY62" s="41"/>
-      <c r="AZ62" s="41"/>
-      <c r="BA62" s="41"/>
-      <c r="BB62" s="41"/>
-      <c r="BC62" s="41"/>
-      <c r="BD62" s="41"/>
-      <c r="BE62" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="32"/>
+      <c r="AF62" s="32"/>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="32"/>
+      <c r="AK62" s="32"/>
+      <c r="AL62" s="32"/>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="32"/>
+      <c r="AP62" s="32"/>
+      <c r="AQ62" s="32"/>
+      <c r="AR62" s="32"/>
+      <c r="AS62" s="32"/>
+      <c r="AT62" s="32"/>
+      <c r="AU62" s="32"/>
+      <c r="AV62" s="32"/>
+      <c r="AW62" s="32"/>
+      <c r="AX62" s="32"/>
+      <c r="AY62" s="32"/>
+      <c r="AZ62" s="32"/>
+      <c r="BA62" s="32"/>
+      <c r="BB62" s="32"/>
+      <c r="BC62" s="32"/>
+      <c r="BD62" s="32"/>
+      <c r="BE62" s="32"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
+      <c r="A63" s="38">
         <v>13</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +5779,7 @@
       <c r="BE63" s="21"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
@@ -5832,7 +5856,7 @@
       <c r="BE64" s="22"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="18" t="s">
         <v>51</v>
       </c>
@@ -5903,7 +5927,7 @@
       <c r="BE65" s="23"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5974,7 +5998,7 @@
       <c r="BE66" s="24"/>
     </row>
     <row r="67" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
@@ -5992,64 +6016,64 @@
         <v>58</v>
       </c>
       <c r="H67" s="26"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
-      <c r="AB67" s="41"/>
-      <c r="AC67" s="41"/>
-      <c r="AD67" s="41"/>
-      <c r="AE67" s="41"/>
-      <c r="AF67" s="41"/>
-      <c r="AG67" s="41"/>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="41"/>
-      <c r="AJ67" s="41"/>
-      <c r="AK67" s="41"/>
-      <c r="AL67" s="41"/>
-      <c r="AM67" s="41"/>
-      <c r="AN67" s="41"/>
-      <c r="AO67" s="41"/>
-      <c r="AP67" s="41"/>
-      <c r="AQ67" s="41"/>
-      <c r="AR67" s="41"/>
-      <c r="AS67" s="41"/>
-      <c r="AT67" s="41"/>
-      <c r="AU67" s="41"/>
-      <c r="AV67" s="41"/>
-      <c r="AW67" s="41"/>
-      <c r="AX67" s="41"/>
-      <c r="AY67" s="41"/>
-      <c r="AZ67" s="41"/>
-      <c r="BA67" s="41"/>
-      <c r="BB67" s="41"/>
-      <c r="BC67" s="41"/>
-      <c r="BD67" s="41"/>
-      <c r="BE67" s="41"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
+      <c r="AC67" s="32"/>
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="32"/>
+      <c r="AF67" s="32"/>
+      <c r="AG67" s="32"/>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="32"/>
+      <c r="AJ67" s="32"/>
+      <c r="AK67" s="32"/>
+      <c r="AL67" s="32"/>
+      <c r="AM67" s="32"/>
+      <c r="AN67" s="32"/>
+      <c r="AO67" s="32"/>
+      <c r="AP67" s="32"/>
+      <c r="AQ67" s="32"/>
+      <c r="AR67" s="32"/>
+      <c r="AS67" s="32"/>
+      <c r="AT67" s="32"/>
+      <c r="AU67" s="32"/>
+      <c r="AV67" s="32"/>
+      <c r="AW67" s="32"/>
+      <c r="AX67" s="32"/>
+      <c r="AY67" s="32"/>
+      <c r="AZ67" s="32"/>
+      <c r="BA67" s="32"/>
+      <c r="BB67" s="32"/>
+      <c r="BC67" s="32"/>
+      <c r="BD67" s="32"/>
+      <c r="BE67" s="32"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A68" s="32">
+      <c r="A68" s="38">
         <v>13</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="36"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="15" t="s">
         <v>3</v>
       </c>
@@ -6119,7 +6143,7 @@
       <c r="BE68" s="21"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>6</v>
       </c>
@@ -6196,7 +6220,7 @@
       <c r="BE69" s="22"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="18" t="s">
         <v>51</v>
       </c>
@@ -6267,7 +6291,7 @@
       <c r="BE70" s="23"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19" t="s">
         <v>7</v>
       </c>
@@ -6338,7 +6362,7 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
@@ -6356,64 +6380,64 @@
         <v>58</v>
       </c>
       <c r="H72" s="26"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="41"/>
-      <c r="X72" s="41"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="41"/>
-      <c r="AC72" s="41"/>
-      <c r="AD72" s="41"/>
-      <c r="AE72" s="41"/>
-      <c r="AF72" s="41"/>
-      <c r="AG72" s="41"/>
-      <c r="AH72" s="41"/>
-      <c r="AI72" s="41"/>
-      <c r="AJ72" s="41"/>
-      <c r="AK72" s="41"/>
-      <c r="AL72" s="41"/>
-      <c r="AM72" s="41"/>
-      <c r="AN72" s="41"/>
-      <c r="AO72" s="41"/>
-      <c r="AP72" s="41"/>
-      <c r="AQ72" s="41"/>
-      <c r="AR72" s="41"/>
-      <c r="AS72" s="41"/>
-      <c r="AT72" s="41"/>
-      <c r="AU72" s="41"/>
-      <c r="AV72" s="41"/>
-      <c r="AW72" s="41"/>
-      <c r="AX72" s="41"/>
-      <c r="AY72" s="41"/>
-      <c r="AZ72" s="41"/>
-      <c r="BA72" s="41"/>
-      <c r="BB72" s="41"/>
-      <c r="BC72" s="41"/>
-      <c r="BD72" s="41"/>
-      <c r="BE72" s="41"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="32"/>
+      <c r="AI72" s="32"/>
+      <c r="AJ72" s="32"/>
+      <c r="AK72" s="32"/>
+      <c r="AL72" s="32"/>
+      <c r="AM72" s="32"/>
+      <c r="AN72" s="32"/>
+      <c r="AO72" s="32"/>
+      <c r="AP72" s="32"/>
+      <c r="AQ72" s="32"/>
+      <c r="AR72" s="32"/>
+      <c r="AS72" s="32"/>
+      <c r="AT72" s="32"/>
+      <c r="AU72" s="32"/>
+      <c r="AV72" s="32"/>
+      <c r="AW72" s="32"/>
+      <c r="AX72" s="32"/>
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="32"/>
+      <c r="BA72" s="32"/>
+      <c r="BB72" s="32"/>
+      <c r="BC72" s="32"/>
+      <c r="BD72" s="32"/>
+      <c r="BE72" s="32"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A73" s="32">
+      <c r="A73" s="38">
         <v>14</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="36"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -6487,7 +6511,7 @@
       <c r="BE73" s="21"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>6</v>
       </c>
@@ -6564,7 +6588,7 @@
       <c r="BE74" s="22"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="18" t="s">
         <v>51</v>
       </c>
@@ -6639,7 +6663,7 @@
       <c r="BE75" s="23"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
       </c>
@@ -6710,7 +6734,7 @@
       <c r="BE76" s="24"/>
     </row>
     <row r="77" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="6" t="s">
         <v>72</v>
       </c>
@@ -6728,64 +6752,64 @@
         <v>58</v>
       </c>
       <c r="H77" s="26"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="41"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="41"/>
-      <c r="AC77" s="41"/>
-      <c r="AD77" s="41"/>
-      <c r="AE77" s="41"/>
-      <c r="AF77" s="41"/>
-      <c r="AG77" s="41"/>
-      <c r="AH77" s="41"/>
-      <c r="AI77" s="41"/>
-      <c r="AJ77" s="41"/>
-      <c r="AK77" s="41"/>
-      <c r="AL77" s="41"/>
-      <c r="AM77" s="41"/>
-      <c r="AN77" s="41"/>
-      <c r="AO77" s="41"/>
-      <c r="AP77" s="41"/>
-      <c r="AQ77" s="41"/>
-      <c r="AR77" s="41"/>
-      <c r="AS77" s="41"/>
-      <c r="AT77" s="41"/>
-      <c r="AU77" s="41"/>
-      <c r="AV77" s="41"/>
-      <c r="AW77" s="41"/>
-      <c r="AX77" s="41"/>
-      <c r="AY77" s="41"/>
-      <c r="AZ77" s="41"/>
-      <c r="BA77" s="41"/>
-      <c r="BB77" s="41"/>
-      <c r="BC77" s="41"/>
-      <c r="BD77" s="41"/>
-      <c r="BE77" s="41"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="32"/>
+      <c r="Z77" s="32"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="32"/>
+      <c r="AC77" s="32"/>
+      <c r="AD77" s="32"/>
+      <c r="AE77" s="32"/>
+      <c r="AF77" s="32"/>
+      <c r="AG77" s="32"/>
+      <c r="AH77" s="32"/>
+      <c r="AI77" s="32"/>
+      <c r="AJ77" s="32"/>
+      <c r="AK77" s="32"/>
+      <c r="AL77" s="32"/>
+      <c r="AM77" s="32"/>
+      <c r="AN77" s="32"/>
+      <c r="AO77" s="32"/>
+      <c r="AP77" s="32"/>
+      <c r="AQ77" s="32"/>
+      <c r="AR77" s="32"/>
+      <c r="AS77" s="32"/>
+      <c r="AT77" s="32"/>
+      <c r="AU77" s="32"/>
+      <c r="AV77" s="32"/>
+      <c r="AW77" s="32"/>
+      <c r="AX77" s="32"/>
+      <c r="AY77" s="32"/>
+      <c r="AZ77" s="32"/>
+      <c r="BA77" s="32"/>
+      <c r="BB77" s="32"/>
+      <c r="BC77" s="32"/>
+      <c r="BD77" s="32"/>
+      <c r="BE77" s="32"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A78" s="32">
+      <c r="A78" s="38">
         <v>15</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -6861,7 +6885,7 @@
       <c r="BE78" s="21"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>6</v>
       </c>
@@ -6938,7 +6962,7 @@
       <c r="BE79" s="22"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="18" t="s">
         <v>51</v>
       </c>
@@ -7015,7 +7039,7 @@
       <c r="BE80" s="23"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="19" t="s">
         <v>7</v>
       </c>
@@ -7086,7 +7110,7 @@
       <c r="BE81" s="24"/>
     </row>
     <row r="82" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="6" t="s">
         <v>72</v>
       </c>
@@ -7106,64 +7130,64 @@
       <c r="H82" s="26">
         <v>3</v>
       </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-      <c r="AB82" s="41"/>
-      <c r="AC82" s="41"/>
-      <c r="AD82" s="41"/>
-      <c r="AE82" s="41"/>
-      <c r="AF82" s="41"/>
-      <c r="AG82" s="41"/>
-      <c r="AH82" s="41"/>
-      <c r="AI82" s="41"/>
-      <c r="AJ82" s="41"/>
-      <c r="AK82" s="41"/>
-      <c r="AL82" s="41"/>
-      <c r="AM82" s="41"/>
-      <c r="AN82" s="41"/>
-      <c r="AO82" s="41"/>
-      <c r="AP82" s="41"/>
-      <c r="AQ82" s="41"/>
-      <c r="AR82" s="41"/>
-      <c r="AS82" s="41"/>
-      <c r="AT82" s="41"/>
-      <c r="AU82" s="41"/>
-      <c r="AV82" s="41"/>
-      <c r="AW82" s="41"/>
-      <c r="AX82" s="41"/>
-      <c r="AY82" s="41"/>
-      <c r="AZ82" s="41"/>
-      <c r="BA82" s="41"/>
-      <c r="BB82" s="41"/>
-      <c r="BC82" s="41"/>
-      <c r="BD82" s="41"/>
-      <c r="BE82" s="41"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="32"/>
+      <c r="AH82" s="32"/>
+      <c r="AI82" s="32"/>
+      <c r="AJ82" s="32"/>
+      <c r="AK82" s="32"/>
+      <c r="AL82" s="32"/>
+      <c r="AM82" s="32"/>
+      <c r="AN82" s="32"/>
+      <c r="AO82" s="32"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="32"/>
+      <c r="AR82" s="32"/>
+      <c r="AS82" s="32"/>
+      <c r="AT82" s="32"/>
+      <c r="AU82" s="32"/>
+      <c r="AV82" s="32"/>
+      <c r="AW82" s="32"/>
+      <c r="AX82" s="32"/>
+      <c r="AY82" s="32"/>
+      <c r="AZ82" s="32"/>
+      <c r="BA82" s="32"/>
+      <c r="BB82" s="32"/>
+      <c r="BC82" s="32"/>
+      <c r="BD82" s="32"/>
+      <c r="BE82" s="32"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A83" s="32">
+      <c r="A83" s="38">
         <v>16</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="15" t="s">
         <v>3</v>
       </c>
@@ -7237,7 +7261,7 @@
       <c r="BE83" s="21"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
@@ -7314,7 +7338,7 @@
       <c r="BE84" s="22"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="18" t="s">
         <v>51</v>
       </c>
@@ -7385,7 +7409,7 @@
       <c r="BE85" s="23"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="19" t="s">
         <v>7</v>
       </c>
@@ -7456,7 +7480,7 @@
       <c r="BE86" s="24"/>
     </row>
     <row r="87" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
@@ -7474,64 +7498,64 @@
         <v>58</v>
       </c>
       <c r="H87" s="26"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="41"/>
-      <c r="AJ87" s="41"/>
-      <c r="AK87" s="41"/>
-      <c r="AL87" s="41"/>
-      <c r="AM87" s="41"/>
-      <c r="AN87" s="41"/>
-      <c r="AO87" s="41"/>
-      <c r="AP87" s="41"/>
-      <c r="AQ87" s="41"/>
-      <c r="AR87" s="41"/>
-      <c r="AS87" s="41"/>
-      <c r="AT87" s="41"/>
-      <c r="AU87" s="41"/>
-      <c r="AV87" s="41"/>
-      <c r="AW87" s="41"/>
-      <c r="AX87" s="41"/>
-      <c r="AY87" s="41"/>
-      <c r="AZ87" s="41"/>
-      <c r="BA87" s="41"/>
-      <c r="BB87" s="41"/>
-      <c r="BC87" s="41"/>
-      <c r="BD87" s="41"/>
-      <c r="BE87" s="41"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="32"/>
+      <c r="AJ87" s="32"/>
+      <c r="AK87" s="32"/>
+      <c r="AL87" s="32"/>
+      <c r="AM87" s="32"/>
+      <c r="AN87" s="32"/>
+      <c r="AO87" s="32"/>
+      <c r="AP87" s="32"/>
+      <c r="AQ87" s="32"/>
+      <c r="AR87" s="32"/>
+      <c r="AS87" s="32"/>
+      <c r="AT87" s="32"/>
+      <c r="AU87" s="32"/>
+      <c r="AV87" s="32"/>
+      <c r="AW87" s="32"/>
+      <c r="AX87" s="32"/>
+      <c r="AY87" s="32"/>
+      <c r="AZ87" s="32"/>
+      <c r="BA87" s="32"/>
+      <c r="BB87" s="32"/>
+      <c r="BC87" s="32"/>
+      <c r="BD87" s="32"/>
+      <c r="BE87" s="32"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A88" s="32">
+      <c r="A88" s="38">
         <v>17</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="15" t="s">
         <v>3</v>
       </c>
@@ -7555,7 +7579,9 @@
       <c r="K88" s="21">
         <v>2</v>
       </c>
-      <c r="L88" s="21"/>
+      <c r="L88" s="21">
+        <v>2</v>
+      </c>
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
@@ -7603,7 +7629,7 @@
       <c r="BE88" s="21"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
@@ -7680,7 +7706,7 @@
       <c r="BE89" s="22"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="18" t="s">
         <v>51</v>
       </c>
@@ -7693,7 +7719,7 @@
       </c>
       <c r="E90" s="10">
         <f>SUM(H88:BE90)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="29" t="s">
@@ -7751,7 +7777,7 @@
       <c r="BE90" s="23"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="19" t="s">
         <v>7</v>
       </c>
@@ -7764,7 +7790,7 @@
       </c>
       <c r="E91" s="10">
         <f>E90+SUM(H91:BE91)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="30" t="s">
@@ -7822,7 +7848,7 @@
       <c r="BE91" s="24"/>
     </row>
     <row r="92" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="6" t="s">
         <v>72</v>
       </c>
@@ -7842,64 +7868,64 @@
       <c r="H92" s="26">
         <v>9</v>
       </c>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="41"/>
-      <c r="W92" s="41"/>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="41"/>
-      <c r="Z92" s="41"/>
-      <c r="AA92" s="41"/>
-      <c r="AB92" s="41"/>
-      <c r="AC92" s="41"/>
-      <c r="AD92" s="41"/>
-      <c r="AE92" s="41"/>
-      <c r="AF92" s="41"/>
-      <c r="AG92" s="41"/>
-      <c r="AH92" s="41"/>
-      <c r="AI92" s="41"/>
-      <c r="AJ92" s="41"/>
-      <c r="AK92" s="41"/>
-      <c r="AL92" s="41"/>
-      <c r="AM92" s="41"/>
-      <c r="AN92" s="41"/>
-      <c r="AO92" s="41"/>
-      <c r="AP92" s="41"/>
-      <c r="AQ92" s="41"/>
-      <c r="AR92" s="41"/>
-      <c r="AS92" s="41"/>
-      <c r="AT92" s="41"/>
-      <c r="AU92" s="41"/>
-      <c r="AV92" s="41"/>
-      <c r="AW92" s="41"/>
-      <c r="AX92" s="41"/>
-      <c r="AY92" s="41"/>
-      <c r="AZ92" s="41"/>
-      <c r="BA92" s="41"/>
-      <c r="BB92" s="41"/>
-      <c r="BC92" s="41"/>
-      <c r="BD92" s="41"/>
-      <c r="BE92" s="41"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+      <c r="AI92" s="32"/>
+      <c r="AJ92" s="32"/>
+      <c r="AK92" s="32"/>
+      <c r="AL92" s="32"/>
+      <c r="AM92" s="32"/>
+      <c r="AN92" s="32"/>
+      <c r="AO92" s="32"/>
+      <c r="AP92" s="32"/>
+      <c r="AQ92" s="32"/>
+      <c r="AR92" s="32"/>
+      <c r="AS92" s="32"/>
+      <c r="AT92" s="32"/>
+      <c r="AU92" s="32"/>
+      <c r="AV92" s="32"/>
+      <c r="AW92" s="32"/>
+      <c r="AX92" s="32"/>
+      <c r="AY92" s="32"/>
+      <c r="AZ92" s="32"/>
+      <c r="BA92" s="32"/>
+      <c r="BB92" s="32"/>
+      <c r="BC92" s="32"/>
+      <c r="BD92" s="32"/>
+      <c r="BE92" s="32"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A93" s="32">
+      <c r="A93" s="38">
         <v>18</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="36"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="15" t="s">
         <v>3</v>
       </c>
@@ -7971,7 +7997,7 @@
       <c r="BE93" s="21"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="20" t="s">
         <v>6</v>
       </c>
@@ -8048,7 +8074,7 @@
       <c r="BE94" s="22"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="18" t="s">
         <v>51</v>
       </c>
@@ -8119,7 +8145,7 @@
       <c r="BE95" s="23"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="19" t="s">
         <v>7</v>
       </c>
@@ -8190,7 +8216,7 @@
       <c r="BE96" s="24"/>
     </row>
     <row r="97" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="6" t="s">
         <v>72</v>
       </c>
@@ -8210,64 +8236,64 @@
       <c r="H97" s="26">
         <v>3</v>
       </c>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="41"/>
-      <c r="W97" s="41"/>
-      <c r="X97" s="41"/>
-      <c r="Y97" s="41"/>
-      <c r="Z97" s="41"/>
-      <c r="AA97" s="41"/>
-      <c r="AB97" s="41"/>
-      <c r="AC97" s="41"/>
-      <c r="AD97" s="41"/>
-      <c r="AE97" s="41"/>
-      <c r="AF97" s="41"/>
-      <c r="AG97" s="41"/>
-      <c r="AH97" s="41"/>
-      <c r="AI97" s="41"/>
-      <c r="AJ97" s="41"/>
-      <c r="AK97" s="41"/>
-      <c r="AL97" s="41"/>
-      <c r="AM97" s="41"/>
-      <c r="AN97" s="41"/>
-      <c r="AO97" s="41"/>
-      <c r="AP97" s="41"/>
-      <c r="AQ97" s="41"/>
-      <c r="AR97" s="41"/>
-      <c r="AS97" s="41"/>
-      <c r="AT97" s="41"/>
-      <c r="AU97" s="41"/>
-      <c r="AV97" s="41"/>
-      <c r="AW97" s="41"/>
-      <c r="AX97" s="41"/>
-      <c r="AY97" s="41"/>
-      <c r="AZ97" s="41"/>
-      <c r="BA97" s="41"/>
-      <c r="BB97" s="41"/>
-      <c r="BC97" s="41"/>
-      <c r="BD97" s="41"/>
-      <c r="BE97" s="41"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="32"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="32"/>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="32"/>
+      <c r="AF97" s="32"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
+      <c r="AI97" s="32"/>
+      <c r="AJ97" s="32"/>
+      <c r="AK97" s="32"/>
+      <c r="AL97" s="32"/>
+      <c r="AM97" s="32"/>
+      <c r="AN97" s="32"/>
+      <c r="AO97" s="32"/>
+      <c r="AP97" s="32"/>
+      <c r="AQ97" s="32"/>
+      <c r="AR97" s="32"/>
+      <c r="AS97" s="32"/>
+      <c r="AT97" s="32"/>
+      <c r="AU97" s="32"/>
+      <c r="AV97" s="32"/>
+      <c r="AW97" s="32"/>
+      <c r="AX97" s="32"/>
+      <c r="AY97" s="32"/>
+      <c r="AZ97" s="32"/>
+      <c r="BA97" s="32"/>
+      <c r="BB97" s="32"/>
+      <c r="BC97" s="32"/>
+      <c r="BD97" s="32"/>
+      <c r="BE97" s="32"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A98" s="32">
+      <c r="A98" s="38">
         <v>19</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="36"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -8282,7 +8308,9 @@
       <c r="H98" s="21">
         <v>2</v>
       </c>
-      <c r="I98" s="21"/>
+      <c r="I98" s="21">
+        <v>2</v>
+      </c>
       <c r="J98" s="21">
         <v>2</v>
       </c>
@@ -8341,7 +8369,7 @@
       <c r="BE98" s="21"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
@@ -8418,7 +8446,7 @@
       <c r="BE99" s="22"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="18" t="s">
         <v>51</v>
       </c>
@@ -8431,14 +8459,16 @@
       </c>
       <c r="E100" s="10">
         <f>SUM(H98:BE100)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
+      <c r="I100" s="23">
+        <v>1</v>
+      </c>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
@@ -8489,7 +8519,7 @@
       <c r="BE100" s="23"/>
     </row>
     <row r="101" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
@@ -8502,7 +8532,7 @@
       </c>
       <c r="E101" s="10">
         <f>E100+SUM(H101:BE101)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="30" t="s">
@@ -8560,7 +8590,7 @@
       <c r="BE101" s="24"/>
     </row>
     <row r="102" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="34"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="6" t="s">
         <v>72</v>
       </c>
@@ -8578,64 +8608,64 @@
         <v>58</v>
       </c>
       <c r="H102" s="26"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
-      <c r="V102" s="41"/>
-      <c r="W102" s="41"/>
-      <c r="X102" s="41"/>
-      <c r="Y102" s="41"/>
-      <c r="Z102" s="41"/>
-      <c r="AA102" s="41"/>
-      <c r="AB102" s="41"/>
-      <c r="AC102" s="41"/>
-      <c r="AD102" s="41"/>
-      <c r="AE102" s="41"/>
-      <c r="AF102" s="41"/>
-      <c r="AG102" s="41"/>
-      <c r="AH102" s="41"/>
-      <c r="AI102" s="41"/>
-      <c r="AJ102" s="41"/>
-      <c r="AK102" s="41"/>
-      <c r="AL102" s="41"/>
-      <c r="AM102" s="41"/>
-      <c r="AN102" s="41"/>
-      <c r="AO102" s="41"/>
-      <c r="AP102" s="41"/>
-      <c r="AQ102" s="41"/>
-      <c r="AR102" s="41"/>
-      <c r="AS102" s="41"/>
-      <c r="AT102" s="41"/>
-      <c r="AU102" s="41"/>
-      <c r="AV102" s="41"/>
-      <c r="AW102" s="41"/>
-      <c r="AX102" s="41"/>
-      <c r="AY102" s="41"/>
-      <c r="AZ102" s="41"/>
-      <c r="BA102" s="41"/>
-      <c r="BB102" s="41"/>
-      <c r="BC102" s="41"/>
-      <c r="BD102" s="41"/>
-      <c r="BE102" s="41"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="32"/>
+      <c r="AB102" s="32"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="32"/>
+      <c r="AE102" s="32"/>
+      <c r="AF102" s="32"/>
+      <c r="AG102" s="32"/>
+      <c r="AH102" s="32"/>
+      <c r="AI102" s="32"/>
+      <c r="AJ102" s="32"/>
+      <c r="AK102" s="32"/>
+      <c r="AL102" s="32"/>
+      <c r="AM102" s="32"/>
+      <c r="AN102" s="32"/>
+      <c r="AO102" s="32"/>
+      <c r="AP102" s="32"/>
+      <c r="AQ102" s="32"/>
+      <c r="AR102" s="32"/>
+      <c r="AS102" s="32"/>
+      <c r="AT102" s="32"/>
+      <c r="AU102" s="32"/>
+      <c r="AV102" s="32"/>
+      <c r="AW102" s="32"/>
+      <c r="AX102" s="32"/>
+      <c r="AY102" s="32"/>
+      <c r="AZ102" s="32"/>
+      <c r="BA102" s="32"/>
+      <c r="BB102" s="32"/>
+      <c r="BC102" s="32"/>
+      <c r="BD102" s="32"/>
+      <c r="BE102" s="32"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A103" s="32">
+      <c r="A103" s="38">
         <v>20</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="36"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -8711,7 +8741,7 @@
       <c r="BE103" s="21"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>6</v>
       </c>
@@ -8788,7 +8818,7 @@
       <c r="BE104" s="22"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="18" t="s">
         <v>51</v>
       </c>
@@ -8865,7 +8895,7 @@
       <c r="BE105" s="23"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="19" t="s">
         <v>7</v>
       </c>
@@ -8936,7 +8966,7 @@
       <c r="BE106" s="24"/>
     </row>
     <row r="107" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="34"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="6" t="s">
         <v>72</v>
       </c>
@@ -8954,64 +8984,64 @@
         <v>58</v>
       </c>
       <c r="H107" s="26"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
-      <c r="W107" s="41"/>
-      <c r="X107" s="41"/>
-      <c r="Y107" s="41"/>
-      <c r="Z107" s="41"/>
-      <c r="AA107" s="41"/>
-      <c r="AB107" s="41"/>
-      <c r="AC107" s="41"/>
-      <c r="AD107" s="41"/>
-      <c r="AE107" s="41"/>
-      <c r="AF107" s="41"/>
-      <c r="AG107" s="41"/>
-      <c r="AH107" s="41"/>
-      <c r="AI107" s="41"/>
-      <c r="AJ107" s="41"/>
-      <c r="AK107" s="41"/>
-      <c r="AL107" s="41"/>
-      <c r="AM107" s="41"/>
-      <c r="AN107" s="41"/>
-      <c r="AO107" s="41"/>
-      <c r="AP107" s="41"/>
-      <c r="AQ107" s="41"/>
-      <c r="AR107" s="41"/>
-      <c r="AS107" s="41"/>
-      <c r="AT107" s="41"/>
-      <c r="AU107" s="41"/>
-      <c r="AV107" s="41"/>
-      <c r="AW107" s="41"/>
-      <c r="AX107" s="41"/>
-      <c r="AY107" s="41"/>
-      <c r="AZ107" s="41"/>
-      <c r="BA107" s="41"/>
-      <c r="BB107" s="41"/>
-      <c r="BC107" s="41"/>
-      <c r="BD107" s="41"/>
-      <c r="BE107" s="41"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="32"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="32"/>
+      <c r="AB107" s="32"/>
+      <c r="AC107" s="32"/>
+      <c r="AD107" s="32"/>
+      <c r="AE107" s="32"/>
+      <c r="AF107" s="32"/>
+      <c r="AG107" s="32"/>
+      <c r="AH107" s="32"/>
+      <c r="AI107" s="32"/>
+      <c r="AJ107" s="32"/>
+      <c r="AK107" s="32"/>
+      <c r="AL107" s="32"/>
+      <c r="AM107" s="32"/>
+      <c r="AN107" s="32"/>
+      <c r="AO107" s="32"/>
+      <c r="AP107" s="32"/>
+      <c r="AQ107" s="32"/>
+      <c r="AR107" s="32"/>
+      <c r="AS107" s="32"/>
+      <c r="AT107" s="32"/>
+      <c r="AU107" s="32"/>
+      <c r="AV107" s="32"/>
+      <c r="AW107" s="32"/>
+      <c r="AX107" s="32"/>
+      <c r="AY107" s="32"/>
+      <c r="AZ107" s="32"/>
+      <c r="BA107" s="32"/>
+      <c r="BB107" s="32"/>
+      <c r="BC107" s="32"/>
+      <c r="BD107" s="32"/>
+      <c r="BE107" s="32"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
+      <c r="A108" s="38">
         <v>21</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="36"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -9087,7 +9117,7 @@
       <c r="BE108" s="21"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>6</v>
       </c>
@@ -9164,7 +9194,7 @@
       <c r="BE109" s="22"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="18" t="s">
         <v>51</v>
       </c>
@@ -9241,7 +9271,7 @@
       <c r="BE110" s="23"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="19" t="s">
         <v>7</v>
       </c>
@@ -9312,7 +9342,7 @@
       <c r="BE111" s="24"/>
     </row>
     <row r="112" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="6" t="s">
         <v>72</v>
       </c>
@@ -9330,76 +9360,78 @@
         <v>58</v>
       </c>
       <c r="H112" s="26"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="41"/>
-      <c r="S112" s="41"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
-      <c r="W112" s="41"/>
-      <c r="X112" s="41"/>
-      <c r="Y112" s="41"/>
-      <c r="Z112" s="41"/>
-      <c r="AA112" s="41"/>
-      <c r="AB112" s="41"/>
-      <c r="AC112" s="41"/>
-      <c r="AD112" s="41"/>
-      <c r="AE112" s="41"/>
-      <c r="AF112" s="41"/>
-      <c r="AG112" s="41"/>
-      <c r="AH112" s="41"/>
-      <c r="AI112" s="41"/>
-      <c r="AJ112" s="41"/>
-      <c r="AK112" s="41"/>
-      <c r="AL112" s="41"/>
-      <c r="AM112" s="41"/>
-      <c r="AN112" s="41"/>
-      <c r="AO112" s="41"/>
-      <c r="AP112" s="41"/>
-      <c r="AQ112" s="41"/>
-      <c r="AR112" s="41"/>
-      <c r="AS112" s="41"/>
-      <c r="AT112" s="41"/>
-      <c r="AU112" s="41"/>
-      <c r="AV112" s="41"/>
-      <c r="AW112" s="41"/>
-      <c r="AX112" s="41"/>
-      <c r="AY112" s="41"/>
-      <c r="AZ112" s="41"/>
-      <c r="BA112" s="41"/>
-      <c r="BB112" s="41"/>
-      <c r="BC112" s="41"/>
-      <c r="BD112" s="41"/>
-      <c r="BE112" s="41"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="32"/>
+      <c r="AF112" s="32"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="32"/>
+      <c r="AJ112" s="32"/>
+      <c r="AK112" s="32"/>
+      <c r="AL112" s="32"/>
+      <c r="AM112" s="32"/>
+      <c r="AN112" s="32"/>
+      <c r="AO112" s="32"/>
+      <c r="AP112" s="32"/>
+      <c r="AQ112" s="32"/>
+      <c r="AR112" s="32"/>
+      <c r="AS112" s="32"/>
+      <c r="AT112" s="32"/>
+      <c r="AU112" s="32"/>
+      <c r="AV112" s="32"/>
+      <c r="AW112" s="32"/>
+      <c r="AX112" s="32"/>
+      <c r="AY112" s="32"/>
+      <c r="AZ112" s="32"/>
+      <c r="BA112" s="32"/>
+      <c r="BB112" s="32"/>
+      <c r="BC112" s="32"/>
+      <c r="BD112" s="32"/>
+      <c r="BE112" s="32"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A113" s="32">
+      <c r="A113" s="38">
         <v>22</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="36"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="9">
         <f>C117+E117-COUNTIF(H113:BE113,1)-COUNTIF(H113:BE113,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H113" s="21"/>
+      <c r="H113" s="21">
+        <v>0</v>
+      </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
@@ -9451,7 +9483,7 @@
       <c r="BE113" s="21"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>6</v>
       </c>
@@ -9464,14 +9496,18 @@
       </c>
       <c r="E114" s="10">
         <f>51-H117</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
       <c r="J114" s="22"/>
       <c r="K114" s="22"/>
       <c r="L114" s="22"/>
@@ -9522,7 +9558,7 @@
       <c r="BE114" s="22"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="18" t="s">
         <v>51</v>
       </c>
@@ -9593,7 +9629,7 @@
       <c r="BE115" s="23"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="19" t="s">
         <v>7</v>
       </c>
@@ -9664,7 +9700,7 @@
       <c r="BE116" s="24"/>
     </row>
     <row r="117" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="6" t="s">
         <v>72</v>
       </c>
@@ -9682,78 +9718,80 @@
         <v>58</v>
       </c>
       <c r="H117" s="26">
-        <v>15</v>
-      </c>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="41"/>
-      <c r="S117" s="41"/>
-      <c r="T117" s="41"/>
-      <c r="U117" s="41"/>
-      <c r="V117" s="41"/>
-      <c r="W117" s="41"/>
-      <c r="X117" s="41"/>
-      <c r="Y117" s="41"/>
-      <c r="Z117" s="41"/>
-      <c r="AA117" s="41"/>
-      <c r="AB117" s="41"/>
-      <c r="AC117" s="41"/>
-      <c r="AD117" s="41"/>
-      <c r="AE117" s="41"/>
-      <c r="AF117" s="41"/>
-      <c r="AG117" s="41"/>
-      <c r="AH117" s="41"/>
-      <c r="AI117" s="41"/>
-      <c r="AJ117" s="41"/>
-      <c r="AK117" s="41"/>
-      <c r="AL117" s="41"/>
-      <c r="AM117" s="41"/>
-      <c r="AN117" s="41"/>
-      <c r="AO117" s="41"/>
-      <c r="AP117" s="41"/>
-      <c r="AQ117" s="41"/>
-      <c r="AR117" s="41"/>
-      <c r="AS117" s="41"/>
-      <c r="AT117" s="41"/>
-      <c r="AU117" s="41"/>
-      <c r="AV117" s="41"/>
-      <c r="AW117" s="41"/>
-      <c r="AX117" s="41"/>
-      <c r="AY117" s="41"/>
-      <c r="AZ117" s="41"/>
-      <c r="BA117" s="41"/>
-      <c r="BB117" s="41"/>
-      <c r="BC117" s="41"/>
-      <c r="BD117" s="41"/>
-      <c r="BE117" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="32"/>
+      <c r="AF117" s="32"/>
+      <c r="AG117" s="32"/>
+      <c r="AH117" s="32"/>
+      <c r="AI117" s="32"/>
+      <c r="AJ117" s="32"/>
+      <c r="AK117" s="32"/>
+      <c r="AL117" s="32"/>
+      <c r="AM117" s="32"/>
+      <c r="AN117" s="32"/>
+      <c r="AO117" s="32"/>
+      <c r="AP117" s="32"/>
+      <c r="AQ117" s="32"/>
+      <c r="AR117" s="32"/>
+      <c r="AS117" s="32"/>
+      <c r="AT117" s="32"/>
+      <c r="AU117" s="32"/>
+      <c r="AV117" s="32"/>
+      <c r="AW117" s="32"/>
+      <c r="AX117" s="32"/>
+      <c r="AY117" s="32"/>
+      <c r="AZ117" s="32"/>
+      <c r="BA117" s="32"/>
+      <c r="BB117" s="32"/>
+      <c r="BC117" s="32"/>
+      <c r="BD117" s="32"/>
+      <c r="BE117" s="32"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A118" s="32">
+      <c r="A118" s="38">
         <v>23</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="36"/>
+      <c r="C118" s="34"/>
       <c r="D118" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="9">
         <f>C122+E122-COUNTIF(H118:BE118,1)-COUNTIF(H118:BE118,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H118" s="21"/>
+      <c r="H118" s="21">
+        <v>0</v>
+      </c>
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
@@ -9805,7 +9843,7 @@
       <c r="BE118" s="21"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>6</v>
       </c>
@@ -9818,14 +9856,18 @@
       </c>
       <c r="E119" s="10">
         <f>51-H122</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
+      <c r="H119" s="22">
+        <v>0</v>
+      </c>
+      <c r="I119" s="22">
+        <v>0</v>
+      </c>
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
@@ -9876,7 +9918,7 @@
       <c r="BE119" s="22"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="18" t="s">
         <v>51</v>
       </c>
@@ -9947,7 +9989,7 @@
       <c r="BE120" s="23"/>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="19" t="s">
         <v>7</v>
       </c>
@@ -10018,7 +10060,7 @@
       <c r="BE121" s="24"/>
     </row>
     <row r="122" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="34"/>
+      <c r="A122" s="40"/>
       <c r="B122" s="6" t="s">
         <v>72</v>
       </c>
@@ -10036,66 +10078,66 @@
         <v>58</v>
       </c>
       <c r="H122" s="26">
-        <v>15</v>
-      </c>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="41"/>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41"/>
-      <c r="Z122" s="41"/>
-      <c r="AA122" s="41"/>
-      <c r="AB122" s="41"/>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="41"/>
-      <c r="AE122" s="41"/>
-      <c r="AF122" s="41"/>
-      <c r="AG122" s="41"/>
-      <c r="AH122" s="41"/>
-      <c r="AI122" s="41"/>
-      <c r="AJ122" s="41"/>
-      <c r="AK122" s="41"/>
-      <c r="AL122" s="41"/>
-      <c r="AM122" s="41"/>
-      <c r="AN122" s="41"/>
-      <c r="AO122" s="41"/>
-      <c r="AP122" s="41"/>
-      <c r="AQ122" s="41"/>
-      <c r="AR122" s="41"/>
-      <c r="AS122" s="41"/>
-      <c r="AT122" s="41"/>
-      <c r="AU122" s="41"/>
-      <c r="AV122" s="41"/>
-      <c r="AW122" s="41"/>
-      <c r="AX122" s="41"/>
-      <c r="AY122" s="41"/>
-      <c r="AZ122" s="41"/>
-      <c r="BA122" s="41"/>
-      <c r="BB122" s="41"/>
-      <c r="BC122" s="41"/>
-      <c r="BD122" s="41"/>
-      <c r="BE122" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="32"/>
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="32"/>
+      <c r="AH122" s="32"/>
+      <c r="AI122" s="32"/>
+      <c r="AJ122" s="32"/>
+      <c r="AK122" s="32"/>
+      <c r="AL122" s="32"/>
+      <c r="AM122" s="32"/>
+      <c r="AN122" s="32"/>
+      <c r="AO122" s="32"/>
+      <c r="AP122" s="32"/>
+      <c r="AQ122" s="32"/>
+      <c r="AR122" s="32"/>
+      <c r="AS122" s="32"/>
+      <c r="AT122" s="32"/>
+      <c r="AU122" s="32"/>
+      <c r="AV122" s="32"/>
+      <c r="AW122" s="32"/>
+      <c r="AX122" s="32"/>
+      <c r="AY122" s="32"/>
+      <c r="AZ122" s="32"/>
+      <c r="BA122" s="32"/>
+      <c r="BB122" s="32"/>
+      <c r="BC122" s="32"/>
+      <c r="BD122" s="32"/>
+      <c r="BE122" s="32"/>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A123" s="32">
+      <c r="A123" s="38">
         <v>24</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="36"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -10169,7 +10211,7 @@
       <c r="BE123" s="21"/>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
@@ -10246,7 +10288,7 @@
       <c r="BE124" s="22"/>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="18" t="s">
         <v>51</v>
       </c>
@@ -10317,7 +10359,7 @@
       <c r="BE125" s="23"/>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="19" t="s">
         <v>7</v>
       </c>
@@ -10388,7 +10430,7 @@
       <c r="BE126" s="24"/>
     </row>
     <row r="127" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="34"/>
+      <c r="A127" s="40"/>
       <c r="B127" s="6" t="s">
         <v>72</v>
       </c>
@@ -10406,64 +10448,64 @@
         <v>58</v>
       </c>
       <c r="H127" s="26"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="41"/>
-      <c r="L127" s="41"/>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="41"/>
-      <c r="P127" s="41"/>
-      <c r="Q127" s="41"/>
-      <c r="R127" s="41"/>
-      <c r="S127" s="41"/>
-      <c r="T127" s="41"/>
-      <c r="U127" s="41"/>
-      <c r="V127" s="41"/>
-      <c r="W127" s="41"/>
-      <c r="X127" s="41"/>
-      <c r="Y127" s="41"/>
-      <c r="Z127" s="41"/>
-      <c r="AA127" s="41"/>
-      <c r="AB127" s="41"/>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="41"/>
-      <c r="AF127" s="41"/>
-      <c r="AG127" s="41"/>
-      <c r="AH127" s="41"/>
-      <c r="AI127" s="41"/>
-      <c r="AJ127" s="41"/>
-      <c r="AK127" s="41"/>
-      <c r="AL127" s="41"/>
-      <c r="AM127" s="41"/>
-      <c r="AN127" s="41"/>
-      <c r="AO127" s="41"/>
-      <c r="AP127" s="41"/>
-      <c r="AQ127" s="41"/>
-      <c r="AR127" s="41"/>
-      <c r="AS127" s="41"/>
-      <c r="AT127" s="41"/>
-      <c r="AU127" s="41"/>
-      <c r="AV127" s="41"/>
-      <c r="AW127" s="41"/>
-      <c r="AX127" s="41"/>
-      <c r="AY127" s="41"/>
-      <c r="AZ127" s="41"/>
-      <c r="BA127" s="41"/>
-      <c r="BB127" s="41"/>
-      <c r="BC127" s="41"/>
-      <c r="BD127" s="41"/>
-      <c r="BE127" s="41"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="32"/>
+      <c r="P127" s="32"/>
+      <c r="Q127" s="32"/>
+      <c r="R127" s="32"/>
+      <c r="S127" s="32"/>
+      <c r="T127" s="32"/>
+      <c r="U127" s="32"/>
+      <c r="V127" s="32"/>
+      <c r="W127" s="32"/>
+      <c r="X127" s="32"/>
+      <c r="Y127" s="32"/>
+      <c r="Z127" s="32"/>
+      <c r="AA127" s="32"/>
+      <c r="AB127" s="32"/>
+      <c r="AC127" s="32"/>
+      <c r="AD127" s="32"/>
+      <c r="AE127" s="32"/>
+      <c r="AF127" s="32"/>
+      <c r="AG127" s="32"/>
+      <c r="AH127" s="32"/>
+      <c r="AI127" s="32"/>
+      <c r="AJ127" s="32"/>
+      <c r="AK127" s="32"/>
+      <c r="AL127" s="32"/>
+      <c r="AM127" s="32"/>
+      <c r="AN127" s="32"/>
+      <c r="AO127" s="32"/>
+      <c r="AP127" s="32"/>
+      <c r="AQ127" s="32"/>
+      <c r="AR127" s="32"/>
+      <c r="AS127" s="32"/>
+      <c r="AT127" s="32"/>
+      <c r="AU127" s="32"/>
+      <c r="AV127" s="32"/>
+      <c r="AW127" s="32"/>
+      <c r="AX127" s="32"/>
+      <c r="AY127" s="32"/>
+      <c r="AZ127" s="32"/>
+      <c r="BA127" s="32"/>
+      <c r="BB127" s="32"/>
+      <c r="BC127" s="32"/>
+      <c r="BD127" s="32"/>
+      <c r="BE127" s="32"/>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A128" s="32">
+      <c r="A128" s="38">
         <v>25</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="36"/>
+      <c r="C128" s="34"/>
       <c r="D128" s="15" t="s">
         <v>3</v>
       </c>
@@ -10539,7 +10581,7 @@
       <c r="BE128" s="21"/>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
+      <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>6</v>
       </c>
@@ -10616,7 +10658,7 @@
       <c r="BE129" s="22"/>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
+      <c r="A130" s="39"/>
       <c r="B130" s="18" t="s">
         <v>51</v>
       </c>
@@ -10629,15 +10671,21 @@
       </c>
       <c r="E130" s="10">
         <f>SUM(H128:BE130)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23"/>
+      <c r="H130" s="23">
+        <v>1</v>
+      </c>
+      <c r="I130" s="23">
+        <v>1</v>
+      </c>
+      <c r="J130" s="23">
+        <v>1</v>
+      </c>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
@@ -10687,7 +10735,7 @@
       <c r="BE130" s="23"/>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
+      <c r="A131" s="39"/>
       <c r="B131" s="19" t="s">
         <v>7</v>
       </c>
@@ -10700,7 +10748,7 @@
       </c>
       <c r="E131" s="10">
         <f>E130+SUM(H131:BE131)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F131" s="13"/>
       <c r="G131" s="30" t="s">
@@ -10758,7 +10806,7 @@
       <c r="BE131" s="24"/>
     </row>
     <row r="132" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="6" t="s">
         <v>72</v>
       </c>
@@ -10776,76 +10824,78 @@
         <v>58</v>
       </c>
       <c r="H132" s="26"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="41"/>
-      <c r="L132" s="41"/>
-      <c r="M132" s="41"/>
-      <c r="N132" s="41"/>
-      <c r="O132" s="41"/>
-      <c r="P132" s="41"/>
-      <c r="Q132" s="41"/>
-      <c r="R132" s="41"/>
-      <c r="S132" s="41"/>
-      <c r="T132" s="41"/>
-      <c r="U132" s="41"/>
-      <c r="V132" s="41"/>
-      <c r="W132" s="41"/>
-      <c r="X132" s="41"/>
-      <c r="Y132" s="41"/>
-      <c r="Z132" s="41"/>
-      <c r="AA132" s="41"/>
-      <c r="AB132" s="41"/>
-      <c r="AC132" s="41"/>
-      <c r="AD132" s="41"/>
-      <c r="AE132" s="41"/>
-      <c r="AF132" s="41"/>
-      <c r="AG132" s="41"/>
-      <c r="AH132" s="41"/>
-      <c r="AI132" s="41"/>
-      <c r="AJ132" s="41"/>
-      <c r="AK132" s="41"/>
-      <c r="AL132" s="41"/>
-      <c r="AM132" s="41"/>
-      <c r="AN132" s="41"/>
-      <c r="AO132" s="41"/>
-      <c r="AP132" s="41"/>
-      <c r="AQ132" s="41"/>
-      <c r="AR132" s="41"/>
-      <c r="AS132" s="41"/>
-      <c r="AT132" s="41"/>
-      <c r="AU132" s="41"/>
-      <c r="AV132" s="41"/>
-      <c r="AW132" s="41"/>
-      <c r="AX132" s="41"/>
-      <c r="AY132" s="41"/>
-      <c r="AZ132" s="41"/>
-      <c r="BA132" s="41"/>
-      <c r="BB132" s="41"/>
-      <c r="BC132" s="41"/>
-      <c r="BD132" s="41"/>
-      <c r="BE132" s="41"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="32"/>
+      <c r="S132" s="32"/>
+      <c r="T132" s="32"/>
+      <c r="U132" s="32"/>
+      <c r="V132" s="32"/>
+      <c r="W132" s="32"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="32"/>
+      <c r="Z132" s="32"/>
+      <c r="AA132" s="32"/>
+      <c r="AB132" s="32"/>
+      <c r="AC132" s="32"/>
+      <c r="AD132" s="32"/>
+      <c r="AE132" s="32"/>
+      <c r="AF132" s="32"/>
+      <c r="AG132" s="32"/>
+      <c r="AH132" s="32"/>
+      <c r="AI132" s="32"/>
+      <c r="AJ132" s="32"/>
+      <c r="AK132" s="32"/>
+      <c r="AL132" s="32"/>
+      <c r="AM132" s="32"/>
+      <c r="AN132" s="32"/>
+      <c r="AO132" s="32"/>
+      <c r="AP132" s="32"/>
+      <c r="AQ132" s="32"/>
+      <c r="AR132" s="32"/>
+      <c r="AS132" s="32"/>
+      <c r="AT132" s="32"/>
+      <c r="AU132" s="32"/>
+      <c r="AV132" s="32"/>
+      <c r="AW132" s="32"/>
+      <c r="AX132" s="32"/>
+      <c r="AY132" s="32"/>
+      <c r="AZ132" s="32"/>
+      <c r="BA132" s="32"/>
+      <c r="BB132" s="32"/>
+      <c r="BC132" s="32"/>
+      <c r="BD132" s="32"/>
+      <c r="BE132" s="32"/>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A133" s="32">
+      <c r="A133" s="38">
         <v>26</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="36"/>
+      <c r="C133" s="34"/>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="9">
         <f>C137+E137-COUNTIF(H133:BE133,1)-COUNTIF(H133:BE133,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H133" s="21"/>
+      <c r="H133" s="21">
+        <v>0</v>
+      </c>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
       <c r="K133" s="21"/>
@@ -10897,7 +10947,7 @@
       <c r="BE133" s="21"/>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>6</v>
       </c>
@@ -10910,14 +10960,18 @@
       </c>
       <c r="E134" s="10">
         <f>51-H137</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="H134" s="22">
+        <v>0</v>
+      </c>
+      <c r="I134" s="22">
+        <v>0</v>
+      </c>
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
       <c r="L134" s="22"/>
@@ -10968,7 +11022,7 @@
       <c r="BE134" s="22"/>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
+      <c r="A135" s="39"/>
       <c r="B135" s="18" t="s">
         <v>51</v>
       </c>
@@ -11039,7 +11093,7 @@
       <c r="BE135" s="23"/>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
+      <c r="A136" s="39"/>
       <c r="B136" s="19" t="s">
         <v>7</v>
       </c>
@@ -11110,7 +11164,7 @@
       <c r="BE136" s="24"/>
     </row>
     <row r="137" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
+      <c r="A137" s="40"/>
       <c r="B137" s="6" t="s">
         <v>72</v>
       </c>
@@ -11128,66 +11182,66 @@
         <v>58</v>
       </c>
       <c r="H137" s="26">
-        <v>12</v>
-      </c>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="41"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="41"/>
-      <c r="S137" s="41"/>
-      <c r="T137" s="41"/>
-      <c r="U137" s="41"/>
-      <c r="V137" s="41"/>
-      <c r="W137" s="41"/>
-      <c r="X137" s="41"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="41"/>
-      <c r="AA137" s="41"/>
-      <c r="AB137" s="41"/>
-      <c r="AC137" s="41"/>
-      <c r="AD137" s="41"/>
-      <c r="AE137" s="41"/>
-      <c r="AF137" s="41"/>
-      <c r="AG137" s="41"/>
-      <c r="AH137" s="41"/>
-      <c r="AI137" s="41"/>
-      <c r="AJ137" s="41"/>
-      <c r="AK137" s="41"/>
-      <c r="AL137" s="41"/>
-      <c r="AM137" s="41"/>
-      <c r="AN137" s="41"/>
-      <c r="AO137" s="41"/>
-      <c r="AP137" s="41"/>
-      <c r="AQ137" s="41"/>
-      <c r="AR137" s="41"/>
-      <c r="AS137" s="41"/>
-      <c r="AT137" s="41"/>
-      <c r="AU137" s="41"/>
-      <c r="AV137" s="41"/>
-      <c r="AW137" s="41"/>
-      <c r="AX137" s="41"/>
-      <c r="AY137" s="41"/>
-      <c r="AZ137" s="41"/>
-      <c r="BA137" s="41"/>
-      <c r="BB137" s="41"/>
-      <c r="BC137" s="41"/>
-      <c r="BD137" s="41"/>
-      <c r="BE137" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="32"/>
+      <c r="S137" s="32"/>
+      <c r="T137" s="32"/>
+      <c r="U137" s="32"/>
+      <c r="V137" s="32"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="32"/>
+      <c r="Z137" s="32"/>
+      <c r="AA137" s="32"/>
+      <c r="AB137" s="32"/>
+      <c r="AC137" s="32"/>
+      <c r="AD137" s="32"/>
+      <c r="AE137" s="32"/>
+      <c r="AF137" s="32"/>
+      <c r="AG137" s="32"/>
+      <c r="AH137" s="32"/>
+      <c r="AI137" s="32"/>
+      <c r="AJ137" s="32"/>
+      <c r="AK137" s="32"/>
+      <c r="AL137" s="32"/>
+      <c r="AM137" s="32"/>
+      <c r="AN137" s="32"/>
+      <c r="AO137" s="32"/>
+      <c r="AP137" s="32"/>
+      <c r="AQ137" s="32"/>
+      <c r="AR137" s="32"/>
+      <c r="AS137" s="32"/>
+      <c r="AT137" s="32"/>
+      <c r="AU137" s="32"/>
+      <c r="AV137" s="32"/>
+      <c r="AW137" s="32"/>
+      <c r="AX137" s="32"/>
+      <c r="AY137" s="32"/>
+      <c r="AZ137" s="32"/>
+      <c r="BA137" s="32"/>
+      <c r="BB137" s="32"/>
+      <c r="BC137" s="32"/>
+      <c r="BD137" s="32"/>
+      <c r="BE137" s="32"/>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A138" s="32">
+      <c r="A138" s="38">
         <v>27</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="36"/>
+      <c r="C138" s="34"/>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
@@ -11261,7 +11315,7 @@
       <c r="BE138" s="21"/>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
+      <c r="A139" s="39"/>
       <c r="B139" s="20" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11392,7 @@
       <c r="BE139" s="22"/>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
+      <c r="A140" s="39"/>
       <c r="B140" s="18" t="s">
         <v>51</v>
       </c>
@@ -11409,7 +11463,7 @@
       <c r="BE140" s="23"/>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="19" t="s">
         <v>7</v>
       </c>
@@ -11480,7 +11534,7 @@
       <c r="BE141" s="24"/>
     </row>
     <row r="142" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="34"/>
+      <c r="A142" s="40"/>
       <c r="B142" s="6" t="s">
         <v>72</v>
       </c>
@@ -11500,64 +11554,64 @@
       <c r="H142" s="26">
         <v>3</v>
       </c>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-      <c r="K142" s="41"/>
-      <c r="L142" s="41"/>
-      <c r="M142" s="41"/>
-      <c r="N142" s="41"/>
-      <c r="O142" s="41"/>
-      <c r="P142" s="41"/>
-      <c r="Q142" s="41"/>
-      <c r="R142" s="41"/>
-      <c r="S142" s="41"/>
-      <c r="T142" s="41"/>
-      <c r="U142" s="41"/>
-      <c r="V142" s="41"/>
-      <c r="W142" s="41"/>
-      <c r="X142" s="41"/>
-      <c r="Y142" s="41"/>
-      <c r="Z142" s="41"/>
-      <c r="AA142" s="41"/>
-      <c r="AB142" s="41"/>
-      <c r="AC142" s="41"/>
-      <c r="AD142" s="41"/>
-      <c r="AE142" s="41"/>
-      <c r="AF142" s="41"/>
-      <c r="AG142" s="41"/>
-      <c r="AH142" s="41"/>
-      <c r="AI142" s="41"/>
-      <c r="AJ142" s="41"/>
-      <c r="AK142" s="41"/>
-      <c r="AL142" s="41"/>
-      <c r="AM142" s="41"/>
-      <c r="AN142" s="41"/>
-      <c r="AO142" s="41"/>
-      <c r="AP142" s="41"/>
-      <c r="AQ142" s="41"/>
-      <c r="AR142" s="41"/>
-      <c r="AS142" s="41"/>
-      <c r="AT142" s="41"/>
-      <c r="AU142" s="41"/>
-      <c r="AV142" s="41"/>
-      <c r="AW142" s="41"/>
-      <c r="AX142" s="41"/>
-      <c r="AY142" s="41"/>
-      <c r="AZ142" s="41"/>
-      <c r="BA142" s="41"/>
-      <c r="BB142" s="41"/>
-      <c r="BC142" s="41"/>
-      <c r="BD142" s="41"/>
-      <c r="BE142" s="41"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
+      <c r="L142" s="32"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="32"/>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="32"/>
+      <c r="S142" s="32"/>
+      <c r="T142" s="32"/>
+      <c r="U142" s="32"/>
+      <c r="V142" s="32"/>
+      <c r="W142" s="32"/>
+      <c r="X142" s="32"/>
+      <c r="Y142" s="32"/>
+      <c r="Z142" s="32"/>
+      <c r="AA142" s="32"/>
+      <c r="AB142" s="32"/>
+      <c r="AC142" s="32"/>
+      <c r="AD142" s="32"/>
+      <c r="AE142" s="32"/>
+      <c r="AF142" s="32"/>
+      <c r="AG142" s="32"/>
+      <c r="AH142" s="32"/>
+      <c r="AI142" s="32"/>
+      <c r="AJ142" s="32"/>
+      <c r="AK142" s="32"/>
+      <c r="AL142" s="32"/>
+      <c r="AM142" s="32"/>
+      <c r="AN142" s="32"/>
+      <c r="AO142" s="32"/>
+      <c r="AP142" s="32"/>
+      <c r="AQ142" s="32"/>
+      <c r="AR142" s="32"/>
+      <c r="AS142" s="32"/>
+      <c r="AT142" s="32"/>
+      <c r="AU142" s="32"/>
+      <c r="AV142" s="32"/>
+      <c r="AW142" s="32"/>
+      <c r="AX142" s="32"/>
+      <c r="AY142" s="32"/>
+      <c r="AZ142" s="32"/>
+      <c r="BA142" s="32"/>
+      <c r="BB142" s="32"/>
+      <c r="BC142" s="32"/>
+      <c r="BD142" s="32"/>
+      <c r="BE142" s="32"/>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A143" s="32">
+      <c r="A143" s="38">
         <v>28</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="36"/>
+      <c r="C143" s="34"/>
       <c r="D143" s="15" t="s">
         <v>3</v>
       </c>
@@ -11631,7 +11685,7 @@
       <c r="BE143" s="21"/>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
+      <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>6</v>
       </c>
@@ -11708,7 +11762,7 @@
       <c r="BE144" s="22"/>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
+      <c r="A145" s="39"/>
       <c r="B145" s="18" t="s">
         <v>51</v>
       </c>
@@ -11721,15 +11775,19 @@
       </c>
       <c r="E145" s="10">
         <f>SUM(H143:BE145)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H145" s="23"/>
+      <c r="H145" s="23">
+        <v>1</v>
+      </c>
       <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
+      <c r="J145" s="23">
+        <v>1</v>
+      </c>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
@@ -11779,7 +11837,7 @@
       <c r="BE145" s="23"/>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
+      <c r="A146" s="39"/>
       <c r="B146" s="19" t="s">
         <v>7</v>
       </c>
@@ -11792,7 +11850,7 @@
       </c>
       <c r="E146" s="10">
         <f>E145+SUM(H146:BE146)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="30" t="s">
@@ -11850,7 +11908,7 @@
       <c r="BE146" s="24"/>
     </row>
     <row r="147" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="34"/>
+      <c r="A147" s="40"/>
       <c r="B147" s="6" t="s">
         <v>72</v>
       </c>
@@ -11868,64 +11926,64 @@
         <v>58</v>
       </c>
       <c r="H147" s="26"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-      <c r="K147" s="41"/>
-      <c r="L147" s="41"/>
-      <c r="M147" s="41"/>
-      <c r="N147" s="41"/>
-      <c r="O147" s="41"/>
-      <c r="P147" s="41"/>
-      <c r="Q147" s="41"/>
-      <c r="R147" s="41"/>
-      <c r="S147" s="41"/>
-      <c r="T147" s="41"/>
-      <c r="U147" s="41"/>
-      <c r="V147" s="41"/>
-      <c r="W147" s="41"/>
-      <c r="X147" s="41"/>
-      <c r="Y147" s="41"/>
-      <c r="Z147" s="41"/>
-      <c r="AA147" s="41"/>
-      <c r="AB147" s="41"/>
-      <c r="AC147" s="41"/>
-      <c r="AD147" s="41"/>
-      <c r="AE147" s="41"/>
-      <c r="AF147" s="41"/>
-      <c r="AG147" s="41"/>
-      <c r="AH147" s="41"/>
-      <c r="AI147" s="41"/>
-      <c r="AJ147" s="41"/>
-      <c r="AK147" s="41"/>
-      <c r="AL147" s="41"/>
-      <c r="AM147" s="41"/>
-      <c r="AN147" s="41"/>
-      <c r="AO147" s="41"/>
-      <c r="AP147" s="41"/>
-      <c r="AQ147" s="41"/>
-      <c r="AR147" s="41"/>
-      <c r="AS147" s="41"/>
-      <c r="AT147" s="41"/>
-      <c r="AU147" s="41"/>
-      <c r="AV147" s="41"/>
-      <c r="AW147" s="41"/>
-      <c r="AX147" s="41"/>
-      <c r="AY147" s="41"/>
-      <c r="AZ147" s="41"/>
-      <c r="BA147" s="41"/>
-      <c r="BB147" s="41"/>
-      <c r="BC147" s="41"/>
-      <c r="BD147" s="41"/>
-      <c r="BE147" s="41"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
+      <c r="L147" s="32"/>
+      <c r="M147" s="32"/>
+      <c r="N147" s="32"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="32"/>
+      <c r="Q147" s="32"/>
+      <c r="R147" s="32"/>
+      <c r="S147" s="32"/>
+      <c r="T147" s="32"/>
+      <c r="U147" s="32"/>
+      <c r="V147" s="32"/>
+      <c r="W147" s="32"/>
+      <c r="X147" s="32"/>
+      <c r="Y147" s="32"/>
+      <c r="Z147" s="32"/>
+      <c r="AA147" s="32"/>
+      <c r="AB147" s="32"/>
+      <c r="AC147" s="32"/>
+      <c r="AD147" s="32"/>
+      <c r="AE147" s="32"/>
+      <c r="AF147" s="32"/>
+      <c r="AG147" s="32"/>
+      <c r="AH147" s="32"/>
+      <c r="AI147" s="32"/>
+      <c r="AJ147" s="32"/>
+      <c r="AK147" s="32"/>
+      <c r="AL147" s="32"/>
+      <c r="AM147" s="32"/>
+      <c r="AN147" s="32"/>
+      <c r="AO147" s="32"/>
+      <c r="AP147" s="32"/>
+      <c r="AQ147" s="32"/>
+      <c r="AR147" s="32"/>
+      <c r="AS147" s="32"/>
+      <c r="AT147" s="32"/>
+      <c r="AU147" s="32"/>
+      <c r="AV147" s="32"/>
+      <c r="AW147" s="32"/>
+      <c r="AX147" s="32"/>
+      <c r="AY147" s="32"/>
+      <c r="AZ147" s="32"/>
+      <c r="BA147" s="32"/>
+      <c r="BB147" s="32"/>
+      <c r="BC147" s="32"/>
+      <c r="BD147" s="32"/>
+      <c r="BE147" s="32"/>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A148" s="32">
+      <c r="A148" s="38">
         <v>29</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="36"/>
+      <c r="C148" s="34"/>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
@@ -11937,7 +11995,9 @@
       <c r="G148" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H148" s="21"/>
+      <c r="H148" s="21">
+        <v>2</v>
+      </c>
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="21"/>
@@ -11989,7 +12049,7 @@
       <c r="BE148" s="21"/>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>6</v>
       </c>
@@ -12066,7 +12126,7 @@
       <c r="BE149" s="22"/>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
+      <c r="A150" s="39"/>
       <c r="B150" s="18" t="s">
         <v>51</v>
       </c>
@@ -12079,7 +12139,7 @@
       </c>
       <c r="E150" s="10">
         <f>SUM(H148:BE150)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="29" t="s">
@@ -12137,7 +12197,7 @@
       <c r="BE150" s="23"/>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
+      <c r="A151" s="39"/>
       <c r="B151" s="19" t="s">
         <v>7</v>
       </c>
@@ -12150,7 +12210,7 @@
       </c>
       <c r="E151" s="10">
         <f>E150+SUM(H151:BE151)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="30" t="s">
@@ -12208,7 +12268,7 @@
       <c r="BE151" s="24"/>
     </row>
     <row r="152" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
+      <c r="A152" s="40"/>
       <c r="B152" s="6" t="s">
         <v>72</v>
       </c>
@@ -12226,64 +12286,64 @@
         <v>58</v>
       </c>
       <c r="H152" s="26"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-      <c r="K152" s="41"/>
-      <c r="L152" s="41"/>
-      <c r="M152" s="41"/>
-      <c r="N152" s="41"/>
-      <c r="O152" s="41"/>
-      <c r="P152" s="41"/>
-      <c r="Q152" s="41"/>
-      <c r="R152" s="41"/>
-      <c r="S152" s="41"/>
-      <c r="T152" s="41"/>
-      <c r="U152" s="41"/>
-      <c r="V152" s="41"/>
-      <c r="W152" s="41"/>
-      <c r="X152" s="41"/>
-      <c r="Y152" s="41"/>
-      <c r="Z152" s="41"/>
-      <c r="AA152" s="41"/>
-      <c r="AB152" s="41"/>
-      <c r="AC152" s="41"/>
-      <c r="AD152" s="41"/>
-      <c r="AE152" s="41"/>
-      <c r="AF152" s="41"/>
-      <c r="AG152" s="41"/>
-      <c r="AH152" s="41"/>
-      <c r="AI152" s="41"/>
-      <c r="AJ152" s="41"/>
-      <c r="AK152" s="41"/>
-      <c r="AL152" s="41"/>
-      <c r="AM152" s="41"/>
-      <c r="AN152" s="41"/>
-      <c r="AO152" s="41"/>
-      <c r="AP152" s="41"/>
-      <c r="AQ152" s="41"/>
-      <c r="AR152" s="41"/>
-      <c r="AS152" s="41"/>
-      <c r="AT152" s="41"/>
-      <c r="AU152" s="41"/>
-      <c r="AV152" s="41"/>
-      <c r="AW152" s="41"/>
-      <c r="AX152" s="41"/>
-      <c r="AY152" s="41"/>
-      <c r="AZ152" s="41"/>
-      <c r="BA152" s="41"/>
-      <c r="BB152" s="41"/>
-      <c r="BC152" s="41"/>
-      <c r="BD152" s="41"/>
-      <c r="BE152" s="41"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="32"/>
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="32"/>
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="32"/>
+      <c r="AE152" s="32"/>
+      <c r="AF152" s="32"/>
+      <c r="AG152" s="32"/>
+      <c r="AH152" s="32"/>
+      <c r="AI152" s="32"/>
+      <c r="AJ152" s="32"/>
+      <c r="AK152" s="32"/>
+      <c r="AL152" s="32"/>
+      <c r="AM152" s="32"/>
+      <c r="AN152" s="32"/>
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="32"/>
+      <c r="AQ152" s="32"/>
+      <c r="AR152" s="32"/>
+      <c r="AS152" s="32"/>
+      <c r="AT152" s="32"/>
+      <c r="AU152" s="32"/>
+      <c r="AV152" s="32"/>
+      <c r="AW152" s="32"/>
+      <c r="AX152" s="32"/>
+      <c r="AY152" s="32"/>
+      <c r="AZ152" s="32"/>
+      <c r="BA152" s="32"/>
+      <c r="BB152" s="32"/>
+      <c r="BC152" s="32"/>
+      <c r="BD152" s="32"/>
+      <c r="BE152" s="32"/>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A153" s="32">
+      <c r="A153" s="38">
         <v>30</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="36"/>
+      <c r="C153" s="34"/>
       <c r="D153" s="15" t="s">
         <v>3</v>
       </c>
@@ -12359,7 +12419,7 @@
       <c r="BE153" s="21"/>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
+      <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>6</v>
       </c>
@@ -12436,7 +12496,7 @@
       <c r="BE154" s="22"/>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
+      <c r="A155" s="39"/>
       <c r="B155" s="18" t="s">
         <v>51</v>
       </c>
@@ -12507,7 +12567,7 @@
       <c r="BE155" s="23"/>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
+      <c r="A156" s="39"/>
       <c r="B156" s="19" t="s">
         <v>7</v>
       </c>
@@ -12578,7 +12638,7 @@
       <c r="BE156" s="24"/>
     </row>
     <row r="157" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
+      <c r="A157" s="40"/>
       <c r="B157" s="6" t="s">
         <v>72</v>
       </c>
@@ -12596,64 +12656,64 @@
         <v>58</v>
       </c>
       <c r="H157" s="26"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
-      <c r="K157" s="41"/>
-      <c r="L157" s="41"/>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="41"/>
-      <c r="R157" s="41"/>
-      <c r="S157" s="41"/>
-      <c r="T157" s="41"/>
-      <c r="U157" s="41"/>
-      <c r="V157" s="41"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="41"/>
-      <c r="Y157" s="41"/>
-      <c r="Z157" s="41"/>
-      <c r="AA157" s="41"/>
-      <c r="AB157" s="41"/>
-      <c r="AC157" s="41"/>
-      <c r="AD157" s="41"/>
-      <c r="AE157" s="41"/>
-      <c r="AF157" s="41"/>
-      <c r="AG157" s="41"/>
-      <c r="AH157" s="41"/>
-      <c r="AI157" s="41"/>
-      <c r="AJ157" s="41"/>
-      <c r="AK157" s="41"/>
-      <c r="AL157" s="41"/>
-      <c r="AM157" s="41"/>
-      <c r="AN157" s="41"/>
-      <c r="AO157" s="41"/>
-      <c r="AP157" s="41"/>
-      <c r="AQ157" s="41"/>
-      <c r="AR157" s="41"/>
-      <c r="AS157" s="41"/>
-      <c r="AT157" s="41"/>
-      <c r="AU157" s="41"/>
-      <c r="AV157" s="41"/>
-      <c r="AW157" s="41"/>
-      <c r="AX157" s="41"/>
-      <c r="AY157" s="41"/>
-      <c r="AZ157" s="41"/>
-      <c r="BA157" s="41"/>
-      <c r="BB157" s="41"/>
-      <c r="BC157" s="41"/>
-      <c r="BD157" s="41"/>
-      <c r="BE157" s="41"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32"/>
+      <c r="L157" s="32"/>
+      <c r="M157" s="32"/>
+      <c r="N157" s="32"/>
+      <c r="O157" s="32"/>
+      <c r="P157" s="32"/>
+      <c r="Q157" s="32"/>
+      <c r="R157" s="32"/>
+      <c r="S157" s="32"/>
+      <c r="T157" s="32"/>
+      <c r="U157" s="32"/>
+      <c r="V157" s="32"/>
+      <c r="W157" s="32"/>
+      <c r="X157" s="32"/>
+      <c r="Y157" s="32"/>
+      <c r="Z157" s="32"/>
+      <c r="AA157" s="32"/>
+      <c r="AB157" s="32"/>
+      <c r="AC157" s="32"/>
+      <c r="AD157" s="32"/>
+      <c r="AE157" s="32"/>
+      <c r="AF157" s="32"/>
+      <c r="AG157" s="32"/>
+      <c r="AH157" s="32"/>
+      <c r="AI157" s="32"/>
+      <c r="AJ157" s="32"/>
+      <c r="AK157" s="32"/>
+      <c r="AL157" s="32"/>
+      <c r="AM157" s="32"/>
+      <c r="AN157" s="32"/>
+      <c r="AO157" s="32"/>
+      <c r="AP157" s="32"/>
+      <c r="AQ157" s="32"/>
+      <c r="AR157" s="32"/>
+      <c r="AS157" s="32"/>
+      <c r="AT157" s="32"/>
+      <c r="AU157" s="32"/>
+      <c r="AV157" s="32"/>
+      <c r="AW157" s="32"/>
+      <c r="AX157" s="32"/>
+      <c r="AY157" s="32"/>
+      <c r="AZ157" s="32"/>
+      <c r="BA157" s="32"/>
+      <c r="BB157" s="32"/>
+      <c r="BC157" s="32"/>
+      <c r="BD157" s="32"/>
+      <c r="BE157" s="32"/>
     </row>
     <row r="158" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A158" s="32">
+      <c r="A158" s="38">
         <v>31</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="36"/>
+      <c r="C158" s="34"/>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
@@ -12725,7 +12785,7 @@
       <c r="BE158" s="21"/>
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>6</v>
       </c>
@@ -12802,7 +12862,7 @@
       <c r="BE159" s="22"/>
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="18" t="s">
         <v>51</v>
       </c>
@@ -12873,7 +12933,7 @@
       <c r="BE160" s="23"/>
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="19" t="s">
         <v>7</v>
       </c>
@@ -12944,7 +13004,7 @@
       <c r="BE161" s="24"/>
     </row>
     <row r="162" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="34"/>
+      <c r="A162" s="40"/>
       <c r="B162" s="6" t="s">
         <v>72</v>
       </c>
@@ -12962,76 +13022,78 @@
         <v>58</v>
       </c>
       <c r="H162" s="26"/>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-      <c r="K162" s="41"/>
-      <c r="L162" s="41"/>
-      <c r="M162" s="41"/>
-      <c r="N162" s="41"/>
-      <c r="O162" s="41"/>
-      <c r="P162" s="41"/>
-      <c r="Q162" s="41"/>
-      <c r="R162" s="41"/>
-      <c r="S162" s="41"/>
-      <c r="T162" s="41"/>
-      <c r="U162" s="41"/>
-      <c r="V162" s="41"/>
-      <c r="W162" s="41"/>
-      <c r="X162" s="41"/>
-      <c r="Y162" s="41"/>
-      <c r="Z162" s="41"/>
-      <c r="AA162" s="41"/>
-      <c r="AB162" s="41"/>
-      <c r="AC162" s="41"/>
-      <c r="AD162" s="41"/>
-      <c r="AE162" s="41"/>
-      <c r="AF162" s="41"/>
-      <c r="AG162" s="41"/>
-      <c r="AH162" s="41"/>
-      <c r="AI162" s="41"/>
-      <c r="AJ162" s="41"/>
-      <c r="AK162" s="41"/>
-      <c r="AL162" s="41"/>
-      <c r="AM162" s="41"/>
-      <c r="AN162" s="41"/>
-      <c r="AO162" s="41"/>
-      <c r="AP162" s="41"/>
-      <c r="AQ162" s="41"/>
-      <c r="AR162" s="41"/>
-      <c r="AS162" s="41"/>
-      <c r="AT162" s="41"/>
-      <c r="AU162" s="41"/>
-      <c r="AV162" s="41"/>
-      <c r="AW162" s="41"/>
-      <c r="AX162" s="41"/>
-      <c r="AY162" s="41"/>
-      <c r="AZ162" s="41"/>
-      <c r="BA162" s="41"/>
-      <c r="BB162" s="41"/>
-      <c r="BC162" s="41"/>
-      <c r="BD162" s="41"/>
-      <c r="BE162" s="41"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32"/>
+      <c r="L162" s="32"/>
+      <c r="M162" s="32"/>
+      <c r="N162" s="32"/>
+      <c r="O162" s="32"/>
+      <c r="P162" s="32"/>
+      <c r="Q162" s="32"/>
+      <c r="R162" s="32"/>
+      <c r="S162" s="32"/>
+      <c r="T162" s="32"/>
+      <c r="U162" s="32"/>
+      <c r="V162" s="32"/>
+      <c r="W162" s="32"/>
+      <c r="X162" s="32"/>
+      <c r="Y162" s="32"/>
+      <c r="Z162" s="32"/>
+      <c r="AA162" s="32"/>
+      <c r="AB162" s="32"/>
+      <c r="AC162" s="32"/>
+      <c r="AD162" s="32"/>
+      <c r="AE162" s="32"/>
+      <c r="AF162" s="32"/>
+      <c r="AG162" s="32"/>
+      <c r="AH162" s="32"/>
+      <c r="AI162" s="32"/>
+      <c r="AJ162" s="32"/>
+      <c r="AK162" s="32"/>
+      <c r="AL162" s="32"/>
+      <c r="AM162" s="32"/>
+      <c r="AN162" s="32"/>
+      <c r="AO162" s="32"/>
+      <c r="AP162" s="32"/>
+      <c r="AQ162" s="32"/>
+      <c r="AR162" s="32"/>
+      <c r="AS162" s="32"/>
+      <c r="AT162" s="32"/>
+      <c r="AU162" s="32"/>
+      <c r="AV162" s="32"/>
+      <c r="AW162" s="32"/>
+      <c r="AX162" s="32"/>
+      <c r="AY162" s="32"/>
+      <c r="AZ162" s="32"/>
+      <c r="BA162" s="32"/>
+      <c r="BB162" s="32"/>
+      <c r="BC162" s="32"/>
+      <c r="BD162" s="32"/>
+      <c r="BE162" s="32"/>
     </row>
     <row r="163" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A163" s="32">
+      <c r="A163" s="38">
         <v>32</v>
       </c>
-      <c r="B163" s="35" t="s">
+      <c r="B163" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="36"/>
+      <c r="C163" s="34"/>
       <c r="D163" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="9">
         <f>C167+E167-COUNTIF(H163:BE163,1)-COUNTIF(H163:BE163,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H163" s="21"/>
+      <c r="H163" s="21">
+        <v>0</v>
+      </c>
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
       <c r="K163" s="21"/>
@@ -13083,7 +13145,7 @@
       <c r="BE163" s="21"/>
     </row>
     <row r="164" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="20" t="s">
         <v>6</v>
       </c>
@@ -13096,14 +13158,18 @@
       </c>
       <c r="E164" s="10">
         <f>51-H167</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H164" s="22"/>
-      <c r="I164" s="22"/>
+      <c r="H164" s="22">
+        <v>0</v>
+      </c>
+      <c r="I164" s="22">
+        <v>0</v>
+      </c>
       <c r="J164" s="22"/>
       <c r="K164" s="22"/>
       <c r="L164" s="22"/>
@@ -13154,7 +13220,7 @@
       <c r="BE164" s="22"/>
     </row>
     <row r="165" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="18" t="s">
         <v>51</v>
       </c>
@@ -13225,7 +13291,7 @@
       <c r="BE165" s="23"/>
     </row>
     <row r="166" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="19" t="s">
         <v>7</v>
       </c>
@@ -13296,7 +13362,7 @@
       <c r="BE166" s="24"/>
     </row>
     <row r="167" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="34"/>
+      <c r="A167" s="40"/>
       <c r="B167" s="6" t="s">
         <v>72</v>
       </c>
@@ -13314,78 +13380,80 @@
         <v>58</v>
       </c>
       <c r="H167" s="26">
-        <v>12</v>
-      </c>
-      <c r="I167" s="41"/>
-      <c r="J167" s="41"/>
-      <c r="K167" s="41"/>
-      <c r="L167" s="41"/>
-      <c r="M167" s="41"/>
-      <c r="N167" s="41"/>
-      <c r="O167" s="41"/>
-      <c r="P167" s="41"/>
-      <c r="Q167" s="41"/>
-      <c r="R167" s="41"/>
-      <c r="S167" s="41"/>
-      <c r="T167" s="41"/>
-      <c r="U167" s="41"/>
-      <c r="V167" s="41"/>
-      <c r="W167" s="41"/>
-      <c r="X167" s="41"/>
-      <c r="Y167" s="41"/>
-      <c r="Z167" s="41"/>
-      <c r="AA167" s="41"/>
-      <c r="AB167" s="41"/>
-      <c r="AC167" s="41"/>
-      <c r="AD167" s="41"/>
-      <c r="AE167" s="41"/>
-      <c r="AF167" s="41"/>
-      <c r="AG167" s="41"/>
-      <c r="AH167" s="41"/>
-      <c r="AI167" s="41"/>
-      <c r="AJ167" s="41"/>
-      <c r="AK167" s="41"/>
-      <c r="AL167" s="41"/>
-      <c r="AM167" s="41"/>
-      <c r="AN167" s="41"/>
-      <c r="AO167" s="41"/>
-      <c r="AP167" s="41"/>
-      <c r="AQ167" s="41"/>
-      <c r="AR167" s="41"/>
-      <c r="AS167" s="41"/>
-      <c r="AT167" s="41"/>
-      <c r="AU167" s="41"/>
-      <c r="AV167" s="41"/>
-      <c r="AW167" s="41"/>
-      <c r="AX167" s="41"/>
-      <c r="AY167" s="41"/>
-      <c r="AZ167" s="41"/>
-      <c r="BA167" s="41"/>
-      <c r="BB167" s="41"/>
-      <c r="BC167" s="41"/>
-      <c r="BD167" s="41"/>
-      <c r="BE167" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="32"/>
+      <c r="N167" s="32"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="32"/>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="32"/>
+      <c r="S167" s="32"/>
+      <c r="T167" s="32"/>
+      <c r="U167" s="32"/>
+      <c r="V167" s="32"/>
+      <c r="W167" s="32"/>
+      <c r="X167" s="32"/>
+      <c r="Y167" s="32"/>
+      <c r="Z167" s="32"/>
+      <c r="AA167" s="32"/>
+      <c r="AB167" s="32"/>
+      <c r="AC167" s="32"/>
+      <c r="AD167" s="32"/>
+      <c r="AE167" s="32"/>
+      <c r="AF167" s="32"/>
+      <c r="AG167" s="32"/>
+      <c r="AH167" s="32"/>
+      <c r="AI167" s="32"/>
+      <c r="AJ167" s="32"/>
+      <c r="AK167" s="32"/>
+      <c r="AL167" s="32"/>
+      <c r="AM167" s="32"/>
+      <c r="AN167" s="32"/>
+      <c r="AO167" s="32"/>
+      <c r="AP167" s="32"/>
+      <c r="AQ167" s="32"/>
+      <c r="AR167" s="32"/>
+      <c r="AS167" s="32"/>
+      <c r="AT167" s="32"/>
+      <c r="AU167" s="32"/>
+      <c r="AV167" s="32"/>
+      <c r="AW167" s="32"/>
+      <c r="AX167" s="32"/>
+      <c r="AY167" s="32"/>
+      <c r="AZ167" s="32"/>
+      <c r="BA167" s="32"/>
+      <c r="BB167" s="32"/>
+      <c r="BC167" s="32"/>
+      <c r="BD167" s="32"/>
+      <c r="BE167" s="32"/>
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A168" s="32">
+      <c r="A168" s="38">
         <v>33</v>
       </c>
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C168" s="36"/>
+      <c r="C168" s="34"/>
       <c r="D168" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="9">
         <f>C172+E172-COUNTIF(H168:BE168,1)-COUNTIF(H168:BE168,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H168" s="21"/>
+      <c r="H168" s="21">
+        <v>1</v>
+      </c>
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="21"/>
@@ -13439,7 +13507,7 @@
       <c r="BE168" s="21"/>
     </row>
     <row r="169" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>6</v>
       </c>
@@ -13516,7 +13584,7 @@
       <c r="BE169" s="22"/>
     </row>
     <row r="170" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
+      <c r="A170" s="39"/>
       <c r="B170" s="18" t="s">
         <v>51</v>
       </c>
@@ -13529,7 +13597,7 @@
       </c>
       <c r="E170" s="10">
         <f>SUM(H168:BE170)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="29" t="s">
@@ -13587,7 +13655,7 @@
       <c r="BE170" s="23"/>
     </row>
     <row r="171" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="19" t="s">
         <v>7</v>
       </c>
@@ -13600,7 +13668,7 @@
       </c>
       <c r="E171" s="10">
         <f>E170+SUM(H171:BE171)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="30" t="s">
@@ -13658,7 +13726,7 @@
       <c r="BE171" s="24"/>
     </row>
     <row r="172" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="34"/>
+      <c r="A172" s="40"/>
       <c r="B172" s="6" t="s">
         <v>72</v>
       </c>
@@ -13676,76 +13744,78 @@
         <v>58</v>
       </c>
       <c r="H172" s="26"/>
-      <c r="I172" s="41"/>
-      <c r="J172" s="41"/>
-      <c r="K172" s="41"/>
-      <c r="L172" s="41"/>
-      <c r="M172" s="41"/>
-      <c r="N172" s="41"/>
-      <c r="O172" s="41"/>
-      <c r="P172" s="41"/>
-      <c r="Q172" s="41"/>
-      <c r="R172" s="41"/>
-      <c r="S172" s="41"/>
-      <c r="T172" s="41"/>
-      <c r="U172" s="41"/>
-      <c r="V172" s="41"/>
-      <c r="W172" s="41"/>
-      <c r="X172" s="41"/>
-      <c r="Y172" s="41"/>
-      <c r="Z172" s="41"/>
-      <c r="AA172" s="41"/>
-      <c r="AB172" s="41"/>
-      <c r="AC172" s="41"/>
-      <c r="AD172" s="41"/>
-      <c r="AE172" s="41"/>
-      <c r="AF172" s="41"/>
-      <c r="AG172" s="41"/>
-      <c r="AH172" s="41"/>
-      <c r="AI172" s="41"/>
-      <c r="AJ172" s="41"/>
-      <c r="AK172" s="41"/>
-      <c r="AL172" s="41"/>
-      <c r="AM172" s="41"/>
-      <c r="AN172" s="41"/>
-      <c r="AO172" s="41"/>
-      <c r="AP172" s="41"/>
-      <c r="AQ172" s="41"/>
-      <c r="AR172" s="41"/>
-      <c r="AS172" s="41"/>
-      <c r="AT172" s="41"/>
-      <c r="AU172" s="41"/>
-      <c r="AV172" s="41"/>
-      <c r="AW172" s="41"/>
-      <c r="AX172" s="41"/>
-      <c r="AY172" s="41"/>
-      <c r="AZ172" s="41"/>
-      <c r="BA172" s="41"/>
-      <c r="BB172" s="41"/>
-      <c r="BC172" s="41"/>
-      <c r="BD172" s="41"/>
-      <c r="BE172" s="41"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32"/>
+      <c r="L172" s="32"/>
+      <c r="M172" s="32"/>
+      <c r="N172" s="32"/>
+      <c r="O172" s="32"/>
+      <c r="P172" s="32"/>
+      <c r="Q172" s="32"/>
+      <c r="R172" s="32"/>
+      <c r="S172" s="32"/>
+      <c r="T172" s="32"/>
+      <c r="U172" s="32"/>
+      <c r="V172" s="32"/>
+      <c r="W172" s="32"/>
+      <c r="X172" s="32"/>
+      <c r="Y172" s="32"/>
+      <c r="Z172" s="32"/>
+      <c r="AA172" s="32"/>
+      <c r="AB172" s="32"/>
+      <c r="AC172" s="32"/>
+      <c r="AD172" s="32"/>
+      <c r="AE172" s="32"/>
+      <c r="AF172" s="32"/>
+      <c r="AG172" s="32"/>
+      <c r="AH172" s="32"/>
+      <c r="AI172" s="32"/>
+      <c r="AJ172" s="32"/>
+      <c r="AK172" s="32"/>
+      <c r="AL172" s="32"/>
+      <c r="AM172" s="32"/>
+      <c r="AN172" s="32"/>
+      <c r="AO172" s="32"/>
+      <c r="AP172" s="32"/>
+      <c r="AQ172" s="32"/>
+      <c r="AR172" s="32"/>
+      <c r="AS172" s="32"/>
+      <c r="AT172" s="32"/>
+      <c r="AU172" s="32"/>
+      <c r="AV172" s="32"/>
+      <c r="AW172" s="32"/>
+      <c r="AX172" s="32"/>
+      <c r="AY172" s="32"/>
+      <c r="AZ172" s="32"/>
+      <c r="BA172" s="32"/>
+      <c r="BB172" s="32"/>
+      <c r="BC172" s="32"/>
+      <c r="BD172" s="32"/>
+      <c r="BE172" s="32"/>
     </row>
     <row r="173" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A173" s="32">
+      <c r="A173" s="38">
         <v>34</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C173" s="36"/>
+      <c r="C173" s="34"/>
       <c r="D173" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="9">
         <f>C177+E177-COUNTIF(H173:BE173,1)-COUNTIF(H173:BE173,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H173" s="21"/>
+      <c r="H173" s="21">
+        <v>0</v>
+      </c>
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
       <c r="K173" s="21"/>
@@ -13797,7 +13867,7 @@
       <c r="BE173" s="21"/>
     </row>
     <row r="174" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A174" s="33"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="20" t="s">
         <v>6</v>
       </c>
@@ -13810,14 +13880,18 @@
       </c>
       <c r="E174" s="10">
         <f>51-H177</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H174" s="22"/>
-      <c r="I174" s="22"/>
+      <c r="H174" s="22">
+        <v>0</v>
+      </c>
+      <c r="I174" s="22">
+        <v>0</v>
+      </c>
       <c r="J174" s="22"/>
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
@@ -13868,7 +13942,7 @@
       <c r="BE174" s="22"/>
     </row>
     <row r="175" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A175" s="33"/>
+      <c r="A175" s="39"/>
       <c r="B175" s="18" t="s">
         <v>51</v>
       </c>
@@ -13939,7 +14013,7 @@
       <c r="BE175" s="23"/>
     </row>
     <row r="176" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A176" s="33"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="19" t="s">
         <v>7</v>
       </c>
@@ -14010,7 +14084,7 @@
       <c r="BE176" s="24"/>
     </row>
     <row r="177" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="34"/>
+      <c r="A177" s="40"/>
       <c r="B177" s="6" t="s">
         <v>72</v>
       </c>
@@ -14028,66 +14102,66 @@
         <v>58</v>
       </c>
       <c r="H177" s="26">
-        <v>15</v>
-      </c>
-      <c r="I177" s="41"/>
-      <c r="J177" s="41"/>
-      <c r="K177" s="41"/>
-      <c r="L177" s="41"/>
-      <c r="M177" s="41"/>
-      <c r="N177" s="41"/>
-      <c r="O177" s="41"/>
-      <c r="P177" s="41"/>
-      <c r="Q177" s="41"/>
-      <c r="R177" s="41"/>
-      <c r="S177" s="41"/>
-      <c r="T177" s="41"/>
-      <c r="U177" s="41"/>
-      <c r="V177" s="41"/>
-      <c r="W177" s="41"/>
-      <c r="X177" s="41"/>
-      <c r="Y177" s="41"/>
-      <c r="Z177" s="41"/>
-      <c r="AA177" s="41"/>
-      <c r="AB177" s="41"/>
-      <c r="AC177" s="41"/>
-      <c r="AD177" s="41"/>
-      <c r="AE177" s="41"/>
-      <c r="AF177" s="41"/>
-      <c r="AG177" s="41"/>
-      <c r="AH177" s="41"/>
-      <c r="AI177" s="41"/>
-      <c r="AJ177" s="41"/>
-      <c r="AK177" s="41"/>
-      <c r="AL177" s="41"/>
-      <c r="AM177" s="41"/>
-      <c r="AN177" s="41"/>
-      <c r="AO177" s="41"/>
-      <c r="AP177" s="41"/>
-      <c r="AQ177" s="41"/>
-      <c r="AR177" s="41"/>
-      <c r="AS177" s="41"/>
-      <c r="AT177" s="41"/>
-      <c r="AU177" s="41"/>
-      <c r="AV177" s="41"/>
-      <c r="AW177" s="41"/>
-      <c r="AX177" s="41"/>
-      <c r="AY177" s="41"/>
-      <c r="AZ177" s="41"/>
-      <c r="BA177" s="41"/>
-      <c r="BB177" s="41"/>
-      <c r="BC177" s="41"/>
-      <c r="BD177" s="41"/>
-      <c r="BE177" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32"/>
+      <c r="L177" s="32"/>
+      <c r="M177" s="32"/>
+      <c r="N177" s="32"/>
+      <c r="O177" s="32"/>
+      <c r="P177" s="32"/>
+      <c r="Q177" s="32"/>
+      <c r="R177" s="32"/>
+      <c r="S177" s="32"/>
+      <c r="T177" s="32"/>
+      <c r="U177" s="32"/>
+      <c r="V177" s="32"/>
+      <c r="W177" s="32"/>
+      <c r="X177" s="32"/>
+      <c r="Y177" s="32"/>
+      <c r="Z177" s="32"/>
+      <c r="AA177" s="32"/>
+      <c r="AB177" s="32"/>
+      <c r="AC177" s="32"/>
+      <c r="AD177" s="32"/>
+      <c r="AE177" s="32"/>
+      <c r="AF177" s="32"/>
+      <c r="AG177" s="32"/>
+      <c r="AH177" s="32"/>
+      <c r="AI177" s="32"/>
+      <c r="AJ177" s="32"/>
+      <c r="AK177" s="32"/>
+      <c r="AL177" s="32"/>
+      <c r="AM177" s="32"/>
+      <c r="AN177" s="32"/>
+      <c r="AO177" s="32"/>
+      <c r="AP177" s="32"/>
+      <c r="AQ177" s="32"/>
+      <c r="AR177" s="32"/>
+      <c r="AS177" s="32"/>
+      <c r="AT177" s="32"/>
+      <c r="AU177" s="32"/>
+      <c r="AV177" s="32"/>
+      <c r="AW177" s="32"/>
+      <c r="AX177" s="32"/>
+      <c r="AY177" s="32"/>
+      <c r="AZ177" s="32"/>
+      <c r="BA177" s="32"/>
+      <c r="BB177" s="32"/>
+      <c r="BC177" s="32"/>
+      <c r="BD177" s="32"/>
+      <c r="BE177" s="32"/>
     </row>
     <row r="178" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A178" s="32">
+      <c r="A178" s="38">
         <v>35</v>
       </c>
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C178" s="36"/>
+      <c r="C178" s="34"/>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
@@ -14163,7 +14237,7 @@
       <c r="BE178" s="21"/>
     </row>
     <row r="179" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A179" s="33"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>6</v>
       </c>
@@ -14182,7 +14256,9 @@
       <c r="G179" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H179" s="22"/>
+      <c r="H179" s="22">
+        <v>1</v>
+      </c>
       <c r="I179" s="22">
         <v>1</v>
       </c>
@@ -14238,7 +14314,7 @@
       <c r="BE179" s="22"/>
     </row>
     <row r="180" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A180" s="33"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="18" t="s">
         <v>51</v>
       </c>
@@ -14251,7 +14327,7 @@
       </c>
       <c r="E180" s="10">
         <f>SUM(H178:BE180)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F180" s="13"/>
       <c r="G180" s="29" t="s">
@@ -14311,7 +14387,7 @@
       <c r="BE180" s="23"/>
     </row>
     <row r="181" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A181" s="33"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="19" t="s">
         <v>7</v>
       </c>
@@ -14324,7 +14400,7 @@
       </c>
       <c r="E181" s="10">
         <f>E180+SUM(H181:BE181)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F181" s="13"/>
       <c r="G181" s="30" t="s">
@@ -14382,7 +14458,7 @@
       <c r="BE181" s="24"/>
     </row>
     <row r="182" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="34"/>
+      <c r="A182" s="40"/>
       <c r="B182" s="6" t="s">
         <v>72</v>
       </c>
@@ -14400,64 +14476,64 @@
         <v>58</v>
       </c>
       <c r="H182" s="26"/>
-      <c r="I182" s="41"/>
-      <c r="J182" s="41"/>
-      <c r="K182" s="41"/>
-      <c r="L182" s="41"/>
-      <c r="M182" s="41"/>
-      <c r="N182" s="41"/>
-      <c r="O182" s="41"/>
-      <c r="P182" s="41"/>
-      <c r="Q182" s="41"/>
-      <c r="R182" s="41"/>
-      <c r="S182" s="41"/>
-      <c r="T182" s="41"/>
-      <c r="U182" s="41"/>
-      <c r="V182" s="41"/>
-      <c r="W182" s="41"/>
-      <c r="X182" s="41"/>
-      <c r="Y182" s="41"/>
-      <c r="Z182" s="41"/>
-      <c r="AA182" s="41"/>
-      <c r="AB182" s="41"/>
-      <c r="AC182" s="41"/>
-      <c r="AD182" s="41"/>
-      <c r="AE182" s="41"/>
-      <c r="AF182" s="41"/>
-      <c r="AG182" s="41"/>
-      <c r="AH182" s="41"/>
-      <c r="AI182" s="41"/>
-      <c r="AJ182" s="41"/>
-      <c r="AK182" s="41"/>
-      <c r="AL182" s="41"/>
-      <c r="AM182" s="41"/>
-      <c r="AN182" s="41"/>
-      <c r="AO182" s="41"/>
-      <c r="AP182" s="41"/>
-      <c r="AQ182" s="41"/>
-      <c r="AR182" s="41"/>
-      <c r="AS182" s="41"/>
-      <c r="AT182" s="41"/>
-      <c r="AU182" s="41"/>
-      <c r="AV182" s="41"/>
-      <c r="AW182" s="41"/>
-      <c r="AX182" s="41"/>
-      <c r="AY182" s="41"/>
-      <c r="AZ182" s="41"/>
-      <c r="BA182" s="41"/>
-      <c r="BB182" s="41"/>
-      <c r="BC182" s="41"/>
-      <c r="BD182" s="41"/>
-      <c r="BE182" s="41"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="32"/>
+      <c r="L182" s="32"/>
+      <c r="M182" s="32"/>
+      <c r="N182" s="32"/>
+      <c r="O182" s="32"/>
+      <c r="P182" s="32"/>
+      <c r="Q182" s="32"/>
+      <c r="R182" s="32"/>
+      <c r="S182" s="32"/>
+      <c r="T182" s="32"/>
+      <c r="U182" s="32"/>
+      <c r="V182" s="32"/>
+      <c r="W182" s="32"/>
+      <c r="X182" s="32"/>
+      <c r="Y182" s="32"/>
+      <c r="Z182" s="32"/>
+      <c r="AA182" s="32"/>
+      <c r="AB182" s="32"/>
+      <c r="AC182" s="32"/>
+      <c r="AD182" s="32"/>
+      <c r="AE182" s="32"/>
+      <c r="AF182" s="32"/>
+      <c r="AG182" s="32"/>
+      <c r="AH182" s="32"/>
+      <c r="AI182" s="32"/>
+      <c r="AJ182" s="32"/>
+      <c r="AK182" s="32"/>
+      <c r="AL182" s="32"/>
+      <c r="AM182" s="32"/>
+      <c r="AN182" s="32"/>
+      <c r="AO182" s="32"/>
+      <c r="AP182" s="32"/>
+      <c r="AQ182" s="32"/>
+      <c r="AR182" s="32"/>
+      <c r="AS182" s="32"/>
+      <c r="AT182" s="32"/>
+      <c r="AU182" s="32"/>
+      <c r="AV182" s="32"/>
+      <c r="AW182" s="32"/>
+      <c r="AX182" s="32"/>
+      <c r="AY182" s="32"/>
+      <c r="AZ182" s="32"/>
+      <c r="BA182" s="32"/>
+      <c r="BB182" s="32"/>
+      <c r="BC182" s="32"/>
+      <c r="BD182" s="32"/>
+      <c r="BE182" s="32"/>
     </row>
     <row r="183" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A183" s="32">
+      <c r="A183" s="38">
         <v>36</v>
       </c>
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C183" s="36"/>
+      <c r="C183" s="34"/>
       <c r="D183" s="15" t="s">
         <v>3</v>
       </c>
@@ -14533,7 +14609,7 @@
       <c r="BE183" s="21"/>
     </row>
     <row r="184" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>6</v>
       </c>
@@ -14610,7 +14686,7 @@
       <c r="BE184" s="22"/>
     </row>
     <row r="185" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A185" s="33"/>
+      <c r="A185" s="39"/>
       <c r="B185" s="18" t="s">
         <v>51</v>
       </c>
@@ -14685,7 +14761,7 @@
       <c r="BE185" s="23"/>
     </row>
     <row r="186" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A186" s="33"/>
+      <c r="A186" s="39"/>
       <c r="B186" s="19" t="s">
         <v>7</v>
       </c>
@@ -14756,7 +14832,7 @@
       <c r="BE186" s="24"/>
     </row>
     <row r="187" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="34"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="6" t="s">
         <v>72</v>
       </c>
@@ -14774,76 +14850,78 @@
         <v>58</v>
       </c>
       <c r="H187" s="26"/>
-      <c r="I187" s="41"/>
-      <c r="J187" s="41"/>
-      <c r="K187" s="41"/>
-      <c r="L187" s="41"/>
-      <c r="M187" s="41"/>
-      <c r="N187" s="41"/>
-      <c r="O187" s="41"/>
-      <c r="P187" s="41"/>
-      <c r="Q187" s="41"/>
-      <c r="R187" s="41"/>
-      <c r="S187" s="41"/>
-      <c r="T187" s="41"/>
-      <c r="U187" s="41"/>
-      <c r="V187" s="41"/>
-      <c r="W187" s="41"/>
-      <c r="X187" s="41"/>
-      <c r="Y187" s="41"/>
-      <c r="Z187" s="41"/>
-      <c r="AA187" s="41"/>
-      <c r="AB187" s="41"/>
-      <c r="AC187" s="41"/>
-      <c r="AD187" s="41"/>
-      <c r="AE187" s="41"/>
-      <c r="AF187" s="41"/>
-      <c r="AG187" s="41"/>
-      <c r="AH187" s="41"/>
-      <c r="AI187" s="41"/>
-      <c r="AJ187" s="41"/>
-      <c r="AK187" s="41"/>
-      <c r="AL187" s="41"/>
-      <c r="AM187" s="41"/>
-      <c r="AN187" s="41"/>
-      <c r="AO187" s="41"/>
-      <c r="AP187" s="41"/>
-      <c r="AQ187" s="41"/>
-      <c r="AR187" s="41"/>
-      <c r="AS187" s="41"/>
-      <c r="AT187" s="41"/>
-      <c r="AU187" s="41"/>
-      <c r="AV187" s="41"/>
-      <c r="AW187" s="41"/>
-      <c r="AX187" s="41"/>
-      <c r="AY187" s="41"/>
-      <c r="AZ187" s="41"/>
-      <c r="BA187" s="41"/>
-      <c r="BB187" s="41"/>
-      <c r="BC187" s="41"/>
-      <c r="BD187" s="41"/>
-      <c r="BE187" s="41"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
+      <c r="K187" s="32"/>
+      <c r="L187" s="32"/>
+      <c r="M187" s="32"/>
+      <c r="N187" s="32"/>
+      <c r="O187" s="32"/>
+      <c r="P187" s="32"/>
+      <c r="Q187" s="32"/>
+      <c r="R187" s="32"/>
+      <c r="S187" s="32"/>
+      <c r="T187" s="32"/>
+      <c r="U187" s="32"/>
+      <c r="V187" s="32"/>
+      <c r="W187" s="32"/>
+      <c r="X187" s="32"/>
+      <c r="Y187" s="32"/>
+      <c r="Z187" s="32"/>
+      <c r="AA187" s="32"/>
+      <c r="AB187" s="32"/>
+      <c r="AC187" s="32"/>
+      <c r="AD187" s="32"/>
+      <c r="AE187" s="32"/>
+      <c r="AF187" s="32"/>
+      <c r="AG187" s="32"/>
+      <c r="AH187" s="32"/>
+      <c r="AI187" s="32"/>
+      <c r="AJ187" s="32"/>
+      <c r="AK187" s="32"/>
+      <c r="AL187" s="32"/>
+      <c r="AM187" s="32"/>
+      <c r="AN187" s="32"/>
+      <c r="AO187" s="32"/>
+      <c r="AP187" s="32"/>
+      <c r="AQ187" s="32"/>
+      <c r="AR187" s="32"/>
+      <c r="AS187" s="32"/>
+      <c r="AT187" s="32"/>
+      <c r="AU187" s="32"/>
+      <c r="AV187" s="32"/>
+      <c r="AW187" s="32"/>
+      <c r="AX187" s="32"/>
+      <c r="AY187" s="32"/>
+      <c r="AZ187" s="32"/>
+      <c r="BA187" s="32"/>
+      <c r="BB187" s="32"/>
+      <c r="BC187" s="32"/>
+      <c r="BD187" s="32"/>
+      <c r="BE187" s="32"/>
     </row>
     <row r="188" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A188" s="32">
+      <c r="A188" s="38">
         <v>37</v>
       </c>
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="36"/>
+      <c r="C188" s="34"/>
       <c r="D188" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="9">
         <f>C192+E192-COUNTIF(H188:BE188,1)-COUNTIF(H188:BE188,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H188" s="21"/>
+      <c r="H188" s="21">
+        <v>0</v>
+      </c>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
       <c r="K188" s="21"/>
@@ -14895,7 +14973,7 @@
       <c r="BE188" s="21"/>
     </row>
     <row r="189" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A189" s="33"/>
+      <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>6</v>
       </c>
@@ -14908,14 +14986,18 @@
       </c>
       <c r="E189" s="10">
         <f>51-H192</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H189" s="22"/>
-      <c r="I189" s="22"/>
+      <c r="H189" s="22">
+        <v>0</v>
+      </c>
+      <c r="I189" s="22">
+        <v>0</v>
+      </c>
       <c r="J189" s="22"/>
       <c r="K189" s="22"/>
       <c r="L189" s="22"/>
@@ -14966,7 +15048,7 @@
       <c r="BE189" s="22"/>
     </row>
     <row r="190" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A190" s="33"/>
+      <c r="A190" s="39"/>
       <c r="B190" s="18" t="s">
         <v>51</v>
       </c>
@@ -15037,7 +15119,7 @@
       <c r="BE190" s="23"/>
     </row>
     <row r="191" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="19" t="s">
         <v>7</v>
       </c>
@@ -15108,7 +15190,7 @@
       <c r="BE191" s="24"/>
     </row>
     <row r="192" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="34"/>
+      <c r="A192" s="40"/>
       <c r="B192" s="6" t="s">
         <v>72</v>
       </c>
@@ -15126,66 +15208,66 @@
         <v>58</v>
       </c>
       <c r="H192" s="26">
-        <v>9</v>
-      </c>
-      <c r="I192" s="41"/>
-      <c r="J192" s="41"/>
-      <c r="K192" s="41"/>
-      <c r="L192" s="41"/>
-      <c r="M192" s="41"/>
-      <c r="N192" s="41"/>
-      <c r="O192" s="41"/>
-      <c r="P192" s="41"/>
-      <c r="Q192" s="41"/>
-      <c r="R192" s="41"/>
-      <c r="S192" s="41"/>
-      <c r="T192" s="41"/>
-      <c r="U192" s="41"/>
-      <c r="V192" s="41"/>
-      <c r="W192" s="41"/>
-      <c r="X192" s="41"/>
-      <c r="Y192" s="41"/>
-      <c r="Z192" s="41"/>
-      <c r="AA192" s="41"/>
-      <c r="AB192" s="41"/>
-      <c r="AC192" s="41"/>
-      <c r="AD192" s="41"/>
-      <c r="AE192" s="41"/>
-      <c r="AF192" s="41"/>
-      <c r="AG192" s="41"/>
-      <c r="AH192" s="41"/>
-      <c r="AI192" s="41"/>
-      <c r="AJ192" s="41"/>
-      <c r="AK192" s="41"/>
-      <c r="AL192" s="41"/>
-      <c r="AM192" s="41"/>
-      <c r="AN192" s="41"/>
-      <c r="AO192" s="41"/>
-      <c r="AP192" s="41"/>
-      <c r="AQ192" s="41"/>
-      <c r="AR192" s="41"/>
-      <c r="AS192" s="41"/>
-      <c r="AT192" s="41"/>
-      <c r="AU192" s="41"/>
-      <c r="AV192" s="41"/>
-      <c r="AW192" s="41"/>
-      <c r="AX192" s="41"/>
-      <c r="AY192" s="41"/>
-      <c r="AZ192" s="41"/>
-      <c r="BA192" s="41"/>
-      <c r="BB192" s="41"/>
-      <c r="BC192" s="41"/>
-      <c r="BD192" s="41"/>
-      <c r="BE192" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32"/>
+      <c r="L192" s="32"/>
+      <c r="M192" s="32"/>
+      <c r="N192" s="32"/>
+      <c r="O192" s="32"/>
+      <c r="P192" s="32"/>
+      <c r="Q192" s="32"/>
+      <c r="R192" s="32"/>
+      <c r="S192" s="32"/>
+      <c r="T192" s="32"/>
+      <c r="U192" s="32"/>
+      <c r="V192" s="32"/>
+      <c r="W192" s="32"/>
+      <c r="X192" s="32"/>
+      <c r="Y192" s="32"/>
+      <c r="Z192" s="32"/>
+      <c r="AA192" s="32"/>
+      <c r="AB192" s="32"/>
+      <c r="AC192" s="32"/>
+      <c r="AD192" s="32"/>
+      <c r="AE192" s="32"/>
+      <c r="AF192" s="32"/>
+      <c r="AG192" s="32"/>
+      <c r="AH192" s="32"/>
+      <c r="AI192" s="32"/>
+      <c r="AJ192" s="32"/>
+      <c r="AK192" s="32"/>
+      <c r="AL192" s="32"/>
+      <c r="AM192" s="32"/>
+      <c r="AN192" s="32"/>
+      <c r="AO192" s="32"/>
+      <c r="AP192" s="32"/>
+      <c r="AQ192" s="32"/>
+      <c r="AR192" s="32"/>
+      <c r="AS192" s="32"/>
+      <c r="AT192" s="32"/>
+      <c r="AU192" s="32"/>
+      <c r="AV192" s="32"/>
+      <c r="AW192" s="32"/>
+      <c r="AX192" s="32"/>
+      <c r="AY192" s="32"/>
+      <c r="AZ192" s="32"/>
+      <c r="BA192" s="32"/>
+      <c r="BB192" s="32"/>
+      <c r="BC192" s="32"/>
+      <c r="BD192" s="32"/>
+      <c r="BE192" s="32"/>
     </row>
     <row r="193" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A193" s="32">
+      <c r="A193" s="38">
         <v>38</v>
       </c>
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="36"/>
+      <c r="C193" s="34"/>
       <c r="D193" s="15" t="s">
         <v>3</v>
       </c>
@@ -15200,9 +15282,15 @@
       <c r="H193" s="21">
         <v>2</v>
       </c>
-      <c r="I193" s="21"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
+      <c r="I193" s="21">
+        <v>2</v>
+      </c>
+      <c r="J193" s="21">
+        <v>2</v>
+      </c>
+      <c r="K193" s="21">
+        <v>2</v>
+      </c>
       <c r="L193" s="21"/>
       <c r="M193" s="21"/>
       <c r="N193" s="21"/>
@@ -15251,7 +15339,7 @@
       <c r="BE193" s="21"/>
     </row>
     <row r="194" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>6</v>
       </c>
@@ -15270,9 +15358,15 @@
       <c r="G194" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H194" s="22"/>
-      <c r="I194" s="22"/>
-      <c r="J194" s="22"/>
+      <c r="H194" s="22">
+        <v>1</v>
+      </c>
+      <c r="I194" s="22">
+        <v>1</v>
+      </c>
+      <c r="J194" s="22">
+        <v>1</v>
+      </c>
       <c r="K194" s="22"/>
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
@@ -15322,20 +15416,20 @@
       <c r="BE194" s="22"/>
     </row>
     <row r="195" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
+      <c r="A195" s="39"/>
       <c r="B195" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C195" s="5">
         <f>IF(E195&lt;10,1,IF(E195&lt;20,2,IF(E195&lt;30,3,IF(E195&lt;40,4,IF(E195&lt;50,5,IF(E195&lt;60,6,IF(E195&lt;70,7,IF(E195&lt;80,8,IF(E195&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E195" s="10">
         <f>SUM(H193:BE195)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="29" t="s">
@@ -15393,7 +15487,7 @@
       <c r="BE195" s="23"/>
     </row>
     <row r="196" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A196" s="33"/>
+      <c r="A196" s="39"/>
       <c r="B196" s="19" t="s">
         <v>7</v>
       </c>
@@ -15406,7 +15500,7 @@
       </c>
       <c r="E196" s="10">
         <f>E195+SUM(H196:BE196)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="30" t="s">
@@ -15464,7 +15558,7 @@
       <c r="BE196" s="24"/>
     </row>
     <row r="197" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="34"/>
+      <c r="A197" s="40"/>
       <c r="B197" s="6" t="s">
         <v>72</v>
       </c>
@@ -15484,64 +15578,64 @@
       <c r="H197" s="26">
         <v>3</v>
       </c>
-      <c r="I197" s="41"/>
-      <c r="J197" s="41"/>
-      <c r="K197" s="41"/>
-      <c r="L197" s="41"/>
-      <c r="M197" s="41"/>
-      <c r="N197" s="41"/>
-      <c r="O197" s="41"/>
-      <c r="P197" s="41"/>
-      <c r="Q197" s="41"/>
-      <c r="R197" s="41"/>
-      <c r="S197" s="41"/>
-      <c r="T197" s="41"/>
-      <c r="U197" s="41"/>
-      <c r="V197" s="41"/>
-      <c r="W197" s="41"/>
-      <c r="X197" s="41"/>
-      <c r="Y197" s="41"/>
-      <c r="Z197" s="41"/>
-      <c r="AA197" s="41"/>
-      <c r="AB197" s="41"/>
-      <c r="AC197" s="41"/>
-      <c r="AD197" s="41"/>
-      <c r="AE197" s="41"/>
-      <c r="AF197" s="41"/>
-      <c r="AG197" s="41"/>
-      <c r="AH197" s="41"/>
-      <c r="AI197" s="41"/>
-      <c r="AJ197" s="41"/>
-      <c r="AK197" s="41"/>
-      <c r="AL197" s="41"/>
-      <c r="AM197" s="41"/>
-      <c r="AN197" s="41"/>
-      <c r="AO197" s="41"/>
-      <c r="AP197" s="41"/>
-      <c r="AQ197" s="41"/>
-      <c r="AR197" s="41"/>
-      <c r="AS197" s="41"/>
-      <c r="AT197" s="41"/>
-      <c r="AU197" s="41"/>
-      <c r="AV197" s="41"/>
-      <c r="AW197" s="41"/>
-      <c r="AX197" s="41"/>
-      <c r="AY197" s="41"/>
-      <c r="AZ197" s="41"/>
-      <c r="BA197" s="41"/>
-      <c r="BB197" s="41"/>
-      <c r="BC197" s="41"/>
-      <c r="BD197" s="41"/>
-      <c r="BE197" s="41"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="32"/>
+      <c r="K197" s="32"/>
+      <c r="L197" s="32"/>
+      <c r="M197" s="32"/>
+      <c r="N197" s="32"/>
+      <c r="O197" s="32"/>
+      <c r="P197" s="32"/>
+      <c r="Q197" s="32"/>
+      <c r="R197" s="32"/>
+      <c r="S197" s="32"/>
+      <c r="T197" s="32"/>
+      <c r="U197" s="32"/>
+      <c r="V197" s="32"/>
+      <c r="W197" s="32"/>
+      <c r="X197" s="32"/>
+      <c r="Y197" s="32"/>
+      <c r="Z197" s="32"/>
+      <c r="AA197" s="32"/>
+      <c r="AB197" s="32"/>
+      <c r="AC197" s="32"/>
+      <c r="AD197" s="32"/>
+      <c r="AE197" s="32"/>
+      <c r="AF197" s="32"/>
+      <c r="AG197" s="32"/>
+      <c r="AH197" s="32"/>
+      <c r="AI197" s="32"/>
+      <c r="AJ197" s="32"/>
+      <c r="AK197" s="32"/>
+      <c r="AL197" s="32"/>
+      <c r="AM197" s="32"/>
+      <c r="AN197" s="32"/>
+      <c r="AO197" s="32"/>
+      <c r="AP197" s="32"/>
+      <c r="AQ197" s="32"/>
+      <c r="AR197" s="32"/>
+      <c r="AS197" s="32"/>
+      <c r="AT197" s="32"/>
+      <c r="AU197" s="32"/>
+      <c r="AV197" s="32"/>
+      <c r="AW197" s="32"/>
+      <c r="AX197" s="32"/>
+      <c r="AY197" s="32"/>
+      <c r="AZ197" s="32"/>
+      <c r="BA197" s="32"/>
+      <c r="BB197" s="32"/>
+      <c r="BC197" s="32"/>
+      <c r="BD197" s="32"/>
+      <c r="BE197" s="32"/>
     </row>
     <row r="198" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A198" s="32">
+      <c r="A198" s="38">
         <v>39</v>
       </c>
-      <c r="B198" s="35" t="s">
+      <c r="B198" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="36"/>
+      <c r="C198" s="34"/>
       <c r="D198" s="15" t="s">
         <v>3</v>
       </c>
@@ -15615,7 +15709,7 @@
       <c r="BE198" s="21"/>
     </row>
     <row r="199" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A199" s="33"/>
+      <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>6</v>
       </c>
@@ -15692,7 +15786,7 @@
       <c r="BE199" s="22"/>
     </row>
     <row r="200" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="18" t="s">
         <v>51</v>
       </c>
@@ -15763,7 +15857,7 @@
       <c r="BE200" s="23"/>
     </row>
     <row r="201" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A201" s="33"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="19" t="s">
         <v>7</v>
       </c>
@@ -15834,7 +15928,7 @@
       <c r="BE201" s="24"/>
     </row>
     <row r="202" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="34"/>
+      <c r="A202" s="40"/>
       <c r="B202" s="6" t="s">
         <v>72</v>
       </c>
@@ -15852,64 +15946,64 @@
         <v>58</v>
       </c>
       <c r="H202" s="26"/>
-      <c r="I202" s="41"/>
-      <c r="J202" s="41"/>
-      <c r="K202" s="41"/>
-      <c r="L202" s="41"/>
-      <c r="M202" s="41"/>
-      <c r="N202" s="41"/>
-      <c r="O202" s="41"/>
-      <c r="P202" s="41"/>
-      <c r="Q202" s="41"/>
-      <c r="R202" s="41"/>
-      <c r="S202" s="41"/>
-      <c r="T202" s="41"/>
-      <c r="U202" s="41"/>
-      <c r="V202" s="41"/>
-      <c r="W202" s="41"/>
-      <c r="X202" s="41"/>
-      <c r="Y202" s="41"/>
-      <c r="Z202" s="41"/>
-      <c r="AA202" s="41"/>
-      <c r="AB202" s="41"/>
-      <c r="AC202" s="41"/>
-      <c r="AD202" s="41"/>
-      <c r="AE202" s="41"/>
-      <c r="AF202" s="41"/>
-      <c r="AG202" s="41"/>
-      <c r="AH202" s="41"/>
-      <c r="AI202" s="41"/>
-      <c r="AJ202" s="41"/>
-      <c r="AK202" s="41"/>
-      <c r="AL202" s="41"/>
-      <c r="AM202" s="41"/>
-      <c r="AN202" s="41"/>
-      <c r="AO202" s="41"/>
-      <c r="AP202" s="41"/>
-      <c r="AQ202" s="41"/>
-      <c r="AR202" s="41"/>
-      <c r="AS202" s="41"/>
-      <c r="AT202" s="41"/>
-      <c r="AU202" s="41"/>
-      <c r="AV202" s="41"/>
-      <c r="AW202" s="41"/>
-      <c r="AX202" s="41"/>
-      <c r="AY202" s="41"/>
-      <c r="AZ202" s="41"/>
-      <c r="BA202" s="41"/>
-      <c r="BB202" s="41"/>
-      <c r="BC202" s="41"/>
-      <c r="BD202" s="41"/>
-      <c r="BE202" s="41"/>
+      <c r="I202" s="32"/>
+      <c r="J202" s="32"/>
+      <c r="K202" s="32"/>
+      <c r="L202" s="32"/>
+      <c r="M202" s="32"/>
+      <c r="N202" s="32"/>
+      <c r="O202" s="32"/>
+      <c r="P202" s="32"/>
+      <c r="Q202" s="32"/>
+      <c r="R202" s="32"/>
+      <c r="S202" s="32"/>
+      <c r="T202" s="32"/>
+      <c r="U202" s="32"/>
+      <c r="V202" s="32"/>
+      <c r="W202" s="32"/>
+      <c r="X202" s="32"/>
+      <c r="Y202" s="32"/>
+      <c r="Z202" s="32"/>
+      <c r="AA202" s="32"/>
+      <c r="AB202" s="32"/>
+      <c r="AC202" s="32"/>
+      <c r="AD202" s="32"/>
+      <c r="AE202" s="32"/>
+      <c r="AF202" s="32"/>
+      <c r="AG202" s="32"/>
+      <c r="AH202" s="32"/>
+      <c r="AI202" s="32"/>
+      <c r="AJ202" s="32"/>
+      <c r="AK202" s="32"/>
+      <c r="AL202" s="32"/>
+      <c r="AM202" s="32"/>
+      <c r="AN202" s="32"/>
+      <c r="AO202" s="32"/>
+      <c r="AP202" s="32"/>
+      <c r="AQ202" s="32"/>
+      <c r="AR202" s="32"/>
+      <c r="AS202" s="32"/>
+      <c r="AT202" s="32"/>
+      <c r="AU202" s="32"/>
+      <c r="AV202" s="32"/>
+      <c r="AW202" s="32"/>
+      <c r="AX202" s="32"/>
+      <c r="AY202" s="32"/>
+      <c r="AZ202" s="32"/>
+      <c r="BA202" s="32"/>
+      <c r="BB202" s="32"/>
+      <c r="BC202" s="32"/>
+      <c r="BD202" s="32"/>
+      <c r="BE202" s="32"/>
     </row>
     <row r="203" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A203" s="32">
+      <c r="A203" s="38">
         <v>40</v>
       </c>
-      <c r="B203" s="35" t="s">
+      <c r="B203" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C203" s="36"/>
+      <c r="C203" s="34"/>
       <c r="D203" s="15" t="s">
         <v>3</v>
       </c>
@@ -15985,7 +16079,7 @@
       <c r="BE203" s="21"/>
     </row>
     <row r="204" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>6</v>
       </c>
@@ -16062,7 +16156,7 @@
       <c r="BE204" s="22"/>
     </row>
     <row r="205" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A205" s="33"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="18" t="s">
         <v>51</v>
       </c>
@@ -16139,7 +16233,7 @@
       <c r="BE205" s="23"/>
     </row>
     <row r="206" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A206" s="33"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="19" t="s">
         <v>7</v>
       </c>
@@ -16210,7 +16304,7 @@
       <c r="BE206" s="24"/>
     </row>
     <row r="207" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="34"/>
+      <c r="A207" s="40"/>
       <c r="B207" s="6" t="s">
         <v>72</v>
       </c>
@@ -16228,76 +16322,78 @@
         <v>58</v>
       </c>
       <c r="H207" s="26"/>
-      <c r="I207" s="41"/>
-      <c r="J207" s="41"/>
-      <c r="K207" s="41"/>
-      <c r="L207" s="41"/>
-      <c r="M207" s="41"/>
-      <c r="N207" s="41"/>
-      <c r="O207" s="41"/>
-      <c r="P207" s="41"/>
-      <c r="Q207" s="41"/>
-      <c r="R207" s="41"/>
-      <c r="S207" s="41"/>
-      <c r="T207" s="41"/>
-      <c r="U207" s="41"/>
-      <c r="V207" s="41"/>
-      <c r="W207" s="41"/>
-      <c r="X207" s="41"/>
-      <c r="Y207" s="41"/>
-      <c r="Z207" s="41"/>
-      <c r="AA207" s="41"/>
-      <c r="AB207" s="41"/>
-      <c r="AC207" s="41"/>
-      <c r="AD207" s="41"/>
-      <c r="AE207" s="41"/>
-      <c r="AF207" s="41"/>
-      <c r="AG207" s="41"/>
-      <c r="AH207" s="41"/>
-      <c r="AI207" s="41"/>
-      <c r="AJ207" s="41"/>
-      <c r="AK207" s="41"/>
-      <c r="AL207" s="41"/>
-      <c r="AM207" s="41"/>
-      <c r="AN207" s="41"/>
-      <c r="AO207" s="41"/>
-      <c r="AP207" s="41"/>
-      <c r="AQ207" s="41"/>
-      <c r="AR207" s="41"/>
-      <c r="AS207" s="41"/>
-      <c r="AT207" s="41"/>
-      <c r="AU207" s="41"/>
-      <c r="AV207" s="41"/>
-      <c r="AW207" s="41"/>
-      <c r="AX207" s="41"/>
-      <c r="AY207" s="41"/>
-      <c r="AZ207" s="41"/>
-      <c r="BA207" s="41"/>
-      <c r="BB207" s="41"/>
-      <c r="BC207" s="41"/>
-      <c r="BD207" s="41"/>
-      <c r="BE207" s="41"/>
+      <c r="I207" s="32"/>
+      <c r="J207" s="32"/>
+      <c r="K207" s="32"/>
+      <c r="L207" s="32"/>
+      <c r="M207" s="32"/>
+      <c r="N207" s="32"/>
+      <c r="O207" s="32"/>
+      <c r="P207" s="32"/>
+      <c r="Q207" s="32"/>
+      <c r="R207" s="32"/>
+      <c r="S207" s="32"/>
+      <c r="T207" s="32"/>
+      <c r="U207" s="32"/>
+      <c r="V207" s="32"/>
+      <c r="W207" s="32"/>
+      <c r="X207" s="32"/>
+      <c r="Y207" s="32"/>
+      <c r="Z207" s="32"/>
+      <c r="AA207" s="32"/>
+      <c r="AB207" s="32"/>
+      <c r="AC207" s="32"/>
+      <c r="AD207" s="32"/>
+      <c r="AE207" s="32"/>
+      <c r="AF207" s="32"/>
+      <c r="AG207" s="32"/>
+      <c r="AH207" s="32"/>
+      <c r="AI207" s="32"/>
+      <c r="AJ207" s="32"/>
+      <c r="AK207" s="32"/>
+      <c r="AL207" s="32"/>
+      <c r="AM207" s="32"/>
+      <c r="AN207" s="32"/>
+      <c r="AO207" s="32"/>
+      <c r="AP207" s="32"/>
+      <c r="AQ207" s="32"/>
+      <c r="AR207" s="32"/>
+      <c r="AS207" s="32"/>
+      <c r="AT207" s="32"/>
+      <c r="AU207" s="32"/>
+      <c r="AV207" s="32"/>
+      <c r="AW207" s="32"/>
+      <c r="AX207" s="32"/>
+      <c r="AY207" s="32"/>
+      <c r="AZ207" s="32"/>
+      <c r="BA207" s="32"/>
+      <c r="BB207" s="32"/>
+      <c r="BC207" s="32"/>
+      <c r="BD207" s="32"/>
+      <c r="BE207" s="32"/>
     </row>
     <row r="208" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A208" s="32">
+      <c r="A208" s="38">
         <v>41</v>
       </c>
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C208" s="36"/>
+      <c r="C208" s="34"/>
       <c r="D208" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="9">
         <f>C212+E212-COUNTIF(H208:BE208,1)-COUNTIF(H208:BE208,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H208" s="21"/>
+      <c r="H208" s="21">
+        <v>0</v>
+      </c>
       <c r="I208" s="21"/>
       <c r="J208" s="21"/>
       <c r="K208" s="21"/>
@@ -16349,7 +16445,7 @@
       <c r="BE208" s="21"/>
     </row>
     <row r="209" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A209" s="33"/>
+      <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>6</v>
       </c>
@@ -16362,14 +16458,18 @@
       </c>
       <c r="E209" s="10">
         <f>51-H212</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H209" s="22"/>
-      <c r="I209" s="22"/>
+      <c r="H209" s="22">
+        <v>0</v>
+      </c>
+      <c r="I209" s="22">
+        <v>0</v>
+      </c>
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
       <c r="L209" s="22"/>
@@ -16420,7 +16520,7 @@
       <c r="BE209" s="22"/>
     </row>
     <row r="210" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A210" s="33"/>
+      <c r="A210" s="39"/>
       <c r="B210" s="18" t="s">
         <v>51</v>
       </c>
@@ -16491,7 +16591,7 @@
       <c r="BE210" s="23"/>
     </row>
     <row r="211" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A211" s="33"/>
+      <c r="A211" s="39"/>
       <c r="B211" s="19" t="s">
         <v>7</v>
       </c>
@@ -16562,7 +16662,7 @@
       <c r="BE211" s="24"/>
     </row>
     <row r="212" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="34"/>
+      <c r="A212" s="40"/>
       <c r="B212" s="6" t="s">
         <v>72</v>
       </c>
@@ -16580,78 +16680,80 @@
         <v>58</v>
       </c>
       <c r="H212" s="26">
-        <v>15</v>
-      </c>
-      <c r="I212" s="41"/>
-      <c r="J212" s="41"/>
-      <c r="K212" s="41"/>
-      <c r="L212" s="41"/>
-      <c r="M212" s="41"/>
-      <c r="N212" s="41"/>
-      <c r="O212" s="41"/>
-      <c r="P212" s="41"/>
-      <c r="Q212" s="41"/>
-      <c r="R212" s="41"/>
-      <c r="S212" s="41"/>
-      <c r="T212" s="41"/>
-      <c r="U212" s="41"/>
-      <c r="V212" s="41"/>
-      <c r="W212" s="41"/>
-      <c r="X212" s="41"/>
-      <c r="Y212" s="41"/>
-      <c r="Z212" s="41"/>
-      <c r="AA212" s="41"/>
-      <c r="AB212" s="41"/>
-      <c r="AC212" s="41"/>
-      <c r="AD212" s="41"/>
-      <c r="AE212" s="41"/>
-      <c r="AF212" s="41"/>
-      <c r="AG212" s="41"/>
-      <c r="AH212" s="41"/>
-      <c r="AI212" s="41"/>
-      <c r="AJ212" s="41"/>
-      <c r="AK212" s="41"/>
-      <c r="AL212" s="41"/>
-      <c r="AM212" s="41"/>
-      <c r="AN212" s="41"/>
-      <c r="AO212" s="41"/>
-      <c r="AP212" s="41"/>
-      <c r="AQ212" s="41"/>
-      <c r="AR212" s="41"/>
-      <c r="AS212" s="41"/>
-      <c r="AT212" s="41"/>
-      <c r="AU212" s="41"/>
-      <c r="AV212" s="41"/>
-      <c r="AW212" s="41"/>
-      <c r="AX212" s="41"/>
-      <c r="AY212" s="41"/>
-      <c r="AZ212" s="41"/>
-      <c r="BA212" s="41"/>
-      <c r="BB212" s="41"/>
-      <c r="BC212" s="41"/>
-      <c r="BD212" s="41"/>
-      <c r="BE212" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I212" s="32"/>
+      <c r="J212" s="32"/>
+      <c r="K212" s="32"/>
+      <c r="L212" s="32"/>
+      <c r="M212" s="32"/>
+      <c r="N212" s="32"/>
+      <c r="O212" s="32"/>
+      <c r="P212" s="32"/>
+      <c r="Q212" s="32"/>
+      <c r="R212" s="32"/>
+      <c r="S212" s="32"/>
+      <c r="T212" s="32"/>
+      <c r="U212" s="32"/>
+      <c r="V212" s="32"/>
+      <c r="W212" s="32"/>
+      <c r="X212" s="32"/>
+      <c r="Y212" s="32"/>
+      <c r="Z212" s="32"/>
+      <c r="AA212" s="32"/>
+      <c r="AB212" s="32"/>
+      <c r="AC212" s="32"/>
+      <c r="AD212" s="32"/>
+      <c r="AE212" s="32"/>
+      <c r="AF212" s="32"/>
+      <c r="AG212" s="32"/>
+      <c r="AH212" s="32"/>
+      <c r="AI212" s="32"/>
+      <c r="AJ212" s="32"/>
+      <c r="AK212" s="32"/>
+      <c r="AL212" s="32"/>
+      <c r="AM212" s="32"/>
+      <c r="AN212" s="32"/>
+      <c r="AO212" s="32"/>
+      <c r="AP212" s="32"/>
+      <c r="AQ212" s="32"/>
+      <c r="AR212" s="32"/>
+      <c r="AS212" s="32"/>
+      <c r="AT212" s="32"/>
+      <c r="AU212" s="32"/>
+      <c r="AV212" s="32"/>
+      <c r="AW212" s="32"/>
+      <c r="AX212" s="32"/>
+      <c r="AY212" s="32"/>
+      <c r="AZ212" s="32"/>
+      <c r="BA212" s="32"/>
+      <c r="BB212" s="32"/>
+      <c r="BC212" s="32"/>
+      <c r="BD212" s="32"/>
+      <c r="BE212" s="32"/>
     </row>
     <row r="213" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A213" s="32">
+      <c r="A213" s="38">
         <v>42</v>
       </c>
-      <c r="B213" s="35" t="s">
+      <c r="B213" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="36"/>
+      <c r="C213" s="34"/>
       <c r="D213" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="9">
         <f>C217+E217-COUNTIF(H213:BE213,1)-COUNTIF(H213:BE213,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H213" s="21"/>
+      <c r="H213" s="21">
+        <v>0</v>
+      </c>
       <c r="I213" s="21"/>
       <c r="J213" s="21"/>
       <c r="K213" s="21"/>
@@ -16703,7 +16805,7 @@
       <c r="BE213" s="21"/>
     </row>
     <row r="214" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A214" s="33"/>
+      <c r="A214" s="39"/>
       <c r="B214" s="20" t="s">
         <v>6</v>
       </c>
@@ -16716,14 +16818,18 @@
       </c>
       <c r="E214" s="10">
         <f>51-H217</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H214" s="22"/>
-      <c r="I214" s="22"/>
+      <c r="H214" s="22">
+        <v>0</v>
+      </c>
+      <c r="I214" s="22">
+        <v>0</v>
+      </c>
       <c r="J214" s="22"/>
       <c r="K214" s="22"/>
       <c r="L214" s="22"/>
@@ -16774,7 +16880,7 @@
       <c r="BE214" s="22"/>
     </row>
     <row r="215" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A215" s="33"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="18" t="s">
         <v>51</v>
       </c>
@@ -16845,7 +16951,7 @@
       <c r="BE215" s="23"/>
     </row>
     <row r="216" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A216" s="33"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="19" t="s">
         <v>7</v>
       </c>
@@ -16916,7 +17022,7 @@
       <c r="BE216" s="24"/>
     </row>
     <row r="217" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="34"/>
+      <c r="A217" s="40"/>
       <c r="B217" s="6" t="s">
         <v>72</v>
       </c>
@@ -16934,66 +17040,66 @@
         <v>58</v>
       </c>
       <c r="H217" s="26">
-        <v>15</v>
-      </c>
-      <c r="I217" s="41"/>
-      <c r="J217" s="41"/>
-      <c r="K217" s="41"/>
-      <c r="L217" s="41"/>
-      <c r="M217" s="41"/>
-      <c r="N217" s="41"/>
-      <c r="O217" s="41"/>
-      <c r="P217" s="41"/>
-      <c r="Q217" s="41"/>
-      <c r="R217" s="41"/>
-      <c r="S217" s="41"/>
-      <c r="T217" s="41"/>
-      <c r="U217" s="41"/>
-      <c r="V217" s="41"/>
-      <c r="W217" s="41"/>
-      <c r="X217" s="41"/>
-      <c r="Y217" s="41"/>
-      <c r="Z217" s="41"/>
-      <c r="AA217" s="41"/>
-      <c r="AB217" s="41"/>
-      <c r="AC217" s="41"/>
-      <c r="AD217" s="41"/>
-      <c r="AE217" s="41"/>
-      <c r="AF217" s="41"/>
-      <c r="AG217" s="41"/>
-      <c r="AH217" s="41"/>
-      <c r="AI217" s="41"/>
-      <c r="AJ217" s="41"/>
-      <c r="AK217" s="41"/>
-      <c r="AL217" s="41"/>
-      <c r="AM217" s="41"/>
-      <c r="AN217" s="41"/>
-      <c r="AO217" s="41"/>
-      <c r="AP217" s="41"/>
-      <c r="AQ217" s="41"/>
-      <c r="AR217" s="41"/>
-      <c r="AS217" s="41"/>
-      <c r="AT217" s="41"/>
-      <c r="AU217" s="41"/>
-      <c r="AV217" s="41"/>
-      <c r="AW217" s="41"/>
-      <c r="AX217" s="41"/>
-      <c r="AY217" s="41"/>
-      <c r="AZ217" s="41"/>
-      <c r="BA217" s="41"/>
-      <c r="BB217" s="41"/>
-      <c r="BC217" s="41"/>
-      <c r="BD217" s="41"/>
-      <c r="BE217" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I217" s="32"/>
+      <c r="J217" s="32"/>
+      <c r="K217" s="32"/>
+      <c r="L217" s="32"/>
+      <c r="M217" s="32"/>
+      <c r="N217" s="32"/>
+      <c r="O217" s="32"/>
+      <c r="P217" s="32"/>
+      <c r="Q217" s="32"/>
+      <c r="R217" s="32"/>
+      <c r="S217" s="32"/>
+      <c r="T217" s="32"/>
+      <c r="U217" s="32"/>
+      <c r="V217" s="32"/>
+      <c r="W217" s="32"/>
+      <c r="X217" s="32"/>
+      <c r="Y217" s="32"/>
+      <c r="Z217" s="32"/>
+      <c r="AA217" s="32"/>
+      <c r="AB217" s="32"/>
+      <c r="AC217" s="32"/>
+      <c r="AD217" s="32"/>
+      <c r="AE217" s="32"/>
+      <c r="AF217" s="32"/>
+      <c r="AG217" s="32"/>
+      <c r="AH217" s="32"/>
+      <c r="AI217" s="32"/>
+      <c r="AJ217" s="32"/>
+      <c r="AK217" s="32"/>
+      <c r="AL217" s="32"/>
+      <c r="AM217" s="32"/>
+      <c r="AN217" s="32"/>
+      <c r="AO217" s="32"/>
+      <c r="AP217" s="32"/>
+      <c r="AQ217" s="32"/>
+      <c r="AR217" s="32"/>
+      <c r="AS217" s="32"/>
+      <c r="AT217" s="32"/>
+      <c r="AU217" s="32"/>
+      <c r="AV217" s="32"/>
+      <c r="AW217" s="32"/>
+      <c r="AX217" s="32"/>
+      <c r="AY217" s="32"/>
+      <c r="AZ217" s="32"/>
+      <c r="BA217" s="32"/>
+      <c r="BB217" s="32"/>
+      <c r="BC217" s="32"/>
+      <c r="BD217" s="32"/>
+      <c r="BE217" s="32"/>
     </row>
     <row r="218" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A218" s="32">
+      <c r="A218" s="38">
         <v>43</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C218" s="36"/>
+      <c r="C218" s="34"/>
       <c r="D218" s="15" t="s">
         <v>3</v>
       </c>
@@ -17014,7 +17120,9 @@
       <c r="J218" s="21">
         <v>2</v>
       </c>
-      <c r="K218" s="21"/>
+      <c r="K218" s="21">
+        <v>2</v>
+      </c>
       <c r="L218" s="21">
         <v>2</v>
       </c>
@@ -17067,7 +17175,7 @@
       <c r="BE218" s="21"/>
     </row>
     <row r="219" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A219" s="33"/>
+      <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>6</v>
       </c>
@@ -17144,7 +17252,7 @@
       <c r="BE219" s="22"/>
     </row>
     <row r="220" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A220" s="33"/>
+      <c r="A220" s="39"/>
       <c r="B220" s="18" t="s">
         <v>51</v>
       </c>
@@ -17157,7 +17265,7 @@
       </c>
       <c r="E220" s="10">
         <f>SUM(H218:BE220)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F220" s="13"/>
       <c r="G220" s="29" t="s">
@@ -17219,7 +17327,7 @@
       <c r="BE220" s="23"/>
     </row>
     <row r="221" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A221" s="33"/>
+      <c r="A221" s="39"/>
       <c r="B221" s="19" t="s">
         <v>7</v>
       </c>
@@ -17232,7 +17340,7 @@
       </c>
       <c r="E221" s="10">
         <f>E220+SUM(H221:BE221)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F221" s="13"/>
       <c r="G221" s="30" t="s">
@@ -17290,7 +17398,7 @@
       <c r="BE221" s="24"/>
     </row>
     <row r="222" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="34"/>
+      <c r="A222" s="40"/>
       <c r="B222" s="6" t="s">
         <v>72</v>
       </c>
@@ -17308,64 +17416,64 @@
         <v>58</v>
       </c>
       <c r="H222" s="26"/>
-      <c r="I222" s="41"/>
-      <c r="J222" s="41"/>
-      <c r="K222" s="41"/>
-      <c r="L222" s="41"/>
-      <c r="M222" s="41"/>
-      <c r="N222" s="41"/>
-      <c r="O222" s="41"/>
-      <c r="P222" s="41"/>
-      <c r="Q222" s="41"/>
-      <c r="R222" s="41"/>
-      <c r="S222" s="41"/>
-      <c r="T222" s="41"/>
-      <c r="U222" s="41"/>
-      <c r="V222" s="41"/>
-      <c r="W222" s="41"/>
-      <c r="X222" s="41"/>
-      <c r="Y222" s="41"/>
-      <c r="Z222" s="41"/>
-      <c r="AA222" s="41"/>
-      <c r="AB222" s="41"/>
-      <c r="AC222" s="41"/>
-      <c r="AD222" s="41"/>
-      <c r="AE222" s="41"/>
-      <c r="AF222" s="41"/>
-      <c r="AG222" s="41"/>
-      <c r="AH222" s="41"/>
-      <c r="AI222" s="41"/>
-      <c r="AJ222" s="41"/>
-      <c r="AK222" s="41"/>
-      <c r="AL222" s="41"/>
-      <c r="AM222" s="41"/>
-      <c r="AN222" s="41"/>
-      <c r="AO222" s="41"/>
-      <c r="AP222" s="41"/>
-      <c r="AQ222" s="41"/>
-      <c r="AR222" s="41"/>
-      <c r="AS222" s="41"/>
-      <c r="AT222" s="41"/>
-      <c r="AU222" s="41"/>
-      <c r="AV222" s="41"/>
-      <c r="AW222" s="41"/>
-      <c r="AX222" s="41"/>
-      <c r="AY222" s="41"/>
-      <c r="AZ222" s="41"/>
-      <c r="BA222" s="41"/>
-      <c r="BB222" s="41"/>
-      <c r="BC222" s="41"/>
-      <c r="BD222" s="41"/>
-      <c r="BE222" s="41"/>
+      <c r="I222" s="32"/>
+      <c r="J222" s="32"/>
+      <c r="K222" s="32"/>
+      <c r="L222" s="32"/>
+      <c r="M222" s="32"/>
+      <c r="N222" s="32"/>
+      <c r="O222" s="32"/>
+      <c r="P222" s="32"/>
+      <c r="Q222" s="32"/>
+      <c r="R222" s="32"/>
+      <c r="S222" s="32"/>
+      <c r="T222" s="32"/>
+      <c r="U222" s="32"/>
+      <c r="V222" s="32"/>
+      <c r="W222" s="32"/>
+      <c r="X222" s="32"/>
+      <c r="Y222" s="32"/>
+      <c r="Z222" s="32"/>
+      <c r="AA222" s="32"/>
+      <c r="AB222" s="32"/>
+      <c r="AC222" s="32"/>
+      <c r="AD222" s="32"/>
+      <c r="AE222" s="32"/>
+      <c r="AF222" s="32"/>
+      <c r="AG222" s="32"/>
+      <c r="AH222" s="32"/>
+      <c r="AI222" s="32"/>
+      <c r="AJ222" s="32"/>
+      <c r="AK222" s="32"/>
+      <c r="AL222" s="32"/>
+      <c r="AM222" s="32"/>
+      <c r="AN222" s="32"/>
+      <c r="AO222" s="32"/>
+      <c r="AP222" s="32"/>
+      <c r="AQ222" s="32"/>
+      <c r="AR222" s="32"/>
+      <c r="AS222" s="32"/>
+      <c r="AT222" s="32"/>
+      <c r="AU222" s="32"/>
+      <c r="AV222" s="32"/>
+      <c r="AW222" s="32"/>
+      <c r="AX222" s="32"/>
+      <c r="AY222" s="32"/>
+      <c r="AZ222" s="32"/>
+      <c r="BA222" s="32"/>
+      <c r="BB222" s="32"/>
+      <c r="BC222" s="32"/>
+      <c r="BD222" s="32"/>
+      <c r="BE222" s="32"/>
     </row>
     <row r="223" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A223" s="32">
+      <c r="A223" s="38">
         <v>44</v>
       </c>
-      <c r="B223" s="35" t="s">
+      <c r="B223" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C223" s="36"/>
+      <c r="C223" s="34"/>
       <c r="D223" s="15" t="s">
         <v>3</v>
       </c>
@@ -17441,7 +17549,7 @@
       <c r="BE223" s="21"/>
     </row>
     <row r="224" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
+      <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>6</v>
       </c>
@@ -17518,7 +17626,7 @@
       <c r="BE224" s="22"/>
     </row>
     <row r="225" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A225" s="33"/>
+      <c r="A225" s="39"/>
       <c r="B225" s="18" t="s">
         <v>51</v>
       </c>
@@ -17593,7 +17701,7 @@
       <c r="BE225" s="23"/>
     </row>
     <row r="226" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A226" s="33"/>
+      <c r="A226" s="39"/>
       <c r="B226" s="19" t="s">
         <v>7</v>
       </c>
@@ -17664,7 +17772,7 @@
       <c r="BE226" s="24"/>
     </row>
     <row r="227" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="34"/>
+      <c r="A227" s="40"/>
       <c r="B227" s="6" t="s">
         <v>72</v>
       </c>
@@ -17682,64 +17790,64 @@
         <v>58</v>
       </c>
       <c r="H227" s="26"/>
-      <c r="I227" s="41"/>
-      <c r="J227" s="41"/>
-      <c r="K227" s="41"/>
-      <c r="L227" s="41"/>
-      <c r="M227" s="41"/>
-      <c r="N227" s="41"/>
-      <c r="O227" s="41"/>
-      <c r="P227" s="41"/>
-      <c r="Q227" s="41"/>
-      <c r="R227" s="41"/>
-      <c r="S227" s="41"/>
-      <c r="T227" s="41"/>
-      <c r="U227" s="41"/>
-      <c r="V227" s="41"/>
-      <c r="W227" s="41"/>
-      <c r="X227" s="41"/>
-      <c r="Y227" s="41"/>
-      <c r="Z227" s="41"/>
-      <c r="AA227" s="41"/>
-      <c r="AB227" s="41"/>
-      <c r="AC227" s="41"/>
-      <c r="AD227" s="41"/>
-      <c r="AE227" s="41"/>
-      <c r="AF227" s="41"/>
-      <c r="AG227" s="41"/>
-      <c r="AH227" s="41"/>
-      <c r="AI227" s="41"/>
-      <c r="AJ227" s="41"/>
-      <c r="AK227" s="41"/>
-      <c r="AL227" s="41"/>
-      <c r="AM227" s="41"/>
-      <c r="AN227" s="41"/>
-      <c r="AO227" s="41"/>
-      <c r="AP227" s="41"/>
-      <c r="AQ227" s="41"/>
-      <c r="AR227" s="41"/>
-      <c r="AS227" s="41"/>
-      <c r="AT227" s="41"/>
-      <c r="AU227" s="41"/>
-      <c r="AV227" s="41"/>
-      <c r="AW227" s="41"/>
-      <c r="AX227" s="41"/>
-      <c r="AY227" s="41"/>
-      <c r="AZ227" s="41"/>
-      <c r="BA227" s="41"/>
-      <c r="BB227" s="41"/>
-      <c r="BC227" s="41"/>
-      <c r="BD227" s="41"/>
-      <c r="BE227" s="41"/>
+      <c r="I227" s="32"/>
+      <c r="J227" s="32"/>
+      <c r="K227" s="32"/>
+      <c r="L227" s="32"/>
+      <c r="M227" s="32"/>
+      <c r="N227" s="32"/>
+      <c r="O227" s="32"/>
+      <c r="P227" s="32"/>
+      <c r="Q227" s="32"/>
+      <c r="R227" s="32"/>
+      <c r="S227" s="32"/>
+      <c r="T227" s="32"/>
+      <c r="U227" s="32"/>
+      <c r="V227" s="32"/>
+      <c r="W227" s="32"/>
+      <c r="X227" s="32"/>
+      <c r="Y227" s="32"/>
+      <c r="Z227" s="32"/>
+      <c r="AA227" s="32"/>
+      <c r="AB227" s="32"/>
+      <c r="AC227" s="32"/>
+      <c r="AD227" s="32"/>
+      <c r="AE227" s="32"/>
+      <c r="AF227" s="32"/>
+      <c r="AG227" s="32"/>
+      <c r="AH227" s="32"/>
+      <c r="AI227" s="32"/>
+      <c r="AJ227" s="32"/>
+      <c r="AK227" s="32"/>
+      <c r="AL227" s="32"/>
+      <c r="AM227" s="32"/>
+      <c r="AN227" s="32"/>
+      <c r="AO227" s="32"/>
+      <c r="AP227" s="32"/>
+      <c r="AQ227" s="32"/>
+      <c r="AR227" s="32"/>
+      <c r="AS227" s="32"/>
+      <c r="AT227" s="32"/>
+      <c r="AU227" s="32"/>
+      <c r="AV227" s="32"/>
+      <c r="AW227" s="32"/>
+      <c r="AX227" s="32"/>
+      <c r="AY227" s="32"/>
+      <c r="AZ227" s="32"/>
+      <c r="BA227" s="32"/>
+      <c r="BB227" s="32"/>
+      <c r="BC227" s="32"/>
+      <c r="BD227" s="32"/>
+      <c r="BE227" s="32"/>
     </row>
     <row r="228" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A228" s="32">
+      <c r="A228" s="38">
         <v>45</v>
       </c>
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="36"/>
+      <c r="C228" s="34"/>
       <c r="D228" s="15" t="s">
         <v>3</v>
       </c>
@@ -17751,14 +17859,18 @@
       <c r="G228" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H228" s="21"/>
+      <c r="H228" s="21">
+        <v>2</v>
+      </c>
       <c r="I228" s="21">
         <v>2</v>
       </c>
       <c r="J228" s="21">
         <v>2</v>
       </c>
-      <c r="K228" s="21"/>
+      <c r="K228" s="21">
+        <v>2</v>
+      </c>
       <c r="L228" s="21">
         <v>2</v>
       </c>
@@ -17811,7 +17923,7 @@
       <c r="BE228" s="21"/>
     </row>
     <row r="229" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A229" s="33"/>
+      <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>6</v>
       </c>
@@ -17824,7 +17936,7 @@
       </c>
       <c r="E229" s="10">
         <f>51-H232</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F229" s="13"/>
       <c r="G229" s="28" t="s">
@@ -17888,7 +18000,7 @@
       <c r="BE229" s="22"/>
     </row>
     <row r="230" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
+      <c r="A230" s="39"/>
       <c r="B230" s="18" t="s">
         <v>51</v>
       </c>
@@ -17901,7 +18013,7 @@
       </c>
       <c r="E230" s="10">
         <f>SUM(H228:BE230)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F230" s="13"/>
       <c r="G230" s="29" t="s">
@@ -17963,7 +18075,7 @@
       <c r="BE230" s="23"/>
     </row>
     <row r="231" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A231" s="33"/>
+      <c r="A231" s="39"/>
       <c r="B231" s="19" t="s">
         <v>7</v>
       </c>
@@ -17976,7 +18088,7 @@
       </c>
       <c r="E231" s="10">
         <f>E230+SUM(H231:BE231)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F231" s="13"/>
       <c r="G231" s="30" t="s">
@@ -18034,7 +18146,7 @@
       <c r="BE231" s="24"/>
     </row>
     <row r="232" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="34"/>
+      <c r="A232" s="40"/>
       <c r="B232" s="6" t="s">
         <v>72</v>
       </c>
@@ -18051,65 +18163,67 @@
       <c r="G232" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H232" s="26"/>
-      <c r="I232" s="41"/>
-      <c r="J232" s="41"/>
-      <c r="K232" s="41"/>
-      <c r="L232" s="41"/>
-      <c r="M232" s="41"/>
-      <c r="N232" s="41"/>
-      <c r="O232" s="41"/>
-      <c r="P232" s="41"/>
-      <c r="Q232" s="41"/>
-      <c r="R232" s="41"/>
-      <c r="S232" s="41"/>
-      <c r="T232" s="41"/>
-      <c r="U232" s="41"/>
-      <c r="V232" s="41"/>
-      <c r="W232" s="41"/>
-      <c r="X232" s="41"/>
-      <c r="Y232" s="41"/>
-      <c r="Z232" s="41"/>
-      <c r="AA232" s="41"/>
-      <c r="AB232" s="41"/>
-      <c r="AC232" s="41"/>
-      <c r="AD232" s="41"/>
-      <c r="AE232" s="41"/>
-      <c r="AF232" s="41"/>
-      <c r="AG232" s="41"/>
-      <c r="AH232" s="41"/>
-      <c r="AI232" s="41"/>
-      <c r="AJ232" s="41"/>
-      <c r="AK232" s="41"/>
-      <c r="AL232" s="41"/>
-      <c r="AM232" s="41"/>
-      <c r="AN232" s="41"/>
-      <c r="AO232" s="41"/>
-      <c r="AP232" s="41"/>
-      <c r="AQ232" s="41"/>
-      <c r="AR232" s="41"/>
-      <c r="AS232" s="41"/>
-      <c r="AT232" s="41"/>
-      <c r="AU232" s="41"/>
-      <c r="AV232" s="41"/>
-      <c r="AW232" s="41"/>
-      <c r="AX232" s="41"/>
-      <c r="AY232" s="41"/>
-      <c r="AZ232" s="41"/>
-      <c r="BA232" s="41"/>
-      <c r="BB232" s="41"/>
-      <c r="BC232" s="41"/>
-      <c r="BD232" s="41"/>
-      <c r="BE232" s="41"/>
+      <c r="H232" s="26">
+        <v>3</v>
+      </c>
+      <c r="I232" s="32"/>
+      <c r="J232" s="32"/>
+      <c r="K232" s="32"/>
+      <c r="L232" s="32"/>
+      <c r="M232" s="32"/>
+      <c r="N232" s="32"/>
+      <c r="O232" s="32"/>
+      <c r="P232" s="32"/>
+      <c r="Q232" s="32"/>
+      <c r="R232" s="32"/>
+      <c r="S232" s="32"/>
+      <c r="T232" s="32"/>
+      <c r="U232" s="32"/>
+      <c r="V232" s="32"/>
+      <c r="W232" s="32"/>
+      <c r="X232" s="32"/>
+      <c r="Y232" s="32"/>
+      <c r="Z232" s="32"/>
+      <c r="AA232" s="32"/>
+      <c r="AB232" s="32"/>
+      <c r="AC232" s="32"/>
+      <c r="AD232" s="32"/>
+      <c r="AE232" s="32"/>
+      <c r="AF232" s="32"/>
+      <c r="AG232" s="32"/>
+      <c r="AH232" s="32"/>
+      <c r="AI232" s="32"/>
+      <c r="AJ232" s="32"/>
+      <c r="AK232" s="32"/>
+      <c r="AL232" s="32"/>
+      <c r="AM232" s="32"/>
+      <c r="AN232" s="32"/>
+      <c r="AO232" s="32"/>
+      <c r="AP232" s="32"/>
+      <c r="AQ232" s="32"/>
+      <c r="AR232" s="32"/>
+      <c r="AS232" s="32"/>
+      <c r="AT232" s="32"/>
+      <c r="AU232" s="32"/>
+      <c r="AV232" s="32"/>
+      <c r="AW232" s="32"/>
+      <c r="AX232" s="32"/>
+      <c r="AY232" s="32"/>
+      <c r="AZ232" s="32"/>
+      <c r="BA232" s="32"/>
+      <c r="BB232" s="32"/>
+      <c r="BC232" s="32"/>
+      <c r="BD232" s="32"/>
+      <c r="BE232" s="32"/>
     </row>
     <row r="233" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A233" s="32">
+      <c r="A233" s="38">
         <v>46</v>
       </c>
-      <c r="B233" s="35" t="s">
+      <c r="B233" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C233" s="36"/>
+      <c r="C233" s="34"/>
       <c r="D233" s="15" t="s">
         <v>3</v>
       </c>
@@ -18121,7 +18235,9 @@
       <c r="G233" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H233" s="21"/>
+      <c r="H233" s="21">
+        <v>2</v>
+      </c>
       <c r="I233" s="21"/>
       <c r="J233" s="21"/>
       <c r="K233" s="21"/>
@@ -18173,7 +18289,7 @@
       <c r="BE233" s="21"/>
     </row>
     <row r="234" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A234" s="33"/>
+      <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>6</v>
       </c>
@@ -18186,7 +18302,7 @@
       </c>
       <c r="E234" s="10">
         <f>51-H237</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F234" s="13"/>
       <c r="G234" s="28" t="s">
@@ -18250,7 +18366,7 @@
       <c r="BE234" s="22"/>
     </row>
     <row r="235" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A235" s="33"/>
+      <c r="A235" s="39"/>
       <c r="B235" s="18" t="s">
         <v>51</v>
       </c>
@@ -18263,7 +18379,7 @@
       </c>
       <c r="E235" s="10">
         <f>SUM(H233:BE235)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="29" t="s">
@@ -18321,7 +18437,7 @@
       <c r="BE235" s="23"/>
     </row>
     <row r="236" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
+      <c r="A236" s="39"/>
       <c r="B236" s="19" t="s">
         <v>7</v>
       </c>
@@ -18334,7 +18450,7 @@
       </c>
       <c r="E236" s="10">
         <f>E235+SUM(H236:BE236)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="30" t="s">
@@ -18392,7 +18508,7 @@
       <c r="BE236" s="24"/>
     </row>
     <row r="237" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="34"/>
+      <c r="A237" s="40"/>
       <c r="B237" s="6" t="s">
         <v>72</v>
       </c>
@@ -18410,66 +18526,66 @@
         <v>58</v>
       </c>
       <c r="H237" s="26">
-        <v>6</v>
-      </c>
-      <c r="I237" s="41"/>
-      <c r="J237" s="41"/>
-      <c r="K237" s="41"/>
-      <c r="L237" s="41"/>
-      <c r="M237" s="41"/>
-      <c r="N237" s="41"/>
-      <c r="O237" s="41"/>
-      <c r="P237" s="41"/>
-      <c r="Q237" s="41"/>
-      <c r="R237" s="41"/>
-      <c r="S237" s="41"/>
-      <c r="T237" s="41"/>
-      <c r="U237" s="41"/>
-      <c r="V237" s="41"/>
-      <c r="W237" s="41"/>
-      <c r="X237" s="41"/>
-      <c r="Y237" s="41"/>
-      <c r="Z237" s="41"/>
-      <c r="AA237" s="41"/>
-      <c r="AB237" s="41"/>
-      <c r="AC237" s="41"/>
-      <c r="AD237" s="41"/>
-      <c r="AE237" s="41"/>
-      <c r="AF237" s="41"/>
-      <c r="AG237" s="41"/>
-      <c r="AH237" s="41"/>
-      <c r="AI237" s="41"/>
-      <c r="AJ237" s="41"/>
-      <c r="AK237" s="41"/>
-      <c r="AL237" s="41"/>
-      <c r="AM237" s="41"/>
-      <c r="AN237" s="41"/>
-      <c r="AO237" s="41"/>
-      <c r="AP237" s="41"/>
-      <c r="AQ237" s="41"/>
-      <c r="AR237" s="41"/>
-      <c r="AS237" s="41"/>
-      <c r="AT237" s="41"/>
-      <c r="AU237" s="41"/>
-      <c r="AV237" s="41"/>
-      <c r="AW237" s="41"/>
-      <c r="AX237" s="41"/>
-      <c r="AY237" s="41"/>
-      <c r="AZ237" s="41"/>
-      <c r="BA237" s="41"/>
-      <c r="BB237" s="41"/>
-      <c r="BC237" s="41"/>
-      <c r="BD237" s="41"/>
-      <c r="BE237" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="I237" s="32"/>
+      <c r="J237" s="32"/>
+      <c r="K237" s="32"/>
+      <c r="L237" s="32"/>
+      <c r="M237" s="32"/>
+      <c r="N237" s="32"/>
+      <c r="O237" s="32"/>
+      <c r="P237" s="32"/>
+      <c r="Q237" s="32"/>
+      <c r="R237" s="32"/>
+      <c r="S237" s="32"/>
+      <c r="T237" s="32"/>
+      <c r="U237" s="32"/>
+      <c r="V237" s="32"/>
+      <c r="W237" s="32"/>
+      <c r="X237" s="32"/>
+      <c r="Y237" s="32"/>
+      <c r="Z237" s="32"/>
+      <c r="AA237" s="32"/>
+      <c r="AB237" s="32"/>
+      <c r="AC237" s="32"/>
+      <c r="AD237" s="32"/>
+      <c r="AE237" s="32"/>
+      <c r="AF237" s="32"/>
+      <c r="AG237" s="32"/>
+      <c r="AH237" s="32"/>
+      <c r="AI237" s="32"/>
+      <c r="AJ237" s="32"/>
+      <c r="AK237" s="32"/>
+      <c r="AL237" s="32"/>
+      <c r="AM237" s="32"/>
+      <c r="AN237" s="32"/>
+      <c r="AO237" s="32"/>
+      <c r="AP237" s="32"/>
+      <c r="AQ237" s="32"/>
+      <c r="AR237" s="32"/>
+      <c r="AS237" s="32"/>
+      <c r="AT237" s="32"/>
+      <c r="AU237" s="32"/>
+      <c r="AV237" s="32"/>
+      <c r="AW237" s="32"/>
+      <c r="AX237" s="32"/>
+      <c r="AY237" s="32"/>
+      <c r="AZ237" s="32"/>
+      <c r="BA237" s="32"/>
+      <c r="BB237" s="32"/>
+      <c r="BC237" s="32"/>
+      <c r="BD237" s="32"/>
+      <c r="BE237" s="32"/>
     </row>
     <row r="238" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A238" s="32">
+      <c r="A238" s="38">
         <v>47</v>
       </c>
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="36"/>
+      <c r="C238" s="34"/>
       <c r="D238" s="15" t="s">
         <v>3</v>
       </c>
@@ -18537,7 +18653,7 @@
       <c r="BE238" s="21"/>
     </row>
     <row r="239" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A239" s="33"/>
+      <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>6</v>
       </c>
@@ -18556,11 +18672,15 @@
       <c r="G239" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H239" s="22"/>
+      <c r="H239" s="22">
+        <v>1</v>
+      </c>
       <c r="I239" s="22">
         <v>1</v>
       </c>
-      <c r="J239" s="22"/>
+      <c r="J239" s="22">
+        <v>1</v>
+      </c>
       <c r="K239" s="22"/>
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
@@ -18610,7 +18730,7 @@
       <c r="BE239" s="22"/>
     </row>
     <row r="240" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
+      <c r="A240" s="39"/>
       <c r="B240" s="18" t="s">
         <v>51</v>
       </c>
@@ -18623,7 +18743,7 @@
       </c>
       <c r="E240" s="10">
         <f>SUM(H238:BE240)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F240" s="13"/>
       <c r="G240" s="29" t="s">
@@ -18681,7 +18801,7 @@
       <c r="BE240" s="23"/>
     </row>
     <row r="241" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A241" s="33"/>
+      <c r="A241" s="39"/>
       <c r="B241" s="19" t="s">
         <v>7</v>
       </c>
@@ -18694,7 +18814,7 @@
       </c>
       <c r="E241" s="10">
         <f>E240+SUM(H241:BE241)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F241" s="13"/>
       <c r="G241" s="30" t="s">
@@ -18752,7 +18872,7 @@
       <c r="BE241" s="24"/>
     </row>
     <row r="242" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="34"/>
+      <c r="A242" s="40"/>
       <c r="B242" s="6" t="s">
         <v>72</v>
       </c>
@@ -18770,64 +18890,64 @@
         <v>58</v>
       </c>
       <c r="H242" s="26"/>
-      <c r="I242" s="41"/>
-      <c r="J242" s="41"/>
-      <c r="K242" s="41"/>
-      <c r="L242" s="41"/>
-      <c r="M242" s="41"/>
-      <c r="N242" s="41"/>
-      <c r="O242" s="41"/>
-      <c r="P242" s="41"/>
-      <c r="Q242" s="41"/>
-      <c r="R242" s="41"/>
-      <c r="S242" s="41"/>
-      <c r="T242" s="41"/>
-      <c r="U242" s="41"/>
-      <c r="V242" s="41"/>
-      <c r="W242" s="41"/>
-      <c r="X242" s="41"/>
-      <c r="Y242" s="41"/>
-      <c r="Z242" s="41"/>
-      <c r="AA242" s="41"/>
-      <c r="AB242" s="41"/>
-      <c r="AC242" s="41"/>
-      <c r="AD242" s="41"/>
-      <c r="AE242" s="41"/>
-      <c r="AF242" s="41"/>
-      <c r="AG242" s="41"/>
-      <c r="AH242" s="41"/>
-      <c r="AI242" s="41"/>
-      <c r="AJ242" s="41"/>
-      <c r="AK242" s="41"/>
-      <c r="AL242" s="41"/>
-      <c r="AM242" s="41"/>
-      <c r="AN242" s="41"/>
-      <c r="AO242" s="41"/>
-      <c r="AP242" s="41"/>
-      <c r="AQ242" s="41"/>
-      <c r="AR242" s="41"/>
-      <c r="AS242" s="41"/>
-      <c r="AT242" s="41"/>
-      <c r="AU242" s="41"/>
-      <c r="AV242" s="41"/>
-      <c r="AW242" s="41"/>
-      <c r="AX242" s="41"/>
-      <c r="AY242" s="41"/>
-      <c r="AZ242" s="41"/>
-      <c r="BA242" s="41"/>
-      <c r="BB242" s="41"/>
-      <c r="BC242" s="41"/>
-      <c r="BD242" s="41"/>
-      <c r="BE242" s="41"/>
+      <c r="I242" s="32"/>
+      <c r="J242" s="32"/>
+      <c r="K242" s="32"/>
+      <c r="L242" s="32"/>
+      <c r="M242" s="32"/>
+      <c r="N242" s="32"/>
+      <c r="O242" s="32"/>
+      <c r="P242" s="32"/>
+      <c r="Q242" s="32"/>
+      <c r="R242" s="32"/>
+      <c r="S242" s="32"/>
+      <c r="T242" s="32"/>
+      <c r="U242" s="32"/>
+      <c r="V242" s="32"/>
+      <c r="W242" s="32"/>
+      <c r="X242" s="32"/>
+      <c r="Y242" s="32"/>
+      <c r="Z242" s="32"/>
+      <c r="AA242" s="32"/>
+      <c r="AB242" s="32"/>
+      <c r="AC242" s="32"/>
+      <c r="AD242" s="32"/>
+      <c r="AE242" s="32"/>
+      <c r="AF242" s="32"/>
+      <c r="AG242" s="32"/>
+      <c r="AH242" s="32"/>
+      <c r="AI242" s="32"/>
+      <c r="AJ242" s="32"/>
+      <c r="AK242" s="32"/>
+      <c r="AL242" s="32"/>
+      <c r="AM242" s="32"/>
+      <c r="AN242" s="32"/>
+      <c r="AO242" s="32"/>
+      <c r="AP242" s="32"/>
+      <c r="AQ242" s="32"/>
+      <c r="AR242" s="32"/>
+      <c r="AS242" s="32"/>
+      <c r="AT242" s="32"/>
+      <c r="AU242" s="32"/>
+      <c r="AV242" s="32"/>
+      <c r="AW242" s="32"/>
+      <c r="AX242" s="32"/>
+      <c r="AY242" s="32"/>
+      <c r="AZ242" s="32"/>
+      <c r="BA242" s="32"/>
+      <c r="BB242" s="32"/>
+      <c r="BC242" s="32"/>
+      <c r="BD242" s="32"/>
+      <c r="BE242" s="32"/>
     </row>
     <row r="243" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A243" s="32">
+      <c r="A243" s="38">
         <v>48</v>
       </c>
-      <c r="B243" s="35" t="s">
+      <c r="B243" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="36"/>
+      <c r="C243" s="34"/>
       <c r="D243" s="15" t="s">
         <v>3</v>
       </c>
@@ -18899,7 +19019,7 @@
       <c r="BE243" s="21"/>
     </row>
     <row r="244" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A244" s="33"/>
+      <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>6</v>
       </c>
@@ -18976,7 +19096,7 @@
       <c r="BE244" s="22"/>
     </row>
     <row r="245" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A245" s="33"/>
+      <c r="A245" s="39"/>
       <c r="B245" s="18" t="s">
         <v>51</v>
       </c>
@@ -19047,7 +19167,7 @@
       <c r="BE245" s="23"/>
     </row>
     <row r="246" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A246" s="33"/>
+      <c r="A246" s="39"/>
       <c r="B246" s="19" t="s">
         <v>7</v>
       </c>
@@ -19118,7 +19238,7 @@
       <c r="BE246" s="24"/>
     </row>
     <row r="247" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="34"/>
+      <c r="A247" s="40"/>
       <c r="B247" s="6" t="s">
         <v>72</v>
       </c>
@@ -19138,76 +19258,78 @@
       <c r="H247" s="26">
         <v>3</v>
       </c>
-      <c r="I247" s="41"/>
-      <c r="J247" s="41"/>
-      <c r="K247" s="41"/>
-      <c r="L247" s="41"/>
-      <c r="M247" s="41"/>
-      <c r="N247" s="41"/>
-      <c r="O247" s="41"/>
-      <c r="P247" s="41"/>
-      <c r="Q247" s="41"/>
-      <c r="R247" s="41"/>
-      <c r="S247" s="41"/>
-      <c r="T247" s="41"/>
-      <c r="U247" s="41"/>
-      <c r="V247" s="41"/>
-      <c r="W247" s="41"/>
-      <c r="X247" s="41"/>
-      <c r="Y247" s="41"/>
-      <c r="Z247" s="41"/>
-      <c r="AA247" s="41"/>
-      <c r="AB247" s="41"/>
-      <c r="AC247" s="41"/>
-      <c r="AD247" s="41"/>
-      <c r="AE247" s="41"/>
-      <c r="AF247" s="41"/>
-      <c r="AG247" s="41"/>
-      <c r="AH247" s="41"/>
-      <c r="AI247" s="41"/>
-      <c r="AJ247" s="41"/>
-      <c r="AK247" s="41"/>
-      <c r="AL247" s="41"/>
-      <c r="AM247" s="41"/>
-      <c r="AN247" s="41"/>
-      <c r="AO247" s="41"/>
-      <c r="AP247" s="41"/>
-      <c r="AQ247" s="41"/>
-      <c r="AR247" s="41"/>
-      <c r="AS247" s="41"/>
-      <c r="AT247" s="41"/>
-      <c r="AU247" s="41"/>
-      <c r="AV247" s="41"/>
-      <c r="AW247" s="41"/>
-      <c r="AX247" s="41"/>
-      <c r="AY247" s="41"/>
-      <c r="AZ247" s="41"/>
-      <c r="BA247" s="41"/>
-      <c r="BB247" s="41"/>
-      <c r="BC247" s="41"/>
-      <c r="BD247" s="41"/>
-      <c r="BE247" s="41"/>
+      <c r="I247" s="32"/>
+      <c r="J247" s="32"/>
+      <c r="K247" s="32"/>
+      <c r="L247" s="32"/>
+      <c r="M247" s="32"/>
+      <c r="N247" s="32"/>
+      <c r="O247" s="32"/>
+      <c r="P247" s="32"/>
+      <c r="Q247" s="32"/>
+      <c r="R247" s="32"/>
+      <c r="S247" s="32"/>
+      <c r="T247" s="32"/>
+      <c r="U247" s="32"/>
+      <c r="V247" s="32"/>
+      <c r="W247" s="32"/>
+      <c r="X247" s="32"/>
+      <c r="Y247" s="32"/>
+      <c r="Z247" s="32"/>
+      <c r="AA247" s="32"/>
+      <c r="AB247" s="32"/>
+      <c r="AC247" s="32"/>
+      <c r="AD247" s="32"/>
+      <c r="AE247" s="32"/>
+      <c r="AF247" s="32"/>
+      <c r="AG247" s="32"/>
+      <c r="AH247" s="32"/>
+      <c r="AI247" s="32"/>
+      <c r="AJ247" s="32"/>
+      <c r="AK247" s="32"/>
+      <c r="AL247" s="32"/>
+      <c r="AM247" s="32"/>
+      <c r="AN247" s="32"/>
+      <c r="AO247" s="32"/>
+      <c r="AP247" s="32"/>
+      <c r="AQ247" s="32"/>
+      <c r="AR247" s="32"/>
+      <c r="AS247" s="32"/>
+      <c r="AT247" s="32"/>
+      <c r="AU247" s="32"/>
+      <c r="AV247" s="32"/>
+      <c r="AW247" s="32"/>
+      <c r="AX247" s="32"/>
+      <c r="AY247" s="32"/>
+      <c r="AZ247" s="32"/>
+      <c r="BA247" s="32"/>
+      <c r="BB247" s="32"/>
+      <c r="BC247" s="32"/>
+      <c r="BD247" s="32"/>
+      <c r="BE247" s="32"/>
     </row>
     <row r="248" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A248" s="32">
+      <c r="A248" s="38">
         <v>49</v>
       </c>
-      <c r="B248" s="35" t="s">
+      <c r="B248" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C248" s="36"/>
+      <c r="C248" s="34"/>
       <c r="D248" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="9">
         <f>C252+E252-COUNTIF(H248:BE248,1)-COUNTIF(H248:BE248,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H248" s="21"/>
+      <c r="H248" s="21">
+        <v>0</v>
+      </c>
       <c r="I248" s="21"/>
       <c r="J248" s="21"/>
       <c r="K248" s="21"/>
@@ -19259,7 +19381,7 @@
       <c r="BE248" s="21"/>
     </row>
     <row r="249" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A249" s="33"/>
+      <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>6</v>
       </c>
@@ -19272,7 +19394,7 @@
       </c>
       <c r="E249" s="10">
         <f>51-H252</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="28" t="s">
@@ -19334,7 +19456,7 @@
       <c r="BE249" s="22"/>
     </row>
     <row r="250" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A250" s="33"/>
+      <c r="A250" s="39"/>
       <c r="B250" s="18" t="s">
         <v>51</v>
       </c>
@@ -19405,7 +19527,7 @@
       <c r="BE250" s="23"/>
     </row>
     <row r="251" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A251" s="33"/>
+      <c r="A251" s="39"/>
       <c r="B251" s="19" t="s">
         <v>7</v>
       </c>
@@ -19476,7 +19598,7 @@
       <c r="BE251" s="24"/>
     </row>
     <row r="252" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="34"/>
+      <c r="A252" s="40"/>
       <c r="B252" s="6" t="s">
         <v>72</v>
       </c>
@@ -19494,66 +19616,66 @@
         <v>58</v>
       </c>
       <c r="H252" s="26">
-        <v>12</v>
-      </c>
-      <c r="I252" s="41"/>
-      <c r="J252" s="41"/>
-      <c r="K252" s="41"/>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
-      <c r="W252" s="41"/>
-      <c r="X252" s="41"/>
-      <c r="Y252" s="41"/>
-      <c r="Z252" s="41"/>
-      <c r="AA252" s="41"/>
-      <c r="AB252" s="41"/>
-      <c r="AC252" s="41"/>
-      <c r="AD252" s="41"/>
-      <c r="AE252" s="41"/>
-      <c r="AF252" s="41"/>
-      <c r="AG252" s="41"/>
-      <c r="AH252" s="41"/>
-      <c r="AI252" s="41"/>
-      <c r="AJ252" s="41"/>
-      <c r="AK252" s="41"/>
-      <c r="AL252" s="41"/>
-      <c r="AM252" s="41"/>
-      <c r="AN252" s="41"/>
-      <c r="AO252" s="41"/>
-      <c r="AP252" s="41"/>
-      <c r="AQ252" s="41"/>
-      <c r="AR252" s="41"/>
-      <c r="AS252" s="41"/>
-      <c r="AT252" s="41"/>
-      <c r="AU252" s="41"/>
-      <c r="AV252" s="41"/>
-      <c r="AW252" s="41"/>
-      <c r="AX252" s="41"/>
-      <c r="AY252" s="41"/>
-      <c r="AZ252" s="41"/>
-      <c r="BA252" s="41"/>
-      <c r="BB252" s="41"/>
-      <c r="BC252" s="41"/>
-      <c r="BD252" s="41"/>
-      <c r="BE252" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="I252" s="32"/>
+      <c r="J252" s="32"/>
+      <c r="K252" s="32"/>
+      <c r="L252" s="32"/>
+      <c r="M252" s="32"/>
+      <c r="N252" s="32"/>
+      <c r="O252" s="32"/>
+      <c r="P252" s="32"/>
+      <c r="Q252" s="32"/>
+      <c r="R252" s="32"/>
+      <c r="S252" s="32"/>
+      <c r="T252" s="32"/>
+      <c r="U252" s="32"/>
+      <c r="V252" s="32"/>
+      <c r="W252" s="32"/>
+      <c r="X252" s="32"/>
+      <c r="Y252" s="32"/>
+      <c r="Z252" s="32"/>
+      <c r="AA252" s="32"/>
+      <c r="AB252" s="32"/>
+      <c r="AC252" s="32"/>
+      <c r="AD252" s="32"/>
+      <c r="AE252" s="32"/>
+      <c r="AF252" s="32"/>
+      <c r="AG252" s="32"/>
+      <c r="AH252" s="32"/>
+      <c r="AI252" s="32"/>
+      <c r="AJ252" s="32"/>
+      <c r="AK252" s="32"/>
+      <c r="AL252" s="32"/>
+      <c r="AM252" s="32"/>
+      <c r="AN252" s="32"/>
+      <c r="AO252" s="32"/>
+      <c r="AP252" s="32"/>
+      <c r="AQ252" s="32"/>
+      <c r="AR252" s="32"/>
+      <c r="AS252" s="32"/>
+      <c r="AT252" s="32"/>
+      <c r="AU252" s="32"/>
+      <c r="AV252" s="32"/>
+      <c r="AW252" s="32"/>
+      <c r="AX252" s="32"/>
+      <c r="AY252" s="32"/>
+      <c r="AZ252" s="32"/>
+      <c r="BA252" s="32"/>
+      <c r="BB252" s="32"/>
+      <c r="BC252" s="32"/>
+      <c r="BD252" s="32"/>
+      <c r="BE252" s="32"/>
     </row>
     <row r="253" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A253" s="32">
+      <c r="A253" s="38">
         <v>50</v>
       </c>
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="36"/>
+      <c r="C253" s="34"/>
       <c r="D253" s="15" t="s">
         <v>3</v>
       </c>
@@ -19619,7 +19741,7 @@
       <c r="BE253" s="21"/>
     </row>
     <row r="254" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A254" s="33"/>
+      <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>6</v>
       </c>
@@ -19632,7 +19754,7 @@
       </c>
       <c r="E254" s="10">
         <f>51-H257</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F254" s="13"/>
       <c r="G254" s="28" t="s">
@@ -19644,7 +19766,9 @@
       <c r="I254" s="22">
         <v>1</v>
       </c>
-      <c r="J254" s="22"/>
+      <c r="J254" s="22">
+        <v>1</v>
+      </c>
       <c r="K254" s="22"/>
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
@@ -19694,7 +19818,7 @@
       <c r="BE254" s="22"/>
     </row>
     <row r="255" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A255" s="33"/>
+      <c r="A255" s="39"/>
       <c r="B255" s="18" t="s">
         <v>51</v>
       </c>
@@ -19707,7 +19831,7 @@
       </c>
       <c r="E255" s="10">
         <f>SUM(H253:BE255)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F255" s="13"/>
       <c r="G255" s="29" t="s">
@@ -19765,7 +19889,7 @@
       <c r="BE255" s="23"/>
     </row>
     <row r="256" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A256" s="33"/>
+      <c r="A256" s="39"/>
       <c r="B256" s="19" t="s">
         <v>7</v>
       </c>
@@ -19778,7 +19902,7 @@
       </c>
       <c r="E256" s="10">
         <f>E255+SUM(H256:BE256)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F256" s="13"/>
       <c r="G256" s="30" t="s">
@@ -19836,7 +19960,7 @@
       <c r="BE256" s="24"/>
     </row>
     <row r="257" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="34"/>
+      <c r="A257" s="40"/>
       <c r="B257" s="6" t="s">
         <v>72</v>
       </c>
@@ -19854,66 +19978,66 @@
         <v>58</v>
       </c>
       <c r="H257" s="26">
-        <v>12</v>
-      </c>
-      <c r="I257" s="41"/>
-      <c r="J257" s="41"/>
-      <c r="K257" s="41"/>
-      <c r="L257" s="41"/>
-      <c r="M257" s="41"/>
-      <c r="N257" s="41"/>
-      <c r="O257" s="41"/>
-      <c r="P257" s="41"/>
-      <c r="Q257" s="41"/>
-      <c r="R257" s="41"/>
-      <c r="S257" s="41"/>
-      <c r="T257" s="41"/>
-      <c r="U257" s="41"/>
-      <c r="V257" s="41"/>
-      <c r="W257" s="41"/>
-      <c r="X257" s="41"/>
-      <c r="Y257" s="41"/>
-      <c r="Z257" s="41"/>
-      <c r="AA257" s="41"/>
-      <c r="AB257" s="41"/>
-      <c r="AC257" s="41"/>
-      <c r="AD257" s="41"/>
-      <c r="AE257" s="41"/>
-      <c r="AF257" s="41"/>
-      <c r="AG257" s="41"/>
-      <c r="AH257" s="41"/>
-      <c r="AI257" s="41"/>
-      <c r="AJ257" s="41"/>
-      <c r="AK257" s="41"/>
-      <c r="AL257" s="41"/>
-      <c r="AM257" s="41"/>
-      <c r="AN257" s="41"/>
-      <c r="AO257" s="41"/>
-      <c r="AP257" s="41"/>
-      <c r="AQ257" s="41"/>
-      <c r="AR257" s="41"/>
-      <c r="AS257" s="41"/>
-      <c r="AT257" s="41"/>
-      <c r="AU257" s="41"/>
-      <c r="AV257" s="41"/>
-      <c r="AW257" s="41"/>
-      <c r="AX257" s="41"/>
-      <c r="AY257" s="41"/>
-      <c r="AZ257" s="41"/>
-      <c r="BA257" s="41"/>
-      <c r="BB257" s="41"/>
-      <c r="BC257" s="41"/>
-      <c r="BD257" s="41"/>
-      <c r="BE257" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="I257" s="32"/>
+      <c r="J257" s="32"/>
+      <c r="K257" s="32"/>
+      <c r="L257" s="32"/>
+      <c r="M257" s="32"/>
+      <c r="N257" s="32"/>
+      <c r="O257" s="32"/>
+      <c r="P257" s="32"/>
+      <c r="Q257" s="32"/>
+      <c r="R257" s="32"/>
+      <c r="S257" s="32"/>
+      <c r="T257" s="32"/>
+      <c r="U257" s="32"/>
+      <c r="V257" s="32"/>
+      <c r="W257" s="32"/>
+      <c r="X257" s="32"/>
+      <c r="Y257" s="32"/>
+      <c r="Z257" s="32"/>
+      <c r="AA257" s="32"/>
+      <c r="AB257" s="32"/>
+      <c r="AC257" s="32"/>
+      <c r="AD257" s="32"/>
+      <c r="AE257" s="32"/>
+      <c r="AF257" s="32"/>
+      <c r="AG257" s="32"/>
+      <c r="AH257" s="32"/>
+      <c r="AI257" s="32"/>
+      <c r="AJ257" s="32"/>
+      <c r="AK257" s="32"/>
+      <c r="AL257" s="32"/>
+      <c r="AM257" s="32"/>
+      <c r="AN257" s="32"/>
+      <c r="AO257" s="32"/>
+      <c r="AP257" s="32"/>
+      <c r="AQ257" s="32"/>
+      <c r="AR257" s="32"/>
+      <c r="AS257" s="32"/>
+      <c r="AT257" s="32"/>
+      <c r="AU257" s="32"/>
+      <c r="AV257" s="32"/>
+      <c r="AW257" s="32"/>
+      <c r="AX257" s="32"/>
+      <c r="AY257" s="32"/>
+      <c r="AZ257" s="32"/>
+      <c r="BA257" s="32"/>
+      <c r="BB257" s="32"/>
+      <c r="BC257" s="32"/>
+      <c r="BD257" s="32"/>
+      <c r="BE257" s="32"/>
     </row>
     <row r="258" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A258" s="32">
+      <c r="A258" s="38">
         <v>51</v>
       </c>
-      <c r="B258" s="35" t="s">
+      <c r="B258" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="36"/>
+      <c r="C258" s="34"/>
       <c r="D258" s="15" t="s">
         <v>3</v>
       </c>
@@ -19925,8 +20049,12 @@
       <c r="G258" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
+      <c r="H258" s="21">
+        <v>2</v>
+      </c>
+      <c r="I258" s="21">
+        <v>2</v>
+      </c>
       <c r="J258" s="21">
         <v>2</v>
       </c>
@@ -19979,7 +20107,7 @@
       <c r="BE258" s="21"/>
     </row>
     <row r="259" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A259" s="33"/>
+      <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>6</v>
       </c>
@@ -20056,7 +20184,7 @@
       <c r="BE259" s="22"/>
     </row>
     <row r="260" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A260" s="33"/>
+      <c r="A260" s="39"/>
       <c r="B260" s="18" t="s">
         <v>51</v>
       </c>
@@ -20069,7 +20197,7 @@
       </c>
       <c r="E260" s="10">
         <f>SUM(H258:BE260)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F260" s="13"/>
       <c r="G260" s="29" t="s">
@@ -20127,7 +20255,7 @@
       <c r="BE260" s="23"/>
     </row>
     <row r="261" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A261" s="33"/>
+      <c r="A261" s="39"/>
       <c r="B261" s="19" t="s">
         <v>7</v>
       </c>
@@ -20140,7 +20268,7 @@
       </c>
       <c r="E261" s="10">
         <f>E260+SUM(H261:BE261)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F261" s="13"/>
       <c r="G261" s="30" t="s">
@@ -20198,7 +20326,7 @@
       <c r="BE261" s="24"/>
     </row>
     <row r="262" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="34"/>
+      <c r="A262" s="40"/>
       <c r="B262" s="6" t="s">
         <v>72</v>
       </c>
@@ -20216,64 +20344,64 @@
         <v>58</v>
       </c>
       <c r="H262" s="26"/>
-      <c r="I262" s="41"/>
-      <c r="J262" s="41"/>
-      <c r="K262" s="41"/>
-      <c r="L262" s="41"/>
-      <c r="M262" s="41"/>
-      <c r="N262" s="41"/>
-      <c r="O262" s="41"/>
-      <c r="P262" s="41"/>
-      <c r="Q262" s="41"/>
-      <c r="R262" s="41"/>
-      <c r="S262" s="41"/>
-      <c r="T262" s="41"/>
-      <c r="U262" s="41"/>
-      <c r="V262" s="41"/>
-      <c r="W262" s="41"/>
-      <c r="X262" s="41"/>
-      <c r="Y262" s="41"/>
-      <c r="Z262" s="41"/>
-      <c r="AA262" s="41"/>
-      <c r="AB262" s="41"/>
-      <c r="AC262" s="41"/>
-      <c r="AD262" s="41"/>
-      <c r="AE262" s="41"/>
-      <c r="AF262" s="41"/>
-      <c r="AG262" s="41"/>
-      <c r="AH262" s="41"/>
-      <c r="AI262" s="41"/>
-      <c r="AJ262" s="41"/>
-      <c r="AK262" s="41"/>
-      <c r="AL262" s="41"/>
-      <c r="AM262" s="41"/>
-      <c r="AN262" s="41"/>
-      <c r="AO262" s="41"/>
-      <c r="AP262" s="41"/>
-      <c r="AQ262" s="41"/>
-      <c r="AR262" s="41"/>
-      <c r="AS262" s="41"/>
-      <c r="AT262" s="41"/>
-      <c r="AU262" s="41"/>
-      <c r="AV262" s="41"/>
-      <c r="AW262" s="41"/>
-      <c r="AX262" s="41"/>
-      <c r="AY262" s="41"/>
-      <c r="AZ262" s="41"/>
-      <c r="BA262" s="41"/>
-      <c r="BB262" s="41"/>
-      <c r="BC262" s="41"/>
-      <c r="BD262" s="41"/>
-      <c r="BE262" s="41"/>
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
+      <c r="K262" s="32"/>
+      <c r="L262" s="32"/>
+      <c r="M262" s="32"/>
+      <c r="N262" s="32"/>
+      <c r="O262" s="32"/>
+      <c r="P262" s="32"/>
+      <c r="Q262" s="32"/>
+      <c r="R262" s="32"/>
+      <c r="S262" s="32"/>
+      <c r="T262" s="32"/>
+      <c r="U262" s="32"/>
+      <c r="V262" s="32"/>
+      <c r="W262" s="32"/>
+      <c r="X262" s="32"/>
+      <c r="Y262" s="32"/>
+      <c r="Z262" s="32"/>
+      <c r="AA262" s="32"/>
+      <c r="AB262" s="32"/>
+      <c r="AC262" s="32"/>
+      <c r="AD262" s="32"/>
+      <c r="AE262" s="32"/>
+      <c r="AF262" s="32"/>
+      <c r="AG262" s="32"/>
+      <c r="AH262" s="32"/>
+      <c r="AI262" s="32"/>
+      <c r="AJ262" s="32"/>
+      <c r="AK262" s="32"/>
+      <c r="AL262" s="32"/>
+      <c r="AM262" s="32"/>
+      <c r="AN262" s="32"/>
+      <c r="AO262" s="32"/>
+      <c r="AP262" s="32"/>
+      <c r="AQ262" s="32"/>
+      <c r="AR262" s="32"/>
+      <c r="AS262" s="32"/>
+      <c r="AT262" s="32"/>
+      <c r="AU262" s="32"/>
+      <c r="AV262" s="32"/>
+      <c r="AW262" s="32"/>
+      <c r="AX262" s="32"/>
+      <c r="AY262" s="32"/>
+      <c r="AZ262" s="32"/>
+      <c r="BA262" s="32"/>
+      <c r="BB262" s="32"/>
+      <c r="BC262" s="32"/>
+      <c r="BD262" s="32"/>
+      <c r="BE262" s="32"/>
     </row>
     <row r="263" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A263" s="32">
+      <c r="A263" s="38">
         <v>52</v>
       </c>
-      <c r="B263" s="35" t="s">
+      <c r="B263" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C263" s="36"/>
+      <c r="C263" s="34"/>
       <c r="D263" s="15" t="s">
         <v>3</v>
       </c>
@@ -20285,7 +20413,9 @@
       <c r="G263" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H263" s="21"/>
+      <c r="H263" s="21">
+        <v>2</v>
+      </c>
       <c r="I263" s="21"/>
       <c r="J263" s="21"/>
       <c r="K263" s="21"/>
@@ -20337,7 +20467,7 @@
       <c r="BE263" s="21"/>
     </row>
     <row r="264" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A264" s="33"/>
+      <c r="A264" s="39"/>
       <c r="B264" s="20" t="s">
         <v>6</v>
       </c>
@@ -20414,7 +20544,7 @@
       <c r="BE264" s="22"/>
     </row>
     <row r="265" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A265" s="33"/>
+      <c r="A265" s="39"/>
       <c r="B265" s="18" t="s">
         <v>51</v>
       </c>
@@ -20427,7 +20557,7 @@
       </c>
       <c r="E265" s="10">
         <f>SUM(H263:BE265)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F265" s="13"/>
       <c r="G265" s="29" t="s">
@@ -20485,7 +20615,7 @@
       <c r="BE265" s="23"/>
     </row>
     <row r="266" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A266" s="33"/>
+      <c r="A266" s="39"/>
       <c r="B266" s="19" t="s">
         <v>7</v>
       </c>
@@ -20498,7 +20628,7 @@
       </c>
       <c r="E266" s="10">
         <f>E265+SUM(H266:BE266)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F266" s="13"/>
       <c r="G266" s="30" t="s">
@@ -20556,7 +20686,7 @@
       <c r="BE266" s="24"/>
     </row>
     <row r="267" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="34"/>
+      <c r="A267" s="40"/>
       <c r="B267" s="6" t="s">
         <v>72</v>
       </c>
@@ -20574,76 +20704,78 @@
         <v>58</v>
       </c>
       <c r="H267" s="26"/>
-      <c r="I267" s="41"/>
-      <c r="J267" s="41"/>
-      <c r="K267" s="41"/>
-      <c r="L267" s="41"/>
-      <c r="M267" s="41"/>
-      <c r="N267" s="41"/>
-      <c r="O267" s="41"/>
-      <c r="P267" s="41"/>
-      <c r="Q267" s="41"/>
-      <c r="R267" s="41"/>
-      <c r="S267" s="41"/>
-      <c r="T267" s="41"/>
-      <c r="U267" s="41"/>
-      <c r="V267" s="41"/>
-      <c r="W267" s="41"/>
-      <c r="X267" s="41"/>
-      <c r="Y267" s="41"/>
-      <c r="Z267" s="41"/>
-      <c r="AA267" s="41"/>
-      <c r="AB267" s="41"/>
-      <c r="AC267" s="41"/>
-      <c r="AD267" s="41"/>
-      <c r="AE267" s="41"/>
-      <c r="AF267" s="41"/>
-      <c r="AG267" s="41"/>
-      <c r="AH267" s="41"/>
-      <c r="AI267" s="41"/>
-      <c r="AJ267" s="41"/>
-      <c r="AK267" s="41"/>
-      <c r="AL267" s="41"/>
-      <c r="AM267" s="41"/>
-      <c r="AN267" s="41"/>
-      <c r="AO267" s="41"/>
-      <c r="AP267" s="41"/>
-      <c r="AQ267" s="41"/>
-      <c r="AR267" s="41"/>
-      <c r="AS267" s="41"/>
-      <c r="AT267" s="41"/>
-      <c r="AU267" s="41"/>
-      <c r="AV267" s="41"/>
-      <c r="AW267" s="41"/>
-      <c r="AX267" s="41"/>
-      <c r="AY267" s="41"/>
-      <c r="AZ267" s="41"/>
-      <c r="BA267" s="41"/>
-      <c r="BB267" s="41"/>
-      <c r="BC267" s="41"/>
-      <c r="BD267" s="41"/>
-      <c r="BE267" s="41"/>
+      <c r="I267" s="32"/>
+      <c r="J267" s="32"/>
+      <c r="K267" s="32"/>
+      <c r="L267" s="32"/>
+      <c r="M267" s="32"/>
+      <c r="N267" s="32"/>
+      <c r="O267" s="32"/>
+      <c r="P267" s="32"/>
+      <c r="Q267" s="32"/>
+      <c r="R267" s="32"/>
+      <c r="S267" s="32"/>
+      <c r="T267" s="32"/>
+      <c r="U267" s="32"/>
+      <c r="V267" s="32"/>
+      <c r="W267" s="32"/>
+      <c r="X267" s="32"/>
+      <c r="Y267" s="32"/>
+      <c r="Z267" s="32"/>
+      <c r="AA267" s="32"/>
+      <c r="AB267" s="32"/>
+      <c r="AC267" s="32"/>
+      <c r="AD267" s="32"/>
+      <c r="AE267" s="32"/>
+      <c r="AF267" s="32"/>
+      <c r="AG267" s="32"/>
+      <c r="AH267" s="32"/>
+      <c r="AI267" s="32"/>
+      <c r="AJ267" s="32"/>
+      <c r="AK267" s="32"/>
+      <c r="AL267" s="32"/>
+      <c r="AM267" s="32"/>
+      <c r="AN267" s="32"/>
+      <c r="AO267" s="32"/>
+      <c r="AP267" s="32"/>
+      <c r="AQ267" s="32"/>
+      <c r="AR267" s="32"/>
+      <c r="AS267" s="32"/>
+      <c r="AT267" s="32"/>
+      <c r="AU267" s="32"/>
+      <c r="AV267" s="32"/>
+      <c r="AW267" s="32"/>
+      <c r="AX267" s="32"/>
+      <c r="AY267" s="32"/>
+      <c r="AZ267" s="32"/>
+      <c r="BA267" s="32"/>
+      <c r="BB267" s="32"/>
+      <c r="BC267" s="32"/>
+      <c r="BD267" s="32"/>
+      <c r="BE267" s="32"/>
     </row>
     <row r="268" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A268" s="32">
+      <c r="A268" s="38">
         <v>53</v>
       </c>
-      <c r="B268" s="35" t="s">
+      <c r="B268" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C268" s="36"/>
+      <c r="C268" s="34"/>
       <c r="D268" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="9">
         <f>C272+E272-COUNTIF(H268:BE268,1)-COUNTIF(H268:BE268,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F268" s="13"/>
       <c r="G268" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H268" s="21"/>
+      <c r="H268" s="21">
+        <v>0</v>
+      </c>
       <c r="I268" s="21"/>
       <c r="J268" s="21"/>
       <c r="K268" s="21"/>
@@ -20695,7 +20827,7 @@
       <c r="BE268" s="21"/>
     </row>
     <row r="269" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A269" s="33"/>
+      <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>6</v>
       </c>
@@ -20708,14 +20840,18 @@
       </c>
       <c r="E269" s="10">
         <f>51-H272</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F269" s="13"/>
       <c r="G269" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H269" s="22"/>
-      <c r="I269" s="22"/>
+      <c r="H269" s="22">
+        <v>0</v>
+      </c>
+      <c r="I269" s="22">
+        <v>0</v>
+      </c>
       <c r="J269" s="22"/>
       <c r="K269" s="22"/>
       <c r="L269" s="22"/>
@@ -20766,7 +20902,7 @@
       <c r="BE269" s="22"/>
     </row>
     <row r="270" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A270" s="33"/>
+      <c r="A270" s="39"/>
       <c r="B270" s="18" t="s">
         <v>51</v>
       </c>
@@ -20837,7 +20973,7 @@
       <c r="BE270" s="23"/>
     </row>
     <row r="271" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A271" s="33"/>
+      <c r="A271" s="39"/>
       <c r="B271" s="19" t="s">
         <v>7</v>
       </c>
@@ -20908,7 +21044,7 @@
       <c r="BE271" s="24"/>
     </row>
     <row r="272" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="34"/>
+      <c r="A272" s="40"/>
       <c r="B272" s="6" t="s">
         <v>72</v>
       </c>
@@ -20926,66 +21062,66 @@
         <v>58</v>
       </c>
       <c r="H272" s="26">
-        <v>15</v>
-      </c>
-      <c r="I272" s="41"/>
-      <c r="J272" s="41"/>
-      <c r="K272" s="41"/>
-      <c r="L272" s="41"/>
-      <c r="M272" s="41"/>
-      <c r="N272" s="41"/>
-      <c r="O272" s="41"/>
-      <c r="P272" s="41"/>
-      <c r="Q272" s="41"/>
-      <c r="R272" s="41"/>
-      <c r="S272" s="41"/>
-      <c r="T272" s="41"/>
-      <c r="U272" s="41"/>
-      <c r="V272" s="41"/>
-      <c r="W272" s="41"/>
-      <c r="X272" s="41"/>
-      <c r="Y272" s="41"/>
-      <c r="Z272" s="41"/>
-      <c r="AA272" s="41"/>
-      <c r="AB272" s="41"/>
-      <c r="AC272" s="41"/>
-      <c r="AD272" s="41"/>
-      <c r="AE272" s="41"/>
-      <c r="AF272" s="41"/>
-      <c r="AG272" s="41"/>
-      <c r="AH272" s="41"/>
-      <c r="AI272" s="41"/>
-      <c r="AJ272" s="41"/>
-      <c r="AK272" s="41"/>
-      <c r="AL272" s="41"/>
-      <c r="AM272" s="41"/>
-      <c r="AN272" s="41"/>
-      <c r="AO272" s="41"/>
-      <c r="AP272" s="41"/>
-      <c r="AQ272" s="41"/>
-      <c r="AR272" s="41"/>
-      <c r="AS272" s="41"/>
-      <c r="AT272" s="41"/>
-      <c r="AU272" s="41"/>
-      <c r="AV272" s="41"/>
-      <c r="AW272" s="41"/>
-      <c r="AX272" s="41"/>
-      <c r="AY272" s="41"/>
-      <c r="AZ272" s="41"/>
-      <c r="BA272" s="41"/>
-      <c r="BB272" s="41"/>
-      <c r="BC272" s="41"/>
-      <c r="BD272" s="41"/>
-      <c r="BE272" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="I272" s="32"/>
+      <c r="J272" s="32"/>
+      <c r="K272" s="32"/>
+      <c r="L272" s="32"/>
+      <c r="M272" s="32"/>
+      <c r="N272" s="32"/>
+      <c r="O272" s="32"/>
+      <c r="P272" s="32"/>
+      <c r="Q272" s="32"/>
+      <c r="R272" s="32"/>
+      <c r="S272" s="32"/>
+      <c r="T272" s="32"/>
+      <c r="U272" s="32"/>
+      <c r="V272" s="32"/>
+      <c r="W272" s="32"/>
+      <c r="X272" s="32"/>
+      <c r="Y272" s="32"/>
+      <c r="Z272" s="32"/>
+      <c r="AA272" s="32"/>
+      <c r="AB272" s="32"/>
+      <c r="AC272" s="32"/>
+      <c r="AD272" s="32"/>
+      <c r="AE272" s="32"/>
+      <c r="AF272" s="32"/>
+      <c r="AG272" s="32"/>
+      <c r="AH272" s="32"/>
+      <c r="AI272" s="32"/>
+      <c r="AJ272" s="32"/>
+      <c r="AK272" s="32"/>
+      <c r="AL272" s="32"/>
+      <c r="AM272" s="32"/>
+      <c r="AN272" s="32"/>
+      <c r="AO272" s="32"/>
+      <c r="AP272" s="32"/>
+      <c r="AQ272" s="32"/>
+      <c r="AR272" s="32"/>
+      <c r="AS272" s="32"/>
+      <c r="AT272" s="32"/>
+      <c r="AU272" s="32"/>
+      <c r="AV272" s="32"/>
+      <c r="AW272" s="32"/>
+      <c r="AX272" s="32"/>
+      <c r="AY272" s="32"/>
+      <c r="AZ272" s="32"/>
+      <c r="BA272" s="32"/>
+      <c r="BB272" s="32"/>
+      <c r="BC272" s="32"/>
+      <c r="BD272" s="32"/>
+      <c r="BE272" s="32"/>
     </row>
     <row r="273" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A273" s="32">
+      <c r="A273" s="38">
         <v>54</v>
       </c>
-      <c r="B273" s="35" t="s">
+      <c r="B273" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C273" s="36"/>
+      <c r="C273" s="34"/>
       <c r="D273" s="15" t="s">
         <v>3</v>
       </c>
@@ -21061,7 +21197,7 @@
       <c r="BE273" s="21"/>
     </row>
     <row r="274" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A274" s="33"/>
+      <c r="A274" s="39"/>
       <c r="B274" s="20" t="s">
         <v>6</v>
       </c>
@@ -21138,7 +21274,7 @@
       <c r="BE274" s="22"/>
     </row>
     <row r="275" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A275" s="33"/>
+      <c r="A275" s="39"/>
       <c r="B275" s="18" t="s">
         <v>51</v>
       </c>
@@ -21215,7 +21351,7 @@
       <c r="BE275" s="23"/>
     </row>
     <row r="276" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A276" s="33"/>
+      <c r="A276" s="39"/>
       <c r="B276" s="19" t="s">
         <v>7</v>
       </c>
@@ -21286,7 +21422,7 @@
       <c r="BE276" s="24"/>
     </row>
     <row r="277" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="34"/>
+      <c r="A277" s="40"/>
       <c r="B277" s="6" t="s">
         <v>72</v>
       </c>
@@ -21304,72 +21440,136 @@
         <v>58</v>
       </c>
       <c r="H277" s="26"/>
-      <c r="I277" s="41"/>
-      <c r="J277" s="41"/>
-      <c r="K277" s="41"/>
-      <c r="L277" s="41"/>
-      <c r="M277" s="41"/>
-      <c r="N277" s="41"/>
-      <c r="O277" s="41"/>
-      <c r="P277" s="41"/>
-      <c r="Q277" s="41"/>
-      <c r="R277" s="41"/>
-      <c r="S277" s="41"/>
-      <c r="T277" s="41"/>
-      <c r="U277" s="41"/>
-      <c r="V277" s="41"/>
-      <c r="W277" s="41"/>
-      <c r="X277" s="41"/>
-      <c r="Y277" s="41"/>
-      <c r="Z277" s="41"/>
-      <c r="AA277" s="41"/>
-      <c r="AB277" s="41"/>
-      <c r="AC277" s="41"/>
-      <c r="AD277" s="41"/>
-      <c r="AE277" s="41"/>
-      <c r="AF277" s="41"/>
-      <c r="AG277" s="41"/>
-      <c r="AH277" s="41"/>
-      <c r="AI277" s="41"/>
-      <c r="AJ277" s="41"/>
-      <c r="AK277" s="41"/>
-      <c r="AL277" s="41"/>
-      <c r="AM277" s="41"/>
-      <c r="AN277" s="41"/>
-      <c r="AO277" s="41"/>
-      <c r="AP277" s="41"/>
-      <c r="AQ277" s="41"/>
-      <c r="AR277" s="41"/>
-      <c r="AS277" s="41"/>
-      <c r="AT277" s="41"/>
-      <c r="AU277" s="41"/>
-      <c r="AV277" s="41"/>
-      <c r="AW277" s="41"/>
-      <c r="AX277" s="41"/>
-      <c r="AY277" s="41"/>
-      <c r="AZ277" s="41"/>
-      <c r="BA277" s="41"/>
-      <c r="BB277" s="41"/>
-      <c r="BC277" s="41"/>
-      <c r="BD277" s="41"/>
-      <c r="BE277" s="41"/>
+      <c r="I277" s="32"/>
+      <c r="J277" s="32"/>
+      <c r="K277" s="32"/>
+      <c r="L277" s="32"/>
+      <c r="M277" s="32"/>
+      <c r="N277" s="32"/>
+      <c r="O277" s="32"/>
+      <c r="P277" s="32"/>
+      <c r="Q277" s="32"/>
+      <c r="R277" s="32"/>
+      <c r="S277" s="32"/>
+      <c r="T277" s="32"/>
+      <c r="U277" s="32"/>
+      <c r="V277" s="32"/>
+      <c r="W277" s="32"/>
+      <c r="X277" s="32"/>
+      <c r="Y277" s="32"/>
+      <c r="Z277" s="32"/>
+      <c r="AA277" s="32"/>
+      <c r="AB277" s="32"/>
+      <c r="AC277" s="32"/>
+      <c r="AD277" s="32"/>
+      <c r="AE277" s="32"/>
+      <c r="AF277" s="32"/>
+      <c r="AG277" s="32"/>
+      <c r="AH277" s="32"/>
+      <c r="AI277" s="32"/>
+      <c r="AJ277" s="32"/>
+      <c r="AK277" s="32"/>
+      <c r="AL277" s="32"/>
+      <c r="AM277" s="32"/>
+      <c r="AN277" s="32"/>
+      <c r="AO277" s="32"/>
+      <c r="AP277" s="32"/>
+      <c r="AQ277" s="32"/>
+      <c r="AR277" s="32"/>
+      <c r="AS277" s="32"/>
+      <c r="AT277" s="32"/>
+      <c r="AU277" s="32"/>
+      <c r="AV277" s="32"/>
+      <c r="AW277" s="32"/>
+      <c r="AX277" s="32"/>
+      <c r="AY277" s="32"/>
+      <c r="AZ277" s="32"/>
+      <c r="BA277" s="32"/>
+      <c r="BB277" s="32"/>
+      <c r="BC277" s="32"/>
+      <c r="BD277" s="32"/>
+      <c r="BE277" s="32"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="114">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A213:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B183:C183"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A83:A87"/>
@@ -21394,83 +21594,19 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:C103"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3:F3">

--- a/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
+++ b/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Dropbox\My PC (LAPTOP-70B4MA1V)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3158E-0272-448C-8C72-CCE4CCD0BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242EE6B-3921-42D6-9F68-E4D9663C1D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -745,6 +745,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -752,6 +761,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -762,18 +774,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1093,10 @@
   <dimension ref="A1:BE277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomRight" activeCell="P273" sqref="P273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,31 +1112,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="25">
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="BE3" s="21"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="BE4" s="22"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="BE5" s="23"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1667,13 +1667,13 @@
       <c r="BE7" s="32"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="BE8" s="21"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="BE9" s="22"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
@@ -1839,13 +1839,15 @@
       </c>
       <c r="E10" s="10">
         <f>SUM(H8:BE10)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -1897,7 +1899,7 @@
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1912,7 @@
       </c>
       <c r="E11" s="10">
         <f>E10+SUM(H11:BE11)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="30" t="s">
@@ -1968,7 +1970,7 @@
       <c r="BE11" s="24"/>
     </row>
     <row r="12" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
@@ -2037,13 +2039,13 @@
       <c r="BE12" s="32"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2060,9 @@
       <c r="H13" s="21">
         <v>2</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <v>2</v>
+      </c>
       <c r="J13" s="21">
         <v>2</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="BE13" s="21"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2192,7 @@
       <c r="BE14" s="22"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
@@ -2201,7 +2205,7 @@
       </c>
       <c r="E15" s="10">
         <f>SUM(H13:BE15)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="29" t="s">
@@ -2259,7 +2263,7 @@
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2276,7 @@
       </c>
       <c r="E16" s="10">
         <f>E15+SUM(H16:BE16)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="30" t="s">
@@ -2330,7 +2334,7 @@
       <c r="BE16" s="24"/>
     </row>
     <row r="17" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2399,13 +2403,13 @@
       <c r="BE17" s="32"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="BE18" s="21"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2554,7 @@
       <c r="BE19" s="22"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
@@ -2621,7 +2625,7 @@
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="BE21" s="24"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2763,13 +2767,13 @@
       <c r="BE22" s="32"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="33">
         <v>5</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="BE23" s="21"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2926,7 @@
       <c r="BE24" s="22"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
@@ -2999,7 +3003,7 @@
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3074,7 @@
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
@@ -3139,13 +3143,13 @@
       <c r="BE27" s="32"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="33">
         <v>6</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="15" t="s">
         <v>3</v>
       </c>
@@ -3160,7 +3164,9 @@
       <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21">
+        <v>2</v>
+      </c>
       <c r="J28" s="21">
         <v>2</v>
       </c>
@@ -3219,7 +3225,7 @@
       <c r="BE28" s="21"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3302,7 @@
       <c r="BE29" s="22"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="E30" s="10">
         <f>SUM(H28:BE30)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="29" t="s">
@@ -3367,7 +3373,7 @@
       <c r="BE30" s="23"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3386,7 @@
       </c>
       <c r="E31" s="10">
         <f>E30+SUM(H31:BE31)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="30" t="s">
@@ -3438,7 +3444,7 @@
       <c r="BE31" s="24"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3509,19 +3515,19 @@
       <c r="BE32" s="32"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="33">
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="9">
         <f>C37+E37-COUNTIF(H33:BE33,1)-COUNTIF(H33:BE33,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="27" t="s">
@@ -3530,7 +3536,9 @@
       <c r="H33" s="21">
         <v>0</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
@@ -3581,7 +3589,7 @@
       <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="20" t="s">
         <v>6</v>
       </c>
@@ -3658,7 +3666,7 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
@@ -3729,7 +3737,7 @@
       <c r="BE35" s="23"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="19" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3808,7 @@
       <c r="BE36" s="24"/>
     </row>
     <row r="37" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3871,13 +3879,13 @@
       <c r="BE37" s="32"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="33">
         <v>8</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="15" t="s">
         <v>3</v>
       </c>
@@ -3892,7 +3900,9 @@
       <c r="H38" s="21">
         <v>2</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="21">
+        <v>2</v>
+      </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21">
@@ -3945,7 +3955,7 @@
       <c r="BE38" s="21"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4032,7 @@
       <c r="BE39" s="22"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="18" t="s">
         <v>51</v>
       </c>
@@ -4035,7 +4045,7 @@
       </c>
       <c r="E40" s="10">
         <f>SUM(H38:BE40)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="29" t="s">
@@ -4093,7 +4103,7 @@
       <c r="BE40" s="23"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
@@ -4106,7 +4116,7 @@
       </c>
       <c r="E41" s="10">
         <f>E40+SUM(H41:BE41)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="30" t="s">
@@ -4164,7 +4174,7 @@
       <c r="BE41" s="24"/>
     </row>
     <row r="42" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="6" t="s">
         <v>72</v>
       </c>
@@ -4233,13 +4243,13 @@
       <c r="BE42" s="32"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="33">
         <v>9</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="34"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4311,7 +4321,7 @@
       <c r="BE43" s="21"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>6</v>
       </c>
@@ -4388,7 +4398,7 @@
       <c r="BE44" s="22"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
@@ -4461,7 +4471,7 @@
       <c r="BE45" s="23"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="19" t="s">
         <v>7</v>
       </c>
@@ -4532,7 +4542,7 @@
       <c r="BE46" s="24"/>
     </row>
     <row r="47" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
@@ -4601,13 +4611,13 @@
       <c r="BE47" s="32"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4683,7 +4693,7 @@
       <c r="BE48" s="21"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20" t="s">
         <v>6</v>
       </c>
@@ -4760,7 +4770,7 @@
       <c r="BE49" s="22"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="18" t="s">
         <v>51</v>
       </c>
@@ -4831,7 +4841,7 @@
       <c r="BE50" s="23"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="19" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4912,7 @@
       <c r="BE51" s="24"/>
     </row>
     <row r="52" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="6" t="s">
         <v>72</v>
       </c>
@@ -4971,13 +4981,13 @@
       <c r="BE52" s="32"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="33">
         <v>11</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -4992,7 +5002,9 @@
       <c r="H53" s="21">
         <v>2</v>
       </c>
-      <c r="I53" s="21"/>
+      <c r="I53" s="21">
+        <v>2</v>
+      </c>
       <c r="J53" s="21">
         <v>2</v>
       </c>
@@ -5049,7 +5061,7 @@
       <c r="BE53" s="21"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20" t="s">
         <v>6</v>
       </c>
@@ -5126,7 +5138,7 @@
       <c r="BE54" s="22"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
@@ -5139,7 +5151,7 @@
       </c>
       <c r="E55" s="10">
         <f>SUM(H53:BE55)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="29" t="s">
@@ -5197,7 +5209,7 @@
       <c r="BE55" s="23"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="19" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5222,7 @@
       </c>
       <c r="E56" s="10">
         <f>E55+SUM(H56:BE56)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="30" t="s">
@@ -5268,7 +5280,7 @@
       <c r="BE56" s="24"/>
     </row>
     <row r="57" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5337,19 +5349,19 @@
       <c r="BE57" s="32"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
+      <c r="A58" s="33">
         <v>12</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="9">
         <f>C62+E62-COUNTIF(H58:BE58,1)-COUNTIF(H58:BE58,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="27" t="s">
@@ -5358,7 +5370,9 @@
       <c r="H58" s="21">
         <v>2</v>
       </c>
-      <c r="I58" s="21"/>
+      <c r="I58" s="21">
+        <v>0</v>
+      </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
@@ -5409,7 +5423,7 @@
       <c r="BE58" s="21"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
@@ -5484,7 +5498,7 @@
       <c r="BE59" s="22"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="18" t="s">
         <v>51</v>
       </c>
@@ -5555,7 +5569,7 @@
       <c r="BE60" s="23"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5626,7 +5640,7 @@
       <c r="BE61" s="24"/>
     </row>
     <row r="62" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
@@ -5697,13 +5711,13 @@
       <c r="BE62" s="32"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
+      <c r="A63" s="33">
         <v>13</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="34"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -5779,7 +5793,7 @@
       <c r="BE63" s="21"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
@@ -5856,7 +5870,7 @@
       <c r="BE64" s="22"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="18" t="s">
         <v>51</v>
       </c>
@@ -5927,7 +5941,7 @@
       <c r="BE65" s="23"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5998,7 +6012,7 @@
       <c r="BE66" s="24"/>
     </row>
     <row r="67" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
@@ -6067,13 +6081,13 @@
       <c r="BE67" s="32"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
+      <c r="A68" s="33">
         <v>13</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="15" t="s">
         <v>3</v>
       </c>
@@ -6143,7 +6157,7 @@
       <c r="BE68" s="21"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20" t="s">
         <v>6</v>
       </c>
@@ -6220,7 +6234,7 @@
       <c r="BE69" s="22"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="18" t="s">
         <v>51</v>
       </c>
@@ -6291,7 +6305,7 @@
       <c r="BE70" s="23"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="19" t="s">
         <v>7</v>
       </c>
@@ -6362,7 +6376,7 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
@@ -6431,13 +6445,13 @@
       <c r="BE72" s="32"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A73" s="38">
+      <c r="A73" s="33">
         <v>14</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="34"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -6511,7 +6525,7 @@
       <c r="BE73" s="21"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="20" t="s">
         <v>6</v>
       </c>
@@ -6588,7 +6602,7 @@
       <c r="BE74" s="22"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="18" t="s">
         <v>51</v>
       </c>
@@ -6663,7 +6677,7 @@
       <c r="BE75" s="23"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
       </c>
@@ -6734,7 +6748,7 @@
       <c r="BE76" s="24"/>
     </row>
     <row r="77" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="6" t="s">
         <v>72</v>
       </c>
@@ -6803,13 +6817,13 @@
       <c r="BE77" s="32"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A78" s="38">
+      <c r="A78" s="33">
         <v>15</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -6885,7 +6899,7 @@
       <c r="BE78" s="21"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20" t="s">
         <v>6</v>
       </c>
@@ -6962,7 +6976,7 @@
       <c r="BE79" s="22"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="18" t="s">
         <v>51</v>
       </c>
@@ -7039,7 +7053,7 @@
       <c r="BE80" s="23"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="19" t="s">
         <v>7</v>
       </c>
@@ -7110,7 +7124,7 @@
       <c r="BE81" s="24"/>
     </row>
     <row r="82" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="6" t="s">
         <v>72</v>
       </c>
@@ -7181,13 +7195,13 @@
       <c r="BE82" s="32"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="33">
         <v>16</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="34"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="15" t="s">
         <v>3</v>
       </c>
@@ -7261,7 +7275,7 @@
       <c r="BE83" s="21"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
@@ -7338,7 +7352,7 @@
       <c r="BE84" s="22"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="18" t="s">
         <v>51</v>
       </c>
@@ -7409,7 +7423,7 @@
       <c r="BE85" s="23"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="19" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7494,7 @@
       <c r="BE86" s="24"/>
     </row>
     <row r="87" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
@@ -7549,13 +7563,13 @@
       <c r="BE87" s="32"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A88" s="38">
+      <c r="A88" s="33">
         <v>17</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="15" t="s">
         <v>3</v>
       </c>
@@ -7629,7 +7643,7 @@
       <c r="BE88" s="21"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
@@ -7706,7 +7720,7 @@
       <c r="BE89" s="22"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="18" t="s">
         <v>51</v>
       </c>
@@ -7777,7 +7791,7 @@
       <c r="BE90" s="23"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="19" t="s">
         <v>7</v>
       </c>
@@ -7848,7 +7862,7 @@
       <c r="BE91" s="24"/>
     </row>
     <row r="92" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="6" t="s">
         <v>72</v>
       </c>
@@ -7919,13 +7933,13 @@
       <c r="BE92" s="32"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A93" s="38">
+      <c r="A93" s="33">
         <v>18</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="15" t="s">
         <v>3</v>
       </c>
@@ -7997,7 +8011,7 @@
       <c r="BE93" s="21"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20" t="s">
         <v>6</v>
       </c>
@@ -8074,7 +8088,7 @@
       <c r="BE94" s="22"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="18" t="s">
         <v>51</v>
       </c>
@@ -8145,7 +8159,7 @@
       <c r="BE95" s="23"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="19" t="s">
         <v>7</v>
       </c>
@@ -8216,7 +8230,7 @@
       <c r="BE96" s="24"/>
     </row>
     <row r="97" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="6" t="s">
         <v>72</v>
       </c>
@@ -8287,13 +8301,13 @@
       <c r="BE97" s="32"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A98" s="38">
+      <c r="A98" s="33">
         <v>19</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="34"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -8369,7 +8383,7 @@
       <c r="BE98" s="21"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8460,7 @@
       <c r="BE99" s="22"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="18" t="s">
         <v>51</v>
       </c>
@@ -8519,7 +8533,7 @@
       <c r="BE100" s="23"/>
     </row>
     <row r="101" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
@@ -8590,7 +8604,7 @@
       <c r="BE101" s="24"/>
     </row>
     <row r="102" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="6" t="s">
         <v>72</v>
       </c>
@@ -8659,13 +8673,13 @@
       <c r="BE102" s="32"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A103" s="38">
+      <c r="A103" s="33">
         <v>20</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="34"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -8741,7 +8755,7 @@
       <c r="BE103" s="21"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="20" t="s">
         <v>6</v>
       </c>
@@ -8818,7 +8832,7 @@
       <c r="BE104" s="22"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="18" t="s">
         <v>51</v>
       </c>
@@ -8895,7 +8909,7 @@
       <c r="BE105" s="23"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="19" t="s">
         <v>7</v>
       </c>
@@ -8966,7 +8980,7 @@
       <c r="BE106" s="24"/>
     </row>
     <row r="107" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="6" t="s">
         <v>72</v>
       </c>
@@ -9035,13 +9049,13 @@
       <c r="BE107" s="32"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A108" s="38">
+      <c r="A108" s="33">
         <v>21</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="34"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -9117,7 +9131,7 @@
       <c r="BE108" s="21"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20" t="s">
         <v>6</v>
       </c>
@@ -9194,7 +9208,7 @@
       <c r="BE109" s="22"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="18" t="s">
         <v>51</v>
       </c>
@@ -9271,7 +9285,7 @@
       <c r="BE110" s="23"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="19" t="s">
         <v>7</v>
       </c>
@@ -9342,7 +9356,7 @@
       <c r="BE111" s="24"/>
     </row>
     <row r="112" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="6" t="s">
         <v>72</v>
       </c>
@@ -9411,19 +9425,19 @@
       <c r="BE112" s="32"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A113" s="38">
+      <c r="A113" s="33">
         <v>22</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="34"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="9">
         <f>C117+E117-COUNTIF(H113:BE113,1)-COUNTIF(H113:BE113,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="27" t="s">
@@ -9432,7 +9446,9 @@
       <c r="H113" s="21">
         <v>0</v>
       </c>
-      <c r="I113" s="21"/>
+      <c r="I113" s="21">
+        <v>0</v>
+      </c>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
@@ -9483,7 +9499,7 @@
       <c r="BE113" s="21"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20" t="s">
         <v>6</v>
       </c>
@@ -9558,7 +9574,7 @@
       <c r="BE114" s="22"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="18" t="s">
         <v>51</v>
       </c>
@@ -9629,7 +9645,7 @@
       <c r="BE115" s="23"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="19" t="s">
         <v>7</v>
       </c>
@@ -9700,7 +9716,7 @@
       <c r="BE116" s="24"/>
     </row>
     <row r="117" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="6" t="s">
         <v>72</v>
       </c>
@@ -9771,19 +9787,19 @@
       <c r="BE117" s="32"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A118" s="38">
+      <c r="A118" s="33">
         <v>23</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="34"/>
+      <c r="C118" s="37"/>
       <c r="D118" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="9">
         <f>C122+E122-COUNTIF(H118:BE118,1)-COUNTIF(H118:BE118,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="27" t="s">
@@ -9792,7 +9808,9 @@
       <c r="H118" s="21">
         <v>0</v>
       </c>
-      <c r="I118" s="21"/>
+      <c r="I118" s="21">
+        <v>0</v>
+      </c>
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
       <c r="L118" s="21"/>
@@ -9843,7 +9861,7 @@
       <c r="BE118" s="21"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="20" t="s">
         <v>6</v>
       </c>
@@ -9918,7 +9936,7 @@
       <c r="BE119" s="22"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="18" t="s">
         <v>51</v>
       </c>
@@ -9989,7 +10007,7 @@
       <c r="BE120" s="23"/>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="19" t="s">
         <v>7</v>
       </c>
@@ -10060,7 +10078,7 @@
       <c r="BE121" s="24"/>
     </row>
     <row r="122" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="6" t="s">
         <v>72</v>
       </c>
@@ -10131,13 +10149,13 @@
       <c r="BE122" s="32"/>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A123" s="38">
+      <c r="A123" s="33">
         <v>24</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -10211,7 +10229,7 @@
       <c r="BE123" s="21"/>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
@@ -10288,7 +10306,7 @@
       <c r="BE124" s="22"/>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="18" t="s">
         <v>51</v>
       </c>
@@ -10359,7 +10377,7 @@
       <c r="BE125" s="23"/>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="19" t="s">
         <v>7</v>
       </c>
@@ -10430,7 +10448,7 @@
       <c r="BE126" s="24"/>
     </row>
     <row r="127" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="6" t="s">
         <v>72</v>
       </c>
@@ -10499,13 +10517,13 @@
       <c r="BE127" s="32"/>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A128" s="38">
+      <c r="A128" s="33">
         <v>25</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="34"/>
+      <c r="C128" s="37"/>
       <c r="D128" s="15" t="s">
         <v>3</v>
       </c>
@@ -10581,7 +10599,7 @@
       <c r="BE128" s="21"/>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20" t="s">
         <v>6</v>
       </c>
@@ -10658,7 +10676,7 @@
       <c r="BE129" s="22"/>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="18" t="s">
         <v>51</v>
       </c>
@@ -10735,7 +10753,7 @@
       <c r="BE130" s="23"/>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="19" t="s">
         <v>7</v>
       </c>
@@ -10806,7 +10824,7 @@
       <c r="BE131" s="24"/>
     </row>
     <row r="132" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="6" t="s">
         <v>72</v>
       </c>
@@ -10875,19 +10893,19 @@
       <c r="BE132" s="32"/>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A133" s="38">
+      <c r="A133" s="33">
         <v>26</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="34"/>
+      <c r="C133" s="37"/>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="9">
         <f>C137+E137-COUNTIF(H133:BE133,1)-COUNTIF(H133:BE133,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="27" t="s">
@@ -10896,7 +10914,9 @@
       <c r="H133" s="21">
         <v>0</v>
       </c>
-      <c r="I133" s="21"/>
+      <c r="I133" s="21">
+        <v>0</v>
+      </c>
       <c r="J133" s="21"/>
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
@@ -10947,7 +10967,7 @@
       <c r="BE133" s="21"/>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20" t="s">
         <v>6</v>
       </c>
@@ -11022,7 +11042,7 @@
       <c r="BE134" s="22"/>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="18" t="s">
         <v>51</v>
       </c>
@@ -11093,7 +11113,7 @@
       <c r="BE135" s="23"/>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="19" t="s">
         <v>7</v>
       </c>
@@ -11164,7 +11184,7 @@
       <c r="BE136" s="24"/>
     </row>
     <row r="137" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="6" t="s">
         <v>72</v>
       </c>
@@ -11235,13 +11255,13 @@
       <c r="BE137" s="32"/>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A138" s="38">
+      <c r="A138" s="33">
         <v>27</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="34"/>
+      <c r="C138" s="37"/>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
@@ -11315,7 +11335,7 @@
       <c r="BE138" s="21"/>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="20" t="s">
         <v>6</v>
       </c>
@@ -11392,7 +11412,7 @@
       <c r="BE139" s="22"/>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="18" t="s">
         <v>51</v>
       </c>
@@ -11463,7 +11483,7 @@
       <c r="BE140" s="23"/>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="19" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11554,7 @@
       <c r="BE141" s="24"/>
     </row>
     <row r="142" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="6" t="s">
         <v>72</v>
       </c>
@@ -11605,13 +11625,13 @@
       <c r="BE142" s="32"/>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A143" s="38">
+      <c r="A143" s="33">
         <v>28</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="34"/>
+      <c r="C143" s="37"/>
       <c r="D143" s="15" t="s">
         <v>3</v>
       </c>
@@ -11685,7 +11705,7 @@
       <c r="BE143" s="21"/>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20" t="s">
         <v>6</v>
       </c>
@@ -11762,7 +11782,7 @@
       <c r="BE144" s="22"/>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="18" t="s">
         <v>51</v>
       </c>
@@ -11837,7 +11857,7 @@
       <c r="BE145" s="23"/>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="19" t="s">
         <v>7</v>
       </c>
@@ -11908,7 +11928,7 @@
       <c r="BE146" s="24"/>
     </row>
     <row r="147" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="6" t="s">
         <v>72</v>
       </c>
@@ -11977,13 +11997,13 @@
       <c r="BE147" s="32"/>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A148" s="38">
+      <c r="A148" s="33">
         <v>29</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="34"/>
+      <c r="C148" s="37"/>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
@@ -11998,7 +12018,9 @@
       <c r="H148" s="21">
         <v>2</v>
       </c>
-      <c r="I148" s="21"/>
+      <c r="I148" s="21">
+        <v>2</v>
+      </c>
       <c r="J148" s="21"/>
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
@@ -12049,7 +12071,7 @@
       <c r="BE148" s="21"/>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20" t="s">
         <v>6</v>
       </c>
@@ -12126,7 +12148,7 @@
       <c r="BE149" s="22"/>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="18" t="s">
         <v>51</v>
       </c>
@@ -12139,7 +12161,7 @@
       </c>
       <c r="E150" s="10">
         <f>SUM(H148:BE150)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="29" t="s">
@@ -12197,7 +12219,7 @@
       <c r="BE150" s="23"/>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="19" t="s">
         <v>7</v>
       </c>
@@ -12210,7 +12232,7 @@
       </c>
       <c r="E151" s="10">
         <f>E150+SUM(H151:BE151)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="30" t="s">
@@ -12268,7 +12290,7 @@
       <c r="BE151" s="24"/>
     </row>
     <row r="152" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="40"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="6" t="s">
         <v>72</v>
       </c>
@@ -12337,13 +12359,13 @@
       <c r="BE152" s="32"/>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A153" s="38">
+      <c r="A153" s="33">
         <v>30</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="37"/>
       <c r="D153" s="15" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12441,7 @@
       <c r="BE153" s="21"/>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20" t="s">
         <v>6</v>
       </c>
@@ -12496,7 +12518,7 @@
       <c r="BE154" s="22"/>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="18" t="s">
         <v>51</v>
       </c>
@@ -12567,7 +12589,7 @@
       <c r="BE155" s="23"/>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="19" t="s">
         <v>7</v>
       </c>
@@ -12638,7 +12660,7 @@
       <c r="BE156" s="24"/>
     </row>
     <row r="157" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="40"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="6" t="s">
         <v>72</v>
       </c>
@@ -12707,13 +12729,13 @@
       <c r="BE157" s="32"/>
     </row>
     <row r="158" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A158" s="38">
+      <c r="A158" s="33">
         <v>31</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="34"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
@@ -12785,7 +12807,7 @@
       <c r="BE158" s="21"/>
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="20" t="s">
         <v>6</v>
       </c>
@@ -12862,7 +12884,7 @@
       <c r="BE159" s="22"/>
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="18" t="s">
         <v>51</v>
       </c>
@@ -12933,7 +12955,7 @@
       <c r="BE160" s="23"/>
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="19" t="s">
         <v>7</v>
       </c>
@@ -13004,7 +13026,7 @@
       <c r="BE161" s="24"/>
     </row>
     <row r="162" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="40"/>
+      <c r="A162" s="35"/>
       <c r="B162" s="6" t="s">
         <v>72</v>
       </c>
@@ -13073,19 +13095,19 @@
       <c r="BE162" s="32"/>
     </row>
     <row r="163" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A163" s="38">
+      <c r="A163" s="33">
         <v>32</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="34"/>
+      <c r="C163" s="37"/>
       <c r="D163" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="9">
         <f>C167+E167-COUNTIF(H163:BE163,1)-COUNTIF(H163:BE163,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="27" t="s">
@@ -13094,7 +13116,9 @@
       <c r="H163" s="21">
         <v>0</v>
       </c>
-      <c r="I163" s="21"/>
+      <c r="I163" s="21">
+        <v>0</v>
+      </c>
       <c r="J163" s="21"/>
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
@@ -13145,7 +13169,7 @@
       <c r="BE163" s="21"/>
     </row>
     <row r="164" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20" t="s">
         <v>6</v>
       </c>
@@ -13220,7 +13244,7 @@
       <c r="BE164" s="22"/>
     </row>
     <row r="165" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="18" t="s">
         <v>51</v>
       </c>
@@ -13291,7 +13315,7 @@
       <c r="BE165" s="23"/>
     </row>
     <row r="166" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="19" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13386,7 @@
       <c r="BE166" s="24"/>
     </row>
     <row r="167" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="40"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="6" t="s">
         <v>72</v>
       </c>
@@ -13433,13 +13457,13 @@
       <c r="BE167" s="32"/>
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A168" s="38">
+      <c r="A168" s="33">
         <v>33</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C168" s="34"/>
+      <c r="C168" s="37"/>
       <c r="D168" s="15" t="s">
         <v>3</v>
       </c>
@@ -13454,7 +13478,9 @@
       <c r="H168" s="21">
         <v>1</v>
       </c>
-      <c r="I168" s="21"/>
+      <c r="I168" s="21">
+        <v>2</v>
+      </c>
       <c r="J168" s="21"/>
       <c r="K168" s="21"/>
       <c r="L168" s="21">
@@ -13507,7 +13533,7 @@
       <c r="BE168" s="21"/>
     </row>
     <row r="169" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20" t="s">
         <v>6</v>
       </c>
@@ -13584,7 +13610,7 @@
       <c r="BE169" s="22"/>
     </row>
     <row r="170" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="18" t="s">
         <v>51</v>
       </c>
@@ -13597,7 +13623,7 @@
       </c>
       <c r="E170" s="10">
         <f>SUM(H168:BE170)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="29" t="s">
@@ -13655,7 +13681,7 @@
       <c r="BE170" s="23"/>
     </row>
     <row r="171" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="19" t="s">
         <v>7</v>
       </c>
@@ -13668,7 +13694,7 @@
       </c>
       <c r="E171" s="10">
         <f>E170+SUM(H171:BE171)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="30" t="s">
@@ -13726,7 +13752,7 @@
       <c r="BE171" s="24"/>
     </row>
     <row r="172" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="40"/>
+      <c r="A172" s="35"/>
       <c r="B172" s="6" t="s">
         <v>72</v>
       </c>
@@ -13795,19 +13821,19 @@
       <c r="BE172" s="32"/>
     </row>
     <row r="173" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A173" s="38">
+      <c r="A173" s="33">
         <v>34</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C173" s="34"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="9">
         <f>C177+E177-COUNTIF(H173:BE173,1)-COUNTIF(H173:BE173,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="27" t="s">
@@ -13816,7 +13842,9 @@
       <c r="H173" s="21">
         <v>0</v>
       </c>
-      <c r="I173" s="21"/>
+      <c r="I173" s="21">
+        <v>0</v>
+      </c>
       <c r="J173" s="21"/>
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
@@ -13867,7 +13895,7 @@
       <c r="BE173" s="21"/>
     </row>
     <row r="174" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="20" t="s">
         <v>6</v>
       </c>
@@ -13942,7 +13970,7 @@
       <c r="BE174" s="22"/>
     </row>
     <row r="175" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="18" t="s">
         <v>51</v>
       </c>
@@ -14013,7 +14041,7 @@
       <c r="BE175" s="23"/>
     </row>
     <row r="176" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="19" t="s">
         <v>7</v>
       </c>
@@ -14084,7 +14112,7 @@
       <c r="BE176" s="24"/>
     </row>
     <row r="177" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="40"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="6" t="s">
         <v>72</v>
       </c>
@@ -14155,13 +14183,13 @@
       <c r="BE177" s="32"/>
     </row>
     <row r="178" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A178" s="38">
+      <c r="A178" s="33">
         <v>35</v>
       </c>
-      <c r="B178" s="33" t="s">
+      <c r="B178" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C178" s="34"/>
+      <c r="C178" s="37"/>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
@@ -14237,7 +14265,7 @@
       <c r="BE178" s="21"/>
     </row>
     <row r="179" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20" t="s">
         <v>6</v>
       </c>
@@ -14314,7 +14342,7 @@
       <c r="BE179" s="22"/>
     </row>
     <row r="180" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="18" t="s">
         <v>51</v>
       </c>
@@ -14387,7 +14415,7 @@
       <c r="BE180" s="23"/>
     </row>
     <row r="181" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="19" t="s">
         <v>7</v>
       </c>
@@ -14458,7 +14486,7 @@
       <c r="BE181" s="24"/>
     </row>
     <row r="182" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="6" t="s">
         <v>72</v>
       </c>
@@ -14527,13 +14555,13 @@
       <c r="BE182" s="32"/>
     </row>
     <row r="183" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A183" s="38">
+      <c r="A183" s="33">
         <v>36</v>
       </c>
-      <c r="B183" s="33" t="s">
+      <c r="B183" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C183" s="34"/>
+      <c r="C183" s="37"/>
       <c r="D183" s="15" t="s">
         <v>3</v>
       </c>
@@ -14609,7 +14637,7 @@
       <c r="BE183" s="21"/>
     </row>
     <row r="184" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20" t="s">
         <v>6</v>
       </c>
@@ -14686,7 +14714,7 @@
       <c r="BE184" s="22"/>
     </row>
     <row r="185" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="18" t="s">
         <v>51</v>
       </c>
@@ -14761,7 +14789,7 @@
       <c r="BE185" s="23"/>
     </row>
     <row r="186" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="19" t="s">
         <v>7</v>
       </c>
@@ -14832,7 +14860,7 @@
       <c r="BE186" s="24"/>
     </row>
     <row r="187" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
+      <c r="A187" s="35"/>
       <c r="B187" s="6" t="s">
         <v>72</v>
       </c>
@@ -14901,19 +14929,19 @@
       <c r="BE187" s="32"/>
     </row>
     <row r="188" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A188" s="38">
+      <c r="A188" s="33">
         <v>37</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="34"/>
+      <c r="C188" s="37"/>
       <c r="D188" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="9">
         <f>C192+E192-COUNTIF(H188:BE188,1)-COUNTIF(H188:BE188,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="27" t="s">
@@ -14922,7 +14950,9 @@
       <c r="H188" s="21">
         <v>0</v>
       </c>
-      <c r="I188" s="21"/>
+      <c r="I188" s="21">
+        <v>0</v>
+      </c>
       <c r="J188" s="21"/>
       <c r="K188" s="21"/>
       <c r="L188" s="21"/>
@@ -14973,7 +15003,7 @@
       <c r="BE188" s="21"/>
     </row>
     <row r="189" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="20" t="s">
         <v>6</v>
       </c>
@@ -15048,7 +15078,7 @@
       <c r="BE189" s="22"/>
     </row>
     <row r="190" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="18" t="s">
         <v>51</v>
       </c>
@@ -15119,7 +15149,7 @@
       <c r="BE190" s="23"/>
     </row>
     <row r="191" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="19" t="s">
         <v>7</v>
       </c>
@@ -15190,7 +15220,7 @@
       <c r="BE191" s="24"/>
     </row>
     <row r="192" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="40"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="6" t="s">
         <v>72</v>
       </c>
@@ -15261,13 +15291,13 @@
       <c r="BE192" s="32"/>
     </row>
     <row r="193" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A193" s="38">
+      <c r="A193" s="33">
         <v>38</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B193" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="34"/>
+      <c r="C193" s="37"/>
       <c r="D193" s="15" t="s">
         <v>3</v>
       </c>
@@ -15339,7 +15369,7 @@
       <c r="BE193" s="21"/>
     </row>
     <row r="194" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20" t="s">
         <v>6</v>
       </c>
@@ -15416,7 +15446,7 @@
       <c r="BE194" s="22"/>
     </row>
     <row r="195" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="18" t="s">
         <v>51</v>
       </c>
@@ -15487,7 +15517,7 @@
       <c r="BE195" s="23"/>
     </row>
     <row r="196" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="19" t="s">
         <v>7</v>
       </c>
@@ -15558,7 +15588,7 @@
       <c r="BE196" s="24"/>
     </row>
     <row r="197" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="40"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="6" t="s">
         <v>72</v>
       </c>
@@ -15629,13 +15659,13 @@
       <c r="BE197" s="32"/>
     </row>
     <row r="198" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A198" s="38">
+      <c r="A198" s="33">
         <v>39</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="34"/>
+      <c r="C198" s="37"/>
       <c r="D198" s="15" t="s">
         <v>3</v>
       </c>
@@ -15709,7 +15739,7 @@
       <c r="BE198" s="21"/>
     </row>
     <row r="199" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="20" t="s">
         <v>6</v>
       </c>
@@ -15786,7 +15816,7 @@
       <c r="BE199" s="22"/>
     </row>
     <row r="200" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="18" t="s">
         <v>51</v>
       </c>
@@ -15857,7 +15887,7 @@
       <c r="BE200" s="23"/>
     </row>
     <row r="201" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="19" t="s">
         <v>7</v>
       </c>
@@ -15928,7 +15958,7 @@
       <c r="BE201" s="24"/>
     </row>
     <row r="202" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="6" t="s">
         <v>72</v>
       </c>
@@ -15997,13 +16027,13 @@
       <c r="BE202" s="32"/>
     </row>
     <row r="203" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A203" s="38">
+      <c r="A203" s="33">
         <v>40</v>
       </c>
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C203" s="34"/>
+      <c r="C203" s="37"/>
       <c r="D203" s="15" t="s">
         <v>3</v>
       </c>
@@ -16079,7 +16109,7 @@
       <c r="BE203" s="21"/>
     </row>
     <row r="204" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20" t="s">
         <v>6</v>
       </c>
@@ -16156,7 +16186,7 @@
       <c r="BE204" s="22"/>
     </row>
     <row r="205" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="18" t="s">
         <v>51</v>
       </c>
@@ -16233,7 +16263,7 @@
       <c r="BE205" s="23"/>
     </row>
     <row r="206" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="19" t="s">
         <v>7</v>
       </c>
@@ -16304,7 +16334,7 @@
       <c r="BE206" s="24"/>
     </row>
     <row r="207" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="40"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="6" t="s">
         <v>72</v>
       </c>
@@ -16373,19 +16403,19 @@
       <c r="BE207" s="32"/>
     </row>
     <row r="208" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A208" s="38">
+      <c r="A208" s="33">
         <v>41</v>
       </c>
-      <c r="B208" s="33" t="s">
+      <c r="B208" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C208" s="34"/>
+      <c r="C208" s="37"/>
       <c r="D208" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="9">
         <f>C212+E212-COUNTIF(H208:BE208,1)-COUNTIF(H208:BE208,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="27" t="s">
@@ -16394,7 +16424,9 @@
       <c r="H208" s="21">
         <v>0</v>
       </c>
-      <c r="I208" s="21"/>
+      <c r="I208" s="21">
+        <v>0</v>
+      </c>
       <c r="J208" s="21"/>
       <c r="K208" s="21"/>
       <c r="L208" s="21"/>
@@ -16445,7 +16477,7 @@
       <c r="BE208" s="21"/>
     </row>
     <row r="209" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
+      <c r="A209" s="34"/>
       <c r="B209" s="20" t="s">
         <v>6</v>
       </c>
@@ -16520,7 +16552,7 @@
       <c r="BE209" s="22"/>
     </row>
     <row r="210" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
+      <c r="A210" s="34"/>
       <c r="B210" s="18" t="s">
         <v>51</v>
       </c>
@@ -16591,7 +16623,7 @@
       <c r="BE210" s="23"/>
     </row>
     <row r="211" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
+      <c r="A211" s="34"/>
       <c r="B211" s="19" t="s">
         <v>7</v>
       </c>
@@ -16662,7 +16694,7 @@
       <c r="BE211" s="24"/>
     </row>
     <row r="212" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
+      <c r="A212" s="35"/>
       <c r="B212" s="6" t="s">
         <v>72</v>
       </c>
@@ -16733,19 +16765,19 @@
       <c r="BE212" s="32"/>
     </row>
     <row r="213" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A213" s="38">
+      <c r="A213" s="33">
         <v>42</v>
       </c>
-      <c r="B213" s="33" t="s">
+      <c r="B213" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="34"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="9">
         <f>C217+E217-COUNTIF(H213:BE213,1)-COUNTIF(H213:BE213,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="27" t="s">
@@ -16754,7 +16786,9 @@
       <c r="H213" s="21">
         <v>0</v>
       </c>
-      <c r="I213" s="21"/>
+      <c r="I213" s="21">
+        <v>0</v>
+      </c>
       <c r="J213" s="21"/>
       <c r="K213" s="21"/>
       <c r="L213" s="21"/>
@@ -16805,7 +16839,7 @@
       <c r="BE213" s="21"/>
     </row>
     <row r="214" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
+      <c r="A214" s="34"/>
       <c r="B214" s="20" t="s">
         <v>6</v>
       </c>
@@ -16880,7 +16914,7 @@
       <c r="BE214" s="22"/>
     </row>
     <row r="215" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="18" t="s">
         <v>51</v>
       </c>
@@ -16951,7 +16985,7 @@
       <c r="BE215" s="23"/>
     </row>
     <row r="216" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
+      <c r="A216" s="34"/>
       <c r="B216" s="19" t="s">
         <v>7</v>
       </c>
@@ -17022,7 +17056,7 @@
       <c r="BE216" s="24"/>
     </row>
     <row r="217" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="40"/>
+      <c r="A217" s="35"/>
       <c r="B217" s="6" t="s">
         <v>72</v>
       </c>
@@ -17093,13 +17127,13 @@
       <c r="BE217" s="32"/>
     </row>
     <row r="218" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A218" s="38">
+      <c r="A218" s="33">
         <v>43</v>
       </c>
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="37"/>
       <c r="D218" s="15" t="s">
         <v>3</v>
       </c>
@@ -17175,7 +17209,7 @@
       <c r="BE218" s="21"/>
     </row>
     <row r="219" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
+      <c r="A219" s="34"/>
       <c r="B219" s="20" t="s">
         <v>6</v>
       </c>
@@ -17252,7 +17286,7 @@
       <c r="BE219" s="22"/>
     </row>
     <row r="220" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
+      <c r="A220" s="34"/>
       <c r="B220" s="18" t="s">
         <v>51</v>
       </c>
@@ -17327,7 +17361,7 @@
       <c r="BE220" s="23"/>
     </row>
     <row r="221" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
+      <c r="A221" s="34"/>
       <c r="B221" s="19" t="s">
         <v>7</v>
       </c>
@@ -17398,7 +17432,7 @@
       <c r="BE221" s="24"/>
     </row>
     <row r="222" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="40"/>
+      <c r="A222" s="35"/>
       <c r="B222" s="6" t="s">
         <v>72</v>
       </c>
@@ -17467,13 +17501,13 @@
       <c r="BE222" s="32"/>
     </row>
     <row r="223" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A223" s="38">
+      <c r="A223" s="33">
         <v>44</v>
       </c>
-      <c r="B223" s="33" t="s">
+      <c r="B223" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C223" s="34"/>
+      <c r="C223" s="37"/>
       <c r="D223" s="15" t="s">
         <v>3</v>
       </c>
@@ -17549,7 +17583,7 @@
       <c r="BE223" s="21"/>
     </row>
     <row r="224" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
+      <c r="A224" s="34"/>
       <c r="B224" s="20" t="s">
         <v>6</v>
       </c>
@@ -17626,7 +17660,7 @@
       <c r="BE224" s="22"/>
     </row>
     <row r="225" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
+      <c r="A225" s="34"/>
       <c r="B225" s="18" t="s">
         <v>51</v>
       </c>
@@ -17701,7 +17735,7 @@
       <c r="BE225" s="23"/>
     </row>
     <row r="226" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
+      <c r="A226" s="34"/>
       <c r="B226" s="19" t="s">
         <v>7</v>
       </c>
@@ -17772,7 +17806,7 @@
       <c r="BE226" s="24"/>
     </row>
     <row r="227" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="40"/>
+      <c r="A227" s="35"/>
       <c r="B227" s="6" t="s">
         <v>72</v>
       </c>
@@ -17841,13 +17875,13 @@
       <c r="BE227" s="32"/>
     </row>
     <row r="228" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A228" s="38">
+      <c r="A228" s="33">
         <v>45</v>
       </c>
-      <c r="B228" s="33" t="s">
+      <c r="B228" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="34"/>
+      <c r="C228" s="37"/>
       <c r="D228" s="15" t="s">
         <v>3</v>
       </c>
@@ -17923,7 +17957,7 @@
       <c r="BE228" s="21"/>
     </row>
     <row r="229" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
+      <c r="A229" s="34"/>
       <c r="B229" s="20" t="s">
         <v>6</v>
       </c>
@@ -18000,7 +18034,7 @@
       <c r="BE229" s="22"/>
     </row>
     <row r="230" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
+      <c r="A230" s="34"/>
       <c r="B230" s="18" t="s">
         <v>51</v>
       </c>
@@ -18075,7 +18109,7 @@
       <c r="BE230" s="23"/>
     </row>
     <row r="231" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
+      <c r="A231" s="34"/>
       <c r="B231" s="19" t="s">
         <v>7</v>
       </c>
@@ -18146,7 +18180,7 @@
       <c r="BE231" s="24"/>
     </row>
     <row r="232" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="40"/>
+      <c r="A232" s="35"/>
       <c r="B232" s="6" t="s">
         <v>72</v>
       </c>
@@ -18217,13 +18251,13 @@
       <c r="BE232" s="32"/>
     </row>
     <row r="233" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A233" s="38">
+      <c r="A233" s="33">
         <v>46</v>
       </c>
-      <c r="B233" s="33" t="s">
+      <c r="B233" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C233" s="34"/>
+      <c r="C233" s="37"/>
       <c r="D233" s="15" t="s">
         <v>3</v>
       </c>
@@ -18238,7 +18272,9 @@
       <c r="H233" s="21">
         <v>2</v>
       </c>
-      <c r="I233" s="21"/>
+      <c r="I233" s="21">
+        <v>2</v>
+      </c>
       <c r="J233" s="21"/>
       <c r="K233" s="21"/>
       <c r="L233" s="21"/>
@@ -18289,7 +18325,7 @@
       <c r="BE233" s="21"/>
     </row>
     <row r="234" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
+      <c r="A234" s="34"/>
       <c r="B234" s="20" t="s">
         <v>6</v>
       </c>
@@ -18366,7 +18402,7 @@
       <c r="BE234" s="22"/>
     </row>
     <row r="235" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
+      <c r="A235" s="34"/>
       <c r="B235" s="18" t="s">
         <v>51</v>
       </c>
@@ -18379,7 +18415,7 @@
       </c>
       <c r="E235" s="10">
         <f>SUM(H233:BE235)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="29" t="s">
@@ -18437,7 +18473,7 @@
       <c r="BE235" s="23"/>
     </row>
     <row r="236" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
+      <c r="A236" s="34"/>
       <c r="B236" s="19" t="s">
         <v>7</v>
       </c>
@@ -18450,7 +18486,7 @@
       </c>
       <c r="E236" s="10">
         <f>E235+SUM(H236:BE236)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="30" t="s">
@@ -18508,7 +18544,7 @@
       <c r="BE236" s="24"/>
     </row>
     <row r="237" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="40"/>
+      <c r="A237" s="35"/>
       <c r="B237" s="6" t="s">
         <v>72</v>
       </c>
@@ -18579,13 +18615,13 @@
       <c r="BE237" s="32"/>
     </row>
     <row r="238" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A238" s="38">
+      <c r="A238" s="33">
         <v>47</v>
       </c>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="34"/>
+      <c r="C238" s="37"/>
       <c r="D238" s="15" t="s">
         <v>3</v>
       </c>
@@ -18653,7 +18689,7 @@
       <c r="BE238" s="21"/>
     </row>
     <row r="239" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
+      <c r="A239" s="34"/>
       <c r="B239" s="20" t="s">
         <v>6</v>
       </c>
@@ -18730,7 +18766,7 @@
       <c r="BE239" s="22"/>
     </row>
     <row r="240" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
+      <c r="A240" s="34"/>
       <c r="B240" s="18" t="s">
         <v>51</v>
       </c>
@@ -18801,7 +18837,7 @@
       <c r="BE240" s="23"/>
     </row>
     <row r="241" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
+      <c r="A241" s="34"/>
       <c r="B241" s="19" t="s">
         <v>7</v>
       </c>
@@ -18872,7 +18908,7 @@
       <c r="BE241" s="24"/>
     </row>
     <row r="242" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="40"/>
+      <c r="A242" s="35"/>
       <c r="B242" s="6" t="s">
         <v>72</v>
       </c>
@@ -18941,13 +18977,13 @@
       <c r="BE242" s="32"/>
     </row>
     <row r="243" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A243" s="38">
+      <c r="A243" s="33">
         <v>48</v>
       </c>
-      <c r="B243" s="33" t="s">
+      <c r="B243" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="34"/>
+      <c r="C243" s="37"/>
       <c r="D243" s="15" t="s">
         <v>3</v>
       </c>
@@ -19019,7 +19055,7 @@
       <c r="BE243" s="21"/>
     </row>
     <row r="244" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
+      <c r="A244" s="34"/>
       <c r="B244" s="20" t="s">
         <v>6</v>
       </c>
@@ -19096,7 +19132,7 @@
       <c r="BE244" s="22"/>
     </row>
     <row r="245" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
+      <c r="A245" s="34"/>
       <c r="B245" s="18" t="s">
         <v>51</v>
       </c>
@@ -19167,7 +19203,7 @@
       <c r="BE245" s="23"/>
     </row>
     <row r="246" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
+      <c r="A246" s="34"/>
       <c r="B246" s="19" t="s">
         <v>7</v>
       </c>
@@ -19238,7 +19274,7 @@
       <c r="BE246" s="24"/>
     </row>
     <row r="247" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
+      <c r="A247" s="35"/>
       <c r="B247" s="6" t="s">
         <v>72</v>
       </c>
@@ -19309,19 +19345,19 @@
       <c r="BE247" s="32"/>
     </row>
     <row r="248" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A248" s="38">
+      <c r="A248" s="33">
         <v>49</v>
       </c>
-      <c r="B248" s="33" t="s">
+      <c r="B248" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C248" s="34"/>
+      <c r="C248" s="37"/>
       <c r="D248" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="9">
         <f>C252+E252-COUNTIF(H248:BE248,1)-COUNTIF(H248:BE248,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="27" t="s">
@@ -19330,7 +19366,9 @@
       <c r="H248" s="21">
         <v>0</v>
       </c>
-      <c r="I248" s="21"/>
+      <c r="I248" s="21">
+        <v>0</v>
+      </c>
       <c r="J248" s="21"/>
       <c r="K248" s="21"/>
       <c r="L248" s="21"/>
@@ -19381,7 +19419,7 @@
       <c r="BE248" s="21"/>
     </row>
     <row r="249" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
+      <c r="A249" s="34"/>
       <c r="B249" s="20" t="s">
         <v>6</v>
       </c>
@@ -19456,7 +19494,7 @@
       <c r="BE249" s="22"/>
     </row>
     <row r="250" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
+      <c r="A250" s="34"/>
       <c r="B250" s="18" t="s">
         <v>51</v>
       </c>
@@ -19527,7 +19565,7 @@
       <c r="BE250" s="23"/>
     </row>
     <row r="251" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
+      <c r="A251" s="34"/>
       <c r="B251" s="19" t="s">
         <v>7</v>
       </c>
@@ -19598,7 +19636,7 @@
       <c r="BE251" s="24"/>
     </row>
     <row r="252" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="40"/>
+      <c r="A252" s="35"/>
       <c r="B252" s="6" t="s">
         <v>72</v>
       </c>
@@ -19669,19 +19707,19 @@
       <c r="BE252" s="32"/>
     </row>
     <row r="253" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A253" s="38">
+      <c r="A253" s="33">
         <v>50</v>
       </c>
-      <c r="B253" s="33" t="s">
+      <c r="B253" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="34"/>
+      <c r="C253" s="37"/>
       <c r="D253" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="9">
         <f>C257+E257-COUNTIF(H253:BE253,1)-COUNTIF(H253:BE253,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="27" t="s">
@@ -19690,7 +19728,9 @@
       <c r="H253" s="21">
         <v>2</v>
       </c>
-      <c r="I253" s="21"/>
+      <c r="I253" s="21">
+        <v>0</v>
+      </c>
       <c r="J253" s="21"/>
       <c r="K253" s="21"/>
       <c r="L253" s="21"/>
@@ -19741,7 +19781,7 @@
       <c r="BE253" s="21"/>
     </row>
     <row r="254" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
+      <c r="A254" s="34"/>
       <c r="B254" s="20" t="s">
         <v>6</v>
       </c>
@@ -19818,7 +19858,7 @@
       <c r="BE254" s="22"/>
     </row>
     <row r="255" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
+      <c r="A255" s="34"/>
       <c r="B255" s="18" t="s">
         <v>51</v>
       </c>
@@ -19889,7 +19929,7 @@
       <c r="BE255" s="23"/>
     </row>
     <row r="256" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
+      <c r="A256" s="34"/>
       <c r="B256" s="19" t="s">
         <v>7</v>
       </c>
@@ -19960,7 +20000,7 @@
       <c r="BE256" s="24"/>
     </row>
     <row r="257" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="40"/>
+      <c r="A257" s="35"/>
       <c r="B257" s="6" t="s">
         <v>72</v>
       </c>
@@ -20031,13 +20071,13 @@
       <c r="BE257" s="32"/>
     </row>
     <row r="258" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A258" s="38">
+      <c r="A258" s="33">
         <v>51</v>
       </c>
-      <c r="B258" s="33" t="s">
+      <c r="B258" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="34"/>
+      <c r="C258" s="37"/>
       <c r="D258" s="15" t="s">
         <v>3</v>
       </c>
@@ -20107,7 +20147,7 @@
       <c r="BE258" s="21"/>
     </row>
     <row r="259" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
+      <c r="A259" s="34"/>
       <c r="B259" s="20" t="s">
         <v>6</v>
       </c>
@@ -20184,7 +20224,7 @@
       <c r="BE259" s="22"/>
     </row>
     <row r="260" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
+      <c r="A260" s="34"/>
       <c r="B260" s="18" t="s">
         <v>51</v>
       </c>
@@ -20255,7 +20295,7 @@
       <c r="BE260" s="23"/>
     </row>
     <row r="261" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
+      <c r="A261" s="34"/>
       <c r="B261" s="19" t="s">
         <v>7</v>
       </c>
@@ -20326,7 +20366,7 @@
       <c r="BE261" s="24"/>
     </row>
     <row r="262" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="40"/>
+      <c r="A262" s="35"/>
       <c r="B262" s="6" t="s">
         <v>72</v>
       </c>
@@ -20395,13 +20435,13 @@
       <c r="BE262" s="32"/>
     </row>
     <row r="263" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A263" s="38">
+      <c r="A263" s="33">
         <v>52</v>
       </c>
-      <c r="B263" s="33" t="s">
+      <c r="B263" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C263" s="34"/>
+      <c r="C263" s="37"/>
       <c r="D263" s="15" t="s">
         <v>3</v>
       </c>
@@ -20416,7 +20456,9 @@
       <c r="H263" s="21">
         <v>2</v>
       </c>
-      <c r="I263" s="21"/>
+      <c r="I263" s="21">
+        <v>2</v>
+      </c>
       <c r="J263" s="21"/>
       <c r="K263" s="21"/>
       <c r="L263" s="21"/>
@@ -20467,7 +20509,7 @@
       <c r="BE263" s="21"/>
     </row>
     <row r="264" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="20" t="s">
         <v>6</v>
       </c>
@@ -20544,7 +20586,7 @@
       <c r="BE264" s="22"/>
     </row>
     <row r="265" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="18" t="s">
         <v>51</v>
       </c>
@@ -20557,7 +20599,7 @@
       </c>
       <c r="E265" s="10">
         <f>SUM(H263:BE265)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F265" s="13"/>
       <c r="G265" s="29" t="s">
@@ -20615,7 +20657,7 @@
       <c r="BE265" s="23"/>
     </row>
     <row r="266" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
+      <c r="A266" s="34"/>
       <c r="B266" s="19" t="s">
         <v>7</v>
       </c>
@@ -20628,7 +20670,7 @@
       </c>
       <c r="E266" s="10">
         <f>E265+SUM(H266:BE266)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F266" s="13"/>
       <c r="G266" s="30" t="s">
@@ -20686,7 +20728,7 @@
       <c r="BE266" s="24"/>
     </row>
     <row r="267" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="40"/>
+      <c r="A267" s="35"/>
       <c r="B267" s="6" t="s">
         <v>72</v>
       </c>
@@ -20755,19 +20797,19 @@
       <c r="BE267" s="32"/>
     </row>
     <row r="268" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A268" s="38">
+      <c r="A268" s="33">
         <v>53</v>
       </c>
-      <c r="B268" s="33" t="s">
+      <c r="B268" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C268" s="34"/>
+      <c r="C268" s="37"/>
       <c r="D268" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="9">
         <f>C272+E272-COUNTIF(H268:BE268,1)-COUNTIF(H268:BE268,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F268" s="13"/>
       <c r="G268" s="27" t="s">
@@ -20776,7 +20818,9 @@
       <c r="H268" s="21">
         <v>0</v>
       </c>
-      <c r="I268" s="21"/>
+      <c r="I268" s="21">
+        <v>0</v>
+      </c>
       <c r="J268" s="21"/>
       <c r="K268" s="21"/>
       <c r="L268" s="21"/>
@@ -20827,7 +20871,7 @@
       <c r="BE268" s="21"/>
     </row>
     <row r="269" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="20" t="s">
         <v>6</v>
       </c>
@@ -20902,7 +20946,7 @@
       <c r="BE269" s="22"/>
     </row>
     <row r="270" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="18" t="s">
         <v>51</v>
       </c>
@@ -20973,7 +21017,7 @@
       <c r="BE270" s="23"/>
     </row>
     <row r="271" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="19" t="s">
         <v>7</v>
       </c>
@@ -21044,7 +21088,7 @@
       <c r="BE271" s="24"/>
     </row>
     <row r="272" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
+      <c r="A272" s="35"/>
       <c r="B272" s="6" t="s">
         <v>72</v>
       </c>
@@ -21115,13 +21159,13 @@
       <c r="BE272" s="32"/>
     </row>
     <row r="273" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A273" s="38">
+      <c r="A273" s="33">
         <v>54</v>
       </c>
-      <c r="B273" s="33" t="s">
+      <c r="B273" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C273" s="34"/>
+      <c r="C273" s="37"/>
       <c r="D273" s="15" t="s">
         <v>3</v>
       </c>
@@ -21151,8 +21195,12 @@
       <c r="M273" s="21">
         <v>2</v>
       </c>
-      <c r="N273" s="21"/>
-      <c r="O273" s="21"/>
+      <c r="N273" s="21">
+        <v>2</v>
+      </c>
+      <c r="O273" s="21">
+        <v>2</v>
+      </c>
       <c r="P273" s="21"/>
       <c r="Q273" s="21"/>
       <c r="R273" s="21"/>
@@ -21197,7 +21245,7 @@
       <c r="BE273" s="21"/>
     </row>
     <row r="274" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20" t="s">
         <v>6</v>
       </c>
@@ -21274,20 +21322,20 @@
       <c r="BE274" s="22"/>
     </row>
     <row r="275" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C275" s="5">
         <f>IF(E275&lt;10,1,IF(E275&lt;20,2,IF(E275&lt;30,3,IF(E275&lt;40,4,IF(E275&lt;50,5,IF(E275&lt;60,6,IF(E275&lt;70,7,IF(E275&lt;80,8,IF(E275&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D275" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E275" s="10">
         <f>SUM(H273:BE275)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="29" t="s">
@@ -21351,7 +21399,7 @@
       <c r="BE275" s="23"/>
     </row>
     <row r="276" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="19" t="s">
         <v>7</v>
       </c>
@@ -21364,7 +21412,7 @@
       </c>
       <c r="E276" s="10">
         <f>E275+SUM(H276:BE276)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F276" s="13"/>
       <c r="G276" s="30" t="s">
@@ -21422,7 +21470,7 @@
       <c r="BE276" s="24"/>
     </row>
     <row r="277" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+      <c r="A277" s="35"/>
       <c r="B277" s="6" t="s">
         <v>72</v>
       </c>
@@ -21493,83 +21541,19 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="114">
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A83:A87"/>
@@ -21594,19 +21578,83 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A213:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A193:A197"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3:F3">

--- a/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
+++ b/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Dropbox\My PC (LAPTOP-70B4MA1V)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242EE6B-3921-42D6-9F68-E4D9663C1D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61358976-2401-4F04-99E3-D8C75DD8CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -745,15 +745,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -761,9 +752,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -774,6 +762,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1093,10 @@
   <dimension ref="A1:BE277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P273" sqref="P273"/>
+      <selection pane="bottomRight" activeCell="N263" sqref="N263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,31 +1112,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="40"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="25">
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="BE3" s="21"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="BE4" s="22"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="BE5" s="23"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1667,13 +1667,13 @@
       <c r="BE7" s="32"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="38">
         <v>2</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="BE8" s="21"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="BE9" s="22"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="BE11" s="24"/>
     </row>
     <row r="12" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
@@ -2039,13 +2039,13 @@
       <c r="BE12" s="32"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2066,9 +2066,15 @@
       <c r="J13" s="21">
         <v>2</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="21">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>2</v>
+      </c>
+      <c r="M13" s="21">
+        <v>2</v>
+      </c>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -2115,7 +2121,7 @@
       <c r="BE13" s="21"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
@@ -2192,20 +2198,20 @@
       <c r="BE14" s="22"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="5">
         <f>IF(E15&lt;10,1,IF(E15&lt;20,2,IF(E15&lt;30,3,IF(E15&lt;40,4,IF(E15&lt;50,5,IF(E15&lt;60,6,IF(E15&lt;70,7,IF(E15&lt;80,8,IF(E15&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="10">
         <f>SUM(H13:BE15)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="29" t="s">
@@ -2263,7 +2269,7 @@
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2282,7 @@
       </c>
       <c r="E16" s="10">
         <f>E15+SUM(H16:BE16)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="30" t="s">
@@ -2334,7 +2340,7 @@
       <c r="BE16" s="24"/>
     </row>
     <row r="17" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2403,19 +2409,19 @@
       <c r="BE17" s="32"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="38">
         <v>4</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="9">
         <f>C22+E22-COUNTIF(H18:BE18,1)-COUNTIF(H18:BE18,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="27" t="s">
@@ -2427,13 +2433,21 @@
       <c r="I18" s="21">
         <v>2</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="N18" s="21">
+        <v>2</v>
+      </c>
+      <c r="O18" s="21">
+        <v>2</v>
+      </c>
+      <c r="P18" s="21">
+        <v>2</v>
+      </c>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -2477,7 +2491,7 @@
       <c r="BE18" s="21"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
@@ -2554,20 +2568,20 @@
       <c r="BE19" s="22"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="5">
         <f>IF(E20&lt;10,1,IF(E20&lt;20,2,IF(E20&lt;30,3,IF(E20&lt;40,4,IF(E20&lt;50,5,IF(E20&lt;60,6,IF(E20&lt;70,7,IF(E20&lt;80,8,IF(E20&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="10">
         <f>SUM(H18:BE20)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="29" t="s">
@@ -2625,7 +2639,7 @@
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
@@ -2638,7 +2652,7 @@
       </c>
       <c r="E21" s="10">
         <f>E20+SUM(H21:BE21)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="30" t="s">
@@ -2696,7 +2710,7 @@
       <c r="BE21" s="24"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2767,13 +2781,13 @@
       <c r="BE22" s="32"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="38">
         <v>5</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
@@ -2803,8 +2817,12 @@
       <c r="M23" s="21">
         <v>2</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="N23" s="21">
+        <v>2</v>
+      </c>
+      <c r="O23" s="21">
+        <v>2</v>
+      </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -2849,7 +2867,7 @@
       <c r="BE23" s="21"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
@@ -2926,20 +2944,20 @@
       <c r="BE24" s="22"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="5">
         <f>IF(E25&lt;10,1,IF(E25&lt;20,2,IF(E25&lt;30,3,IF(E25&lt;40,4,IF(E25&lt;50,5,IF(E25&lt;60,6,IF(E25&lt;70,7,IF(E25&lt;80,8,IF(E25&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="10">
         <f>SUM(H23:BE25)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="29" t="s">
@@ -3003,7 +3021,7 @@
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +3034,7 @@
       </c>
       <c r="E26" s="10">
         <f>E25+SUM(H26:BE26)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="30" t="s">
@@ -3074,7 +3092,7 @@
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
@@ -3143,13 +3161,13 @@
       <c r="BE27" s="32"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="38">
         <v>6</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="15" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3197,12 @@
       <c r="M28" s="21">
         <v>2</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="N28" s="21">
+        <v>2</v>
+      </c>
+      <c r="O28" s="21">
+        <v>2</v>
+      </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
@@ -3225,7 +3247,7 @@
       <c r="BE28" s="21"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
@@ -3302,27 +3324,31 @@
       <c r="BE29" s="22"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="5">
         <f>IF(E30&lt;10,1,IF(E30&lt;20,2,IF(E30&lt;30,3,IF(E30&lt;40,4,IF(E30&lt;50,5,IF(E30&lt;60,6,IF(E30&lt;70,7,IF(E30&lt;80,8,IF(E30&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="10">
         <f>SUM(H28:BE30)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
@@ -3373,7 +3399,7 @@
       <c r="BE30" s="23"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
@@ -3386,7 +3412,7 @@
       </c>
       <c r="E31" s="10">
         <f>E30+SUM(H31:BE31)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="30" t="s">
@@ -3444,7 +3470,7 @@
       <c r="BE31" s="24"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3515,13 +3541,13 @@
       <c r="BE32" s="32"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="38">
         <v>7</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
@@ -3539,7 +3565,9 @@
       <c r="I33" s="21">
         <v>0</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="21">
+        <v>2</v>
+      </c>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -3589,7 +3617,7 @@
       <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3630,7 @@
       </c>
       <c r="E34" s="10">
         <f>51-H37</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="28" t="s">
@@ -3666,7 +3694,7 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
@@ -3679,7 +3707,7 @@
       </c>
       <c r="E35" s="10">
         <f>SUM(H33:BE35)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="29" t="s">
@@ -3737,7 +3765,7 @@
       <c r="BE35" s="23"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="19" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3778,7 @@
       </c>
       <c r="E36" s="10">
         <f>E35+SUM(H36:BE36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="30" t="s">
@@ -3808,7 +3836,7 @@
       <c r="BE36" s="24"/>
     </row>
     <row r="37" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3826,7 +3854,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -3879,13 +3907,13 @@
       <c r="BE37" s="32"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="38">
         <v>8</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="15" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +3931,9 @@
       <c r="I38" s="21">
         <v>2</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="21">
+        <v>2</v>
+      </c>
       <c r="K38" s="21"/>
       <c r="L38" s="21">
         <v>2</v>
@@ -3955,7 +3985,7 @@
       <c r="BE38" s="21"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +3998,7 @@
       </c>
       <c r="E39" s="10">
         <f>51-H42</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="28" t="s">
@@ -4032,20 +4062,20 @@
       <c r="BE39" s="22"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="5">
         <f>IF(E40&lt;10,1,IF(E40&lt;20,2,IF(E40&lt;30,3,IF(E40&lt;40,4,IF(E40&lt;50,5,IF(E40&lt;60,6,IF(E40&lt;70,7,IF(E40&lt;80,8,IF(E40&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="10">
         <f>SUM(H38:BE40)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="29" t="s">
@@ -4103,7 +4133,7 @@
       <c r="BE40" s="23"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4146,7 @@
       </c>
       <c r="E41" s="10">
         <f>E40+SUM(H41:BE41)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="30" t="s">
@@ -4174,7 +4204,7 @@
       <c r="BE41" s="24"/>
     </row>
     <row r="42" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>72</v>
       </c>
@@ -4191,7 +4221,9 @@
       <c r="G42" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="26">
+        <v>3</v>
+      </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
@@ -4243,13 +4275,13 @@
       <c r="BE42" s="32"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="38">
         <v>9</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4270,7 +4302,9 @@
       <c r="J43" s="21">
         <v>2</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="21">
+        <v>2</v>
+      </c>
       <c r="L43" s="21">
         <v>2</v>
       </c>
@@ -4321,7 +4355,7 @@
       <c r="BE43" s="21"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="20" t="s">
         <v>6</v>
       </c>
@@ -4398,7 +4432,7 @@
       <c r="BE44" s="22"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
@@ -4411,7 +4445,7 @@
       </c>
       <c r="E45" s="10">
         <f>SUM(H43:BE45)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="29" t="s">
@@ -4471,7 +4505,7 @@
       <c r="BE45" s="23"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4518,7 @@
       </c>
       <c r="E46" s="10">
         <f>E45+SUM(H46:BE46)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="30" t="s">
@@ -4542,7 +4576,7 @@
       <c r="BE46" s="24"/>
     </row>
     <row r="47" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
@@ -4611,13 +4645,13 @@
       <c r="BE47" s="32"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="38">
         <v>10</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4693,7 +4727,7 @@
       <c r="BE48" s="21"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>6</v>
       </c>
@@ -4770,7 +4804,7 @@
       <c r="BE49" s="22"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="18" t="s">
         <v>51</v>
       </c>
@@ -4841,7 +4875,7 @@
       <c r="BE50" s="23"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="19" t="s">
         <v>7</v>
       </c>
@@ -4912,7 +4946,7 @@
       <c r="BE51" s="24"/>
     </row>
     <row r="52" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>72</v>
       </c>
@@ -4981,13 +5015,13 @@
       <c r="BE52" s="32"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
+      <c r="A53" s="38">
         <v>11</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5008,15 +5042,21 @@
       <c r="J53" s="21">
         <v>2</v>
       </c>
-      <c r="K53" s="21"/>
+      <c r="K53" s="21">
+        <v>2</v>
+      </c>
       <c r="L53" s="21">
         <v>2</v>
       </c>
       <c r="M53" s="21">
         <v>2</v>
       </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
+      <c r="N53" s="21">
+        <v>2</v>
+      </c>
+      <c r="O53" s="21">
+        <v>2</v>
+      </c>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
@@ -5061,7 +5101,7 @@
       <c r="BE53" s="21"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
         <v>6</v>
       </c>
@@ -5138,28 +5178,34 @@
       <c r="BE54" s="22"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="5">
         <f>IF(E55&lt;10,1,IF(E55&lt;20,2,IF(E55&lt;30,3,IF(E55&lt;40,4,IF(E55&lt;50,5,IF(E55&lt;60,6,IF(E55&lt;70,7,IF(E55&lt;80,8,IF(E55&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="10">
         <f>SUM(H53:BE55)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="H55" s="23">
+        <v>1</v>
+      </c>
+      <c r="I55" s="23">
+        <v>1</v>
+      </c>
+      <c r="J55" s="23">
+        <v>1</v>
+      </c>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
@@ -5209,7 +5255,7 @@
       <c r="BE55" s="23"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="19" t="s">
         <v>7</v>
       </c>
@@ -5222,7 +5268,7 @@
       </c>
       <c r="E56" s="10">
         <f>E55+SUM(H56:BE56)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="30" t="s">
@@ -5280,7 +5326,7 @@
       <c r="BE56" s="24"/>
     </row>
     <row r="57" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5349,19 +5395,19 @@
       <c r="BE57" s="32"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+      <c r="A58" s="38">
         <v>12</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="9">
         <f>C62+E62-COUNTIF(H58:BE58,1)-COUNTIF(H58:BE58,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="27" t="s">
@@ -5373,7 +5419,9 @@
       <c r="I58" s="21">
         <v>0</v>
       </c>
-      <c r="J58" s="21"/>
+      <c r="J58" s="21">
+        <v>0</v>
+      </c>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
@@ -5423,7 +5471,7 @@
       <c r="BE58" s="21"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
@@ -5498,7 +5546,7 @@
       <c r="BE59" s="22"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="18" t="s">
         <v>51</v>
       </c>
@@ -5569,7 +5617,7 @@
       <c r="BE60" s="23"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5640,7 +5688,7 @@
       <c r="BE61" s="24"/>
     </row>
     <row r="62" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
@@ -5711,13 +5759,13 @@
       <c r="BE62" s="32"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
+      <c r="A63" s="38">
         <v>13</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -5793,7 +5841,7 @@
       <c r="BE63" s="21"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
@@ -5870,7 +5918,7 @@
       <c r="BE64" s="22"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="18" t="s">
         <v>51</v>
       </c>
@@ -5941,7 +5989,7 @@
       <c r="BE65" s="23"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="19" t="s">
         <v>7</v>
       </c>
@@ -6012,7 +6060,7 @@
       <c r="BE66" s="24"/>
     </row>
     <row r="67" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
@@ -6081,13 +6129,13 @@
       <c r="BE67" s="32"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+      <c r="A68" s="38">
         <v>13</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="37"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="15" t="s">
         <v>3</v>
       </c>
@@ -6108,9 +6156,15 @@
       <c r="J68" s="21">
         <v>2</v>
       </c>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="K68" s="21">
+        <v>2</v>
+      </c>
+      <c r="L68" s="21">
+        <v>2</v>
+      </c>
+      <c r="M68" s="21">
+        <v>2</v>
+      </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
@@ -6157,7 +6211,7 @@
       <c r="BE68" s="21"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>6</v>
       </c>
@@ -6234,20 +6288,20 @@
       <c r="BE69" s="22"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="5">
         <f>IF(E70&lt;10,1,IF(E70&lt;20,2,IF(E70&lt;30,3,IF(E70&lt;40,4,IF(E70&lt;50,5,IF(E70&lt;60,6,IF(E70&lt;70,7,IF(E70&lt;80,8,IF(E70&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="10">
         <f>SUM(H68:BE70)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="29" t="s">
@@ -6305,7 +6359,7 @@
       <c r="BE70" s="23"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +6372,7 @@
       </c>
       <c r="E71" s="10">
         <f>E70+SUM(H71:BE71)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="30" t="s">
@@ -6376,7 +6430,7 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
@@ -6445,13 +6499,13 @@
       <c r="BE72" s="32"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A73" s="33">
+      <c r="A73" s="38">
         <v>14</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="37"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -6472,15 +6526,21 @@
       <c r="J73" s="21">
         <v>2</v>
       </c>
-      <c r="K73" s="21"/>
+      <c r="K73" s="21">
+        <v>2</v>
+      </c>
       <c r="L73" s="21">
         <v>2</v>
       </c>
       <c r="M73" s="21">
         <v>2</v>
       </c>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
+      <c r="N73" s="21">
+        <v>2</v>
+      </c>
+      <c r="O73" s="21">
+        <v>2</v>
+      </c>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
       <c r="R73" s="21"/>
@@ -6525,7 +6585,7 @@
       <c r="BE73" s="21"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>6</v>
       </c>
@@ -6538,7 +6598,7 @@
       </c>
       <c r="E74" s="10">
         <f>51-H77</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="28" t="s">
@@ -6602,20 +6662,20 @@
       <c r="BE74" s="22"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="5">
         <f>IF(E75&lt;10,1,IF(E75&lt;20,2,IF(E75&lt;30,3,IF(E75&lt;40,4,IF(E75&lt;50,5,IF(E75&lt;60,6,IF(E75&lt;70,7,IF(E75&lt;80,8,IF(E75&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="10">
         <f>SUM(H73:BE75)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="29" t="s">
@@ -6677,7 +6737,7 @@
       <c r="BE75" s="23"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
       </c>
@@ -6690,7 +6750,7 @@
       </c>
       <c r="E76" s="10">
         <f>E75+SUM(H76:BE76)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="30" t="s">
@@ -6748,7 +6808,7 @@
       <c r="BE76" s="24"/>
     </row>
     <row r="77" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="6" t="s">
         <v>72</v>
       </c>
@@ -6765,7 +6825,9 @@
       <c r="G77" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="26"/>
+      <c r="H77" s="26">
+        <v>3</v>
+      </c>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
@@ -6817,13 +6879,13 @@
       <c r="BE77" s="32"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
+      <c r="A78" s="38">
         <v>15</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -6853,8 +6915,12 @@
       <c r="M78" s="21">
         <v>2</v>
       </c>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
+      <c r="N78" s="21">
+        <v>2</v>
+      </c>
+      <c r="O78" s="21">
+        <v>2</v>
+      </c>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
@@ -6899,7 +6965,7 @@
       <c r="BE78" s="21"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>6</v>
       </c>
@@ -6976,20 +7042,20 @@
       <c r="BE79" s="22"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C80" s="5">
         <f>IF(E80&lt;10,1,IF(E80&lt;20,2,IF(E80&lt;30,3,IF(E80&lt;40,4,IF(E80&lt;50,5,IF(E80&lt;60,6,IF(E80&lt;70,7,IF(E80&lt;80,8,IF(E80&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="10">
         <f>SUM(H78:BE80)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="29" t="s">
@@ -7053,7 +7119,7 @@
       <c r="BE80" s="23"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="19" t="s">
         <v>7</v>
       </c>
@@ -7066,7 +7132,7 @@
       </c>
       <c r="E81" s="10">
         <f>E80+SUM(H81:BE81)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="30" t="s">
@@ -7124,7 +7190,7 @@
       <c r="BE81" s="24"/>
     </row>
     <row r="82" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="6" t="s">
         <v>72</v>
       </c>
@@ -7195,13 +7261,13 @@
       <c r="BE82" s="32"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
+      <c r="A83" s="38">
         <v>16</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="37"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="15" t="s">
         <v>3</v>
       </c>
@@ -7222,7 +7288,9 @@
       <c r="J83" s="21">
         <v>2</v>
       </c>
-      <c r="K83" s="21"/>
+      <c r="K83" s="21">
+        <v>2</v>
+      </c>
       <c r="L83" s="21">
         <v>2</v>
       </c>
@@ -7230,7 +7298,9 @@
         <v>2</v>
       </c>
       <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
+      <c r="O83" s="21">
+        <v>2</v>
+      </c>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
@@ -7275,7 +7345,7 @@
       <c r="BE83" s="21"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
@@ -7352,7 +7422,7 @@
       <c r="BE84" s="22"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="18" t="s">
         <v>51</v>
       </c>
@@ -7365,7 +7435,7 @@
       </c>
       <c r="E85" s="10">
         <f>SUM(H83:BE85)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="29" t="s">
@@ -7423,7 +7493,7 @@
       <c r="BE85" s="23"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="19" t="s">
         <v>7</v>
       </c>
@@ -7436,7 +7506,7 @@
       </c>
       <c r="E86" s="10">
         <f>E85+SUM(H86:BE86)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="30" t="s">
@@ -7494,7 +7564,7 @@
       <c r="BE86" s="24"/>
     </row>
     <row r="87" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
@@ -7563,13 +7633,13 @@
       <c r="BE87" s="32"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A88" s="33">
+      <c r="A88" s="38">
         <v>17</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="37"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="15" t="s">
         <v>3</v>
       </c>
@@ -7643,7 +7713,7 @@
       <c r="BE88" s="21"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
@@ -7656,7 +7726,7 @@
       </c>
       <c r="E89" s="10">
         <f>51-H92</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="28" t="s">
@@ -7720,7 +7790,7 @@
       <c r="BE89" s="22"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="18" t="s">
         <v>51</v>
       </c>
@@ -7791,7 +7861,7 @@
       <c r="BE90" s="23"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="19" t="s">
         <v>7</v>
       </c>
@@ -7862,7 +7932,7 @@
       <c r="BE91" s="24"/>
     </row>
     <row r="92" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="6" t="s">
         <v>72</v>
       </c>
@@ -7880,7 +7950,7 @@
         <v>58</v>
       </c>
       <c r="H92" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -7933,13 +8003,13 @@
       <c r="BE92" s="32"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A93" s="33">
+      <c r="A93" s="38">
         <v>18</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="37"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="15" t="s">
         <v>3</v>
       </c>
@@ -7960,13 +8030,21 @@
       <c r="J93" s="21">
         <v>2</v>
       </c>
-      <c r="K93" s="21"/>
+      <c r="K93" s="21">
+        <v>2</v>
+      </c>
       <c r="L93" s="21">
         <v>2</v>
       </c>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
+      <c r="M93" s="21">
+        <v>2</v>
+      </c>
+      <c r="N93" s="21">
+        <v>2</v>
+      </c>
+      <c r="O93" s="21">
+        <v>2</v>
+      </c>
       <c r="P93" s="21"/>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
@@ -8011,7 +8089,7 @@
       <c r="BE93" s="21"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="20" t="s">
         <v>6</v>
       </c>
@@ -8088,7 +8166,7 @@
       <c r="BE94" s="22"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="18" t="s">
         <v>51</v>
       </c>
@@ -8101,7 +8179,7 @@
       </c>
       <c r="E95" s="10">
         <f>SUM(H93:BE95)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="29" t="s">
@@ -8159,7 +8237,7 @@
       <c r="BE95" s="23"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="19" t="s">
         <v>7</v>
       </c>
@@ -8172,7 +8250,7 @@
       </c>
       <c r="E96" s="10">
         <f>E95+SUM(H96:BE96)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="30" t="s">
@@ -8230,7 +8308,7 @@
       <c r="BE96" s="24"/>
     </row>
     <row r="97" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="6" t="s">
         <v>72</v>
       </c>
@@ -8301,13 +8379,13 @@
       <c r="BE97" s="32"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A98" s="33">
+      <c r="A98" s="38">
         <v>19</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="37"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -8337,7 +8415,9 @@
       <c r="M98" s="21">
         <v>2</v>
       </c>
-      <c r="N98" s="21"/>
+      <c r="N98" s="21">
+        <v>2</v>
+      </c>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
       <c r="Q98" s="21"/>
@@ -8383,7 +8463,7 @@
       <c r="BE98" s="21"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
@@ -8460,7 +8540,7 @@
       <c r="BE99" s="22"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="18" t="s">
         <v>51</v>
       </c>
@@ -8473,7 +8553,7 @@
       </c>
       <c r="E100" s="10">
         <f>SUM(H98:BE100)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="29" t="s">
@@ -8533,7 +8613,7 @@
       <c r="BE100" s="23"/>
     </row>
     <row r="101" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
@@ -8546,7 +8626,7 @@
       </c>
       <c r="E101" s="10">
         <f>E100+SUM(H101:BE101)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="30" t="s">
@@ -8604,7 +8684,7 @@
       <c r="BE101" s="24"/>
     </row>
     <row r="102" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="35"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="6" t="s">
         <v>72</v>
       </c>
@@ -8673,13 +8753,13 @@
       <c r="BE102" s="32"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A103" s="33">
+      <c r="A103" s="38">
         <v>20</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -8709,8 +8789,12 @@
       <c r="M103" s="21">
         <v>2</v>
       </c>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
+      <c r="N103" s="21">
+        <v>2</v>
+      </c>
+      <c r="O103" s="21">
+        <v>2</v>
+      </c>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -8755,7 +8839,7 @@
       <c r="BE103" s="21"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>6</v>
       </c>
@@ -8832,20 +8916,20 @@
       <c r="BE104" s="22"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C105" s="5">
         <f>IF(E105&lt;10,1,IF(E105&lt;20,2,IF(E105&lt;30,3,IF(E105&lt;40,4,IF(E105&lt;50,5,IF(E105&lt;60,6,IF(E105&lt;70,7,IF(E105&lt;80,8,IF(E105&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="10">
         <f>SUM(H103:BE105)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="29" t="s">
@@ -8909,7 +8993,7 @@
       <c r="BE105" s="23"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="19" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +9006,7 @@
       </c>
       <c r="E106" s="10">
         <f>E105+SUM(H106:BE106)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="30" t="s">
@@ -8980,7 +9064,7 @@
       <c r="BE106" s="24"/>
     </row>
     <row r="107" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="35"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="6" t="s">
         <v>72</v>
       </c>
@@ -9049,13 +9133,13 @@
       <c r="BE107" s="32"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A108" s="33">
+      <c r="A108" s="38">
         <v>21</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="37"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -9085,8 +9169,12 @@
       <c r="M108" s="21">
         <v>2</v>
       </c>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
+      <c r="N108" s="21">
+        <v>2</v>
+      </c>
+      <c r="O108" s="21">
+        <v>2</v>
+      </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -9131,7 +9219,7 @@
       <c r="BE108" s="21"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>6</v>
       </c>
@@ -9208,20 +9296,20 @@
       <c r="BE109" s="22"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C110" s="5">
         <f>IF(E110&lt;10,1,IF(E110&lt;20,2,IF(E110&lt;30,3,IF(E110&lt;40,4,IF(E110&lt;50,5,IF(E110&lt;60,6,IF(E110&lt;70,7,IF(E110&lt;80,8,IF(E110&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E110" s="10">
         <f>SUM(H108:BE110)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="29" t="s">
@@ -9285,7 +9373,7 @@
       <c r="BE110" s="23"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="19" t="s">
         <v>7</v>
       </c>
@@ -9298,7 +9386,7 @@
       </c>
       <c r="E111" s="10">
         <f>E110+SUM(H111:BE111)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="30" t="s">
@@ -9356,7 +9444,7 @@
       <c r="BE111" s="24"/>
     </row>
     <row r="112" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="6" t="s">
         <v>72</v>
       </c>
@@ -9425,19 +9513,19 @@
       <c r="BE112" s="32"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A113" s="33">
+      <c r="A113" s="38">
         <v>22</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="37"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="9">
         <f>C117+E117-COUNTIF(H113:BE113,1)-COUNTIF(H113:BE113,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="27" t="s">
@@ -9449,7 +9537,9 @@
       <c r="I113" s="21">
         <v>0</v>
       </c>
-      <c r="J113" s="21"/>
+      <c r="J113" s="21">
+        <v>0</v>
+      </c>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
@@ -9499,7 +9589,7 @@
       <c r="BE113" s="21"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>6</v>
       </c>
@@ -9512,7 +9602,7 @@
       </c>
       <c r="E114" s="10">
         <f>51-H117</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="28" t="s">
@@ -9574,7 +9664,7 @@
       <c r="BE114" s="22"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="18" t="s">
         <v>51</v>
       </c>
@@ -9645,13 +9735,13 @@
       <c r="BE115" s="23"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="5" t="str">
         <f>IF(OR(E113=0,E114=0),"Morto",CONCATENATE(IF(E113&gt;=20,"Saudável",IF(E113&gt;=10,"Ferido","Morrendo"))," - ",IF(E114&gt;=25,"Forte",IF(E114&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>5</v>
@@ -9716,7 +9806,7 @@
       <c r="BE116" s="24"/>
     </row>
     <row r="117" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="6" t="s">
         <v>72</v>
       </c>
@@ -9734,7 +9824,7 @@
         <v>58</v>
       </c>
       <c r="H117" s="26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
@@ -9787,19 +9877,19 @@
       <c r="BE117" s="32"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A118" s="33">
+      <c r="A118" s="38">
         <v>23</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="37"/>
+      <c r="C118" s="34"/>
       <c r="D118" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="9">
         <f>C122+E122-COUNTIF(H118:BE118,1)-COUNTIF(H118:BE118,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="27" t="s">
@@ -9811,7 +9901,9 @@
       <c r="I118" s="21">
         <v>0</v>
       </c>
-      <c r="J118" s="21"/>
+      <c r="J118" s="21">
+        <v>0</v>
+      </c>
       <c r="K118" s="21"/>
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
@@ -9861,7 +9953,7 @@
       <c r="BE118" s="21"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>6</v>
       </c>
@@ -9874,7 +9966,7 @@
       </c>
       <c r="E119" s="10">
         <f>51-H122</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="28" t="s">
@@ -9936,7 +10028,7 @@
       <c r="BE119" s="22"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="18" t="s">
         <v>51</v>
       </c>
@@ -10007,13 +10099,13 @@
       <c r="BE120" s="23"/>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="5" t="str">
         <f>IF(OR(E118=0,E119=0),"Morto",CONCATENATE(IF(E118&gt;=20,"Saudável",IF(E118&gt;=10,"Ferido","Morrendo"))," - ",IF(E119&gt;=25,"Forte",IF(E119&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>5</v>
@@ -10078,7 +10170,7 @@
       <c r="BE121" s="24"/>
     </row>
     <row r="122" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35"/>
+      <c r="A122" s="40"/>
       <c r="B122" s="6" t="s">
         <v>72</v>
       </c>
@@ -10096,7 +10188,7 @@
         <v>58</v>
       </c>
       <c r="H122" s="26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
@@ -10149,13 +10241,13 @@
       <c r="BE122" s="32"/>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A123" s="33">
+      <c r="A123" s="38">
         <v>24</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="37"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -10183,7 +10275,9 @@
       <c r="M123" s="21">
         <v>2</v>
       </c>
-      <c r="N123" s="21"/>
+      <c r="N123" s="21">
+        <v>2</v>
+      </c>
       <c r="O123" s="21"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="21"/>
@@ -10229,7 +10323,7 @@
       <c r="BE123" s="21"/>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
@@ -10306,7 +10400,7 @@
       <c r="BE124" s="22"/>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="18" t="s">
         <v>51</v>
       </c>
@@ -10319,7 +10413,7 @@
       </c>
       <c r="E125" s="10">
         <f>SUM(H123:BE125)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="29" t="s">
@@ -10377,7 +10471,7 @@
       <c r="BE125" s="23"/>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="19" t="s">
         <v>7</v>
       </c>
@@ -10390,7 +10484,7 @@
       </c>
       <c r="E126" s="10">
         <f>E125+SUM(H126:BE126)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="30" t="s">
@@ -10448,7 +10542,7 @@
       <c r="BE126" s="24"/>
     </row>
     <row r="127" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="35"/>
+      <c r="A127" s="40"/>
       <c r="B127" s="6" t="s">
         <v>72</v>
       </c>
@@ -10517,13 +10611,13 @@
       <c r="BE127" s="32"/>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A128" s="33">
+      <c r="A128" s="38">
         <v>25</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="37"/>
+      <c r="C128" s="34"/>
       <c r="D128" s="15" t="s">
         <v>3</v>
       </c>
@@ -10553,8 +10647,12 @@
       <c r="M128" s="21">
         <v>2</v>
       </c>
-      <c r="N128" s="21"/>
-      <c r="O128" s="21"/>
+      <c r="N128" s="21">
+        <v>2</v>
+      </c>
+      <c r="O128" s="21">
+        <v>2</v>
+      </c>
       <c r="P128" s="21"/>
       <c r="Q128" s="21"/>
       <c r="R128" s="21"/>
@@ -10599,7 +10697,7 @@
       <c r="BE128" s="21"/>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
+      <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>6</v>
       </c>
@@ -10676,20 +10774,20 @@
       <c r="BE129" s="22"/>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
+      <c r="A130" s="39"/>
       <c r="B130" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C130" s="5">
         <f>IF(E130&lt;10,1,IF(E130&lt;20,2,IF(E130&lt;30,3,IF(E130&lt;40,4,IF(E130&lt;50,5,IF(E130&lt;60,6,IF(E130&lt;70,7,IF(E130&lt;80,8,IF(E130&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E130" s="10">
         <f>SUM(H128:BE130)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="29" t="s">
@@ -10753,7 +10851,7 @@
       <c r="BE130" s="23"/>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
+      <c r="A131" s="39"/>
       <c r="B131" s="19" t="s">
         <v>7</v>
       </c>
@@ -10766,7 +10864,7 @@
       </c>
       <c r="E131" s="10">
         <f>E130+SUM(H131:BE131)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F131" s="13"/>
       <c r="G131" s="30" t="s">
@@ -10824,7 +10922,7 @@
       <c r="BE131" s="24"/>
     </row>
     <row r="132" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="35"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="6" t="s">
         <v>72</v>
       </c>
@@ -10893,19 +10991,19 @@
       <c r="BE132" s="32"/>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A133" s="33">
+      <c r="A133" s="38">
         <v>26</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="37"/>
+      <c r="C133" s="34"/>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="9">
         <f>C137+E137-COUNTIF(H133:BE133,1)-COUNTIF(H133:BE133,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="27" t="s">
@@ -10917,7 +11015,9 @@
       <c r="I133" s="21">
         <v>0</v>
       </c>
-      <c r="J133" s="21"/>
+      <c r="J133" s="21">
+        <v>0</v>
+      </c>
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
@@ -10967,7 +11067,7 @@
       <c r="BE133" s="21"/>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>6</v>
       </c>
@@ -10980,7 +11080,7 @@
       </c>
       <c r="E134" s="10">
         <f>51-H137</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="28" t="s">
@@ -11042,7 +11142,7 @@
       <c r="BE134" s="22"/>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
+      <c r="A135" s="39"/>
       <c r="B135" s="18" t="s">
         <v>51</v>
       </c>
@@ -11113,7 +11213,7 @@
       <c r="BE135" s="23"/>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
+      <c r="A136" s="39"/>
       <c r="B136" s="19" t="s">
         <v>7</v>
       </c>
@@ -11184,7 +11284,7 @@
       <c r="BE136" s="24"/>
     </row>
     <row r="137" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="35"/>
+      <c r="A137" s="40"/>
       <c r="B137" s="6" t="s">
         <v>72</v>
       </c>
@@ -11202,7 +11302,7 @@
         <v>58</v>
       </c>
       <c r="H137" s="26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
@@ -11255,13 +11355,13 @@
       <c r="BE137" s="32"/>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A138" s="33">
+      <c r="A138" s="38">
         <v>27</v>
       </c>
-      <c r="B138" s="36" t="s">
+      <c r="B138" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="37"/>
+      <c r="C138" s="34"/>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
@@ -11282,7 +11382,9 @@
       <c r="J138" s="21">
         <v>2</v>
       </c>
-      <c r="K138" s="21"/>
+      <c r="K138" s="21">
+        <v>2</v>
+      </c>
       <c r="L138" s="21">
         <v>2</v>
       </c>
@@ -11335,7 +11437,7 @@
       <c r="BE138" s="21"/>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="39"/>
       <c r="B139" s="20" t="s">
         <v>6</v>
       </c>
@@ -11348,7 +11450,7 @@
       </c>
       <c r="E139" s="10">
         <f>51-H142</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="28" t="s">
@@ -11412,7 +11514,7 @@
       <c r="BE139" s="22"/>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+      <c r="A140" s="39"/>
       <c r="B140" s="18" t="s">
         <v>51</v>
       </c>
@@ -11425,7 +11527,7 @@
       </c>
       <c r="E140" s="10">
         <f>SUM(H138:BE140)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="29" t="s">
@@ -11483,7 +11585,7 @@
       <c r="BE140" s="23"/>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="19" t="s">
         <v>7</v>
       </c>
@@ -11496,7 +11598,7 @@
       </c>
       <c r="E141" s="10">
         <f>E140+SUM(H141:BE141)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="30" t="s">
@@ -11554,7 +11656,7 @@
       <c r="BE141" s="24"/>
     </row>
     <row r="142" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="35"/>
+      <c r="A142" s="40"/>
       <c r="B142" s="6" t="s">
         <v>72</v>
       </c>
@@ -11572,7 +11674,7 @@
         <v>58</v>
       </c>
       <c r="H142" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
@@ -11625,13 +11727,13 @@
       <c r="BE142" s="32"/>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A143" s="33">
+      <c r="A143" s="38">
         <v>28</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="37"/>
+      <c r="C143" s="34"/>
       <c r="D143" s="15" t="s">
         <v>3</v>
       </c>
@@ -11658,7 +11760,9 @@
       <c r="L143" s="21">
         <v>2</v>
       </c>
-      <c r="M143" s="21"/>
+      <c r="M143" s="21">
+        <v>2</v>
+      </c>
       <c r="N143" s="21"/>
       <c r="O143" s="21"/>
       <c r="P143" s="21"/>
@@ -11705,7 +11809,7 @@
       <c r="BE143" s="21"/>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
+      <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>6</v>
       </c>
@@ -11782,7 +11886,7 @@
       <c r="BE144" s="22"/>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
+      <c r="A145" s="39"/>
       <c r="B145" s="18" t="s">
         <v>51</v>
       </c>
@@ -11795,7 +11899,7 @@
       </c>
       <c r="E145" s="10">
         <f>SUM(H143:BE145)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="29" t="s">
@@ -11804,7 +11908,9 @@
       <c r="H145" s="23">
         <v>1</v>
       </c>
-      <c r="I145" s="23"/>
+      <c r="I145" s="23">
+        <v>1</v>
+      </c>
       <c r="J145" s="23">
         <v>1</v>
       </c>
@@ -11857,7 +11963,7 @@
       <c r="BE145" s="23"/>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
+      <c r="A146" s="39"/>
       <c r="B146" s="19" t="s">
         <v>7</v>
       </c>
@@ -11870,7 +11976,7 @@
       </c>
       <c r="E146" s="10">
         <f>E145+SUM(H146:BE146)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="30" t="s">
@@ -11928,7 +12034,7 @@
       <c r="BE146" s="24"/>
     </row>
     <row r="147" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="35"/>
+      <c r="A147" s="40"/>
       <c r="B147" s="6" t="s">
         <v>72</v>
       </c>
@@ -11997,19 +12103,19 @@
       <c r="BE147" s="32"/>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A148" s="33">
+      <c r="A148" s="38">
         <v>29</v>
       </c>
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="37"/>
+      <c r="C148" s="34"/>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="9">
         <f>C152+E152-COUNTIF(H148:BE148,1)-COUNTIF(H148:BE148,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="27" t="s">
@@ -12021,7 +12127,9 @@
       <c r="I148" s="21">
         <v>2</v>
       </c>
-      <c r="J148" s="21"/>
+      <c r="J148" s="21">
+        <v>0</v>
+      </c>
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
       <c r="M148" s="21"/>
@@ -12071,7 +12179,7 @@
       <c r="BE148" s="21"/>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>6</v>
       </c>
@@ -12148,7 +12256,7 @@
       <c r="BE149" s="22"/>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
+      <c r="A150" s="39"/>
       <c r="B150" s="18" t="s">
         <v>51</v>
       </c>
@@ -12219,7 +12327,7 @@
       <c r="BE150" s="23"/>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
+      <c r="A151" s="39"/>
       <c r="B151" s="19" t="s">
         <v>7</v>
       </c>
@@ -12290,7 +12398,7 @@
       <c r="BE151" s="24"/>
     </row>
     <row r="152" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="35"/>
+      <c r="A152" s="40"/>
       <c r="B152" s="6" t="s">
         <v>72</v>
       </c>
@@ -12359,13 +12467,13 @@
       <c r="BE152" s="32"/>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A153" s="33">
+      <c r="A153" s="38">
         <v>30</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="37"/>
+      <c r="C153" s="34"/>
       <c r="D153" s="15" t="s">
         <v>3</v>
       </c>
@@ -12395,8 +12503,12 @@
       <c r="M153" s="21">
         <v>2</v>
       </c>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
+      <c r="N153" s="21">
+        <v>2</v>
+      </c>
+      <c r="O153" s="21">
+        <v>2</v>
+      </c>
       <c r="P153" s="21"/>
       <c r="Q153" s="21"/>
       <c r="R153" s="21"/>
@@ -12441,7 +12553,7 @@
       <c r="BE153" s="21"/>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
+      <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>6</v>
       </c>
@@ -12518,7 +12630,7 @@
       <c r="BE154" s="22"/>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
+      <c r="A155" s="39"/>
       <c r="B155" s="18" t="s">
         <v>51</v>
       </c>
@@ -12531,7 +12643,7 @@
       </c>
       <c r="E155" s="10">
         <f>SUM(H153:BE155)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F155" s="13"/>
       <c r="G155" s="29" t="s">
@@ -12589,7 +12701,7 @@
       <c r="BE155" s="23"/>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
+      <c r="A156" s="39"/>
       <c r="B156" s="19" t="s">
         <v>7</v>
       </c>
@@ -12602,7 +12714,7 @@
       </c>
       <c r="E156" s="10">
         <f>E155+SUM(H156:BE156)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="30" t="s">
@@ -12660,7 +12772,7 @@
       <c r="BE156" s="24"/>
     </row>
     <row r="157" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="35"/>
+      <c r="A157" s="40"/>
       <c r="B157" s="6" t="s">
         <v>72</v>
       </c>
@@ -12729,13 +12841,13 @@
       <c r="BE157" s="32"/>
     </row>
     <row r="158" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A158" s="33">
+      <c r="A158" s="38">
         <v>31</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="37"/>
+      <c r="C158" s="34"/>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
@@ -12807,7 +12919,7 @@
       <c r="BE158" s="21"/>
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>6</v>
       </c>
@@ -12884,7 +12996,7 @@
       <c r="BE159" s="22"/>
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="18" t="s">
         <v>51</v>
       </c>
@@ -12955,7 +13067,7 @@
       <c r="BE160" s="23"/>
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="19" t="s">
         <v>7</v>
       </c>
@@ -13026,7 +13138,7 @@
       <c r="BE161" s="24"/>
     </row>
     <row r="162" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="35"/>
+      <c r="A162" s="40"/>
       <c r="B162" s="6" t="s">
         <v>72</v>
       </c>
@@ -13095,19 +13207,19 @@
       <c r="BE162" s="32"/>
     </row>
     <row r="163" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A163" s="33">
+      <c r="A163" s="38">
         <v>32</v>
       </c>
-      <c r="B163" s="36" t="s">
+      <c r="B163" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="37"/>
+      <c r="C163" s="34"/>
       <c r="D163" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="9">
         <f>C167+E167-COUNTIF(H163:BE163,1)-COUNTIF(H163:BE163,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="27" t="s">
@@ -13119,7 +13231,9 @@
       <c r="I163" s="21">
         <v>0</v>
       </c>
-      <c r="J163" s="21"/>
+      <c r="J163" s="21">
+        <v>0</v>
+      </c>
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
       <c r="M163" s="21"/>
@@ -13169,7 +13283,7 @@
       <c r="BE163" s="21"/>
     </row>
     <row r="164" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="20" t="s">
         <v>6</v>
       </c>
@@ -13182,7 +13296,7 @@
       </c>
       <c r="E164" s="10">
         <f>51-H167</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="28" t="s">
@@ -13244,7 +13358,7 @@
       <c r="BE164" s="22"/>
     </row>
     <row r="165" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="18" t="s">
         <v>51</v>
       </c>
@@ -13315,13 +13429,13 @@
       <c r="BE165" s="23"/>
     </row>
     <row r="166" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="5" t="str">
         <f>IF(OR(E163=0,E164=0),"Morto",CONCATENATE(IF(E163&gt;=20,"Saudável",IF(E163&gt;=10,"Ferido","Morrendo"))," - ",IF(E164&gt;=25,"Forte",IF(E164&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>5</v>
@@ -13386,7 +13500,7 @@
       <c r="BE166" s="24"/>
     </row>
     <row r="167" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="35"/>
+      <c r="A167" s="40"/>
       <c r="B167" s="6" t="s">
         <v>72</v>
       </c>
@@ -13404,7 +13518,7 @@
         <v>58</v>
       </c>
       <c r="H167" s="26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
@@ -13457,13 +13571,13 @@
       <c r="BE167" s="32"/>
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A168" s="33">
+      <c r="A168" s="38">
         <v>33</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C168" s="37"/>
+      <c r="C168" s="34"/>
       <c r="D168" s="15" t="s">
         <v>3</v>
       </c>
@@ -13481,7 +13595,9 @@
       <c r="I168" s="21">
         <v>2</v>
       </c>
-      <c r="J168" s="21"/>
+      <c r="J168" s="21">
+        <v>2</v>
+      </c>
       <c r="K168" s="21"/>
       <c r="L168" s="21">
         <v>2</v>
@@ -13533,7 +13649,7 @@
       <c r="BE168" s="21"/>
     </row>
     <row r="169" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>6</v>
       </c>
@@ -13610,27 +13726,31 @@
       <c r="BE169" s="22"/>
     </row>
     <row r="170" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A170" s="34"/>
+      <c r="A170" s="39"/>
       <c r="B170" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C170" s="5">
         <f>IF(E170&lt;10,1,IF(E170&lt;20,2,IF(E170&lt;30,3,IF(E170&lt;40,4,IF(E170&lt;50,5,IF(E170&lt;60,6,IF(E170&lt;70,7,IF(E170&lt;80,8,IF(E170&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E170" s="10">
         <f>SUM(H168:BE170)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H170" s="23"/>
-      <c r="I170" s="23"/>
+      <c r="H170" s="23">
+        <v>1</v>
+      </c>
+      <c r="I170" s="23">
+        <v>1</v>
+      </c>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
@@ -13681,7 +13801,7 @@
       <c r="BE170" s="23"/>
     </row>
     <row r="171" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="19" t="s">
         <v>7</v>
       </c>
@@ -13694,7 +13814,7 @@
       </c>
       <c r="E171" s="10">
         <f>E170+SUM(H171:BE171)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="30" t="s">
@@ -13752,7 +13872,7 @@
       <c r="BE171" s="24"/>
     </row>
     <row r="172" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="35"/>
+      <c r="A172" s="40"/>
       <c r="B172" s="6" t="s">
         <v>72</v>
       </c>
@@ -13821,19 +13941,19 @@
       <c r="BE172" s="32"/>
     </row>
     <row r="173" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A173" s="33">
+      <c r="A173" s="38">
         <v>34</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C173" s="37"/>
+      <c r="C173" s="34"/>
       <c r="D173" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="9">
         <f>C177+E177-COUNTIF(H173:BE173,1)-COUNTIF(H173:BE173,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="27" t="s">
@@ -13845,7 +13965,9 @@
       <c r="I173" s="21">
         <v>0</v>
       </c>
-      <c r="J173" s="21"/>
+      <c r="J173" s="21">
+        <v>0</v>
+      </c>
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
       <c r="M173" s="21"/>
@@ -13895,7 +14017,7 @@
       <c r="BE173" s="21"/>
     </row>
     <row r="174" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="20" t="s">
         <v>6</v>
       </c>
@@ -13908,7 +14030,7 @@
       </c>
       <c r="E174" s="10">
         <f>51-H177</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="28" t="s">
@@ -13970,7 +14092,7 @@
       <c r="BE174" s="22"/>
     </row>
     <row r="175" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
+      <c r="A175" s="39"/>
       <c r="B175" s="18" t="s">
         <v>51</v>
       </c>
@@ -14041,13 +14163,13 @@
       <c r="BE175" s="23"/>
     </row>
     <row r="176" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A176" s="34"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="5" t="str">
         <f>IF(OR(E173=0,E174=0),"Morto",CONCATENATE(IF(E173&gt;=20,"Saudável",IF(E173&gt;=10,"Ferido","Morrendo"))," - ",IF(E174&gt;=25,"Forte",IF(E174&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>5</v>
@@ -14112,7 +14234,7 @@
       <c r="BE176" s="24"/>
     </row>
     <row r="177" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="35"/>
+      <c r="A177" s="40"/>
       <c r="B177" s="6" t="s">
         <v>72</v>
       </c>
@@ -14130,7 +14252,7 @@
         <v>58</v>
       </c>
       <c r="H177" s="26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
@@ -14183,13 +14305,13 @@
       <c r="BE177" s="32"/>
     </row>
     <row r="178" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A178" s="33">
+      <c r="A178" s="38">
         <v>35</v>
       </c>
-      <c r="B178" s="36" t="s">
+      <c r="B178" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C178" s="37"/>
+      <c r="C178" s="34"/>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
@@ -14219,8 +14341,12 @@
       <c r="M178" s="21">
         <v>2</v>
       </c>
-      <c r="N178" s="21"/>
-      <c r="O178" s="21"/>
+      <c r="N178" s="21">
+        <v>2</v>
+      </c>
+      <c r="O178" s="21">
+        <v>2</v>
+      </c>
       <c r="P178" s="21"/>
       <c r="Q178" s="21"/>
       <c r="R178" s="21"/>
@@ -14265,7 +14391,7 @@
       <c r="BE178" s="21"/>
     </row>
     <row r="179" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>6</v>
       </c>
@@ -14342,20 +14468,20 @@
       <c r="BE179" s="22"/>
     </row>
     <row r="180" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C180" s="5">
         <f>IF(E180&lt;10,1,IF(E180&lt;20,2,IF(E180&lt;30,3,IF(E180&lt;40,4,IF(E180&lt;50,5,IF(E180&lt;60,6,IF(E180&lt;70,7,IF(E180&lt;80,8,IF(E180&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E180" s="10">
         <f>SUM(H178:BE180)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F180" s="13"/>
       <c r="G180" s="29" t="s">
@@ -14415,7 +14541,7 @@
       <c r="BE180" s="23"/>
     </row>
     <row r="181" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="19" t="s">
         <v>7</v>
       </c>
@@ -14428,7 +14554,7 @@
       </c>
       <c r="E181" s="10">
         <f>E180+SUM(H181:BE181)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F181" s="13"/>
       <c r="G181" s="30" t="s">
@@ -14486,7 +14612,7 @@
       <c r="BE181" s="24"/>
     </row>
     <row r="182" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="35"/>
+      <c r="A182" s="40"/>
       <c r="B182" s="6" t="s">
         <v>72</v>
       </c>
@@ -14555,13 +14681,13 @@
       <c r="BE182" s="32"/>
     </row>
     <row r="183" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A183" s="33">
+      <c r="A183" s="38">
         <v>36</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C183" s="37"/>
+      <c r="C183" s="34"/>
       <c r="D183" s="15" t="s">
         <v>3</v>
       </c>
@@ -14591,8 +14717,12 @@
       <c r="M183" s="21">
         <v>2</v>
       </c>
-      <c r="N183" s="21"/>
-      <c r="O183" s="21"/>
+      <c r="N183" s="21">
+        <v>2</v>
+      </c>
+      <c r="O183" s="21">
+        <v>2</v>
+      </c>
       <c r="P183" s="21"/>
       <c r="Q183" s="21"/>
       <c r="R183" s="21"/>
@@ -14637,7 +14767,7 @@
       <c r="BE183" s="21"/>
     </row>
     <row r="184" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A184" s="34"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>6</v>
       </c>
@@ -14714,26 +14844,28 @@
       <c r="BE184" s="22"/>
     </row>
     <row r="185" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
+      <c r="A185" s="39"/>
       <c r="B185" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C185" s="5">
         <f>IF(E185&lt;10,1,IF(E185&lt;20,2,IF(E185&lt;30,3,IF(E185&lt;40,4,IF(E185&lt;50,5,IF(E185&lt;60,6,IF(E185&lt;70,7,IF(E185&lt;80,8,IF(E185&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E185" s="10">
         <f>SUM(H183:BE185)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F185" s="13"/>
       <c r="G185" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H185" s="23"/>
+      <c r="H185" s="23">
+        <v>1</v>
+      </c>
       <c r="I185" s="23">
         <v>1</v>
       </c>
@@ -14789,7 +14921,7 @@
       <c r="BE185" s="23"/>
     </row>
     <row r="186" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A186" s="34"/>
+      <c r="A186" s="39"/>
       <c r="B186" s="19" t="s">
         <v>7</v>
       </c>
@@ -14802,7 +14934,7 @@
       </c>
       <c r="E186" s="10">
         <f>E185+SUM(H186:BE186)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="30" t="s">
@@ -14860,7 +14992,7 @@
       <c r="BE186" s="24"/>
     </row>
     <row r="187" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="35"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="6" t="s">
         <v>72</v>
       </c>
@@ -14929,19 +15061,19 @@
       <c r="BE187" s="32"/>
     </row>
     <row r="188" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A188" s="33">
+      <c r="A188" s="38">
         <v>37</v>
       </c>
-      <c r="B188" s="36" t="s">
+      <c r="B188" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="37"/>
+      <c r="C188" s="34"/>
       <c r="D188" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="9">
         <f>C192+E192-COUNTIF(H188:BE188,1)-COUNTIF(H188:BE188,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="27" t="s">
@@ -14953,7 +15085,9 @@
       <c r="I188" s="21">
         <v>0</v>
       </c>
-      <c r="J188" s="21"/>
+      <c r="J188" s="21">
+        <v>0</v>
+      </c>
       <c r="K188" s="21"/>
       <c r="L188" s="21"/>
       <c r="M188" s="21"/>
@@ -15003,7 +15137,7 @@
       <c r="BE188" s="21"/>
     </row>
     <row r="189" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A189" s="34"/>
+      <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>6</v>
       </c>
@@ -15016,7 +15150,7 @@
       </c>
       <c r="E189" s="10">
         <f>51-H192</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="28" t="s">
@@ -15078,7 +15212,7 @@
       <c r="BE189" s="22"/>
     </row>
     <row r="190" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
+      <c r="A190" s="39"/>
       <c r="B190" s="18" t="s">
         <v>51</v>
       </c>
@@ -15149,7 +15283,7 @@
       <c r="BE190" s="23"/>
     </row>
     <row r="191" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A191" s="34"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="19" t="s">
         <v>7</v>
       </c>
@@ -15220,7 +15354,7 @@
       <c r="BE191" s="24"/>
     </row>
     <row r="192" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="35"/>
+      <c r="A192" s="40"/>
       <c r="B192" s="6" t="s">
         <v>72</v>
       </c>
@@ -15238,7 +15372,7 @@
         <v>58</v>
       </c>
       <c r="H192" s="26">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
@@ -15291,13 +15425,13 @@
       <c r="BE192" s="32"/>
     </row>
     <row r="193" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A193" s="33">
+      <c r="A193" s="38">
         <v>38</v>
       </c>
-      <c r="B193" s="36" t="s">
+      <c r="B193" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="37"/>
+      <c r="C193" s="34"/>
       <c r="D193" s="15" t="s">
         <v>3</v>
       </c>
@@ -15321,7 +15455,9 @@
       <c r="K193" s="21">
         <v>2</v>
       </c>
-      <c r="L193" s="21"/>
+      <c r="L193" s="21">
+        <v>2</v>
+      </c>
       <c r="M193" s="21"/>
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
@@ -15369,7 +15505,7 @@
       <c r="BE193" s="21"/>
     </row>
     <row r="194" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>6</v>
       </c>
@@ -15446,7 +15582,7 @@
       <c r="BE194" s="22"/>
     </row>
     <row r="195" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
+      <c r="A195" s="39"/>
       <c r="B195" s="18" t="s">
         <v>51</v>
       </c>
@@ -15459,7 +15595,7 @@
       </c>
       <c r="E195" s="10">
         <f>SUM(H193:BE195)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="29" t="s">
@@ -15517,7 +15653,7 @@
       <c r="BE195" s="23"/>
     </row>
     <row r="196" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
+      <c r="A196" s="39"/>
       <c r="B196" s="19" t="s">
         <v>7</v>
       </c>
@@ -15530,7 +15666,7 @@
       </c>
       <c r="E196" s="10">
         <f>E195+SUM(H196:BE196)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="30" t="s">
@@ -15588,7 +15724,7 @@
       <c r="BE196" s="24"/>
     </row>
     <row r="197" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="35"/>
+      <c r="A197" s="40"/>
       <c r="B197" s="6" t="s">
         <v>72</v>
       </c>
@@ -15659,13 +15795,13 @@
       <c r="BE197" s="32"/>
     </row>
     <row r="198" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A198" s="33">
+      <c r="A198" s="38">
         <v>39</v>
       </c>
-      <c r="B198" s="36" t="s">
+      <c r="B198" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="37"/>
+      <c r="C198" s="34"/>
       <c r="D198" s="15" t="s">
         <v>3</v>
       </c>
@@ -15739,7 +15875,7 @@
       <c r="BE198" s="21"/>
     </row>
     <row r="199" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
+      <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>6</v>
       </c>
@@ -15816,7 +15952,7 @@
       <c r="BE199" s="22"/>
     </row>
     <row r="200" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A200" s="34"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="18" t="s">
         <v>51</v>
       </c>
@@ -15887,7 +16023,7 @@
       <c r="BE200" s="23"/>
     </row>
     <row r="201" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A201" s="34"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="19" t="s">
         <v>7</v>
       </c>
@@ -15958,7 +16094,7 @@
       <c r="BE201" s="24"/>
     </row>
     <row r="202" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="35"/>
+      <c r="A202" s="40"/>
       <c r="B202" s="6" t="s">
         <v>72</v>
       </c>
@@ -16027,13 +16163,13 @@
       <c r="BE202" s="32"/>
     </row>
     <row r="203" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A203" s="33">
+      <c r="A203" s="38">
         <v>40</v>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C203" s="37"/>
+      <c r="C203" s="34"/>
       <c r="D203" s="15" t="s">
         <v>3</v>
       </c>
@@ -16109,7 +16245,7 @@
       <c r="BE203" s="21"/>
     </row>
     <row r="204" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A204" s="34"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>6</v>
       </c>
@@ -16186,7 +16322,7 @@
       <c r="BE204" s="22"/>
     </row>
     <row r="205" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A205" s="34"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="18" t="s">
         <v>51</v>
       </c>
@@ -16263,7 +16399,7 @@
       <c r="BE205" s="23"/>
     </row>
     <row r="206" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A206" s="34"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="19" t="s">
         <v>7</v>
       </c>
@@ -16334,7 +16470,7 @@
       <c r="BE206" s="24"/>
     </row>
     <row r="207" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="35"/>
+      <c r="A207" s="40"/>
       <c r="B207" s="6" t="s">
         <v>72</v>
       </c>
@@ -16403,19 +16539,19 @@
       <c r="BE207" s="32"/>
     </row>
     <row r="208" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A208" s="33">
+      <c r="A208" s="38">
         <v>41</v>
       </c>
-      <c r="B208" s="36" t="s">
+      <c r="B208" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C208" s="37"/>
+      <c r="C208" s="34"/>
       <c r="D208" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="9">
         <f>C212+E212-COUNTIF(H208:BE208,1)-COUNTIF(H208:BE208,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="27" t="s">
@@ -16427,7 +16563,9 @@
       <c r="I208" s="21">
         <v>0</v>
       </c>
-      <c r="J208" s="21"/>
+      <c r="J208" s="21">
+        <v>0</v>
+      </c>
       <c r="K208" s="21"/>
       <c r="L208" s="21"/>
       <c r="M208" s="21"/>
@@ -16477,7 +16615,7 @@
       <c r="BE208" s="21"/>
     </row>
     <row r="209" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A209" s="34"/>
+      <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>6</v>
       </c>
@@ -16490,7 +16628,7 @@
       </c>
       <c r="E209" s="10">
         <f>51-H212</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="28" t="s">
@@ -16552,7 +16690,7 @@
       <c r="BE209" s="22"/>
     </row>
     <row r="210" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A210" s="34"/>
+      <c r="A210" s="39"/>
       <c r="B210" s="18" t="s">
         <v>51</v>
       </c>
@@ -16623,13 +16761,13 @@
       <c r="BE210" s="23"/>
     </row>
     <row r="211" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A211" s="34"/>
+      <c r="A211" s="39"/>
       <c r="B211" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="5" t="str">
         <f>IF(OR(E208=0,E209=0),"Morto",CONCATENATE(IF(E208&gt;=20,"Saudável",IF(E208&gt;=10,"Ferido","Morrendo"))," - ",IF(E209&gt;=25,"Forte",IF(E209&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>5</v>
@@ -16694,7 +16832,7 @@
       <c r="BE211" s="24"/>
     </row>
     <row r="212" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="35"/>
+      <c r="A212" s="40"/>
       <c r="B212" s="6" t="s">
         <v>72</v>
       </c>
@@ -16712,7 +16850,7 @@
         <v>58</v>
       </c>
       <c r="H212" s="26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
@@ -16765,19 +16903,19 @@
       <c r="BE212" s="32"/>
     </row>
     <row r="213" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A213" s="33">
+      <c r="A213" s="38">
         <v>42</v>
       </c>
-      <c r="B213" s="36" t="s">
+      <c r="B213" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="37"/>
+      <c r="C213" s="34"/>
       <c r="D213" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="9">
         <f>C217+E217-COUNTIF(H213:BE213,1)-COUNTIF(H213:BE213,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="27" t="s">
@@ -16789,7 +16927,9 @@
       <c r="I213" s="21">
         <v>0</v>
       </c>
-      <c r="J213" s="21"/>
+      <c r="J213" s="21">
+        <v>0</v>
+      </c>
       <c r="K213" s="21"/>
       <c r="L213" s="21"/>
       <c r="M213" s="21"/>
@@ -16839,7 +16979,7 @@
       <c r="BE213" s="21"/>
     </row>
     <row r="214" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A214" s="34"/>
+      <c r="A214" s="39"/>
       <c r="B214" s="20" t="s">
         <v>6</v>
       </c>
@@ -16852,7 +16992,7 @@
       </c>
       <c r="E214" s="10">
         <f>51-H217</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="28" t="s">
@@ -16914,7 +17054,7 @@
       <c r="BE214" s="22"/>
     </row>
     <row r="215" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A215" s="34"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="18" t="s">
         <v>51</v>
       </c>
@@ -16985,13 +17125,13 @@
       <c r="BE215" s="23"/>
     </row>
     <row r="216" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A216" s="34"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="5" t="str">
         <f>IF(OR(E213=0,E214=0),"Morto",CONCATENATE(IF(E213&gt;=20,"Saudável",IF(E213&gt;=10,"Ferido","Morrendo"))," - ",IF(E214&gt;=25,"Forte",IF(E214&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D216" s="17" t="s">
         <v>5</v>
@@ -17056,7 +17196,7 @@
       <c r="BE216" s="24"/>
     </row>
     <row r="217" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="35"/>
+      <c r="A217" s="40"/>
       <c r="B217" s="6" t="s">
         <v>72</v>
       </c>
@@ -17074,7 +17214,7 @@
         <v>58</v>
       </c>
       <c r="H217" s="26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I217" s="32"/>
       <c r="J217" s="32"/>
@@ -17127,13 +17267,13 @@
       <c r="BE217" s="32"/>
     </row>
     <row r="218" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A218" s="33">
+      <c r="A218" s="38">
         <v>43</v>
       </c>
-      <c r="B218" s="36" t="s">
+      <c r="B218" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C218" s="37"/>
+      <c r="C218" s="34"/>
       <c r="D218" s="15" t="s">
         <v>3</v>
       </c>
@@ -17163,8 +17303,12 @@
       <c r="M218" s="21">
         <v>2</v>
       </c>
-      <c r="N218" s="21"/>
-      <c r="O218" s="21"/>
+      <c r="N218" s="21">
+        <v>2</v>
+      </c>
+      <c r="O218" s="21">
+        <v>2</v>
+      </c>
       <c r="P218" s="21"/>
       <c r="Q218" s="21"/>
       <c r="R218" s="21"/>
@@ -17209,7 +17353,7 @@
       <c r="BE218" s="21"/>
     </row>
     <row r="219" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A219" s="34"/>
+      <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>6</v>
       </c>
@@ -17286,20 +17430,20 @@
       <c r="BE219" s="22"/>
     </row>
     <row r="220" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A220" s="34"/>
+      <c r="A220" s="39"/>
       <c r="B220" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C220" s="5">
         <f>IF(E220&lt;10,1,IF(E220&lt;20,2,IF(E220&lt;30,3,IF(E220&lt;40,4,IF(E220&lt;50,5,IF(E220&lt;60,6,IF(E220&lt;70,7,IF(E220&lt;80,8,IF(E220&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E220" s="10">
         <f>SUM(H218:BE220)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F220" s="13"/>
       <c r="G220" s="29" t="s">
@@ -17308,7 +17452,9 @@
       <c r="H220" s="23">
         <v>1</v>
       </c>
-      <c r="I220" s="23"/>
+      <c r="I220" s="23">
+        <v>1</v>
+      </c>
       <c r="J220" s="23">
         <v>1</v>
       </c>
@@ -17361,7 +17507,7 @@
       <c r="BE220" s="23"/>
     </row>
     <row r="221" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A221" s="34"/>
+      <c r="A221" s="39"/>
       <c r="B221" s="19" t="s">
         <v>7</v>
       </c>
@@ -17374,7 +17520,7 @@
       </c>
       <c r="E221" s="10">
         <f>E220+SUM(H221:BE221)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F221" s="13"/>
       <c r="G221" s="30" t="s">
@@ -17432,7 +17578,7 @@
       <c r="BE221" s="24"/>
     </row>
     <row r="222" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="35"/>
+      <c r="A222" s="40"/>
       <c r="B222" s="6" t="s">
         <v>72</v>
       </c>
@@ -17501,13 +17647,13 @@
       <c r="BE222" s="32"/>
     </row>
     <row r="223" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A223" s="33">
+      <c r="A223" s="38">
         <v>44</v>
       </c>
-      <c r="B223" s="36" t="s">
+      <c r="B223" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C223" s="37"/>
+      <c r="C223" s="34"/>
       <c r="D223" s="15" t="s">
         <v>3</v>
       </c>
@@ -17537,7 +17683,9 @@
       <c r="M223" s="21">
         <v>2</v>
       </c>
-      <c r="N223" s="21"/>
+      <c r="N223" s="21">
+        <v>2</v>
+      </c>
       <c r="O223" s="21"/>
       <c r="P223" s="21"/>
       <c r="Q223" s="21"/>
@@ -17583,7 +17731,7 @@
       <c r="BE223" s="21"/>
     </row>
     <row r="224" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A224" s="34"/>
+      <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>6</v>
       </c>
@@ -17660,26 +17808,28 @@
       <c r="BE224" s="22"/>
     </row>
     <row r="225" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A225" s="34"/>
+      <c r="A225" s="39"/>
       <c r="B225" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C225" s="5">
         <f>IF(E225&lt;10,1,IF(E225&lt;20,2,IF(E225&lt;30,3,IF(E225&lt;40,4,IF(E225&lt;50,5,IF(E225&lt;60,6,IF(E225&lt;70,7,IF(E225&lt;80,8,IF(E225&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E225" s="10">
         <f>SUM(H223:BE225)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F225" s="13"/>
       <c r="G225" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H225" s="23"/>
+      <c r="H225" s="23">
+        <v>1</v>
+      </c>
       <c r="I225" s="23">
         <v>1</v>
       </c>
@@ -17735,7 +17885,7 @@
       <c r="BE225" s="23"/>
     </row>
     <row r="226" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A226" s="34"/>
+      <c r="A226" s="39"/>
       <c r="B226" s="19" t="s">
         <v>7</v>
       </c>
@@ -17748,7 +17898,7 @@
       </c>
       <c r="E226" s="10">
         <f>E225+SUM(H226:BE226)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F226" s="13"/>
       <c r="G226" s="30" t="s">
@@ -17806,7 +17956,7 @@
       <c r="BE226" s="24"/>
     </row>
     <row r="227" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="35"/>
+      <c r="A227" s="40"/>
       <c r="B227" s="6" t="s">
         <v>72</v>
       </c>
@@ -17875,13 +18025,13 @@
       <c r="BE227" s="32"/>
     </row>
     <row r="228" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A228" s="33">
+      <c r="A228" s="38">
         <v>45</v>
       </c>
-      <c r="B228" s="36" t="s">
+      <c r="B228" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="37"/>
+      <c r="C228" s="34"/>
       <c r="D228" s="15" t="s">
         <v>3</v>
       </c>
@@ -17911,8 +18061,12 @@
       <c r="M228" s="21">
         <v>2</v>
       </c>
-      <c r="N228" s="21"/>
-      <c r="O228" s="21"/>
+      <c r="N228" s="21">
+        <v>2</v>
+      </c>
+      <c r="O228" s="21">
+        <v>2</v>
+      </c>
       <c r="P228" s="21"/>
       <c r="Q228" s="21"/>
       <c r="R228" s="21"/>
@@ -17957,7 +18111,7 @@
       <c r="BE228" s="21"/>
     </row>
     <row r="229" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A229" s="34"/>
+      <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>6</v>
       </c>
@@ -18034,20 +18188,20 @@
       <c r="BE229" s="22"/>
     </row>
     <row r="230" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A230" s="34"/>
+      <c r="A230" s="39"/>
       <c r="B230" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C230" s="5">
         <f>IF(E230&lt;10,1,IF(E230&lt;20,2,IF(E230&lt;30,3,IF(E230&lt;40,4,IF(E230&lt;50,5,IF(E230&lt;60,6,IF(E230&lt;70,7,IF(E230&lt;80,8,IF(E230&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E230" s="10">
         <f>SUM(H228:BE230)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F230" s="13"/>
       <c r="G230" s="29" t="s">
@@ -18056,7 +18210,9 @@
       <c r="H230" s="23">
         <v>1</v>
       </c>
-      <c r="I230" s="23"/>
+      <c r="I230" s="23">
+        <v>1</v>
+      </c>
       <c r="J230" s="23">
         <v>1</v>
       </c>
@@ -18109,7 +18265,7 @@
       <c r="BE230" s="23"/>
     </row>
     <row r="231" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A231" s="34"/>
+      <c r="A231" s="39"/>
       <c r="B231" s="19" t="s">
         <v>7</v>
       </c>
@@ -18122,7 +18278,7 @@
       </c>
       <c r="E231" s="10">
         <f>E230+SUM(H231:BE231)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F231" s="13"/>
       <c r="G231" s="30" t="s">
@@ -18180,7 +18336,7 @@
       <c r="BE231" s="24"/>
     </row>
     <row r="232" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="35"/>
+      <c r="A232" s="40"/>
       <c r="B232" s="6" t="s">
         <v>72</v>
       </c>
@@ -18251,13 +18407,13 @@
       <c r="BE232" s="32"/>
     </row>
     <row r="233" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A233" s="33">
+      <c r="A233" s="38">
         <v>46</v>
       </c>
-      <c r="B233" s="36" t="s">
+      <c r="B233" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C233" s="37"/>
+      <c r="C233" s="34"/>
       <c r="D233" s="15" t="s">
         <v>3</v>
       </c>
@@ -18275,9 +18431,13 @@
       <c r="I233" s="21">
         <v>2</v>
       </c>
-      <c r="J233" s="21"/>
+      <c r="J233" s="21">
+        <v>2</v>
+      </c>
       <c r="K233" s="21"/>
-      <c r="L233" s="21"/>
+      <c r="L233" s="21">
+        <v>2</v>
+      </c>
       <c r="M233" s="21"/>
       <c r="N233" s="21"/>
       <c r="O233" s="21"/>
@@ -18325,7 +18485,7 @@
       <c r="BE233" s="21"/>
     </row>
     <row r="234" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A234" s="34"/>
+      <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>6</v>
       </c>
@@ -18402,20 +18562,20 @@
       <c r="BE234" s="22"/>
     </row>
     <row r="235" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A235" s="34"/>
+      <c r="A235" s="39"/>
       <c r="B235" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C235" s="5">
         <f>IF(E235&lt;10,1,IF(E235&lt;20,2,IF(E235&lt;30,3,IF(E235&lt;40,4,IF(E235&lt;50,5,IF(E235&lt;60,6,IF(E235&lt;70,7,IF(E235&lt;80,8,IF(E235&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E235" s="10">
         <f>SUM(H233:BE235)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="29" t="s">
@@ -18473,7 +18633,7 @@
       <c r="BE235" s="23"/>
     </row>
     <row r="236" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A236" s="34"/>
+      <c r="A236" s="39"/>
       <c r="B236" s="19" t="s">
         <v>7</v>
       </c>
@@ -18486,7 +18646,7 @@
       </c>
       <c r="E236" s="10">
         <f>E235+SUM(H236:BE236)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="30" t="s">
@@ -18544,7 +18704,7 @@
       <c r="BE236" s="24"/>
     </row>
     <row r="237" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="35"/>
+      <c r="A237" s="40"/>
       <c r="B237" s="6" t="s">
         <v>72</v>
       </c>
@@ -18615,19 +18775,19 @@
       <c r="BE237" s="32"/>
     </row>
     <row r="238" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A238" s="33">
+      <c r="A238" s="38">
         <v>47</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="B238" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="37"/>
+      <c r="C238" s="34"/>
       <c r="D238" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E238" s="9">
         <f>C242+E242-COUNTIF(H238:BE238,1)-COUNTIF(H238:BE238,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F238" s="13"/>
       <c r="G238" s="27" t="s">
@@ -18639,7 +18799,9 @@
       <c r="I238" s="21">
         <v>2</v>
       </c>
-      <c r="J238" s="21"/>
+      <c r="J238" s="21">
+        <v>0</v>
+      </c>
       <c r="K238" s="21"/>
       <c r="L238" s="21"/>
       <c r="M238" s="21"/>
@@ -18689,7 +18851,7 @@
       <c r="BE238" s="21"/>
     </row>
     <row r="239" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A239" s="34"/>
+      <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>6</v>
       </c>
@@ -18766,7 +18928,7 @@
       <c r="BE239" s="22"/>
     </row>
     <row r="240" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A240" s="34"/>
+      <c r="A240" s="39"/>
       <c r="B240" s="18" t="s">
         <v>51</v>
       </c>
@@ -18837,7 +18999,7 @@
       <c r="BE240" s="23"/>
     </row>
     <row r="241" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A241" s="34"/>
+      <c r="A241" s="39"/>
       <c r="B241" s="19" t="s">
         <v>7</v>
       </c>
@@ -18908,7 +19070,7 @@
       <c r="BE241" s="24"/>
     </row>
     <row r="242" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="35"/>
+      <c r="A242" s="40"/>
       <c r="B242" s="6" t="s">
         <v>72</v>
       </c>
@@ -18977,13 +19139,13 @@
       <c r="BE242" s="32"/>
     </row>
     <row r="243" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A243" s="33">
+      <c r="A243" s="38">
         <v>48</v>
       </c>
-      <c r="B243" s="36" t="s">
+      <c r="B243" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="37"/>
+      <c r="C243" s="34"/>
       <c r="D243" s="15" t="s">
         <v>3</v>
       </c>
@@ -19007,8 +19169,12 @@
       <c r="K243" s="21">
         <v>2</v>
       </c>
-      <c r="L243" s="21"/>
-      <c r="M243" s="21"/>
+      <c r="L243" s="21">
+        <v>2</v>
+      </c>
+      <c r="M243" s="21">
+        <v>2</v>
+      </c>
       <c r="N243" s="21"/>
       <c r="O243" s="21"/>
       <c r="P243" s="21"/>
@@ -19055,7 +19221,7 @@
       <c r="BE243" s="21"/>
     </row>
     <row r="244" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A244" s="34"/>
+      <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>6</v>
       </c>
@@ -19132,7 +19298,7 @@
       <c r="BE244" s="22"/>
     </row>
     <row r="245" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A245" s="34"/>
+      <c r="A245" s="39"/>
       <c r="B245" s="18" t="s">
         <v>51</v>
       </c>
@@ -19145,13 +19311,15 @@
       </c>
       <c r="E245" s="10">
         <f>SUM(H243:BE245)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F245" s="13"/>
       <c r="G245" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H245" s="23"/>
+      <c r="H245" s="23">
+        <v>1</v>
+      </c>
       <c r="I245" s="23"/>
       <c r="J245" s="23"/>
       <c r="K245" s="23"/>
@@ -19203,7 +19371,7 @@
       <c r="BE245" s="23"/>
     </row>
     <row r="246" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A246" s="34"/>
+      <c r="A246" s="39"/>
       <c r="B246" s="19" t="s">
         <v>7</v>
       </c>
@@ -19216,7 +19384,7 @@
       </c>
       <c r="E246" s="10">
         <f>E245+SUM(H246:BE246)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F246" s="13"/>
       <c r="G246" s="30" t="s">
@@ -19274,7 +19442,7 @@
       <c r="BE246" s="24"/>
     </row>
     <row r="247" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="35"/>
+      <c r="A247" s="40"/>
       <c r="B247" s="6" t="s">
         <v>72</v>
       </c>
@@ -19345,19 +19513,19 @@
       <c r="BE247" s="32"/>
     </row>
     <row r="248" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A248" s="33">
+      <c r="A248" s="38">
         <v>49</v>
       </c>
-      <c r="B248" s="36" t="s">
+      <c r="B248" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C248" s="37"/>
+      <c r="C248" s="34"/>
       <c r="D248" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="9">
         <f>C252+E252-COUNTIF(H248:BE248,1)-COUNTIF(H248:BE248,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="27" t="s">
@@ -19369,7 +19537,9 @@
       <c r="I248" s="21">
         <v>0</v>
       </c>
-      <c r="J248" s="21"/>
+      <c r="J248" s="21">
+        <v>0</v>
+      </c>
       <c r="K248" s="21"/>
       <c r="L248" s="21"/>
       <c r="M248" s="21"/>
@@ -19419,7 +19589,7 @@
       <c r="BE248" s="21"/>
     </row>
     <row r="249" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A249" s="34"/>
+      <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>6</v>
       </c>
@@ -19432,7 +19602,7 @@
       </c>
       <c r="E249" s="10">
         <f>51-H252</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="28" t="s">
@@ -19494,7 +19664,7 @@
       <c r="BE249" s="22"/>
     </row>
     <row r="250" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A250" s="34"/>
+      <c r="A250" s="39"/>
       <c r="B250" s="18" t="s">
         <v>51</v>
       </c>
@@ -19565,7 +19735,7 @@
       <c r="BE250" s="23"/>
     </row>
     <row r="251" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A251" s="34"/>
+      <c r="A251" s="39"/>
       <c r="B251" s="19" t="s">
         <v>7</v>
       </c>
@@ -19636,7 +19806,7 @@
       <c r="BE251" s="24"/>
     </row>
     <row r="252" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="35"/>
+      <c r="A252" s="40"/>
       <c r="B252" s="6" t="s">
         <v>72</v>
       </c>
@@ -19654,7 +19824,7 @@
         <v>58</v>
       </c>
       <c r="H252" s="26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I252" s="32"/>
       <c r="J252" s="32"/>
@@ -19707,19 +19877,19 @@
       <c r="BE252" s="32"/>
     </row>
     <row r="253" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A253" s="33">
+      <c r="A253" s="38">
         <v>50</v>
       </c>
-      <c r="B253" s="36" t="s">
+      <c r="B253" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="37"/>
+      <c r="C253" s="34"/>
       <c r="D253" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="9">
         <f>C257+E257-COUNTIF(H253:BE253,1)-COUNTIF(H253:BE253,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="27" t="s">
@@ -19731,7 +19901,9 @@
       <c r="I253" s="21">
         <v>0</v>
       </c>
-      <c r="J253" s="21"/>
+      <c r="J253" s="21">
+        <v>0</v>
+      </c>
       <c r="K253" s="21"/>
       <c r="L253" s="21"/>
       <c r="M253" s="21"/>
@@ -19781,7 +19953,7 @@
       <c r="BE253" s="21"/>
     </row>
     <row r="254" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A254" s="34"/>
+      <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>6</v>
       </c>
@@ -19794,7 +19966,7 @@
       </c>
       <c r="E254" s="10">
         <f>51-H257</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F254" s="13"/>
       <c r="G254" s="28" t="s">
@@ -19858,7 +20030,7 @@
       <c r="BE254" s="22"/>
     </row>
     <row r="255" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A255" s="34"/>
+      <c r="A255" s="39"/>
       <c r="B255" s="18" t="s">
         <v>51</v>
       </c>
@@ -19929,7 +20101,7 @@
       <c r="BE255" s="23"/>
     </row>
     <row r="256" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A256" s="34"/>
+      <c r="A256" s="39"/>
       <c r="B256" s="19" t="s">
         <v>7</v>
       </c>
@@ -20000,7 +20172,7 @@
       <c r="BE256" s="24"/>
     </row>
     <row r="257" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="35"/>
+      <c r="A257" s="40"/>
       <c r="B257" s="6" t="s">
         <v>72</v>
       </c>
@@ -20018,7 +20190,7 @@
         <v>58</v>
       </c>
       <c r="H257" s="26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I257" s="32"/>
       <c r="J257" s="32"/>
@@ -20071,13 +20243,13 @@
       <c r="BE257" s="32"/>
     </row>
     <row r="258" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A258" s="33">
+      <c r="A258" s="38">
         <v>51</v>
       </c>
-      <c r="B258" s="36" t="s">
+      <c r="B258" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="37"/>
+      <c r="C258" s="34"/>
       <c r="D258" s="15" t="s">
         <v>3</v>
       </c>
@@ -20098,7 +20270,9 @@
       <c r="J258" s="21">
         <v>2</v>
       </c>
-      <c r="K258" s="21"/>
+      <c r="K258" s="21">
+        <v>2</v>
+      </c>
       <c r="L258" s="21"/>
       <c r="M258" s="21"/>
       <c r="N258" s="21"/>
@@ -20147,7 +20321,7 @@
       <c r="BE258" s="21"/>
     </row>
     <row r="259" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A259" s="34"/>
+      <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>6</v>
       </c>
@@ -20224,20 +20398,20 @@
       <c r="BE259" s="22"/>
     </row>
     <row r="260" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A260" s="34"/>
+      <c r="A260" s="39"/>
       <c r="B260" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C260" s="5">
         <f>IF(E260&lt;10,1,IF(E260&lt;20,2,IF(E260&lt;30,3,IF(E260&lt;40,4,IF(E260&lt;50,5,IF(E260&lt;60,6,IF(E260&lt;70,7,IF(E260&lt;80,8,IF(E260&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E260" s="10">
         <f>SUM(H258:BE260)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F260" s="13"/>
       <c r="G260" s="29" t="s">
@@ -20295,7 +20469,7 @@
       <c r="BE260" s="23"/>
     </row>
     <row r="261" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A261" s="34"/>
+      <c r="A261" s="39"/>
       <c r="B261" s="19" t="s">
         <v>7</v>
       </c>
@@ -20308,7 +20482,7 @@
       </c>
       <c r="E261" s="10">
         <f>E260+SUM(H261:BE261)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F261" s="13"/>
       <c r="G261" s="30" t="s">
@@ -20366,7 +20540,7 @@
       <c r="BE261" s="24"/>
     </row>
     <row r="262" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="35"/>
+      <c r="A262" s="40"/>
       <c r="B262" s="6" t="s">
         <v>72</v>
       </c>
@@ -20435,13 +20609,13 @@
       <c r="BE262" s="32"/>
     </row>
     <row r="263" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A263" s="33">
+      <c r="A263" s="38">
         <v>52</v>
       </c>
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C263" s="37"/>
+      <c r="C263" s="34"/>
       <c r="D263" s="15" t="s">
         <v>3</v>
       </c>
@@ -20459,10 +20633,18 @@
       <c r="I263" s="21">
         <v>2</v>
       </c>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
+      <c r="J263" s="21">
+        <v>2</v>
+      </c>
+      <c r="K263" s="21">
+        <v>2</v>
+      </c>
+      <c r="L263" s="21">
+        <v>2</v>
+      </c>
+      <c r="M263" s="21">
+        <v>2</v>
+      </c>
       <c r="N263" s="21"/>
       <c r="O263" s="21"/>
       <c r="P263" s="21"/>
@@ -20509,7 +20691,7 @@
       <c r="BE263" s="21"/>
     </row>
     <row r="264" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A264" s="34"/>
+      <c r="A264" s="39"/>
       <c r="B264" s="20" t="s">
         <v>6</v>
       </c>
@@ -20586,20 +20768,20 @@
       <c r="BE264" s="22"/>
     </row>
     <row r="265" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A265" s="34"/>
+      <c r="A265" s="39"/>
       <c r="B265" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C265" s="5">
         <f>IF(E265&lt;10,1,IF(E265&lt;20,2,IF(E265&lt;30,3,IF(E265&lt;40,4,IF(E265&lt;50,5,IF(E265&lt;60,6,IF(E265&lt;70,7,IF(E265&lt;80,8,IF(E265&lt;90,9,10)))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E265" s="10">
         <f>SUM(H263:BE265)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F265" s="13"/>
       <c r="G265" s="29" t="s">
@@ -20657,7 +20839,7 @@
       <c r="BE265" s="23"/>
     </row>
     <row r="266" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A266" s="34"/>
+      <c r="A266" s="39"/>
       <c r="B266" s="19" t="s">
         <v>7</v>
       </c>
@@ -20670,7 +20852,7 @@
       </c>
       <c r="E266" s="10">
         <f>E265+SUM(H266:BE266)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F266" s="13"/>
       <c r="G266" s="30" t="s">
@@ -20728,7 +20910,7 @@
       <c r="BE266" s="24"/>
     </row>
     <row r="267" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="35"/>
+      <c r="A267" s="40"/>
       <c r="B267" s="6" t="s">
         <v>72</v>
       </c>
@@ -20797,19 +20979,19 @@
       <c r="BE267" s="32"/>
     </row>
     <row r="268" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A268" s="33">
+      <c r="A268" s="38">
         <v>53</v>
       </c>
-      <c r="B268" s="36" t="s">
+      <c r="B268" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C268" s="37"/>
+      <c r="C268" s="34"/>
       <c r="D268" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="9">
         <f>C272+E272-COUNTIF(H268:BE268,1)-COUNTIF(H268:BE268,0)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F268" s="13"/>
       <c r="G268" s="27" t="s">
@@ -20821,7 +21003,9 @@
       <c r="I268" s="21">
         <v>0</v>
       </c>
-      <c r="J268" s="21"/>
+      <c r="J268" s="21">
+        <v>0</v>
+      </c>
       <c r="K268" s="21"/>
       <c r="L268" s="21"/>
       <c r="M268" s="21"/>
@@ -20871,7 +21055,7 @@
       <c r="BE268" s="21"/>
     </row>
     <row r="269" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A269" s="34"/>
+      <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>6</v>
       </c>
@@ -20884,7 +21068,7 @@
       </c>
       <c r="E269" s="10">
         <f>51-H272</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F269" s="13"/>
       <c r="G269" s="28" t="s">
@@ -20946,7 +21130,7 @@
       <c r="BE269" s="22"/>
     </row>
     <row r="270" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A270" s="34"/>
+      <c r="A270" s="39"/>
       <c r="B270" s="18" t="s">
         <v>51</v>
       </c>
@@ -21017,13 +21201,13 @@
       <c r="BE270" s="23"/>
     </row>
     <row r="271" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A271" s="34"/>
+      <c r="A271" s="39"/>
       <c r="B271" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C271" s="5" t="str">
         <f>IF(OR(E268=0,E269=0),"Morto",CONCATENATE(IF(E268&gt;=20,"Saudável",IF(E268&gt;=10,"Ferido","Morrendo"))," - ",IF(E269&gt;=25,"Forte",IF(E269&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D271" s="17" t="s">
         <v>5</v>
@@ -21088,7 +21272,7 @@
       <c r="BE271" s="24"/>
     </row>
     <row r="272" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="35"/>
+      <c r="A272" s="40"/>
       <c r="B272" s="6" t="s">
         <v>72</v>
       </c>
@@ -21106,7 +21290,7 @@
         <v>58</v>
       </c>
       <c r="H272" s="26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I272" s="32"/>
       <c r="J272" s="32"/>
@@ -21159,13 +21343,13 @@
       <c r="BE272" s="32"/>
     </row>
     <row r="273" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A273" s="33">
+      <c r="A273" s="38">
         <v>54</v>
       </c>
-      <c r="B273" s="36" t="s">
+      <c r="B273" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C273" s="37"/>
+      <c r="C273" s="34"/>
       <c r="D273" s="15" t="s">
         <v>3</v>
       </c>
@@ -21201,7 +21385,9 @@
       <c r="O273" s="21">
         <v>2</v>
       </c>
-      <c r="P273" s="21"/>
+      <c r="P273" s="21">
+        <v>2</v>
+      </c>
       <c r="Q273" s="21"/>
       <c r="R273" s="21"/>
       <c r="S273" s="21"/>
@@ -21245,7 +21431,7 @@
       <c r="BE273" s="21"/>
     </row>
     <row r="274" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A274" s="34"/>
+      <c r="A274" s="39"/>
       <c r="B274" s="20" t="s">
         <v>6</v>
       </c>
@@ -21322,7 +21508,7 @@
       <c r="BE274" s="22"/>
     </row>
     <row r="275" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A275" s="34"/>
+      <c r="A275" s="39"/>
       <c r="B275" s="18" t="s">
         <v>51</v>
       </c>
@@ -21335,7 +21521,7 @@
       </c>
       <c r="E275" s="10">
         <f>SUM(H273:BE275)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="29" t="s">
@@ -21399,7 +21585,7 @@
       <c r="BE275" s="23"/>
     </row>
     <row r="276" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A276" s="34"/>
+      <c r="A276" s="39"/>
       <c r="B276" s="19" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21598,7 @@
       </c>
       <c r="E276" s="10">
         <f>E275+SUM(H276:BE276)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F276" s="13"/>
       <c r="G276" s="30" t="s">
@@ -21470,7 +21656,7 @@
       <c r="BE276" s="24"/>
     </row>
     <row r="277" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="35"/>
+      <c r="A277" s="40"/>
       <c r="B277" s="6" t="s">
         <v>72</v>
       </c>
@@ -21541,19 +21727,83 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="114">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A213:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B183:C183"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A83:A87"/>
@@ -21578,83 +21828,19 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:C103"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3:F3">

--- a/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
+++ b/RPG-QUA.207.037-Desenvolvedor Front-End.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Dropbox\My PC (LAPTOP-70B4MA1V)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61358976-2401-4F04-99E3-D8C75DD8CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F95CE7-CE4F-4C31-9191-D3118C271D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -745,6 +745,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -752,6 +761,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -762,18 +774,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1093,10 @@
   <dimension ref="A1:BE277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N263" sqref="N263"/>
+      <selection pane="bottomRight" activeCell="N209" sqref="N209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,31 +1112,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="25">
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1327,8 +1327,12 @@
       <c r="M3" s="21">
         <v>2</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="21">
+        <v>2</v>
+      </c>
+      <c r="O3" s="21">
+        <v>2</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1373,7 +1377,7 @@
       <c r="BE3" s="21"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
@@ -1450,20 +1454,20 @@
       <c r="BE4" s="22"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="5">
         <f>IF(E5&lt;10,1,IF(E5&lt;20,2,IF(E5&lt;30,3,IF(E5&lt;40,4,IF(E5&lt;50,5,IF(E5&lt;60,6,IF(E5&lt;70,7,IF(E5&lt;80,8,IF(E5&lt;90,9,10)))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="10">
         <f>SUM(H3:BE5)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="29" t="s">
@@ -1527,7 +1531,7 @@
       <c r="BE5" s="23"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1544,7 @@
       </c>
       <c r="E6" s="10">
         <f>E5+SUM(H6:BE6)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="30" t="s">
@@ -1598,7 +1602,7 @@
       <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1667,13 +1671,13 @@
       <c r="BE7" s="32"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1753,7 @@
       <c r="BE8" s="21"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1830,7 @@
       <c r="BE9" s="22"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
@@ -1899,7 +1903,7 @@
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1974,7 @@
       <c r="BE11" s="24"/>
     </row>
     <row r="12" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
@@ -2039,13 +2043,13 @@
       <c r="BE12" s="32"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2125,7 @@
       <c r="BE13" s="21"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2202,7 @@
       <c r="BE14" s="22"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
@@ -2269,7 +2273,7 @@
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2344,7 @@
       <c r="BE16" s="24"/>
     </row>
     <row r="17" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2409,19 +2413,19 @@
       <c r="BE17" s="32"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="9">
         <f>C22+E22-COUNTIF(H18:BE18,1)-COUNTIF(H18:BE18,0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="27" t="s">
@@ -2436,9 +2440,15 @@
       <c r="J18" s="21">
         <v>0</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>2</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
       <c r="N18" s="21">
         <v>2</v>
       </c>
@@ -2491,7 +2501,7 @@
       <c r="BE18" s="21"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
@@ -2568,7 +2578,7 @@
       <c r="BE19" s="22"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
@@ -2581,7 +2591,7 @@
       </c>
       <c r="E20" s="10">
         <f>SUM(H18:BE20)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="29" t="s">
@@ -2639,7 +2649,7 @@
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2662,7 @@
       </c>
       <c r="E21" s="10">
         <f>E20+SUM(H21:BE21)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="30" t="s">
@@ -2710,7 +2720,7 @@
       <c r="BE21" s="24"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2781,13 +2791,13 @@
       <c r="BE22" s="32"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="33">
         <v>5</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
@@ -2867,7 +2877,7 @@
       <c r="BE23" s="21"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2954,7 @@
       <c r="BE24" s="22"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
@@ -3021,7 +3031,7 @@
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3102,7 @@
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
@@ -3161,13 +3171,13 @@
       <c r="BE27" s="32"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="33">
         <v>6</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="15" t="s">
         <v>3</v>
       </c>
@@ -3247,7 +3257,7 @@
       <c r="BE28" s="21"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
@@ -3324,7 +3334,7 @@
       <c r="BE29" s="22"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
@@ -3399,7 +3409,7 @@
       <c r="BE30" s="23"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3480,7 @@
       <c r="BE31" s="24"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3541,19 +3551,19 @@
       <c r="BE32" s="32"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="33">
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="9">
         <f>C37+E37-COUNTIF(H33:BE33,1)-COUNTIF(H33:BE33,0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="27" t="s">
@@ -3568,9 +3578,15 @@
       <c r="J33" s="21">
         <v>2</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="K33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>0</v>
+      </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
@@ -3617,7 +3633,7 @@
       <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="20" t="s">
         <v>6</v>
       </c>
@@ -3630,7 +3646,7 @@
       </c>
       <c r="E34" s="10">
         <f>51-H37</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="28" t="s">
@@ -3694,7 +3710,7 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
@@ -3765,7 +3781,7 @@
       <c r="BE35" s="23"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="19" t="s">
         <v>7</v>
       </c>
@@ -3836,7 +3852,7 @@
       <c r="BE36" s="24"/>
     </row>
     <row r="37" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3854,7 +3870,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -3907,13 +3923,13 @@
       <c r="BE37" s="32"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="33">
         <v>8</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="15" t="s">
         <v>3</v>
       </c>
@@ -3934,11 +3950,15 @@
       <c r="J38" s="21">
         <v>2</v>
       </c>
-      <c r="K38" s="21"/>
+      <c r="K38" s="21">
+        <v>2</v>
+      </c>
       <c r="L38" s="21">
         <v>2</v>
       </c>
-      <c r="M38" s="21"/>
+      <c r="M38" s="21">
+        <v>2</v>
+      </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
@@ -3985,7 +4005,7 @@
       <c r="BE38" s="21"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4082,7 @@
       <c r="BE39" s="22"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="18" t="s">
         <v>51</v>
       </c>
@@ -4075,7 +4095,7 @@
       </c>
       <c r="E40" s="10">
         <f>SUM(H38:BE40)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="29" t="s">
@@ -4133,7 +4153,7 @@
       <c r="BE40" s="23"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4166,7 @@
       </c>
       <c r="E41" s="10">
         <f>E40+SUM(H41:BE41)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="30" t="s">
@@ -4204,7 +4224,7 @@
       <c r="BE41" s="24"/>
     </row>
     <row r="42" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="6" t="s">
         <v>72</v>
       </c>
@@ -4275,13 +4295,13 @@
       <c r="BE42" s="32"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="33">
         <v>9</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="34"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4328,9 @@
       <c r="L43" s="21">
         <v>2</v>
       </c>
-      <c r="M43" s="21"/>
+      <c r="M43" s="21">
+        <v>2</v>
+      </c>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -4355,7 +4377,7 @@
       <c r="BE43" s="21"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>6</v>
       </c>
@@ -4432,7 +4454,7 @@
       <c r="BE44" s="22"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
@@ -4445,7 +4467,7 @@
       </c>
       <c r="E45" s="10">
         <f>SUM(H43:BE45)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="29" t="s">
@@ -4505,7 +4527,7 @@
       <c r="BE45" s="23"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="19" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4540,7 @@
       </c>
       <c r="E46" s="10">
         <f>E45+SUM(H46:BE46)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="30" t="s">
@@ -4576,7 +4598,7 @@
       <c r="BE46" s="24"/>
     </row>
     <row r="47" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
@@ -4645,13 +4667,13 @@
       <c r="BE47" s="32"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4727,7 +4749,7 @@
       <c r="BE48" s="21"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20" t="s">
         <v>6</v>
       </c>
@@ -4740,7 +4762,7 @@
       </c>
       <c r="E49" s="10">
         <f>51-H52</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="28" t="s">
@@ -4804,7 +4826,7 @@
       <c r="BE49" s="22"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="18" t="s">
         <v>51</v>
       </c>
@@ -4875,7 +4897,7 @@
       <c r="BE50" s="23"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="19" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +4968,7 @@
       <c r="BE51" s="24"/>
     </row>
     <row r="52" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="6" t="s">
         <v>72</v>
       </c>
@@ -4963,7 +4985,9 @@
       <c r="G52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="26">
+        <v>3</v>
+      </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
@@ -5015,13 +5039,13 @@
       <c r="BE52" s="32"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="33">
         <v>11</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5101,7 +5125,7 @@
       <c r="BE53" s="21"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20" t="s">
         <v>6</v>
       </c>
@@ -5178,7 +5202,7 @@
       <c r="BE54" s="22"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
@@ -5255,7 +5279,7 @@
       <c r="BE55" s="23"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="19" t="s">
         <v>7</v>
       </c>
@@ -5326,7 +5350,7 @@
       <c r="BE56" s="24"/>
     </row>
     <row r="57" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5395,19 +5419,19 @@
       <c r="BE57" s="32"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
+      <c r="A58" s="33">
         <v>12</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="9">
         <f>C62+E62-COUNTIF(H58:BE58,1)-COUNTIF(H58:BE58,0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="27" t="s">
@@ -5422,9 +5446,15 @@
       <c r="J58" s="21">
         <v>0</v>
       </c>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
+      <c r="K58" s="21">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21">
+        <v>0</v>
+      </c>
+      <c r="M58" s="21">
+        <v>0</v>
+      </c>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
@@ -5471,7 +5501,7 @@
       <c r="BE58" s="21"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
@@ -5484,7 +5514,7 @@
       </c>
       <c r="E59" s="10">
         <f>51-H62</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="28" t="s">
@@ -5546,7 +5576,7 @@
       <c r="BE59" s="22"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="18" t="s">
         <v>51</v>
       </c>
@@ -5617,7 +5647,7 @@
       <c r="BE60" s="23"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5688,7 +5718,7 @@
       <c r="BE61" s="24"/>
     </row>
     <row r="62" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
@@ -5706,7 +5736,7 @@
         <v>58</v>
       </c>
       <c r="H62" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
@@ -5759,13 +5789,13 @@
       <c r="BE62" s="32"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
+      <c r="A63" s="33">
         <v>13</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="34"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -5841,7 +5871,7 @@
       <c r="BE63" s="21"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
@@ -5918,7 +5948,7 @@
       <c r="BE64" s="22"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="18" t="s">
         <v>51</v>
       </c>
@@ -5989,7 +6019,7 @@
       <c r="BE65" s="23"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="19" t="s">
         <v>7</v>
       </c>
@@ -6060,7 +6090,7 @@
       <c r="BE66" s="24"/>
     </row>
     <row r="67" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
@@ -6129,13 +6159,13 @@
       <c r="BE67" s="32"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
+      <c r="A68" s="33">
         <v>13</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="15" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6241,7 @@
       <c r="BE68" s="21"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20" t="s">
         <v>6</v>
       </c>
@@ -6288,7 +6318,7 @@
       <c r="BE69" s="22"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="18" t="s">
         <v>51</v>
       </c>
@@ -6359,7 +6389,7 @@
       <c r="BE70" s="23"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="19" t="s">
         <v>7</v>
       </c>
@@ -6430,7 +6460,7 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
@@ -6499,13 +6529,13 @@
       <c r="BE72" s="32"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A73" s="38">
+      <c r="A73" s="33">
         <v>14</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="34"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -6585,7 +6615,7 @@
       <c r="BE73" s="21"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="20" t="s">
         <v>6</v>
       </c>
@@ -6662,7 +6692,7 @@
       <c r="BE74" s="22"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="18" t="s">
         <v>51</v>
       </c>
@@ -6737,7 +6767,7 @@
       <c r="BE75" s="23"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
       </c>
@@ -6808,7 +6838,7 @@
       <c r="BE76" s="24"/>
     </row>
     <row r="77" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="6" t="s">
         <v>72</v>
       </c>
@@ -6879,13 +6909,13 @@
       <c r="BE77" s="32"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A78" s="38">
+      <c r="A78" s="33">
         <v>15</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -6965,7 +6995,7 @@
       <c r="BE78" s="21"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20" t="s">
         <v>6</v>
       </c>
@@ -7042,7 +7072,7 @@
       <c r="BE79" s="22"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="18" t="s">
         <v>51</v>
       </c>
@@ -7119,7 +7149,7 @@
       <c r="BE80" s="23"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="19" t="s">
         <v>7</v>
       </c>
@@ -7190,7 +7220,7 @@
       <c r="BE81" s="24"/>
     </row>
     <row r="82" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="6" t="s">
         <v>72</v>
       </c>
@@ -7261,13 +7291,13 @@
       <c r="BE82" s="32"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="33">
         <v>16</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="34"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="15" t="s">
         <v>3</v>
       </c>
@@ -7345,7 +7375,7 @@
       <c r="BE83" s="21"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
@@ -7422,7 +7452,7 @@
       <c r="BE84" s="22"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="18" t="s">
         <v>51</v>
       </c>
@@ -7493,7 +7523,7 @@
       <c r="BE85" s="23"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="19" t="s">
         <v>7</v>
       </c>
@@ -7564,7 +7594,7 @@
       <c r="BE86" s="24"/>
     </row>
     <row r="87" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
@@ -7633,19 +7663,19 @@
       <c r="BE87" s="32"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A88" s="38">
+      <c r="A88" s="33">
         <v>17</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="9">
         <f>C92+E92-COUNTIF(H88:BE88,1)-COUNTIF(H88:BE88,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="27" t="s">
@@ -7666,7 +7696,9 @@
       <c r="L88" s="21">
         <v>2</v>
       </c>
-      <c r="M88" s="21"/>
+      <c r="M88" s="21">
+        <v>0</v>
+      </c>
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
@@ -7713,7 +7745,7 @@
       <c r="BE88" s="21"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7758,7 @@
       </c>
       <c r="E89" s="10">
         <f>51-H92</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="28" t="s">
@@ -7790,7 +7822,7 @@
       <c r="BE89" s="22"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="18" t="s">
         <v>51</v>
       </c>
@@ -7861,7 +7893,7 @@
       <c r="BE90" s="23"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="19" t="s">
         <v>7</v>
       </c>
@@ -7932,7 +7964,7 @@
       <c r="BE91" s="24"/>
     </row>
     <row r="92" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="6" t="s">
         <v>72</v>
       </c>
@@ -7950,7 +7982,7 @@
         <v>58</v>
       </c>
       <c r="H92" s="26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -8003,13 +8035,13 @@
       <c r="BE92" s="32"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A93" s="38">
+      <c r="A93" s="33">
         <v>18</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="15" t="s">
         <v>3</v>
       </c>
@@ -8089,7 +8121,7 @@
       <c r="BE93" s="21"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20" t="s">
         <v>6</v>
       </c>
@@ -8102,7 +8134,7 @@
       </c>
       <c r="E94" s="10">
         <f>51-H97</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="28" t="s">
@@ -8166,7 +8198,7 @@
       <c r="BE94" s="22"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="18" t="s">
         <v>51</v>
       </c>
@@ -8237,7 +8269,7 @@
       <c r="BE95" s="23"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="19" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8340,7 @@
       <c r="BE96" s="24"/>
     </row>
     <row r="97" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="6" t="s">
         <v>72</v>
       </c>
@@ -8326,7 +8358,7 @@
         <v>58</v>
       </c>
       <c r="H97" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
@@ -8379,13 +8411,13 @@
       <c r="BE97" s="32"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A98" s="38">
+      <c r="A98" s="33">
         <v>19</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="34"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -8463,7 +8495,7 @@
       <c r="BE98" s="21"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
@@ -8540,7 +8572,7 @@
       <c r="BE99" s="22"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="18" t="s">
         <v>51</v>
       </c>
@@ -8613,7 +8645,7 @@
       <c r="BE100" s="23"/>
     </row>
     <row r="101" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
@@ -8684,7 +8716,7 @@
       <c r="BE101" s="24"/>
     </row>
     <row r="102" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="6" t="s">
         <v>72</v>
       </c>
@@ -8753,13 +8785,13 @@
       <c r="BE102" s="32"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A103" s="38">
+      <c r="A103" s="33">
         <v>20</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="34"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -8839,7 +8871,7 @@
       <c r="BE103" s="21"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="20" t="s">
         <v>6</v>
       </c>
@@ -8916,7 +8948,7 @@
       <c r="BE104" s="22"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="18" t="s">
         <v>51</v>
       </c>
@@ -8993,7 +9025,7 @@
       <c r="BE105" s="23"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="19" t="s">
         <v>7</v>
       </c>
@@ -9064,7 +9096,7 @@
       <c r="BE106" s="24"/>
     </row>
     <row r="107" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="6" t="s">
         <v>72</v>
       </c>
@@ -9133,13 +9165,13 @@
       <c r="BE107" s="32"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A108" s="38">
+      <c r="A108" s="33">
         <v>21</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="34"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -9219,7 +9251,7 @@
       <c r="BE108" s="21"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20" t="s">
         <v>6</v>
       </c>
@@ -9296,7 +9328,7 @@
       <c r="BE109" s="22"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="18" t="s">
         <v>51</v>
       </c>
@@ -9373,7 +9405,7 @@
       <c r="BE110" s="23"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="19" t="s">
         <v>7</v>
       </c>
@@ -9444,7 +9476,7 @@
       <c r="BE111" s="24"/>
     </row>
     <row r="112" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="6" t="s">
         <v>72</v>
       </c>
@@ -9513,19 +9545,19 @@
       <c r="BE112" s="32"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A113" s="38">
+      <c r="A113" s="33">
         <v>22</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="34"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="9">
         <f>C117+E117-COUNTIF(H113:BE113,1)-COUNTIF(H113:BE113,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="27" t="s">
@@ -9540,9 +9572,15 @@
       <c r="J113" s="21">
         <v>0</v>
       </c>
-      <c r="K113" s="21"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
+      <c r="K113" s="21">
+        <v>0</v>
+      </c>
+      <c r="L113" s="21">
+        <v>0</v>
+      </c>
+      <c r="M113" s="21">
+        <v>0</v>
+      </c>
       <c r="N113" s="21"/>
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
@@ -9589,7 +9627,7 @@
       <c r="BE113" s="21"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20" t="s">
         <v>6</v>
       </c>
@@ -9602,7 +9640,7 @@
       </c>
       <c r="E114" s="10">
         <f>51-H117</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="28" t="s">
@@ -9664,7 +9702,7 @@
       <c r="BE114" s="22"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="18" t="s">
         <v>51</v>
       </c>
@@ -9735,7 +9773,7 @@
       <c r="BE115" s="23"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="19" t="s">
         <v>7</v>
       </c>
@@ -9806,7 +9844,7 @@
       <c r="BE116" s="24"/>
     </row>
     <row r="117" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="6" t="s">
         <v>72</v>
       </c>
@@ -9824,7 +9862,7 @@
         <v>58</v>
       </c>
       <c r="H117" s="26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
@@ -9877,19 +9915,19 @@
       <c r="BE117" s="32"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A118" s="38">
+      <c r="A118" s="33">
         <v>23</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="34"/>
+      <c r="C118" s="37"/>
       <c r="D118" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="9">
         <f>C122+E122-COUNTIF(H118:BE118,1)-COUNTIF(H118:BE118,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="27" t="s">
@@ -9904,9 +9942,15 @@
       <c r="J118" s="21">
         <v>0</v>
       </c>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
+      <c r="K118" s="21">
+        <v>0</v>
+      </c>
+      <c r="L118" s="21">
+        <v>0</v>
+      </c>
+      <c r="M118" s="21">
+        <v>0</v>
+      </c>
       <c r="N118" s="21"/>
       <c r="O118" s="21"/>
       <c r="P118" s="21"/>
@@ -9953,7 +9997,7 @@
       <c r="BE118" s="21"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="20" t="s">
         <v>6</v>
       </c>
@@ -9966,7 +10010,7 @@
       </c>
       <c r="E119" s="10">
         <f>51-H122</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="28" t="s">
@@ -10028,7 +10072,7 @@
       <c r="BE119" s="22"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="18" t="s">
         <v>51</v>
       </c>
@@ -10099,7 +10143,7 @@
       <c r="BE120" s="23"/>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="19" t="s">
         <v>7</v>
       </c>
@@ -10170,7 +10214,7 @@
       <c r="BE121" s="24"/>
     </row>
     <row r="122" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="6" t="s">
         <v>72</v>
       </c>
@@ -10188,7 +10232,7 @@
         <v>58</v>
       </c>
       <c r="H122" s="26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
@@ -10241,13 +10285,13 @@
       <c r="BE122" s="32"/>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A123" s="38">
+      <c r="A123" s="33">
         <v>24</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -10271,7 +10315,9 @@
       <c r="K123" s="21">
         <v>2</v>
       </c>
-      <c r="L123" s="21"/>
+      <c r="L123" s="21">
+        <v>2</v>
+      </c>
       <c r="M123" s="21">
         <v>2</v>
       </c>
@@ -10323,7 +10369,7 @@
       <c r="BE123" s="21"/>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
@@ -10400,7 +10446,7 @@
       <c r="BE124" s="22"/>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="18" t="s">
         <v>51</v>
       </c>
@@ -10413,7 +10459,7 @@
       </c>
       <c r="E125" s="10">
         <f>SUM(H123:BE125)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="29" t="s">
@@ -10471,7 +10517,7 @@
       <c r="BE125" s="23"/>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="19" t="s">
         <v>7</v>
       </c>
@@ -10484,7 +10530,7 @@
       </c>
       <c r="E126" s="10">
         <f>E125+SUM(H126:BE126)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="30" t="s">
@@ -10542,7 +10588,7 @@
       <c r="BE126" s="24"/>
     </row>
     <row r="127" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="6" t="s">
         <v>72</v>
       </c>
@@ -10611,19 +10657,19 @@
       <c r="BE127" s="32"/>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A128" s="38">
+      <c r="A128" s="33">
         <v>25</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="34"/>
+      <c r="C128" s="37"/>
       <c r="D128" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E128" s="9">
         <f>C132+E132-COUNTIF(H128:BE128,1)-COUNTIF(H128:BE128,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="27" t="s">
@@ -10648,7 +10694,7 @@
         <v>2</v>
       </c>
       <c r="N128" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" s="21">
         <v>2</v>
@@ -10697,7 +10743,7 @@
       <c r="BE128" s="21"/>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20" t="s">
         <v>6</v>
       </c>
@@ -10774,7 +10820,7 @@
       <c r="BE129" s="22"/>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="18" t="s">
         <v>51</v>
       </c>
@@ -10787,7 +10833,7 @@
       </c>
       <c r="E130" s="10">
         <f>SUM(H128:BE130)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="29" t="s">
@@ -10851,7 +10897,7 @@
       <c r="BE130" s="23"/>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="19" t="s">
         <v>7</v>
       </c>
@@ -10864,7 +10910,7 @@
       </c>
       <c r="E131" s="10">
         <f>E130+SUM(H131:BE131)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F131" s="13"/>
       <c r="G131" s="30" t="s">
@@ -10922,7 +10968,7 @@
       <c r="BE131" s="24"/>
     </row>
     <row r="132" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="6" t="s">
         <v>72</v>
       </c>
@@ -10991,19 +11037,19 @@
       <c r="BE132" s="32"/>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A133" s="38">
+      <c r="A133" s="33">
         <v>26</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="34"/>
+      <c r="C133" s="37"/>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="9">
         <f>C137+E137-COUNTIF(H133:BE133,1)-COUNTIF(H133:BE133,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="27" t="s">
@@ -11018,9 +11064,15 @@
       <c r="J133" s="21">
         <v>0</v>
       </c>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
+      <c r="K133" s="21">
+        <v>0</v>
+      </c>
+      <c r="L133" s="21">
+        <v>0</v>
+      </c>
+      <c r="M133" s="21">
+        <v>0</v>
+      </c>
       <c r="N133" s="21"/>
       <c r="O133" s="21"/>
       <c r="P133" s="21"/>
@@ -11067,7 +11119,7 @@
       <c r="BE133" s="21"/>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20" t="s">
         <v>6</v>
       </c>
@@ -11080,7 +11132,7 @@
       </c>
       <c r="E134" s="10">
         <f>51-H137</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="28" t="s">
@@ -11142,7 +11194,7 @@
       <c r="BE134" s="22"/>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="18" t="s">
         <v>51</v>
       </c>
@@ -11213,7 +11265,7 @@
       <c r="BE135" s="23"/>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="19" t="s">
         <v>7</v>
       </c>
@@ -11284,7 +11336,7 @@
       <c r="BE136" s="24"/>
     </row>
     <row r="137" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="6" t="s">
         <v>72</v>
       </c>
@@ -11302,7 +11354,7 @@
         <v>58</v>
       </c>
       <c r="H137" s="26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
@@ -11355,13 +11407,13 @@
       <c r="BE137" s="32"/>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A138" s="38">
+      <c r="A138" s="33">
         <v>27</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="34"/>
+      <c r="C138" s="37"/>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
@@ -11437,7 +11489,7 @@
       <c r="BE138" s="21"/>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="20" t="s">
         <v>6</v>
       </c>
@@ -11514,7 +11566,7 @@
       <c r="BE139" s="22"/>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="18" t="s">
         <v>51</v>
       </c>
@@ -11585,7 +11637,7 @@
       <c r="BE140" s="23"/>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="19" t="s">
         <v>7</v>
       </c>
@@ -11656,7 +11708,7 @@
       <c r="BE141" s="24"/>
     </row>
     <row r="142" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="6" t="s">
         <v>72</v>
       </c>
@@ -11727,13 +11779,13 @@
       <c r="BE142" s="32"/>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A143" s="38">
+      <c r="A143" s="33">
         <v>28</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="34"/>
+      <c r="C143" s="37"/>
       <c r="D143" s="15" t="s">
         <v>3</v>
       </c>
@@ -11809,7 +11861,7 @@
       <c r="BE143" s="21"/>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20" t="s">
         <v>6</v>
       </c>
@@ -11886,7 +11938,7 @@
       <c r="BE144" s="22"/>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="18" t="s">
         <v>51</v>
       </c>
@@ -11963,7 +12015,7 @@
       <c r="BE145" s="23"/>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="19" t="s">
         <v>7</v>
       </c>
@@ -12034,7 +12086,7 @@
       <c r="BE146" s="24"/>
     </row>
     <row r="147" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="6" t="s">
         <v>72</v>
       </c>
@@ -12103,19 +12155,19 @@
       <c r="BE147" s="32"/>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A148" s="38">
+      <c r="A148" s="33">
         <v>29</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="34"/>
+      <c r="C148" s="37"/>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="9">
         <f>C152+E152-COUNTIF(H148:BE148,1)-COUNTIF(H148:BE148,0)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="27" t="s">
@@ -12130,9 +12182,15 @@
       <c r="J148" s="21">
         <v>0</v>
       </c>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
+      <c r="K148" s="21">
+        <v>0</v>
+      </c>
+      <c r="L148" s="21">
+        <v>0</v>
+      </c>
+      <c r="M148" s="21">
+        <v>0</v>
+      </c>
       <c r="N148" s="21"/>
       <c r="O148" s="21"/>
       <c r="P148" s="21"/>
@@ -12179,7 +12237,7 @@
       <c r="BE148" s="21"/>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20" t="s">
         <v>6</v>
       </c>
@@ -12256,7 +12314,7 @@
       <c r="BE149" s="22"/>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="18" t="s">
         <v>51</v>
       </c>
@@ -12327,7 +12385,7 @@
       <c r="BE150" s="23"/>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="19" t="s">
         <v>7</v>
       </c>
@@ -12398,7 +12456,7 @@
       <c r="BE151" s="24"/>
     </row>
     <row r="152" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="40"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="6" t="s">
         <v>72</v>
       </c>
@@ -12467,13 +12525,13 @@
       <c r="BE152" s="32"/>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A153" s="38">
+      <c r="A153" s="33">
         <v>30</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="37"/>
       <c r="D153" s="15" t="s">
         <v>3</v>
       </c>
@@ -12553,7 +12611,7 @@
       <c r="BE153" s="21"/>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20" t="s">
         <v>6</v>
       </c>
@@ -12630,7 +12688,7 @@
       <c r="BE154" s="22"/>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="18" t="s">
         <v>51</v>
       </c>
@@ -12701,7 +12759,7 @@
       <c r="BE155" s="23"/>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="19" t="s">
         <v>7</v>
       </c>
@@ -12772,7 +12830,7 @@
       <c r="BE156" s="24"/>
     </row>
     <row r="157" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="40"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="6" t="s">
         <v>72</v>
       </c>
@@ -12841,19 +12899,19 @@
       <c r="BE157" s="32"/>
     </row>
     <row r="158" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A158" s="38">
+      <c r="A158" s="33">
         <v>31</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="34"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="9">
         <f>C162+E162-COUNTIF(H158:BE158,1)-COUNTIF(H158:BE158,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="27" t="s">
@@ -12868,11 +12926,15 @@
       <c r="J158" s="21">
         <v>2</v>
       </c>
-      <c r="K158" s="21"/>
+      <c r="K158" s="21">
+        <v>1</v>
+      </c>
       <c r="L158" s="21">
         <v>2</v>
       </c>
-      <c r="M158" s="21"/>
+      <c r="M158" s="21">
+        <v>2</v>
+      </c>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
       <c r="P158" s="21"/>
@@ -12919,7 +12981,7 @@
       <c r="BE158" s="21"/>
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="20" t="s">
         <v>6</v>
       </c>
@@ -12996,7 +13058,7 @@
       <c r="BE159" s="22"/>
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="18" t="s">
         <v>51</v>
       </c>
@@ -13009,7 +13071,7 @@
       </c>
       <c r="E160" s="10">
         <f>SUM(H158:BE160)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="29" t="s">
@@ -13067,7 +13129,7 @@
       <c r="BE160" s="23"/>
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="19" t="s">
         <v>7</v>
       </c>
@@ -13080,7 +13142,7 @@
       </c>
       <c r="E161" s="10">
         <f>E160+SUM(H161:BE161)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="30" t="s">
@@ -13138,7 +13200,7 @@
       <c r="BE161" s="24"/>
     </row>
     <row r="162" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="40"/>
+      <c r="A162" s="35"/>
       <c r="B162" s="6" t="s">
         <v>72</v>
       </c>
@@ -13207,19 +13269,19 @@
       <c r="BE162" s="32"/>
     </row>
     <row r="163" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A163" s="38">
+      <c r="A163" s="33">
         <v>32</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="34"/>
+      <c r="C163" s="37"/>
       <c r="D163" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E163" s="9">
         <f>C167+E167-COUNTIF(H163:BE163,1)-COUNTIF(H163:BE163,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="27" t="s">
@@ -13234,9 +13296,15 @@
       <c r="J163" s="21">
         <v>0</v>
       </c>
-      <c r="K163" s="21"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="21"/>
+      <c r="K163" s="21">
+        <v>0</v>
+      </c>
+      <c r="L163" s="21">
+        <v>0</v>
+      </c>
+      <c r="M163" s="21">
+        <v>0</v>
+      </c>
       <c r="N163" s="21"/>
       <c r="O163" s="21"/>
       <c r="P163" s="21"/>
@@ -13283,7 +13351,7 @@
       <c r="BE163" s="21"/>
     </row>
     <row r="164" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20" t="s">
         <v>6</v>
       </c>
@@ -13296,7 +13364,7 @@
       </c>
       <c r="E164" s="10">
         <f>51-H167</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="28" t="s">
@@ -13358,7 +13426,7 @@
       <c r="BE164" s="22"/>
     </row>
     <row r="165" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="18" t="s">
         <v>51</v>
       </c>
@@ -13429,7 +13497,7 @@
       <c r="BE165" s="23"/>
     </row>
     <row r="166" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="19" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13568,7 @@
       <c r="BE166" s="24"/>
     </row>
     <row r="167" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="40"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="6" t="s">
         <v>72</v>
       </c>
@@ -13518,7 +13586,7 @@
         <v>58</v>
       </c>
       <c r="H167" s="26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
@@ -13571,19 +13639,19 @@
       <c r="BE167" s="32"/>
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A168" s="38">
+      <c r="A168" s="33">
         <v>33</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C168" s="34"/>
+      <c r="C168" s="37"/>
       <c r="D168" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="9">
         <f>C172+E172-COUNTIF(H168:BE168,1)-COUNTIF(H168:BE168,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="27" t="s">
@@ -13598,11 +13666,15 @@
       <c r="J168" s="21">
         <v>2</v>
       </c>
-      <c r="K168" s="21"/>
+      <c r="K168" s="21">
+        <v>1</v>
+      </c>
       <c r="L168" s="21">
         <v>2</v>
       </c>
-      <c r="M168" s="21"/>
+      <c r="M168" s="21">
+        <v>2</v>
+      </c>
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
       <c r="P168" s="21"/>
@@ -13649,7 +13721,7 @@
       <c r="BE168" s="21"/>
     </row>
     <row r="169" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20" t="s">
         <v>6</v>
       </c>
@@ -13726,7 +13798,7 @@
       <c r="BE169" s="22"/>
     </row>
     <row r="170" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="18" t="s">
         <v>51</v>
       </c>
@@ -13739,7 +13811,7 @@
       </c>
       <c r="E170" s="10">
         <f>SUM(H168:BE170)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="29" t="s">
@@ -13801,7 +13873,7 @@
       <c r="BE170" s="23"/>
     </row>
     <row r="171" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="19" t="s">
         <v>7</v>
       </c>
@@ -13814,7 +13886,7 @@
       </c>
       <c r="E171" s="10">
         <f>E170+SUM(H171:BE171)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="30" t="s">
@@ -13872,7 +13944,7 @@
       <c r="BE171" s="24"/>
     </row>
     <row r="172" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="40"/>
+      <c r="A172" s="35"/>
       <c r="B172" s="6" t="s">
         <v>72</v>
       </c>
@@ -13941,19 +14013,19 @@
       <c r="BE172" s="32"/>
     </row>
     <row r="173" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A173" s="38">
+      <c r="A173" s="33">
         <v>34</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C173" s="34"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E173" s="9">
         <f>C177+E177-COUNTIF(H173:BE173,1)-COUNTIF(H173:BE173,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="27" t="s">
@@ -13968,9 +14040,15 @@
       <c r="J173" s="21">
         <v>0</v>
       </c>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
+      <c r="K173" s="21">
+        <v>0</v>
+      </c>
+      <c r="L173" s="21">
+        <v>0</v>
+      </c>
+      <c r="M173" s="21">
+        <v>0</v>
+      </c>
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
       <c r="P173" s="21"/>
@@ -14017,7 +14095,7 @@
       <c r="BE173" s="21"/>
     </row>
     <row r="174" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="20" t="s">
         <v>6</v>
       </c>
@@ -14030,7 +14108,7 @@
       </c>
       <c r="E174" s="10">
         <f>51-H177</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="28" t="s">
@@ -14092,7 +14170,7 @@
       <c r="BE174" s="22"/>
     </row>
     <row r="175" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="18" t="s">
         <v>51</v>
       </c>
@@ -14163,7 +14241,7 @@
       <c r="BE175" s="23"/>
     </row>
     <row r="176" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="19" t="s">
         <v>7</v>
       </c>
@@ -14234,7 +14312,7 @@
       <c r="BE176" s="24"/>
     </row>
     <row r="177" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="40"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="6" t="s">
         <v>72</v>
       </c>
@@ -14252,7 +14330,7 @@
         <v>58</v>
       </c>
       <c r="H177" s="26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
@@ -14305,13 +14383,13 @@
       <c r="BE177" s="32"/>
     </row>
     <row r="178" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A178" s="38">
+      <c r="A178" s="33">
         <v>35</v>
       </c>
-      <c r="B178" s="33" t="s">
+      <c r="B178" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C178" s="34"/>
+      <c r="C178" s="37"/>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
@@ -14391,7 +14469,7 @@
       <c r="BE178" s="21"/>
     </row>
     <row r="179" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20" t="s">
         <v>6</v>
       </c>
@@ -14468,7 +14546,7 @@
       <c r="BE179" s="22"/>
     </row>
     <row r="180" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="18" t="s">
         <v>51</v>
       </c>
@@ -14541,7 +14619,7 @@
       <c r="BE180" s="23"/>
     </row>
     <row r="181" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="19" t="s">
         <v>7</v>
       </c>
@@ -14612,7 +14690,7 @@
       <c r="BE181" s="24"/>
     </row>
     <row r="182" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="6" t="s">
         <v>72</v>
       </c>
@@ -14681,13 +14759,13 @@
       <c r="BE182" s="32"/>
     </row>
     <row r="183" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A183" s="38">
+      <c r="A183" s="33">
         <v>36</v>
       </c>
-      <c r="B183" s="33" t="s">
+      <c r="B183" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C183" s="34"/>
+      <c r="C183" s="37"/>
       <c r="D183" s="15" t="s">
         <v>3</v>
       </c>
@@ -14767,7 +14845,7 @@
       <c r="BE183" s="21"/>
     </row>
     <row r="184" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20" t="s">
         <v>6</v>
       </c>
@@ -14844,7 +14922,7 @@
       <c r="BE184" s="22"/>
     </row>
     <row r="185" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="18" t="s">
         <v>51</v>
       </c>
@@ -14921,7 +14999,7 @@
       <c r="BE185" s="23"/>
     </row>
     <row r="186" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="19" t="s">
         <v>7</v>
       </c>
@@ -14992,7 +15070,7 @@
       <c r="BE186" s="24"/>
     </row>
     <row r="187" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
+      <c r="A187" s="35"/>
       <c r="B187" s="6" t="s">
         <v>72</v>
       </c>
@@ -15061,19 +15139,19 @@
       <c r="BE187" s="32"/>
     </row>
     <row r="188" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A188" s="38">
+      <c r="A188" s="33">
         <v>37</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="34"/>
+      <c r="C188" s="37"/>
       <c r="D188" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="9">
         <f>C192+E192-COUNTIF(H188:BE188,1)-COUNTIF(H188:BE188,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="27" t="s">
@@ -15088,9 +15166,15 @@
       <c r="J188" s="21">
         <v>0</v>
       </c>
-      <c r="K188" s="21"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="21"/>
+      <c r="K188" s="21">
+        <v>0</v>
+      </c>
+      <c r="L188" s="21">
+        <v>0</v>
+      </c>
+      <c r="M188" s="21">
+        <v>0</v>
+      </c>
       <c r="N188" s="21"/>
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
@@ -15137,7 +15221,7 @@
       <c r="BE188" s="21"/>
     </row>
     <row r="189" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="20" t="s">
         <v>6</v>
       </c>
@@ -15150,7 +15234,7 @@
       </c>
       <c r="E189" s="10">
         <f>51-H192</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="28" t="s">
@@ -15212,7 +15296,7 @@
       <c r="BE189" s="22"/>
     </row>
     <row r="190" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="18" t="s">
         <v>51</v>
       </c>
@@ -15283,13 +15367,13 @@
       <c r="BE190" s="23"/>
     </row>
     <row r="191" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="5" t="str">
         <f>IF(OR(E188=0,E189=0),"Morto",CONCATENATE(IF(E188&gt;=20,"Saudável",IF(E188&gt;=10,"Ferido","Morrendo"))," - ",IF(E189&gt;=25,"Forte",IF(E189&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>5</v>
@@ -15354,7 +15438,7 @@
       <c r="BE191" s="24"/>
     </row>
     <row r="192" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="40"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="6" t="s">
         <v>72</v>
       </c>
@@ -15372,7 +15456,7 @@
         <v>58</v>
       </c>
       <c r="H192" s="26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
@@ -15425,13 +15509,13 @@
       <c r="BE192" s="32"/>
     </row>
     <row r="193" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A193" s="38">
+      <c r="A193" s="33">
         <v>38</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B193" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="34"/>
+      <c r="C193" s="37"/>
       <c r="D193" s="15" t="s">
         <v>3</v>
       </c>
@@ -15458,7 +15542,9 @@
       <c r="L193" s="21">
         <v>2</v>
       </c>
-      <c r="M193" s="21"/>
+      <c r="M193" s="21">
+        <v>2</v>
+      </c>
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
       <c r="P193" s="21"/>
@@ -15505,7 +15591,7 @@
       <c r="BE193" s="21"/>
     </row>
     <row r="194" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20" t="s">
         <v>6</v>
       </c>
@@ -15582,7 +15668,7 @@
       <c r="BE194" s="22"/>
     </row>
     <row r="195" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="18" t="s">
         <v>51</v>
       </c>
@@ -15595,7 +15681,7 @@
       </c>
       <c r="E195" s="10">
         <f>SUM(H193:BE195)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="29" t="s">
@@ -15653,7 +15739,7 @@
       <c r="BE195" s="23"/>
     </row>
     <row r="196" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="19" t="s">
         <v>7</v>
       </c>
@@ -15666,7 +15752,7 @@
       </c>
       <c r="E196" s="10">
         <f>E195+SUM(H196:BE196)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="30" t="s">
@@ -15724,7 +15810,7 @@
       <c r="BE196" s="24"/>
     </row>
     <row r="197" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="40"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="6" t="s">
         <v>72</v>
       </c>
@@ -15795,13 +15881,13 @@
       <c r="BE197" s="32"/>
     </row>
     <row r="198" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A198" s="38">
+      <c r="A198" s="33">
         <v>39</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="34"/>
+      <c r="C198" s="37"/>
       <c r="D198" s="15" t="s">
         <v>3</v>
       </c>
@@ -15828,7 +15914,9 @@
       <c r="L198" s="21">
         <v>2</v>
       </c>
-      <c r="M198" s="21"/>
+      <c r="M198" s="21">
+        <v>2</v>
+      </c>
       <c r="N198" s="21"/>
       <c r="O198" s="21"/>
       <c r="P198" s="21"/>
@@ -15875,7 +15963,7 @@
       <c r="BE198" s="21"/>
     </row>
     <row r="199" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="20" t="s">
         <v>6</v>
       </c>
@@ -15952,7 +16040,7 @@
       <c r="BE199" s="22"/>
     </row>
     <row r="200" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="18" t="s">
         <v>51</v>
       </c>
@@ -15965,7 +16053,7 @@
       </c>
       <c r="E200" s="10">
         <f>SUM(H198:BE200)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="29" t="s">
@@ -16023,7 +16111,7 @@
       <c r="BE200" s="23"/>
     </row>
     <row r="201" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="19" t="s">
         <v>7</v>
       </c>
@@ -16036,7 +16124,7 @@
       </c>
       <c r="E201" s="10">
         <f>E200+SUM(H201:BE201)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="30" t="s">
@@ -16094,7 +16182,7 @@
       <c r="BE201" s="24"/>
     </row>
     <row r="202" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="6" t="s">
         <v>72</v>
       </c>
@@ -16163,13 +16251,13 @@
       <c r="BE202" s="32"/>
     </row>
     <row r="203" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A203" s="38">
+      <c r="A203" s="33">
         <v>40</v>
       </c>
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C203" s="34"/>
+      <c r="C203" s="37"/>
       <c r="D203" s="15" t="s">
         <v>3</v>
       </c>
@@ -16245,7 +16333,7 @@
       <c r="BE203" s="21"/>
     </row>
     <row r="204" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20" t="s">
         <v>6</v>
       </c>
@@ -16322,7 +16410,7 @@
       <c r="BE204" s="22"/>
     </row>
     <row r="205" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="18" t="s">
         <v>51</v>
       </c>
@@ -16399,7 +16487,7 @@
       <c r="BE205" s="23"/>
     </row>
     <row r="206" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="19" t="s">
         <v>7</v>
       </c>
@@ -16470,7 +16558,7 @@
       <c r="BE206" s="24"/>
     </row>
     <row r="207" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="40"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="6" t="s">
         <v>72</v>
       </c>
@@ -16539,19 +16627,19 @@
       <c r="BE207" s="32"/>
     </row>
     <row r="208" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A208" s="38">
+      <c r="A208" s="33">
         <v>41</v>
       </c>
-      <c r="B208" s="33" t="s">
+      <c r="B208" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C208" s="34"/>
+      <c r="C208" s="37"/>
       <c r="D208" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="9">
         <f>C212+E212-COUNTIF(H208:BE208,1)-COUNTIF(H208:BE208,0)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="27" t="s">
@@ -16566,10 +16654,18 @@
       <c r="J208" s="21">
         <v>0</v>
       </c>
-      <c r="K208" s="21"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="21"/>
+      <c r="K208" s="21">
+        <v>0</v>
+      </c>
+      <c r="L208" s="21">
+        <v>0</v>
+      </c>
+      <c r="M208" s="21">
+        <v>1</v>
+      </c>
+      <c r="N208" s="21">
+        <v>1</v>
+      </c>
       <c r="O208" s="21"/>
       <c r="P208" s="21"/>
       <c r="Q208" s="21"/>
@@ -16615,7 +16711,7 @@
       <c r="BE208" s="21"/>
     </row>
     <row r="209" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
+      <c r="A209" s="34"/>
       <c r="B209" s="20" t="s">
         <v>6</v>
       </c>
@@ -16628,7 +16724,7 @@
       </c>
       <c r="E209" s="10">
         <f>51-H212</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="28" t="s">
@@ -16690,7 +16786,7 @@
       <c r="BE209" s="22"/>
     </row>
     <row r="210" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
+      <c r="A210" s="34"/>
       <c r="B210" s="18" t="s">
         <v>51</v>
       </c>
@@ -16703,7 +16799,7 @@
       </c>
       <c r="E210" s="10">
         <f>SUM(H208:BE210)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F210" s="13"/>
       <c r="G210" s="29" t="s">
@@ -16761,7 +16857,7 @@
       <c r="BE210" s="23"/>
     </row>
     <row r="211" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
+      <c r="A211" s="34"/>
       <c r="B211" s="19" t="s">
         <v>7</v>
       </c>
@@ -16774,7 +16870,7 @@
       </c>
       <c r="E211" s="10">
         <f>E210+SUM(H211:BE211)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F211" s="13"/>
       <c r="G211" s="30" t="s">
@@ -16832,7 +16928,7 @@
       <c r="BE211" s="24"/>
     </row>
     <row r="212" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
+      <c r="A212" s="35"/>
       <c r="B212" s="6" t="s">
         <v>72</v>
       </c>
@@ -16850,7 +16946,7 @@
         <v>58</v>
       </c>
       <c r="H212" s="26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
@@ -16903,19 +16999,19 @@
       <c r="BE212" s="32"/>
     </row>
     <row r="213" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A213" s="38">
+      <c r="A213" s="33">
         <v>42</v>
       </c>
-      <c r="B213" s="33" t="s">
+      <c r="B213" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="34"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="9">
         <f>C217+E217-COUNTIF(H213:BE213,1)-COUNTIF(H213:BE213,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="27" t="s">
@@ -16930,9 +17026,15 @@
       <c r="J213" s="21">
         <v>0</v>
       </c>
-      <c r="K213" s="21"/>
-      <c r="L213" s="21"/>
-      <c r="M213" s="21"/>
+      <c r="K213" s="21">
+        <v>0</v>
+      </c>
+      <c r="L213" s="21">
+        <v>0</v>
+      </c>
+      <c r="M213" s="21">
+        <v>0</v>
+      </c>
       <c r="N213" s="21"/>
       <c r="O213" s="21"/>
       <c r="P213" s="21"/>
@@ -16979,7 +17081,7 @@
       <c r="BE213" s="21"/>
     </row>
     <row r="214" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
+      <c r="A214" s="34"/>
       <c r="B214" s="20" t="s">
         <v>6</v>
       </c>
@@ -16992,7 +17094,7 @@
       </c>
       <c r="E214" s="10">
         <f>51-H217</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="28" t="s">
@@ -17054,7 +17156,7 @@
       <c r="BE214" s="22"/>
     </row>
     <row r="215" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="18" t="s">
         <v>51</v>
       </c>
@@ -17125,7 +17227,7 @@
       <c r="BE215" s="23"/>
     </row>
     <row r="216" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
+      <c r="A216" s="34"/>
       <c r="B216" s="19" t="s">
         <v>7</v>
       </c>
@@ -17196,7 +17298,7 @@
       <c r="BE216" s="24"/>
     </row>
     <row r="217" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="40"/>
+      <c r="A217" s="35"/>
       <c r="B217" s="6" t="s">
         <v>72</v>
       </c>
@@ -17214,7 +17316,7 @@
         <v>58</v>
       </c>
       <c r="H217" s="26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I217" s="32"/>
       <c r="J217" s="32"/>
@@ -17267,13 +17369,13 @@
       <c r="BE217" s="32"/>
     </row>
     <row r="218" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A218" s="38">
+      <c r="A218" s="33">
         <v>43</v>
       </c>
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="37"/>
       <c r="D218" s="15" t="s">
         <v>3</v>
       </c>
@@ -17353,7 +17455,7 @@
       <c r="BE218" s="21"/>
     </row>
     <row r="219" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
+      <c r="A219" s="34"/>
       <c r="B219" s="20" t="s">
         <v>6</v>
       </c>
@@ -17430,7 +17532,7 @@
       <c r="BE219" s="22"/>
     </row>
     <row r="220" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
+      <c r="A220" s="34"/>
       <c r="B220" s="18" t="s">
         <v>51</v>
       </c>
@@ -17507,7 +17609,7 @@
       <c r="BE220" s="23"/>
     </row>
     <row r="221" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
+      <c r="A221" s="34"/>
       <c r="B221" s="19" t="s">
         <v>7</v>
       </c>
@@ -17578,7 +17680,7 @@
       <c r="BE221" s="24"/>
     </row>
     <row r="222" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="40"/>
+      <c r="A222" s="35"/>
       <c r="B222" s="6" t="s">
         <v>72</v>
       </c>
@@ -17647,13 +17749,13 @@
       <c r="BE222" s="32"/>
     </row>
     <row r="223" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A223" s="38">
+      <c r="A223" s="33">
         <v>44</v>
       </c>
-      <c r="B223" s="33" t="s">
+      <c r="B223" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C223" s="34"/>
+      <c r="C223" s="37"/>
       <c r="D223" s="15" t="s">
         <v>3</v>
       </c>
@@ -17731,7 +17833,7 @@
       <c r="BE223" s="21"/>
     </row>
     <row r="224" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
+      <c r="A224" s="34"/>
       <c r="B224" s="20" t="s">
         <v>6</v>
       </c>
@@ -17808,7 +17910,7 @@
       <c r="BE224" s="22"/>
     </row>
     <row r="225" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
+      <c r="A225" s="34"/>
       <c r="B225" s="18" t="s">
         <v>51</v>
       </c>
@@ -17885,7 +17987,7 @@
       <c r="BE225" s="23"/>
     </row>
     <row r="226" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
+      <c r="A226" s="34"/>
       <c r="B226" s="19" t="s">
         <v>7</v>
       </c>
@@ -17956,7 +18058,7 @@
       <c r="BE226" s="24"/>
     </row>
     <row r="227" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="40"/>
+      <c r="A227" s="35"/>
       <c r="B227" s="6" t="s">
         <v>72</v>
       </c>
@@ -18025,13 +18127,13 @@
       <c r="BE227" s="32"/>
     </row>
     <row r="228" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A228" s="38">
+      <c r="A228" s="33">
         <v>45</v>
       </c>
-      <c r="B228" s="33" t="s">
+      <c r="B228" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="34"/>
+      <c r="C228" s="37"/>
       <c r="D228" s="15" t="s">
         <v>3</v>
       </c>
@@ -18111,7 +18213,7 @@
       <c r="BE228" s="21"/>
     </row>
     <row r="229" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
+      <c r="A229" s="34"/>
       <c r="B229" s="20" t="s">
         <v>6</v>
       </c>
@@ -18188,7 +18290,7 @@
       <c r="BE229" s="22"/>
     </row>
     <row r="230" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
+      <c r="A230" s="34"/>
       <c r="B230" s="18" t="s">
         <v>51</v>
       </c>
@@ -18265,7 +18367,7 @@
       <c r="BE230" s="23"/>
     </row>
     <row r="231" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
+      <c r="A231" s="34"/>
       <c r="B231" s="19" t="s">
         <v>7</v>
       </c>
@@ -18336,7 +18438,7 @@
       <c r="BE231" s="24"/>
     </row>
     <row r="232" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="40"/>
+      <c r="A232" s="35"/>
       <c r="B232" s="6" t="s">
         <v>72</v>
       </c>
@@ -18407,13 +18509,13 @@
       <c r="BE232" s="32"/>
     </row>
     <row r="233" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A233" s="38">
+      <c r="A233" s="33">
         <v>46</v>
       </c>
-      <c r="B233" s="33" t="s">
+      <c r="B233" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C233" s="34"/>
+      <c r="C233" s="37"/>
       <c r="D233" s="15" t="s">
         <v>3</v>
       </c>
@@ -18434,11 +18536,15 @@
       <c r="J233" s="21">
         <v>2</v>
       </c>
-      <c r="K233" s="21"/>
+      <c r="K233" s="21">
+        <v>2</v>
+      </c>
       <c r="L233" s="21">
         <v>2</v>
       </c>
-      <c r="M233" s="21"/>
+      <c r="M233" s="21">
+        <v>2</v>
+      </c>
       <c r="N233" s="21"/>
       <c r="O233" s="21"/>
       <c r="P233" s="21"/>
@@ -18485,7 +18591,7 @@
       <c r="BE233" s="21"/>
     </row>
     <row r="234" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
+      <c r="A234" s="34"/>
       <c r="B234" s="20" t="s">
         <v>6</v>
       </c>
@@ -18562,7 +18668,7 @@
       <c r="BE234" s="22"/>
     </row>
     <row r="235" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
+      <c r="A235" s="34"/>
       <c r="B235" s="18" t="s">
         <v>51</v>
       </c>
@@ -18575,7 +18681,7 @@
       </c>
       <c r="E235" s="10">
         <f>SUM(H233:BE235)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="29" t="s">
@@ -18633,7 +18739,7 @@
       <c r="BE235" s="23"/>
     </row>
     <row r="236" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
+      <c r="A236" s="34"/>
       <c r="B236" s="19" t="s">
         <v>7</v>
       </c>
@@ -18646,7 +18752,7 @@
       </c>
       <c r="E236" s="10">
         <f>E235+SUM(H236:BE236)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="30" t="s">
@@ -18704,7 +18810,7 @@
       <c r="BE236" s="24"/>
     </row>
     <row r="237" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="40"/>
+      <c r="A237" s="35"/>
       <c r="B237" s="6" t="s">
         <v>72</v>
       </c>
@@ -18775,19 +18881,19 @@
       <c r="BE237" s="32"/>
     </row>
     <row r="238" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A238" s="38">
+      <c r="A238" s="33">
         <v>47</v>
       </c>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C238" s="34"/>
+      <c r="C238" s="37"/>
       <c r="D238" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E238" s="9">
         <f>C242+E242-COUNTIF(H238:BE238,1)-COUNTIF(H238:BE238,0)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F238" s="13"/>
       <c r="G238" s="27" t="s">
@@ -18802,9 +18908,15 @@
       <c r="J238" s="21">
         <v>0</v>
       </c>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="21"/>
+      <c r="K238" s="21">
+        <v>0</v>
+      </c>
+      <c r="L238" s="21">
+        <v>1</v>
+      </c>
+      <c r="M238" s="21">
+        <v>0</v>
+      </c>
       <c r="N238" s="21"/>
       <c r="O238" s="21"/>
       <c r="P238" s="21"/>
@@ -18851,7 +18963,7 @@
       <c r="BE238" s="21"/>
     </row>
     <row r="239" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
+      <c r="A239" s="34"/>
       <c r="B239" s="20" t="s">
         <v>6</v>
       </c>
@@ -18928,7 +19040,7 @@
       <c r="BE239" s="22"/>
     </row>
     <row r="240" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
+      <c r="A240" s="34"/>
       <c r="B240" s="18" t="s">
         <v>51</v>
       </c>
@@ -18941,7 +19053,7 @@
       </c>
       <c r="E240" s="10">
         <f>SUM(H238:BE240)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F240" s="13"/>
       <c r="G240" s="29" t="s">
@@ -18999,7 +19111,7 @@
       <c r="BE240" s="23"/>
     </row>
     <row r="241" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
+      <c r="A241" s="34"/>
       <c r="B241" s="19" t="s">
         <v>7</v>
       </c>
@@ -19012,7 +19124,7 @@
       </c>
       <c r="E241" s="10">
         <f>E240+SUM(H241:BE241)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F241" s="13"/>
       <c r="G241" s="30" t="s">
@@ -19070,7 +19182,7 @@
       <c r="BE241" s="24"/>
     </row>
     <row r="242" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="40"/>
+      <c r="A242" s="35"/>
       <c r="B242" s="6" t="s">
         <v>72</v>
       </c>
@@ -19139,13 +19251,13 @@
       <c r="BE242" s="32"/>
     </row>
     <row r="243" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A243" s="38">
+      <c r="A243" s="33">
         <v>48</v>
       </c>
-      <c r="B243" s="33" t="s">
+      <c r="B243" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="34"/>
+      <c r="C243" s="37"/>
       <c r="D243" s="15" t="s">
         <v>3</v>
       </c>
@@ -19221,7 +19333,7 @@
       <c r="BE243" s="21"/>
     </row>
     <row r="244" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
+      <c r="A244" s="34"/>
       <c r="B244" s="20" t="s">
         <v>6</v>
       </c>
@@ -19298,7 +19410,7 @@
       <c r="BE244" s="22"/>
     </row>
     <row r="245" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
+      <c r="A245" s="34"/>
       <c r="B245" s="18" t="s">
         <v>51</v>
       </c>
@@ -19371,7 +19483,7 @@
       <c r="BE245" s="23"/>
     </row>
     <row r="246" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
+      <c r="A246" s="34"/>
       <c r="B246" s="19" t="s">
         <v>7</v>
       </c>
@@ -19442,7 +19554,7 @@
       <c r="BE246" s="24"/>
     </row>
     <row r="247" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
+      <c r="A247" s="35"/>
       <c r="B247" s="6" t="s">
         <v>72</v>
       </c>
@@ -19513,19 +19625,19 @@
       <c r="BE247" s="32"/>
     </row>
     <row r="248" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A248" s="38">
+      <c r="A248" s="33">
         <v>49</v>
       </c>
-      <c r="B248" s="33" t="s">
+      <c r="B248" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C248" s="34"/>
+      <c r="C248" s="37"/>
       <c r="D248" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="9">
         <f>C252+E252-COUNTIF(H248:BE248,1)-COUNTIF(H248:BE248,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="27" t="s">
@@ -19540,9 +19652,15 @@
       <c r="J248" s="21">
         <v>0</v>
       </c>
-      <c r="K248" s="21"/>
-      <c r="L248" s="21"/>
-      <c r="M248" s="21"/>
+      <c r="K248" s="21">
+        <v>0</v>
+      </c>
+      <c r="L248" s="21">
+        <v>0</v>
+      </c>
+      <c r="M248" s="21">
+        <v>0</v>
+      </c>
       <c r="N248" s="21"/>
       <c r="O248" s="21"/>
       <c r="P248" s="21"/>
@@ -19589,7 +19707,7 @@
       <c r="BE248" s="21"/>
     </row>
     <row r="249" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
+      <c r="A249" s="34"/>
       <c r="B249" s="20" t="s">
         <v>6</v>
       </c>
@@ -19602,7 +19720,7 @@
       </c>
       <c r="E249" s="10">
         <f>51-H252</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="28" t="s">
@@ -19664,7 +19782,7 @@
       <c r="BE249" s="22"/>
     </row>
     <row r="250" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
+      <c r="A250" s="34"/>
       <c r="B250" s="18" t="s">
         <v>51</v>
       </c>
@@ -19735,13 +19853,13 @@
       <c r="BE250" s="23"/>
     </row>
     <row r="251" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
+      <c r="A251" s="34"/>
       <c r="B251" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="5" t="str">
         <f>IF(OR(E248=0,E249=0),"Morto",CONCATENATE(IF(E248&gt;=20,"Saudável",IF(E248&gt;=10,"Ferido","Morrendo"))," - ",IF(E249&gt;=25,"Forte",IF(E249&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D251" s="17" t="s">
         <v>5</v>
@@ -19806,7 +19924,7 @@
       <c r="BE251" s="24"/>
     </row>
     <row r="252" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="40"/>
+      <c r="A252" s="35"/>
       <c r="B252" s="6" t="s">
         <v>72</v>
       </c>
@@ -19824,7 +19942,7 @@
         <v>58</v>
       </c>
       <c r="H252" s="26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I252" s="32"/>
       <c r="J252" s="32"/>
@@ -19877,19 +19995,19 @@
       <c r="BE252" s="32"/>
     </row>
     <row r="253" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A253" s="38">
+      <c r="A253" s="33">
         <v>50</v>
       </c>
-      <c r="B253" s="33" t="s">
+      <c r="B253" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="34"/>
+      <c r="C253" s="37"/>
       <c r="D253" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="9">
         <f>C257+E257-COUNTIF(H253:BE253,1)-COUNTIF(H253:BE253,0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="27" t="s">
@@ -19904,9 +20022,15 @@
       <c r="J253" s="21">
         <v>0</v>
       </c>
-      <c r="K253" s="21"/>
-      <c r="L253" s="21"/>
-      <c r="M253" s="21"/>
+      <c r="K253" s="21">
+        <v>0</v>
+      </c>
+      <c r="L253" s="21">
+        <v>0</v>
+      </c>
+      <c r="M253" s="21">
+        <v>0</v>
+      </c>
       <c r="N253" s="21"/>
       <c r="O253" s="21"/>
       <c r="P253" s="21"/>
@@ -19953,7 +20077,7 @@
       <c r="BE253" s="21"/>
     </row>
     <row r="254" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
+      <c r="A254" s="34"/>
       <c r="B254" s="20" t="s">
         <v>6</v>
       </c>
@@ -19966,7 +20090,7 @@
       </c>
       <c r="E254" s="10">
         <f>51-H257</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F254" s="13"/>
       <c r="G254" s="28" t="s">
@@ -20030,7 +20154,7 @@
       <c r="BE254" s="22"/>
     </row>
     <row r="255" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
+      <c r="A255" s="34"/>
       <c r="B255" s="18" t="s">
         <v>51</v>
       </c>
@@ -20101,13 +20225,13 @@
       <c r="BE255" s="23"/>
     </row>
     <row r="256" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
+      <c r="A256" s="34"/>
       <c r="B256" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C256" s="5" t="str">
         <f>IF(OR(E253=0,E254=0),"Morto",CONCATENATE(IF(E253&gt;=20,"Saudável",IF(E253&gt;=10,"Ferido","Morrendo"))," - ",IF(E254&gt;=25,"Forte",IF(E254&gt;=10,"Cansado","Enfraquecido"))))</f>
-        <v>Saudável - Forte</v>
+        <v>Saudável - Cansado</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>5</v>
@@ -20172,7 +20296,7 @@
       <c r="BE256" s="24"/>
     </row>
     <row r="257" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="40"/>
+      <c r="A257" s="35"/>
       <c r="B257" s="6" t="s">
         <v>72</v>
       </c>
@@ -20190,7 +20314,7 @@
         <v>58</v>
       </c>
       <c r="H257" s="26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I257" s="32"/>
       <c r="J257" s="32"/>
@@ -20243,19 +20367,19 @@
       <c r="BE257" s="32"/>
     </row>
     <row r="258" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A258" s="38">
+      <c r="A258" s="33">
         <v>51</v>
       </c>
-      <c r="B258" s="33" t="s">
+      <c r="B258" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="34"/>
+      <c r="C258" s="37"/>
       <c r="D258" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E258" s="9">
         <f>C262+E262-COUNTIF(H258:BE258,1)-COUNTIF(H258:BE258,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F258" s="13"/>
       <c r="G258" s="27" t="s">
@@ -20273,8 +20397,12 @@
       <c r="K258" s="21">
         <v>2</v>
       </c>
-      <c r="L258" s="21"/>
-      <c r="M258" s="21"/>
+      <c r="L258" s="21">
+        <v>2</v>
+      </c>
+      <c r="M258" s="21">
+        <v>1</v>
+      </c>
       <c r="N258" s="21"/>
       <c r="O258" s="21"/>
       <c r="P258" s="21"/>
@@ -20321,7 +20449,7 @@
       <c r="BE258" s="21"/>
     </row>
     <row r="259" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
+      <c r="A259" s="34"/>
       <c r="B259" s="20" t="s">
         <v>6</v>
       </c>
@@ -20398,7 +20526,7 @@
       <c r="BE259" s="22"/>
     </row>
     <row r="260" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
+      <c r="A260" s="34"/>
       <c r="B260" s="18" t="s">
         <v>51</v>
       </c>
@@ -20411,7 +20539,7 @@
       </c>
       <c r="E260" s="10">
         <f>SUM(H258:BE260)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F260" s="13"/>
       <c r="G260" s="29" t="s">
@@ -20469,7 +20597,7 @@
       <c r="BE260" s="23"/>
     </row>
     <row r="261" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
+      <c r="A261" s="34"/>
       <c r="B261" s="19" t="s">
         <v>7</v>
       </c>
@@ -20482,7 +20610,7 @@
       </c>
       <c r="E261" s="10">
         <f>E260+SUM(H261:BE261)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F261" s="13"/>
       <c r="G261" s="30" t="s">
@@ -20540,7 +20668,7 @@
       <c r="BE261" s="24"/>
     </row>
     <row r="262" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="40"/>
+      <c r="A262" s="35"/>
       <c r="B262" s="6" t="s">
         <v>72</v>
       </c>
@@ -20609,13 +20737,13 @@
       <c r="BE262" s="32"/>
     </row>
     <row r="263" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A263" s="38">
+      <c r="A263" s="33">
         <v>52</v>
       </c>
-      <c r="B263" s="33" t="s">
+      <c r="B263" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C263" s="34"/>
+      <c r="C263" s="37"/>
       <c r="D263" s="15" t="s">
         <v>3</v>
       </c>
@@ -20691,7 +20819,7 @@
       <c r="BE263" s="21"/>
     </row>
     <row r="264" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="20" t="s">
         <v>6</v>
       </c>
@@ -20768,7 +20896,7 @@
       <c r="BE264" s="22"/>
     </row>
     <row r="265" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="18" t="s">
         <v>51</v>
       </c>
@@ -20839,7 +20967,7 @@
       <c r="BE265" s="23"/>
     </row>
     <row r="266" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
+      <c r="A266" s="34"/>
       <c r="B266" s="19" t="s">
         <v>7</v>
       </c>
@@ -20910,7 +21038,7 @@
       <c r="BE266" s="24"/>
     </row>
     <row r="267" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="40"/>
+      <c r="A267" s="35"/>
       <c r="B267" s="6" t="s">
         <v>72</v>
       </c>
@@ -20979,19 +21107,19 @@
       <c r="BE267" s="32"/>
     </row>
     <row r="268" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A268" s="38">
+      <c r="A268" s="33">
         <v>53</v>
       </c>
-      <c r="B268" s="33" t="s">
+      <c r="B268" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C268" s="34"/>
+      <c r="C268" s="37"/>
       <c r="D268" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E268" s="9">
         <f>C272+E272-COUNTIF(H268:BE268,1)-COUNTIF(H268:BE268,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F268" s="13"/>
       <c r="G268" s="27" t="s">
@@ -21006,9 +21134,15 @@
       <c r="J268" s="21">
         <v>0</v>
       </c>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
+      <c r="K268" s="21">
+        <v>0</v>
+      </c>
+      <c r="L268" s="21">
+        <v>0</v>
+      </c>
+      <c r="M268" s="21">
+        <v>0</v>
+      </c>
       <c r="N268" s="21"/>
       <c r="O268" s="21"/>
       <c r="P268" s="21"/>
@@ -21055,7 +21189,7 @@
       <c r="BE268" s="21"/>
     </row>
     <row r="269" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="20" t="s">
         <v>6</v>
       </c>
@@ -21068,7 +21202,7 @@
       </c>
       <c r="E269" s="10">
         <f>51-H272</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F269" s="13"/>
       <c r="G269" s="28" t="s">
@@ -21130,7 +21264,7 @@
       <c r="BE269" s="22"/>
     </row>
     <row r="270" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="18" t="s">
         <v>51</v>
       </c>
@@ -21201,7 +21335,7 @@
       <c r="BE270" s="23"/>
     </row>
     <row r="271" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="19" t="s">
         <v>7</v>
       </c>
@@ -21272,7 +21406,7 @@
       <c r="BE271" s="24"/>
     </row>
     <row r="272" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
+      <c r="A272" s="35"/>
       <c r="B272" s="6" t="s">
         <v>72</v>
       </c>
@@ -21290,7 +21424,7 @@
         <v>58</v>
       </c>
       <c r="H272" s="26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I272" s="32"/>
       <c r="J272" s="32"/>
@@ -21343,13 +21477,13 @@
       <c r="BE272" s="32"/>
     </row>
     <row r="273" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A273" s="38">
+      <c r="A273" s="33">
         <v>54</v>
       </c>
-      <c r="B273" s="33" t="s">
+      <c r="B273" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C273" s="34"/>
+      <c r="C273" s="37"/>
       <c r="D273" s="15" t="s">
         <v>3</v>
       </c>
@@ -21388,7 +21522,9 @@
       <c r="P273" s="21">
         <v>2</v>
       </c>
-      <c r="Q273" s="21"/>
+      <c r="Q273" s="21">
+        <v>2</v>
+      </c>
       <c r="R273" s="21"/>
       <c r="S273" s="21"/>
       <c r="T273" s="21"/>
@@ -21431,7 +21567,7 @@
       <c r="BE273" s="21"/>
     </row>
     <row r="274" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20" t="s">
         <v>6</v>
       </c>
@@ -21508,7 +21644,7 @@
       <c r="BE274" s="22"/>
     </row>
     <row r="275" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="18" t="s">
         <v>51</v>
       </c>
@@ -21521,7 +21657,7 @@
       </c>
       <c r="E275" s="10">
         <f>SUM(H273:BE275)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="29" t="s">
@@ -21585,7 +21721,7 @@
       <c r="BE275" s="23"/>
     </row>
     <row r="276" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="19" t="s">
         <v>7</v>
       </c>
@@ -21598,7 +21734,7 @@
       </c>
       <c r="E276" s="10">
         <f>E275+SUM(H276:BE276)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F276" s="13"/>
       <c r="G276" s="30" t="s">
@@ -21656,7 +21792,7 @@
       <c r="BE276" s="24"/>
     </row>
     <row r="277" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+      <c r="A277" s="35"/>
       <c r="B277" s="6" t="s">
         <v>72</v>
       </c>
@@ -21727,83 +21863,19 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="114">
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A83:A87"/>
@@ -21828,19 +21900,83 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A213:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A193:A197"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3:F3">
